--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="15600" windowHeight="7620" tabRatio="569"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="15600" windowHeight="7620" tabRatio="569" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="模型四 (1)PE副本" sheetId="9" r:id="rId1"/>
@@ -190,7 +190,7 @@
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,7 +601,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -667,6 +667,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -676,7 +679,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -742,6 +745,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4244668.8663569177</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4415397.7453730423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -784,7 +790,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -850,6 +856,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -859,7 +868,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -925,6 +934,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4297670.0194356609</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4356915.6669407403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -967,7 +979,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1033,6 +1045,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1042,7 +1057,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1108,6 +1123,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>53001.153078743257</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-58482.078432301991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1129,11 +1147,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="158067328"/>
-        <c:axId val="232929536"/>
+        <c:axId val="398011776"/>
+        <c:axId val="398013568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="158067328"/>
+        <c:axId val="398011776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1176,14 +1194,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232929536"/>
+        <c:crossAx val="398013568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="232929536"/>
+        <c:axId val="398013568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1234,7 +1252,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158067328"/>
+        <c:crossAx val="398011776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1390,6 +1408,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1424,7 +1443,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1490,6 +1509,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>337749.47190853907</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>467294.34002607979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1504,8 +1526,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="36332672"/>
-        <c:axId val="36330880"/>
+        <c:axId val="630053120"/>
+        <c:axId val="630051584"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1530,7 +1552,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1596,6 +1618,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1605,7 +1630,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1671,6 +1696,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1687,11 +1715,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="36327808"/>
-        <c:axId val="36329344"/>
+        <c:axId val="630006528"/>
+        <c:axId val="630008064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="36327808"/>
+        <c:axId val="630006528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1734,14 +1762,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36329344"/>
+        <c:crossAx val="630008064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="36329344"/>
+        <c:axId val="630008064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1792,12 +1820,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36327808"/>
+        <c:crossAx val="630006528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="36330880"/>
+        <c:axId val="630051584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1834,12 +1862,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36332672"/>
+        <c:crossAx val="630053120"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="36332672"/>
+        <c:axId val="630053120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1848,7 +1876,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36330880"/>
+        <c:crossAx val="630051584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1975,6 +2003,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2009,7 +2038,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2075,6 +2104,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>153462.94180681123</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>170728.87901612459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2089,8 +2121,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="254812928"/>
-        <c:axId val="254318080"/>
+        <c:axId val="398050048"/>
+        <c:axId val="398031488"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2115,7 +2147,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2181,6 +2213,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2190,7 +2225,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2256,6 +2291,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2272,11 +2310,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="254294272"/>
-        <c:axId val="254316544"/>
+        <c:axId val="398027392"/>
+        <c:axId val="398029568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="254294272"/>
+        <c:axId val="398027392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2319,14 +2357,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254316544"/>
+        <c:crossAx val="398029568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="254316544"/>
+        <c:axId val="398029568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2377,12 +2415,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254294272"/>
+        <c:crossAx val="398027392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="254318080"/>
+        <c:axId val="398031488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2419,12 +2457,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254812928"/>
+        <c:crossAx val="398050048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="254812928"/>
+        <c:axId val="398050048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2433,7 +2471,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254318080"/>
+        <c:crossAx val="398031488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2555,6 +2593,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2611,7 +2650,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2677,6 +2716,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2686,7 +2728,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2752,6 +2794,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4403044.6179841887</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4573773.4970003134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2794,7 +2839,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2860,6 +2905,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2869,7 +2917,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2935,6 +2983,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4474257.2299584523</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4528922.1365542552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2977,7 +3028,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3043,6 +3094,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3052,7 +3106,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3118,6 +3172,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>71212.611974263564</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-44851.360446058214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3139,11 +3196,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="271762176"/>
-        <c:axId val="271764096"/>
+        <c:axId val="479372032"/>
+        <c:axId val="479373568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="271762176"/>
+        <c:axId val="479372032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3186,14 +3243,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271764096"/>
+        <c:crossAx val="479373568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="271764096"/>
+        <c:axId val="479373568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3244,7 +3301,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271762176"/>
+        <c:crossAx val="479372032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3258,6 +3315,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3399,6 +3457,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3433,7 +3492,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3499,6 +3558,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>153462.94180681123</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>170728.87901612459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3513,8 +3575,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="33917952"/>
-        <c:axId val="33916416"/>
+        <c:axId val="614998400"/>
+        <c:axId val="614996608"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3539,7 +3601,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3605,6 +3667,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3614,7 +3679,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3680,6 +3745,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3696,11 +3764,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="33913088"/>
-        <c:axId val="33914880"/>
+        <c:axId val="591443072"/>
+        <c:axId val="614995072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="33913088"/>
+        <c:axId val="591443072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3743,14 +3811,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33914880"/>
+        <c:crossAx val="614995072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="33914880"/>
+        <c:axId val="614995072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3801,12 +3869,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33913088"/>
+        <c:crossAx val="591443072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="33916416"/>
+        <c:axId val="614996608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3843,12 +3911,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33917952"/>
+        <c:crossAx val="614998400"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="33917952"/>
+        <c:axId val="614998400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3857,7 +3925,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="33916416"/>
+        <c:crossAx val="614996608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4036,7 +4104,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4102,6 +4170,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4111,7 +4182,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4177,6 +4248,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4536714.2101611272</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4707443.0891772518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4219,7 +4293,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4285,6 +4359,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4294,7 +4371,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4360,6 +4437,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4600903.8633038895</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4652283.5069824615</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4402,7 +4482,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4468,6 +4548,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4477,7 +4560,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4543,6 +4626,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>64189.65314276237</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-55159.582194790244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4564,11 +4650,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="33938816"/>
-        <c:axId val="34145408"/>
+        <c:axId val="616041088"/>
+        <c:axId val="616046976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="33938816"/>
+        <c:axId val="616041088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4611,14 +4697,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34145408"/>
+        <c:crossAx val="616046976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="34145408"/>
+        <c:axId val="616046976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4669,7 +4755,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33938816"/>
+        <c:crossAx val="616041088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4825,6 +4911,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4859,7 +4946,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4925,6 +5012,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>153462.94180681123</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>170728.87901612459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4939,8 +5029,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="34167424"/>
-        <c:axId val="34165888"/>
+        <c:axId val="619344256"/>
+        <c:axId val="619326080"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4965,7 +5055,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5031,6 +5121,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5040,7 +5133,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5106,6 +5199,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5122,11 +5218,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="34162560"/>
-        <c:axId val="34164096"/>
+        <c:axId val="616102144"/>
+        <c:axId val="619324160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="34162560"/>
+        <c:axId val="616102144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5169,14 +5265,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34164096"/>
+        <c:crossAx val="619324160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="34164096"/>
+        <c:axId val="619324160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5227,12 +5323,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34162560"/>
+        <c:crossAx val="616102144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="34165888"/>
+        <c:axId val="619326080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5269,12 +5365,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34167424"/>
+        <c:crossAx val="619344256"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="34167424"/>
+        <c:axId val="619344256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5283,7 +5379,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="34165888"/>
+        <c:crossAx val="619326080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5462,7 +5558,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5528,6 +5624,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5537,7 +5636,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5603,6 +5702,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>38215430.131634384</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39337867.031034373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5645,7 +5747,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5711,6 +5813,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5720,7 +5825,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5786,6 +5891,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>39425879.769634411</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39525594.016525604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5828,7 +5936,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5894,6 +6002,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5903,7 +6014,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5969,6 +6080,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1210449.6380000263</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>187726.98549123108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5990,11 +6104,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="35277440"/>
-        <c:axId val="35283328"/>
+        <c:axId val="619463040"/>
+        <c:axId val="619464960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="35277440"/>
+        <c:axId val="619463040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6037,14 +6151,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35283328"/>
+        <c:crossAx val="619464960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="35283328"/>
+        <c:axId val="619464960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6095,7 +6209,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35277440"/>
+        <c:crossAx val="619463040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6251,6 +6365,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6285,7 +6400,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6351,6 +6466,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>51136028.995315179</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>52630618.767142393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6365,8 +6483,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="35309440"/>
-        <c:axId val="35307904"/>
+        <c:axId val="619570688"/>
+        <c:axId val="619564416"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6391,7 +6509,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6457,6 +6575,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6466,7 +6587,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6532,6 +6653,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6548,11 +6672,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="35304576"/>
-        <c:axId val="35306112"/>
+        <c:axId val="619560960"/>
+        <c:axId val="619562880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="35304576"/>
+        <c:axId val="619560960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6595,14 +6719,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35306112"/>
+        <c:crossAx val="619562880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="35306112"/>
+        <c:axId val="619562880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6653,12 +6777,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35304576"/>
+        <c:crossAx val="619560960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="35307904"/>
+        <c:axId val="619564416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6695,12 +6819,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35309440"/>
+        <c:crossAx val="619570688"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="35309440"/>
+        <c:axId val="619570688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6709,7 +6833,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35307904"/>
+        <c:crossAx val="619564416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6888,7 +7012,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6954,6 +7078,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6963,7 +7090,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7029,6 +7156,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>12903138.028113989</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13370432.36814007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7071,7 +7201,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7137,6 +7267,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7146,7 +7279,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7212,6 +7345,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>13585768.294488385</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13700642.521946413</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7254,7 +7390,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7320,6 +7456,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7329,7 +7468,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7395,6 +7534,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>682630.26637439616</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>330210.15380634367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7416,11 +7558,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="36132736"/>
-        <c:axId val="36134272"/>
+        <c:axId val="620586880"/>
+        <c:axId val="620896640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="36132736"/>
+        <c:axId val="620586880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7463,14 +7605,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36134272"/>
+        <c:crossAx val="620896640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="36134272"/>
+        <c:axId val="620896640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7521,7 +7663,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36132736"/>
+        <c:crossAx val="620586880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8235,14 +8377,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="11" customWidth="1"/>
     <col min="2" max="2" width="8" style="11" customWidth="1"/>
@@ -8274,7 +8416,7 @@
     <col min="32" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
@@ -8313,7 +8455,7 @@
       </c>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="14.1" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -8333,7 +8475,7 @@
       <c r="L2" s="8"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="14.1" customHeight="1">
       <c r="A3" s="12">
         <v>44377</v>
       </c>
@@ -8406,7 +8548,7 @@
         <v>-245217.81577195294</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="14.1" customHeight="1">
       <c r="A4" s="12">
         <v>44407</v>
       </c>
@@ -8485,7 +8627,7 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
     </row>
-    <row r="5" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="14.1" customHeight="1">
       <c r="A5" s="12">
         <v>44439</v>
       </c>
@@ -8561,7 +8703,7 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
     </row>
-    <row r="6" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="14.1" customHeight="1">
       <c r="A6" s="12">
         <v>44469</v>
       </c>
@@ -8609,7 +8751,7 @@
       <c r="AD6" s="20"/>
       <c r="AE6" s="17"/>
     </row>
-    <row r="7" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="14.1" customHeight="1">
       <c r="A7" s="12">
         <v>44498</v>
       </c>
@@ -8652,7 +8794,7 @@
       <c r="AA7" s="9"/>
       <c r="AG7" s="10"/>
     </row>
-    <row r="8" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="14.1" customHeight="1">
       <c r="A8" s="12">
         <v>44530</v>
       </c>
@@ -8691,7 +8833,7 @@
       </c>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="14.1" customHeight="1">
       <c r="A9" s="12">
         <v>44561</v>
       </c>
@@ -8733,7 +8875,7 @@
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
     </row>
-    <row r="10" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="14.1" customHeight="1">
       <c r="A10" s="12">
         <v>44589</v>
       </c>
@@ -8775,7 +8917,7 @@
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
     </row>
-    <row r="11" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="14.1" customHeight="1">
       <c r="A11" s="12">
         <v>44620</v>
       </c>
@@ -8817,7 +8959,7 @@
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
     </row>
-    <row r="12" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="14.1" customHeight="1">
       <c r="A12" s="12">
         <v>44651</v>
       </c>
@@ -8857,7 +8999,7 @@
       <c r="M12" s="9"/>
       <c r="Y12" s="17"/>
     </row>
-    <row r="13" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="14.1" customHeight="1">
       <c r="A13" s="12">
         <v>44680</v>
       </c>
@@ -8897,7 +9039,7 @@
       <c r="M13" s="9"/>
       <c r="AA13" s="10"/>
     </row>
-    <row r="14" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="14.1" customHeight="1">
       <c r="A14" s="12">
         <v>44712</v>
       </c>
@@ -8936,7 +9078,7 @@
       </c>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="14.1" customHeight="1">
       <c r="A15" s="12">
         <v>44742</v>
       </c>
@@ -8975,7 +9117,7 @@
       </c>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="14.1" customHeight="1">
       <c r="A16" s="12">
         <v>44771</v>
       </c>
@@ -9014,7 +9156,7 @@
       </c>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="14.1" customHeight="1">
       <c r="A17" s="12">
         <v>44804</v>
       </c>
@@ -9053,7 +9195,7 @@
       </c>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="14.1" customHeight="1">
       <c r="A18" s="12">
         <v>44834</v>
       </c>
@@ -9092,7 +9234,7 @@
       </c>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="12.75">
       <c r="A19" s="12">
         <v>44865</v>
       </c>
@@ -9130,7 +9272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="12.75">
       <c r="A20" s="12">
         <v>44895</v>
       </c>
@@ -9168,7 +9310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="12.75">
       <c r="A21" s="12">
         <v>44925</v>
       </c>
@@ -9206,7 +9348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="12.75">
       <c r="A22" s="12">
         <v>44957</v>
       </c>
@@ -9244,7 +9386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="12.75">
       <c r="A23" s="12">
         <v>44985</v>
       </c>
@@ -9282,7 +9424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="12.75">
       <c r="A24" s="12">
         <v>45016</v>
       </c>
@@ -9317,6 +9459,44 @@
         <v>53001.153078743257</v>
       </c>
       <c r="L24" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="12.75">
+      <c r="A25" s="12">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="13">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="14">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="14">
+        <v>170728.87901612459</v>
+      </c>
+      <c r="F25" s="15">
+        <v>227335.39539677446</v>
+      </c>
+      <c r="G25" s="15">
+        <v>5801485.6746106083</v>
+      </c>
+      <c r="H25" s="15">
+        <v>4356915.6669407403</v>
+      </c>
+      <c r="I25" s="15">
+        <v>4415397.7453730423</v>
+      </c>
+      <c r="J25" s="15">
+        <v>4356915.6669407403</v>
+      </c>
+      <c r="K25" s="15">
+        <v>-58482.078432301991</v>
+      </c>
+      <c r="L25" s="14">
         <v>0</v>
       </c>
     </row>
@@ -9336,14 +9516,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="11" customWidth="1"/>
     <col min="2" max="2" width="8" style="11" customWidth="1"/>
@@ -9375,7 +9555,7 @@
     <col min="38" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>19</v>
       </c>
@@ -9440,7 +9620,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" ht="14.1" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -9466,7 +9646,7 @@
       <c r="R2" s="22"/>
       <c r="S2" s="9"/>
     </row>
-    <row r="3" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" ht="14.1" customHeight="1">
       <c r="A3" s="12">
         <v>44377</v>
       </c>
@@ -9551,7 +9731,7 @@
         <v>-245217.81577195294</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" ht="14.1" customHeight="1">
       <c r="A4" s="12">
         <v>44407</v>
       </c>
@@ -9642,7 +9822,7 @@
       <c r="AL4" s="9"/>
       <c r="AM4" s="9"/>
     </row>
-    <row r="5" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" ht="14.1" customHeight="1">
       <c r="A5" s="12">
         <v>44439</v>
       </c>
@@ -9730,7 +9910,7 @@
       <c r="AL5" s="9"/>
       <c r="AM5" s="9"/>
     </row>
-    <row r="6" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" ht="14.1" customHeight="1">
       <c r="A6" s="12">
         <v>44469</v>
       </c>
@@ -9790,7 +9970,7 @@
       <c r="AJ6" s="20"/>
       <c r="AK6" s="17"/>
     </row>
-    <row r="7" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" ht="14.1" customHeight="1">
       <c r="A7" s="12">
         <v>44498</v>
       </c>
@@ -9845,7 +10025,7 @@
       <c r="AG7" s="9"/>
       <c r="AM7" s="10"/>
     </row>
-    <row r="8" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" ht="14.1" customHeight="1">
       <c r="A8" s="12">
         <v>44530</v>
       </c>
@@ -9896,7 +10076,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="9"/>
     </row>
-    <row r="9" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" ht="14.1" customHeight="1">
       <c r="A9" s="12">
         <v>44561</v>
       </c>
@@ -9950,7 +10130,7 @@
       <c r="AF9" s="9"/>
       <c r="AG9" s="9"/>
     </row>
-    <row r="10" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" ht="14.1" customHeight="1">
       <c r="A10" s="12">
         <v>44589</v>
       </c>
@@ -10004,7 +10184,7 @@
       <c r="AF10" s="9"/>
       <c r="AG10" s="9"/>
     </row>
-    <row r="11" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" ht="14.1" customHeight="1">
       <c r="A11" s="12">
         <v>44620</v>
       </c>
@@ -10058,7 +10238,7 @@
       <c r="AF11" s="9"/>
       <c r="AG11" s="9"/>
     </row>
-    <row r="12" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" ht="14.1" customHeight="1">
       <c r="A12" s="12">
         <v>44651</v>
       </c>
@@ -10110,7 +10290,7 @@
       <c r="S12" s="9"/>
       <c r="AE12" s="17"/>
     </row>
-    <row r="13" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" ht="14.1" customHeight="1">
       <c r="A13" s="12">
         <v>44680</v>
       </c>
@@ -10162,7 +10342,7 @@
       <c r="S13" s="9"/>
       <c r="AG13" s="10"/>
     </row>
-    <row r="14" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" ht="14.1" customHeight="1">
       <c r="A14" s="12">
         <v>44712</v>
       </c>
@@ -10213,7 +10393,7 @@
       <c r="R14" s="23"/>
       <c r="S14" s="9"/>
     </row>
-    <row r="15" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" ht="14.1" customHeight="1">
       <c r="A15" s="12">
         <v>44742</v>
       </c>
@@ -10264,7 +10444,7 @@
       <c r="R15" s="23"/>
       <c r="S15" s="9"/>
     </row>
-    <row r="16" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" ht="14.1" customHeight="1">
       <c r="A16" s="12">
         <v>44771</v>
       </c>
@@ -10329,7 +10509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" ht="14.1" customHeight="1">
       <c r="A17" s="12">
         <v>44804</v>
       </c>
@@ -10394,7 +10574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" ht="14.1" customHeight="1">
       <c r="A18" s="12">
         <v>44834</v>
       </c>
@@ -10459,7 +10639,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" ht="12.75">
       <c r="A19" s="12">
         <v>44865</v>
       </c>
@@ -10524,7 +10704,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" ht="12.75">
       <c r="A20" s="12">
         <v>44895</v>
       </c>
@@ -10589,7 +10769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" ht="12.75">
       <c r="A21" s="12">
         <v>44925</v>
       </c>
@@ -10654,7 +10834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" ht="12.75">
       <c r="A22" s="12">
         <v>44957</v>
       </c>
@@ -10719,7 +10899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" ht="12.75">
       <c r="A23" s="12">
         <v>44985</v>
       </c>
@@ -10784,7 +10964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" ht="12.75">
       <c r="A24" s="12">
         <v>45016</v>
       </c>
@@ -10846,6 +11026,71 @@
         <v>-13.88569250351642</v>
       </c>
       <c r="U24" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="12.75">
+      <c r="A25" s="12">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="13">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="14">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="14">
+        <v>170728.87901612459</v>
+      </c>
+      <c r="F25" s="15">
+        <v>227335.39539677446</v>
+      </c>
+      <c r="G25" s="15">
+        <v>6030522.2559185578</v>
+      </c>
+      <c r="H25" s="15">
+        <v>4528922.1365542552</v>
+      </c>
+      <c r="I25" s="15">
+        <v>4573773.4970003134</v>
+      </c>
+      <c r="J25" s="15">
+        <v>4528922.1365542552</v>
+      </c>
+      <c r="K25" s="15">
+        <v>-44851.360446058214</v>
+      </c>
+      <c r="L25" s="14">
+        <v>0</v>
+      </c>
+      <c r="M25" s="23">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="N25" s="23">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="O25" s="23">
+        <v>0.75599999570846554</v>
+      </c>
+      <c r="P25" s="23">
+        <v>0.75769047179676241</v>
+      </c>
+      <c r="Q25" s="23">
+        <v>-1.6904760882968661E-3</v>
+      </c>
+      <c r="R25" s="23">
+        <v>3.2738098541895536E-2</v>
+      </c>
+      <c r="S25" s="9">
+        <v>4.9107147812843305E-4</v>
+      </c>
+      <c r="T25" s="9">
+        <v>-3.4424236869540712</v>
+      </c>
+      <c r="U25" s="11">
         <v>1</v>
       </c>
     </row>
@@ -10865,14 +11110,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AG25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="11" customWidth="1"/>
     <col min="2" max="2" width="8" style="11" customWidth="1"/>
@@ -10904,7 +11149,7 @@
     <col min="32" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>19</v>
       </c>
@@ -10948,7 +11193,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="14.1" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -10968,7 +11213,7 @@
       <c r="L2" s="8"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="14.1" customHeight="1">
       <c r="A3" s="12">
         <v>44377</v>
       </c>
@@ -11046,7 +11291,7 @@
         <v>-250495.57337637764</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="14.1" customHeight="1">
       <c r="A4" s="12">
         <v>44407</v>
       </c>
@@ -11130,7 +11375,7 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
     </row>
-    <row r="5" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="14.1" customHeight="1">
       <c r="A5" s="12">
         <v>44439</v>
       </c>
@@ -11211,7 +11456,7 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
     </row>
-    <row r="6" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="14.1" customHeight="1">
       <c r="A6" s="12">
         <v>44469</v>
       </c>
@@ -11264,7 +11509,7 @@
       <c r="AD6" s="20"/>
       <c r="AE6" s="17"/>
     </row>
-    <row r="7" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="14.1" customHeight="1">
       <c r="A7" s="12">
         <v>44498</v>
       </c>
@@ -11312,7 +11557,7 @@
       <c r="AA7" s="9"/>
       <c r="AG7" s="10"/>
     </row>
-    <row r="8" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="14.1" customHeight="1">
       <c r="A8" s="12">
         <v>44530</v>
       </c>
@@ -11356,7 +11601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="14.1" customHeight="1">
       <c r="A9" s="12">
         <v>44561</v>
       </c>
@@ -11403,7 +11648,7 @@
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
     </row>
-    <row r="10" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="14.1" customHeight="1">
       <c r="A10" s="12">
         <v>44589</v>
       </c>
@@ -11450,7 +11695,7 @@
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
     </row>
-    <row r="11" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="14.1" customHeight="1">
       <c r="A11" s="12">
         <v>44620</v>
       </c>
@@ -11497,7 +11742,7 @@
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
     </row>
-    <row r="12" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="14.1" customHeight="1">
       <c r="A12" s="12">
         <v>44651</v>
       </c>
@@ -11542,7 +11787,7 @@
       </c>
       <c r="Y12" s="17"/>
     </row>
-    <row r="13" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="14.1" customHeight="1">
       <c r="A13" s="12">
         <v>44680</v>
       </c>
@@ -11587,7 +11832,7 @@
       </c>
       <c r="AA13" s="10"/>
     </row>
-    <row r="14" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="14.1" customHeight="1">
       <c r="A14" s="12">
         <v>44712</v>
       </c>
@@ -11631,7 +11876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="14.1" customHeight="1">
       <c r="A15" s="12">
         <v>44742</v>
       </c>
@@ -11675,7 +11920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="14.1" customHeight="1">
       <c r="A16" s="12">
         <v>44771</v>
       </c>
@@ -11719,7 +11964,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="14.1" customHeight="1">
       <c r="A17" s="12">
         <v>44804</v>
       </c>
@@ -11763,7 +12008,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="14.1" customHeight="1">
       <c r="A18" s="12">
         <v>44834</v>
       </c>
@@ -11807,7 +12052,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="12.75">
       <c r="A19" s="12">
         <v>44865</v>
       </c>
@@ -11851,7 +12096,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="12.75">
       <c r="A20" s="12">
         <v>44895</v>
       </c>
@@ -11895,7 +12140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="12.75">
       <c r="A21" s="12">
         <v>44925</v>
       </c>
@@ -11939,7 +12184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="12.75">
       <c r="A22" s="12">
         <v>44957</v>
       </c>
@@ -11983,7 +12228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="12.75">
       <c r="A23" s="12">
         <v>44985</v>
       </c>
@@ -12027,7 +12272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="12.75">
       <c r="A24" s="12">
         <v>45016</v>
       </c>
@@ -12068,6 +12313,50 @@
         <v>121.19851098278713</v>
       </c>
       <c r="N24" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="12.75">
+      <c r="A25" s="12">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="13">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="14">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="14">
+        <v>170728.87901612459</v>
+      </c>
+      <c r="F25" s="15">
+        <v>227335.39539677446</v>
+      </c>
+      <c r="G25" s="15">
+        <v>6194785.0688919602</v>
+      </c>
+      <c r="H25" s="15">
+        <v>4652283.5069824615</v>
+      </c>
+      <c r="I25" s="15">
+        <v>4707443.0891772518</v>
+      </c>
+      <c r="J25" s="15">
+        <v>4652283.5069824615</v>
+      </c>
+      <c r="K25" s="15">
+        <v>-55159.582194790244</v>
+      </c>
+      <c r="L25" s="14">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9">
+        <v>-64.205140990854673</v>
+      </c>
+      <c r="N25" s="9">
         <v>1</v>
       </c>
     </row>
@@ -12087,14 +12376,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AG25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="11" customWidth="1"/>
     <col min="2" max="2" width="8" style="11" customWidth="1"/>
@@ -12126,7 +12415,7 @@
     <col min="32" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
@@ -12170,7 +12459,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="14.1" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -12190,7 +12479,7 @@
       <c r="L2" s="8"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="14.1" customHeight="1">
       <c r="A3" s="12">
         <v>44377</v>
       </c>
@@ -12268,7 +12557,7 @@
         <v>-919630.88726893254</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="14.1" customHeight="1">
       <c r="A4" s="12">
         <v>44407</v>
       </c>
@@ -12352,7 +12641,7 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
     </row>
-    <row r="5" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="14.1" customHeight="1">
       <c r="A5" s="12">
         <v>44439</v>
       </c>
@@ -12433,7 +12722,7 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
     </row>
-    <row r="6" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="14.1" customHeight="1">
       <c r="A6" s="12">
         <v>44469</v>
       </c>
@@ -12486,7 +12775,7 @@
       <c r="AD6" s="20"/>
       <c r="AE6" s="17"/>
     </row>
-    <row r="7" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="14.1" customHeight="1">
       <c r="A7" s="12">
         <v>44498</v>
       </c>
@@ -12534,7 +12823,7 @@
       <c r="AA7" s="9"/>
       <c r="AG7" s="10"/>
     </row>
-    <row r="8" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="14.1" customHeight="1">
       <c r="A8" s="12">
         <v>44530</v>
       </c>
@@ -12578,7 +12867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="14.1" customHeight="1">
       <c r="A9" s="12">
         <v>44561</v>
       </c>
@@ -12625,7 +12914,7 @@
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
     </row>
-    <row r="10" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="14.1" customHeight="1">
       <c r="A10" s="12">
         <v>44589</v>
       </c>
@@ -12672,7 +12961,7 @@
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
     </row>
-    <row r="11" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="14.1" customHeight="1">
       <c r="A11" s="12">
         <v>44620</v>
       </c>
@@ -12719,7 +13008,7 @@
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
     </row>
-    <row r="12" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="14.1" customHeight="1">
       <c r="A12" s="12">
         <v>44651</v>
       </c>
@@ -12764,7 +13053,7 @@
       </c>
       <c r="Y12" s="17"/>
     </row>
-    <row r="13" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="14.1" customHeight="1">
       <c r="A13" s="12">
         <v>44680</v>
       </c>
@@ -12809,7 +13098,7 @@
       </c>
       <c r="AA13" s="10"/>
     </row>
-    <row r="14" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="14.1" customHeight="1">
       <c r="A14" s="12">
         <v>44712</v>
       </c>
@@ -12853,7 +13142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="14.1" customHeight="1">
       <c r="A15" s="12">
         <v>44742</v>
       </c>
@@ -12897,7 +13186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="14.1" customHeight="1">
       <c r="A16" s="12">
         <v>44771</v>
       </c>
@@ -12941,7 +13230,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="14.1" customHeight="1">
       <c r="A17" s="12">
         <v>44804</v>
       </c>
@@ -12985,7 +13274,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="14.1" customHeight="1">
       <c r="A18" s="12">
         <v>44834</v>
       </c>
@@ -13029,7 +13318,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="12.75">
       <c r="A19" s="12">
         <v>44865</v>
       </c>
@@ -13073,7 +13362,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="12.75">
       <c r="A20" s="12">
         <v>44895</v>
       </c>
@@ -13117,7 +13406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="12.75">
       <c r="A21" s="12">
         <v>44925</v>
       </c>
@@ -13161,7 +13450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="12.75">
       <c r="A22" s="12">
         <v>44957</v>
       </c>
@@ -13205,7 +13494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="12.75">
       <c r="A23" s="12">
         <v>44985</v>
       </c>
@@ -13249,7 +13538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="12.75">
       <c r="A24" s="12">
         <v>45016</v>
       </c>
@@ -13290,6 +13579,50 @@
         <v>121.19851098278713</v>
       </c>
       <c r="N24" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="12.75">
+      <c r="A25" s="12">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="13">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="14">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="14">
+        <v>1122436.8993999888</v>
+      </c>
+      <c r="F25" s="15">
+        <v>1494589.771827216</v>
+      </c>
+      <c r="G25" s="15">
+        <v>52630618.767142393</v>
+      </c>
+      <c r="H25" s="15">
+        <v>39525594.016525604</v>
+      </c>
+      <c r="I25" s="15">
+        <v>39337867.031034373</v>
+      </c>
+      <c r="J25" s="15">
+        <v>39525594.016525604</v>
+      </c>
+      <c r="K25" s="15">
+        <v>187726.98549123108</v>
+      </c>
+      <c r="L25" s="14">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9">
+        <v>-64.205140990854673</v>
+      </c>
+      <c r="N25" s="9">
         <v>1</v>
       </c>
     </row>
@@ -13309,14 +13642,14 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI24"/>
+  <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="11" customWidth="1"/>
     <col min="2" max="2" width="8" style="11" customWidth="1"/>
@@ -13348,7 +13681,7 @@
     <col min="34" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>19</v>
       </c>
@@ -13398,7 +13731,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="14.1" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -13420,7 +13753,7 @@
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
     </row>
-    <row r="3" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" ht="14.1" customHeight="1">
       <c r="A3" s="12">
         <v>44377</v>
       </c>
@@ -13504,7 +13837,7 @@
         <v>-181466.76336656811</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" ht="14.1" customHeight="1">
       <c r="A4" s="12">
         <v>44407</v>
       </c>
@@ -13594,7 +13927,7 @@
       <c r="AH4" s="9"/>
       <c r="AI4" s="9"/>
     </row>
-    <row r="5" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" ht="14.1" customHeight="1">
       <c r="A5" s="12">
         <v>44439</v>
       </c>
@@ -13681,7 +14014,7 @@
       <c r="AH5" s="9"/>
       <c r="AI5" s="9"/>
     </row>
-    <row r="6" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" ht="14.1" customHeight="1">
       <c r="A6" s="12">
         <v>44469</v>
       </c>
@@ -13740,7 +14073,7 @@
       <c r="AF6" s="20"/>
       <c r="AG6" s="17"/>
     </row>
-    <row r="7" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" ht="14.1" customHeight="1">
       <c r="A7" s="12">
         <v>44498</v>
       </c>
@@ -13794,7 +14127,7 @@
       <c r="AC7" s="9"/>
       <c r="AI7" s="10"/>
     </row>
-    <row r="8" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" ht="14.1" customHeight="1">
       <c r="A8" s="12">
         <v>44530</v>
       </c>
@@ -13844,7 +14177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" ht="14.1" customHeight="1">
       <c r="A9" s="12">
         <v>44561</v>
       </c>
@@ -13897,7 +14230,7 @@
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
     </row>
-    <row r="10" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="14.1" customHeight="1">
       <c r="A10" s="12">
         <v>44589</v>
       </c>
@@ -13950,7 +14283,7 @@
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
     </row>
-    <row r="11" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" ht="14.1" customHeight="1">
       <c r="A11" s="12">
         <v>44620</v>
       </c>
@@ -14003,7 +14336,7 @@
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
     </row>
-    <row r="12" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="14.1" customHeight="1">
       <c r="A12" s="12">
         <v>44651</v>
       </c>
@@ -14054,7 +14387,7 @@
       </c>
       <c r="AA12" s="17"/>
     </row>
-    <row r="13" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" ht="14.1" customHeight="1">
       <c r="A13" s="12">
         <v>44680</v>
       </c>
@@ -14105,7 +14438,7 @@
       </c>
       <c r="AC13" s="10"/>
     </row>
-    <row r="14" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" ht="14.1" customHeight="1">
       <c r="A14" s="12">
         <v>44712</v>
       </c>
@@ -14155,7 +14488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="14.1" customHeight="1">
       <c r="A15" s="12">
         <v>44742</v>
       </c>
@@ -14205,7 +14538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="14.1" customHeight="1">
       <c r="A16" s="12">
         <v>44771</v>
       </c>
@@ -14255,7 +14588,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="14.1" customHeight="1">
       <c r="A17" s="12">
         <v>44804</v>
       </c>
@@ -14305,7 +14638,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="14.1" customHeight="1">
       <c r="A18" s="12">
         <v>44834</v>
       </c>
@@ -14355,7 +14688,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="12.75">
       <c r="A19" s="12">
         <v>44865</v>
       </c>
@@ -14405,7 +14738,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="12.75">
       <c r="A20" s="12">
         <v>44895</v>
       </c>
@@ -14455,7 +14788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="12.75">
       <c r="A21" s="12">
         <v>44925</v>
       </c>
@@ -14505,7 +14838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="12.75">
       <c r="A22" s="12">
         <v>44957</v>
       </c>
@@ -14555,7 +14888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="12.75">
       <c r="A23" s="12">
         <v>44985</v>
       </c>
@@ -14605,7 +14938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="12.75">
       <c r="A24" s="12">
         <v>45016</v>
       </c>
@@ -14652,6 +14985,56 @@
         <v>121.19851098278713</v>
       </c>
       <c r="P24" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="12.75">
+      <c r="A25" s="12">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="13">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="14">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="14">
+        <v>1925900</v>
+      </c>
+      <c r="F25" s="14">
+        <v>4625994.8803013396</v>
+      </c>
+      <c r="G25" s="14">
+        <v>467294.34002607979</v>
+      </c>
+      <c r="H25" s="15">
+        <v>622229.49139419128</v>
+      </c>
+      <c r="I25" s="15">
+        <v>18243199.409880649</v>
+      </c>
+      <c r="J25" s="15">
+        <v>13700642.521946413</v>
+      </c>
+      <c r="K25" s="15">
+        <v>13370432.36814007</v>
+      </c>
+      <c r="L25" s="15">
+        <v>13700642.521946413</v>
+      </c>
+      <c r="M25" s="15">
+        <v>330210.15380634367</v>
+      </c>
+      <c r="N25" s="14">
+        <v>0</v>
+      </c>
+      <c r="O25" s="9">
+        <v>-64.205140990854673</v>
+      </c>
+      <c r="P25" s="9">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="30">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -130,10 +130,6 @@
   </si>
   <si>
     <t>回收资金</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -344,7 +340,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -406,6 +402,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -601,7 +600,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -670,6 +669,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -679,7 +684,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -748,6 +753,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>4415397.7453730423</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4701076.0336823575</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4913912.8232615339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -790,7 +801,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -859,6 +870,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -868,7 +885,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -937,6 +954,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>4356915.6669407403</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4462748.14001079</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4892523.8597752657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -979,7 +1002,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1048,6 +1071,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1057,7 +1086,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1126,6 +1155,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-58482.078432301991</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-238327.89367156755</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-21388.963486268185</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1147,11 +1182,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="398011776"/>
-        <c:axId val="398013568"/>
+        <c:axId val="491934464"/>
+        <c:axId val="491936384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="398011776"/>
+        <c:axId val="491934464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1194,14 +1229,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398013568"/>
+        <c:crossAx val="491936384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="398013568"/>
+        <c:axId val="491936384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1252,7 +1287,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398011776"/>
+        <c:crossAx val="491934464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1443,7 +1478,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1512,6 +1547,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>467294.34002607979</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1041876.0484477298</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>807489.53701901867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1526,8 +1567,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="630053120"/>
-        <c:axId val="630051584"/>
+        <c:axId val="619785216"/>
+        <c:axId val="619783680"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1552,7 +1593,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1621,6 +1662,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1630,7 +1677,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1699,6 +1746,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1715,11 +1768,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="630006528"/>
-        <c:axId val="630008064"/>
+        <c:axId val="619730048"/>
+        <c:axId val="619782144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="630006528"/>
+        <c:axId val="619730048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1762,14 +1815,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="630008064"/>
+        <c:crossAx val="619782144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="630008064"/>
+        <c:axId val="619782144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1820,12 +1873,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="630006528"/>
+        <c:crossAx val="619730048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="630051584"/>
+        <c:axId val="619783680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1862,12 +1915,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="630053120"/>
+        <c:crossAx val="619785216"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="630053120"/>
+        <c:axId val="619785216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1876,7 +1929,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="630051584"/>
+        <c:crossAx val="619783680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2038,7 +2091,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2107,6 +2160,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>170728.87901612459</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>285678.28830931569</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>212836.78957917634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2121,8 +2180,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="398050048"/>
-        <c:axId val="398031488"/>
+        <c:axId val="491977344"/>
+        <c:axId val="491975808"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2147,7 +2206,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2216,6 +2275,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2225,7 +2290,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2294,6 +2359,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2310,11 +2381,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="398027392"/>
-        <c:axId val="398029568"/>
+        <c:axId val="491971328"/>
+        <c:axId val="491973248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="398027392"/>
+        <c:axId val="491971328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2357,14 +2428,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398029568"/>
+        <c:crossAx val="491973248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="398029568"/>
+        <c:axId val="491973248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2415,12 +2486,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398027392"/>
+        <c:crossAx val="491971328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="398031488"/>
+        <c:axId val="491975808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2457,12 +2528,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398050048"/>
+        <c:crossAx val="491977344"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="398050048"/>
+        <c:axId val="491977344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2471,7 +2542,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="398031488"/>
+        <c:crossAx val="491975808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2650,7 +2721,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2719,6 +2790,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2728,7 +2805,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2797,6 +2874,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>4573773.4970003134</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4859451.7853096295</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5072288.5748888059</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2839,7 +2922,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2908,6 +2991,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2917,7 +3006,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2986,6 +3075,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>4528922.1365542552</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4627654.4851053022</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5065446.4775706353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3028,7 +3123,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3097,6 +3192,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3106,7 +3207,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3175,6 +3276,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-44851.360446058214</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-231797.30020432733</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-6842.0973181705922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3196,11 +3303,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="479372032"/>
-        <c:axId val="479373568"/>
+        <c:axId val="571585280"/>
+        <c:axId val="599290624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="479372032"/>
+        <c:axId val="571585280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3243,14 +3350,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479373568"/>
+        <c:crossAx val="599290624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="479373568"/>
+        <c:axId val="599290624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3301,7 +3408,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479372032"/>
+        <c:crossAx val="571585280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3492,7 +3599,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3561,6 +3668,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>170728.87901612459</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>285678.28830931569</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>212836.78957917634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3575,8 +3688,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="614998400"/>
-        <c:axId val="614996608"/>
+        <c:axId val="616843904"/>
+        <c:axId val="616841984"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3601,7 +3714,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3670,6 +3783,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3679,7 +3798,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3748,6 +3867,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3764,11 +3889,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="591443072"/>
-        <c:axId val="614995072"/>
+        <c:axId val="616764928"/>
+        <c:axId val="616766464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="591443072"/>
+        <c:axId val="616764928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3811,14 +3936,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614995072"/>
+        <c:crossAx val="616766464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="614995072"/>
+        <c:axId val="616766464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3869,12 +3994,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591443072"/>
+        <c:crossAx val="616764928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="614996608"/>
+        <c:axId val="616841984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3911,12 +4036,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614998400"/>
+        <c:crossAx val="616843904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="614998400"/>
+        <c:axId val="616843904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3925,7 +4050,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="614996608"/>
+        <c:crossAx val="616841984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4104,7 +4229,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4173,6 +4298,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4182,7 +4313,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4251,6 +4382,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>4707443.0891772518</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5050257.0351484306</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5263093.824727607</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4293,7 +4430,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4362,6 +4499,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4371,7 +4514,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4440,6 +4583,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>4652283.5069824615</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4803059.3728076126</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5249377.9832880329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4482,7 +4631,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4551,6 +4700,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4560,7 +4715,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4629,6 +4784,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-55159.582194790244</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-247197.66234081797</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-13715.841439574026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4650,11 +4811,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="616041088"/>
-        <c:axId val="616046976"/>
+        <c:axId val="616954880"/>
+        <c:axId val="616965248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="616041088"/>
+        <c:axId val="616954880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4697,14 +4858,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616046976"/>
+        <c:crossAx val="616965248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="616046976"/>
+        <c:axId val="616965248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4755,7 +4916,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616041088"/>
+        <c:crossAx val="616954880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4946,7 +5107,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5015,6 +5176,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>170728.87901612459</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>342813.94597117882</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>212836.78957917634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5029,8 +5196,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="619344256"/>
-        <c:axId val="619326080"/>
+        <c:axId val="617095936"/>
+        <c:axId val="617061376"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5055,7 +5222,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5124,6 +5291,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5133,7 +5306,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5202,6 +5375,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5218,11 +5397,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="616102144"/>
-        <c:axId val="619324160"/>
+        <c:axId val="617054208"/>
+        <c:axId val="617056128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="616102144"/>
+        <c:axId val="617054208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5265,14 +5444,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619324160"/>
+        <c:crossAx val="617056128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="619324160"/>
+        <c:axId val="617056128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5323,12 +5502,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616102144"/>
+        <c:crossAx val="617054208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="619326080"/>
+        <c:axId val="617061376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5365,12 +5544,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619344256"/>
+        <c:crossAx val="617095936"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="619344256"/>
+        <c:axId val="617095936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5379,7 +5558,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="619326080"/>
+        <c:crossAx val="617061376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5558,8 +5737,8 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
+                <c:ptCount val="25"/>
+                <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -5627,6 +5806,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5636,7 +5821,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5705,6 +5890,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>39337867.031034373</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42253269.725288838</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43815595.153418921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5747,8 +5938,8 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
+                <c:ptCount val="25"/>
+                <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -5816,6 +6007,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5825,7 +6022,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5894,6 +6091,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>39525594.016525604</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40809449.712371074</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44355565.864131629</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5936,8 +6139,8 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
+                <c:ptCount val="25"/>
+                <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -6005,6 +6208,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6014,7 +6223,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6083,6 +6292,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>187726.98549123108</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1443820.0129177645</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>539970.71071270853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6104,17 +6319,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="619463040"/>
-        <c:axId val="619464960"/>
+        <c:axId val="617188352"/>
+        <c:axId val="617198336"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="619463040"/>
+      <c:catAx>
+        <c:axId val="617188352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -6151,14 +6366,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619464960"/>
+        <c:crossAx val="617198336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="619464960"/>
+        <c:axId val="617198336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6209,7 +6425,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619463040"/>
+        <c:crossAx val="617188352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6400,7 +6616,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6469,6 +6685,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>52630618.767142393</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56679789.014929585</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>58749094.230820052</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6483,8 +6705,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="619570688"/>
-        <c:axId val="619564416"/>
+        <c:axId val="617765888"/>
+        <c:axId val="617764352"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6509,8 +6731,8 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="0">
+                <c:ptCount val="25"/>
+                <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -6578,6 +6800,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6587,7 +6815,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6656,6 +6884,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6672,17 +6906,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="619560960"/>
-        <c:axId val="619562880"/>
+        <c:axId val="617662336"/>
+        <c:axId val="617663872"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="619560960"/>
+      <c:catAx>
+        <c:axId val="617662336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6719,14 +6953,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619562880"/>
+        <c:crossAx val="617663872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="619562880"/>
+        <c:axId val="617663872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6777,12 +7012,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619560960"/>
+        <c:crossAx val="617662336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="619564416"/>
+        <c:axId val="617764352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6819,12 +7054,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619570688"/>
+        <c:crossAx val="617765888"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="619570688"/>
+        <c:axId val="617765888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6833,7 +7068,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="619564416"/>
+        <c:crossAx val="617764352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7012,7 +7247,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7081,6 +7316,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7090,7 +7331,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7159,6 +7400,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>13370432.36814007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14412308.4165878</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15219797.953606818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7201,7 +7448,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7270,6 +7517,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7279,7 +7532,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7348,6 +7601,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>13700642.521946413</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14176980.14550392</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15673627.754978357</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7390,7 +7649,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7459,6 +7718,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7468,7 +7733,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7537,6 +7802,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>330210.15380634367</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-235328.27108388022</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>453829.80137153901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7558,11 +7829,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="620586880"/>
-        <c:axId val="620896640"/>
+        <c:axId val="619659648"/>
+        <c:axId val="619661184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="620586880"/>
+        <c:axId val="619659648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7605,14 +7876,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="620896640"/>
+        <c:crossAx val="619661184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="620896640"/>
+        <c:axId val="619661184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7663,7 +7934,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="620586880"/>
+        <c:crossAx val="619659648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8377,7 +8648,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG25"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8514,28 +8785,28 @@
       </c>
       <c r="M3" s="9"/>
       <c r="P3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="R3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="S3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -9497,6 +9768,82 @@
         <v>-58482.078432301991</v>
       </c>
       <c r="L25" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="12.75">
+      <c r="A26" s="12">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="13">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="14">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="14">
+        <v>285678.28830931569</v>
+      </c>
+      <c r="F26" s="15">
+        <v>396775.38466316788</v>
+      </c>
+      <c r="G26" s="15">
+        <v>6198261.0592737757</v>
+      </c>
+      <c r="H26" s="15">
+        <v>4462748.14001079</v>
+      </c>
+      <c r="I26" s="15">
+        <v>4701076.0336823575</v>
+      </c>
+      <c r="J26" s="15">
+        <v>4462748.14001079</v>
+      </c>
+      <c r="K26" s="15">
+        <v>-238327.89367156755</v>
+      </c>
+      <c r="L26" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="12.75">
+      <c r="A27" s="12">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="13">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="14">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="14">
+        <v>212836.78957917634</v>
+      </c>
+      <c r="F27" s="15">
+        <v>281903.03433562221</v>
+      </c>
+      <c r="G27" s="15">
+        <v>6480164.0936093982</v>
+      </c>
+      <c r="H27" s="15">
+        <v>4892523.8597752657</v>
+      </c>
+      <c r="I27" s="15">
+        <v>4913912.8232615339</v>
+      </c>
+      <c r="J27" s="15">
+        <v>4892523.8597752657</v>
+      </c>
+      <c r="K27" s="15">
+        <v>-21388.963486268185</v>
+      </c>
+      <c r="L27" s="14">
         <v>0</v>
       </c>
     </row>
@@ -9516,7 +9863,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9557,7 +9904,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -9593,10 +9940,10 @@
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>4</v>
@@ -9617,7 +9964,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.1" customHeight="1">
@@ -9697,28 +10044,28 @@
       <c r="R3" s="23"/>
       <c r="S3" s="9"/>
       <c r="V3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="16" t="s">
+      <c r="X3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="16" t="s">
+      <c r="Y3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="16" t="s">
+      <c r="Z3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="Z3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="AA3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="AB3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="AC3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="AE3" s="24">
         <v>44561</v>
@@ -11091,6 +11438,136 @@
         <v>-3.4424236869540712</v>
       </c>
       <c r="U25" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="12.75">
+      <c r="A26" s="12">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="13">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="14">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="14">
+        <v>285678.28830931569</v>
+      </c>
+      <c r="F26" s="15">
+        <v>396775.38466316788</v>
+      </c>
+      <c r="G26" s="15">
+        <v>6427297.6405817252</v>
+      </c>
+      <c r="H26" s="15">
+        <v>4627654.4851053022</v>
+      </c>
+      <c r="I26" s="15">
+        <v>4859451.7853096295</v>
+      </c>
+      <c r="J26" s="15">
+        <v>4627654.4851053022</v>
+      </c>
+      <c r="K26" s="15">
+        <v>-231797.30020432733</v>
+      </c>
+      <c r="L26" s="14">
+        <v>0</v>
+      </c>
+      <c r="M26" s="23">
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="N26" s="23">
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="O26" s="23">
+        <v>0.72733332713445031</v>
+      </c>
+      <c r="P26" s="23">
+        <v>0.75183332913262502</v>
+      </c>
+      <c r="Q26" s="23">
+        <v>-2.4500001998174703E-2</v>
+      </c>
+      <c r="R26" s="23">
+        <v>3.097619424547466E-2</v>
+      </c>
+      <c r="S26" s="9">
+        <v>4.646429136821199E-4</v>
+      </c>
+      <c r="T26" s="9">
+        <v>-52.728668137907079</v>
+      </c>
+      <c r="U26" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="12.75">
+      <c r="A27" s="12">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="13">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="14">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="14">
+        <v>212836.78957917634</v>
+      </c>
+      <c r="F27" s="15">
+        <v>281903.03433562221</v>
+      </c>
+      <c r="G27" s="15">
+        <v>6709200.6749173477</v>
+      </c>
+      <c r="H27" s="15">
+        <v>5065446.4775706353</v>
+      </c>
+      <c r="I27" s="15">
+        <v>5072288.5748888059</v>
+      </c>
+      <c r="J27" s="15">
+        <v>5065446.4775706353</v>
+      </c>
+      <c r="K27" s="15">
+        <v>-6842.0973181705922</v>
+      </c>
+      <c r="L27" s="14">
+        <v>0</v>
+      </c>
+      <c r="M27" s="23">
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="N27" s="23">
+        <v>0.71100002527236938</v>
+      </c>
+      <c r="O27" s="23">
+        <v>0.74666666984558105</v>
+      </c>
+      <c r="P27" s="23">
+        <v>0.75338094954263612</v>
+      </c>
+      <c r="Q27" s="23">
+        <v>-6.71427969705507E-3</v>
+      </c>
+      <c r="R27" s="23">
+        <v>2.9428573835463736E-2</v>
+      </c>
+      <c r="S27" s="9">
+        <v>4.4142860753195601E-4</v>
+      </c>
+      <c r="T27" s="9">
+        <v>-15.21034111177085</v>
+      </c>
+      <c r="U27" s="11">
         <v>1</v>
       </c>
     </row>
@@ -11110,7 +11587,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG25"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11151,7 +11628,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -11190,7 +11667,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -11257,28 +11734,28 @@
         <v>1</v>
       </c>
       <c r="P3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="R3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="S3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -12357,6 +12834,94 @@
         <v>-64.205140990854673</v>
       </c>
       <c r="N25" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="12.75">
+      <c r="A26" s="12">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="13">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="14">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="14">
+        <v>342813.94597117882</v>
+      </c>
+      <c r="F26" s="15">
+        <v>476130.46159580146</v>
+      </c>
+      <c r="G26" s="15">
+        <v>6670915.5304877618</v>
+      </c>
+      <c r="H26" s="15">
+        <v>4803059.3728076126</v>
+      </c>
+      <c r="I26" s="15">
+        <v>5050257.0351484306</v>
+      </c>
+      <c r="J26" s="15">
+        <v>4803059.3728076126</v>
+      </c>
+      <c r="K26" s="15">
+        <v>-247197.66234081797</v>
+      </c>
+      <c r="L26" s="14">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9">
+        <v>-122.69771180703479</v>
+      </c>
+      <c r="N26" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="12.75">
+      <c r="A27" s="12">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="13">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="14">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="14">
+        <v>212836.78957917634</v>
+      </c>
+      <c r="F27" s="15">
+        <v>281903.03433562221</v>
+      </c>
+      <c r="G27" s="15">
+        <v>6952818.5648233844</v>
+      </c>
+      <c r="H27" s="15">
+        <v>5249377.9832880329</v>
+      </c>
+      <c r="I27" s="15">
+        <v>5263093.824727607</v>
+      </c>
+      <c r="J27" s="15">
+        <v>5249377.9832880329</v>
+      </c>
+      <c r="K27" s="15">
+        <v>-13715.841439574026</v>
+      </c>
+      <c r="L27" s="14">
+        <v>0</v>
+      </c>
+      <c r="M27" s="9">
+        <v>24.912007435828137</v>
+      </c>
+      <c r="N27" s="9">
         <v>1</v>
       </c>
     </row>
@@ -12376,7 +12941,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG25"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12456,7 +13021,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -12480,7 +13045,7 @@
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:33" ht="14.1" customHeight="1">
-      <c r="A3" s="12">
+      <c r="A3" s="31">
         <v>44377</v>
       </c>
       <c r="B3" s="13">
@@ -12523,28 +13088,28 @@
         <v>1</v>
       </c>
       <c r="P3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="R3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="S3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -13623,6 +14188,94 @@
         <v>-64.205140990854673</v>
       </c>
       <c r="N25" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="12.75">
+      <c r="A26" s="12">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="13">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="14">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="14">
+        <v>2915402.6942544663</v>
+      </c>
+      <c r="F26" s="15">
+        <v>4049170.2477871892</v>
+      </c>
+      <c r="G26" s="15">
+        <v>56679789.014929585</v>
+      </c>
+      <c r="H26" s="15">
+        <v>40809449.712371074</v>
+      </c>
+      <c r="I26" s="15">
+        <v>42253269.725288838</v>
+      </c>
+      <c r="J26" s="15">
+        <v>40809449.712371074</v>
+      </c>
+      <c r="K26" s="15">
+        <v>-1443820.0129177645</v>
+      </c>
+      <c r="L26" s="14">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9">
+        <v>-122.69771180703479</v>
+      </c>
+      <c r="N26" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="12.75">
+      <c r="A27" s="12">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="13">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="14">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="14">
+        <v>1562325.4281300842</v>
+      </c>
+      <c r="F27" s="15">
+        <v>2069305.2158904641</v>
+      </c>
+      <c r="G27" s="15">
+        <v>58749094.230820052</v>
+      </c>
+      <c r="H27" s="15">
+        <v>44355565.864131629</v>
+      </c>
+      <c r="I27" s="15">
+        <v>43815595.153418921</v>
+      </c>
+      <c r="J27" s="15">
+        <v>44355565.864131629</v>
+      </c>
+      <c r="K27" s="15">
+        <v>539970.71071270853</v>
+      </c>
+      <c r="L27" s="14">
+        <v>0</v>
+      </c>
+      <c r="M27" s="9">
+        <v>24.912007435828137</v>
+      </c>
+      <c r="N27" s="9">
         <v>1</v>
       </c>
     </row>
@@ -13642,7 +14295,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI25"/>
+  <dimension ref="A1:AI27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13683,7 +14336,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -13695,10 +14348,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -13728,7 +14381,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.1" customHeight="1">
@@ -13803,28 +14456,28 @@
         <v>1</v>
       </c>
       <c r="R3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="U3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="V3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="V3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="W3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="X3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="Y3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="AA3" s="24">
         <v>44561</v>
@@ -15035,6 +15688,106 @@
         <v>-64.205140990854673</v>
       </c>
       <c r="P25" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="12.75">
+      <c r="A26" s="12">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="13">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="14">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="14">
+        <v>1602700</v>
+      </c>
+      <c r="F26" s="14">
+        <v>4484713.805488782</v>
+      </c>
+      <c r="G26" s="14">
+        <v>1041876.0484477298</v>
+      </c>
+      <c r="H26" s="15">
+        <v>1447050.0097879125</v>
+      </c>
+      <c r="I26" s="15">
+        <v>19690249.419668563</v>
+      </c>
+      <c r="J26" s="15">
+        <v>14176980.14550392</v>
+      </c>
+      <c r="K26" s="15">
+        <v>14412308.4165878</v>
+      </c>
+      <c r="L26" s="15">
+        <v>14176980.14550392</v>
+      </c>
+      <c r="M26" s="15">
+        <v>-235328.27108388022</v>
+      </c>
+      <c r="N26" s="14">
+        <v>0</v>
+      </c>
+      <c r="O26" s="9">
+        <v>-122.69771180703479</v>
+      </c>
+      <c r="P26" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="12.75">
+      <c r="A27" s="12">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="13">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="14">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="14">
+        <v>2280700</v>
+      </c>
+      <c r="F27" s="14">
+        <v>4412683.3111552252</v>
+      </c>
+      <c r="G27" s="14">
+        <v>807489.53701901867</v>
+      </c>
+      <c r="H27" s="15">
+        <v>1069522.5723429136</v>
+      </c>
+      <c r="I27" s="15">
+        <v>20759771.992011476</v>
+      </c>
+      <c r="J27" s="15">
+        <v>15673627.754978357</v>
+      </c>
+      <c r="K27" s="15">
+        <v>15219797.953606818</v>
+      </c>
+      <c r="L27" s="15">
+        <v>15673627.754978357</v>
+      </c>
+      <c r="M27" s="15">
+        <v>453829.80137153901</v>
+      </c>
+      <c r="N27" s="14">
+        <v>0</v>
+      </c>
+      <c r="O27" s="9">
+        <v>24.912007435828137</v>
+      </c>
+      <c r="P27" s="9">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="32">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -157,6 +157,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>最高价</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -167,6 +171,10 @@
   <si>
     <t>标志</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>成交量</t>
@@ -600,7 +608,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -675,6 +683,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -684,7 +695,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -759,6 +770,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>4913912.8232615339</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5099420.2574212886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -801,7 +815,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -876,6 +890,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -885,7 +902,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -960,6 +977,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>4892523.8597752657</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5116912.1641673045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1002,7 +1022,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1077,6 +1097,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1086,7 +1109,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1161,6 +1184,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-21388.963486268185</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17491.906746015884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1182,11 +1208,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="491934464"/>
-        <c:axId val="491936384"/>
+        <c:axId val="396423936"/>
+        <c:axId val="531658624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="491934464"/>
+        <c:axId val="396423936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1229,14 +1255,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491936384"/>
+        <c:crossAx val="531658624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="491936384"/>
+        <c:axId val="531658624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1287,7 +1313,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491934464"/>
+        <c:crossAx val="396423936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1478,7 +1504,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1553,6 +1579,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>807489.53701901867</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>620567.12226842251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1567,8 +1596,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="619785216"/>
-        <c:axId val="619783680"/>
+        <c:axId val="614018048"/>
+        <c:axId val="614016512"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1593,7 +1622,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1668,6 +1697,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1677,7 +1709,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1752,6 +1784,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1768,11 +1803,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="619730048"/>
-        <c:axId val="619782144"/>
+        <c:axId val="613894016"/>
+        <c:axId val="613895552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="619730048"/>
+        <c:axId val="613894016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1815,14 +1850,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619782144"/>
+        <c:crossAx val="613895552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="619782144"/>
+        <c:axId val="613895552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1873,12 +1908,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619730048"/>
+        <c:crossAx val="613894016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="619783680"/>
+        <c:axId val="614016512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1915,12 +1950,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619785216"/>
+        <c:crossAx val="614018048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="619785216"/>
+        <c:axId val="614018048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1929,7 +1964,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="619783680"/>
+        <c:crossAx val="614016512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2091,7 +2126,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2166,6 +2201,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>212836.78957917634</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>185507.43415975483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2180,8 +2218,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="491977344"/>
-        <c:axId val="491975808"/>
+        <c:axId val="581279104"/>
+        <c:axId val="581276032"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2206,7 +2244,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2281,6 +2319,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2290,7 +2331,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2365,6 +2406,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2381,11 +2425,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="491971328"/>
-        <c:axId val="491973248"/>
+        <c:axId val="581169920"/>
+        <c:axId val="581171840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="491971328"/>
+        <c:axId val="581169920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2428,14 +2472,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491973248"/>
+        <c:crossAx val="581171840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="491973248"/>
+        <c:axId val="581171840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2486,12 +2530,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491971328"/>
+        <c:crossAx val="581169920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="491975808"/>
+        <c:axId val="581276032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2528,12 +2572,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491977344"/>
+        <c:crossAx val="581279104"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="491977344"/>
+        <c:axId val="581279104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2542,7 +2586,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="491975808"/>
+        <c:crossAx val="581276032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2721,7 +2765,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2796,6 +2840,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2805,7 +2852,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2880,6 +2927,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>5072288.5748888059</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5257796.0090485606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2922,7 +2972,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2997,6 +3047,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3006,7 +3059,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3081,6 +3134,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>5065446.4775706353</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5291208.9974096352</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3123,7 +3179,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3198,6 +3254,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3207,7 +3266,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3282,6 +3341,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-6842.0973181705922</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33412.988361074589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3303,11 +3365,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="571585280"/>
-        <c:axId val="599290624"/>
+        <c:axId val="584923392"/>
+        <c:axId val="588272000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="571585280"/>
+        <c:axId val="584923392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3350,14 +3412,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="599290624"/>
+        <c:crossAx val="588272000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="599290624"/>
+        <c:axId val="588272000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3408,7 +3470,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="571585280"/>
+        <c:crossAx val="584923392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3599,7 +3661,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3674,6 +3736,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>212836.78957917634</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>185507.43415975483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3688,8 +3753,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="616843904"/>
-        <c:axId val="616841984"/>
+        <c:axId val="589108352"/>
+        <c:axId val="589049216"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3714,7 +3779,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3789,6 +3854,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3798,7 +3866,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3873,6 +3941,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3889,11 +3960,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="616764928"/>
-        <c:axId val="616766464"/>
+        <c:axId val="589046144"/>
+        <c:axId val="589047680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="616764928"/>
+        <c:axId val="589046144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3936,14 +4007,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616766464"/>
+        <c:crossAx val="589047680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="616766464"/>
+        <c:axId val="589047680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3994,12 +4065,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616764928"/>
+        <c:crossAx val="589046144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="616841984"/>
+        <c:axId val="589049216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4036,12 +4107,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616843904"/>
+        <c:crossAx val="589108352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="616843904"/>
+        <c:axId val="589108352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4050,7 +4121,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="616841984"/>
+        <c:crossAx val="589049216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4229,7 +4300,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4304,6 +4375,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4313,7 +4387,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4388,6 +4462,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>5263093.824727607</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5448601.2588873617</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4430,7 +4507,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4505,6 +4582,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4514,7 +4594,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4589,6 +4669,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>5249377.9832880329</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5476602.2061683256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4631,7 +4714,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4706,6 +4789,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4715,7 +4801,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4790,6 +4876,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-13715.841439574026</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28000.947280963883</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4811,11 +4900,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="616954880"/>
-        <c:axId val="616965248"/>
+        <c:axId val="596720640"/>
+        <c:axId val="596751104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="616954880"/>
+        <c:axId val="596720640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4858,14 +4947,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616965248"/>
+        <c:crossAx val="596751104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="616965248"/>
+        <c:axId val="596751104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4916,7 +5005,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616954880"/>
+        <c:crossAx val="596720640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5107,7 +5196,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5182,6 +5271,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>212836.78957917634</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>185507.43415975483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5196,8 +5288,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="617095936"/>
-        <c:axId val="617061376"/>
+        <c:axId val="605844608"/>
+        <c:axId val="597346176"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5222,7 +5314,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5297,6 +5389,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5306,7 +5401,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5381,6 +5476,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5397,11 +5495,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617054208"/>
-        <c:axId val="617056128"/>
+        <c:axId val="597300736"/>
+        <c:axId val="597302272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617054208"/>
+        <c:axId val="597300736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5444,14 +5542,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617056128"/>
+        <c:crossAx val="597302272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617056128"/>
+        <c:axId val="597302272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5502,12 +5600,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617054208"/>
+        <c:crossAx val="597300736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617061376"/>
+        <c:axId val="597346176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5544,12 +5642,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617095936"/>
+        <c:crossAx val="605844608"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="617095936"/>
+        <c:axId val="605844608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5558,7 +5656,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617061376"/>
+        <c:crossAx val="597346176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5737,7 +5835,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5812,6 +5910,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5821,7 +5922,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5896,6 +5997,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>43815595.153418921</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45086881.638241291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5938,7 +6042,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6013,6 +6117,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6022,7 +6129,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6097,6 +6204,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44355565.864131629</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45979345.877830125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6139,7 +6249,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6214,6 +6324,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6223,7 +6336,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6298,6 +6411,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>539970.71071270853</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>892464.23958883435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6319,11 +6435,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617188352"/>
-        <c:axId val="617198336"/>
+        <c:axId val="607043584"/>
+        <c:axId val="607045888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="617188352"/>
+        <c:axId val="607043584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6366,7 +6482,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617198336"/>
+        <c:crossAx val="607045888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6374,7 +6490,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="617198336"/>
+        <c:axId val="607045888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6425,7 +6541,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617188352"/>
+        <c:crossAx val="607043584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6616,7 +6732,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6691,6 +6807,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>58749094.230820052</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>60419641.566249207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6705,8 +6824,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="617765888"/>
-        <c:axId val="617764352"/>
+        <c:axId val="609884800"/>
+        <c:axId val="609883264"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6731,7 +6850,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6806,6 +6925,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6815,7 +6937,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6890,6 +7012,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6906,11 +7031,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617662336"/>
-        <c:axId val="617663872"/>
+        <c:axId val="609458048"/>
+        <c:axId val="609459584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="617662336"/>
+        <c:axId val="609458048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6953,7 +7078,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617663872"/>
+        <c:crossAx val="609459584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6961,7 +7086,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="617663872"/>
+        <c:axId val="609459584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7012,12 +7137,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617662336"/>
+        <c:crossAx val="609458048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617764352"/>
+        <c:axId val="609883264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7054,12 +7179,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617765888"/>
+        <c:crossAx val="609884800"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="617765888"/>
+        <c:axId val="609884800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7068,7 +7193,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617764352"/>
+        <c:crossAx val="609883264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7247,7 +7372,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7322,6 +7447,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7331,7 +7459,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7406,6 +7534,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>15219797.953606818</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15840365.075875241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7448,7 +7579,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7523,6 +7654,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7532,7 +7666,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7607,6 +7741,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>15673627.754978357</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16418753.142934715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7649,7 +7786,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7724,6 +7861,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7733,7 +7873,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7808,6 +7948,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>453829.80137153901</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>578388.06705947407</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7829,11 +7972,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="619659648"/>
-        <c:axId val="619661184"/>
+        <c:axId val="613663488"/>
+        <c:axId val="613665408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="619659648"/>
+        <c:axId val="613663488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7876,14 +8019,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619661184"/>
+        <c:crossAx val="613665408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="619661184"/>
+        <c:axId val="613665408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7934,7 +8077,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619659648"/>
+        <c:crossAx val="613663488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8648,7 +8791,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9847,6 +9990,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:13" ht="12.75">
+      <c r="A28" s="12">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="13">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="13">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="14">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="14">
+        <v>185507.43415975483</v>
+      </c>
+      <c r="F28" s="15">
+        <v>243767.98899201537</v>
+      </c>
+      <c r="G28" s="15">
+        <v>6723932.0826014131</v>
+      </c>
+      <c r="H28" s="15">
+        <v>5116912.1641673045</v>
+      </c>
+      <c r="I28" s="15">
+        <v>5099420.2574212886</v>
+      </c>
+      <c r="J28" s="15">
+        <v>5116912.1641673045</v>
+      </c>
+      <c r="K28" s="15">
+        <v>17491.906746015884</v>
+      </c>
+      <c r="L28" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -9863,7 +10044,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AM28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9904,7 +10085,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -9940,10 +10121,10 @@
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>4</v>
@@ -9964,7 +10145,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.1" customHeight="1">
@@ -11568,6 +11749,71 @@
         <v>-15.21034111177085</v>
       </c>
       <c r="U27" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="12.75">
+      <c r="A28" s="12">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="13">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="13">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="14">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="14">
+        <v>185507.43415975483</v>
+      </c>
+      <c r="F28" s="15">
+        <v>243767.98899201537</v>
+      </c>
+      <c r="G28" s="15">
+        <v>6952968.6639093626</v>
+      </c>
+      <c r="H28" s="15">
+        <v>5291208.9974096352</v>
+      </c>
+      <c r="I28" s="15">
+        <v>5257796.0090485606</v>
+      </c>
+      <c r="J28" s="15">
+        <v>5291208.9974096352</v>
+      </c>
+      <c r="K28" s="15">
+        <v>33412.988361074589</v>
+      </c>
+      <c r="L28" s="14">
+        <v>0</v>
+      </c>
+      <c r="M28" s="23">
+        <v>0.77100002765655518</v>
+      </c>
+      <c r="N28" s="23">
+        <v>0.73400002717971802</v>
+      </c>
+      <c r="O28" s="23">
+        <v>0.75533334414164222</v>
+      </c>
+      <c r="P28" s="23">
+        <v>0.75549999826295033</v>
+      </c>
+      <c r="Q28" s="23">
+        <v>-1.6665412130811852E-4</v>
+      </c>
+      <c r="R28" s="23">
+        <v>2.7309525115149353E-2</v>
+      </c>
+      <c r="S28" s="9">
+        <v>4.0964287672724028E-4</v>
+      </c>
+      <c r="T28" s="9">
+        <v>-0.40682782681238899</v>
+      </c>
+      <c r="U28" s="11">
         <v>1</v>
       </c>
     </row>
@@ -11587,7 +11833,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11628,7 +11874,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -11667,7 +11913,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -12922,6 +13168,50 @@
         <v>24.912007435828137</v>
       </c>
       <c r="N27" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="12.75">
+      <c r="A28" s="12">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="13">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="13">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="14">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="14">
+        <v>185507.43415975483</v>
+      </c>
+      <c r="F28" s="15">
+        <v>243767.98899201537</v>
+      </c>
+      <c r="G28" s="15">
+        <v>7196586.5538154002</v>
+      </c>
+      <c r="H28" s="15">
+        <v>5476602.2061683256</v>
+      </c>
+      <c r="I28" s="15">
+        <v>5448601.2588873617</v>
+      </c>
+      <c r="J28" s="15">
+        <v>5476602.2061683256</v>
+      </c>
+      <c r="K28" s="15">
+        <v>28000.947280963883</v>
+      </c>
+      <c r="L28" s="14">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9">
+        <v>132.15337272513426</v>
+      </c>
+      <c r="N28" s="9">
         <v>1</v>
       </c>
     </row>
@@ -12941,7 +13231,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13021,7 +13311,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -14276,6 +14566,50 @@
         <v>24.912007435828137</v>
       </c>
       <c r="N27" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="12.75">
+      <c r="A28" s="12">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="13">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="13">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="14">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="14">
+        <v>1271286.4848223685</v>
+      </c>
+      <c r="F28" s="15">
+        <v>1670547.3354291506</v>
+      </c>
+      <c r="G28" s="15">
+        <v>60419641.566249207</v>
+      </c>
+      <c r="H28" s="15">
+        <v>45979345.877830125</v>
+      </c>
+      <c r="I28" s="15">
+        <v>45086881.638241291</v>
+      </c>
+      <c r="J28" s="15">
+        <v>45979345.877830125</v>
+      </c>
+      <c r="K28" s="15">
+        <v>892464.23958883435</v>
+      </c>
+      <c r="L28" s="14">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9">
+        <v>132.15337272513426</v>
+      </c>
+      <c r="N28" s="9">
         <v>1</v>
       </c>
     </row>
@@ -14295,7 +14629,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI27"/>
+  <dimension ref="A1:AI28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14348,10 +14682,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -14381,7 +14715,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.1" customHeight="1">
@@ -15788,6 +16122,56 @@
         <v>24.912007435828137</v>
       </c>
       <c r="P27" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="12.75">
+      <c r="A28" s="12">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="13">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="13">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="14">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="14">
+        <v>2111506</v>
+      </c>
+      <c r="F28" s="14">
+        <v>4325606.2786714146</v>
+      </c>
+      <c r="G28" s="14">
+        <v>620567.12226842251</v>
+      </c>
+      <c r="H28" s="15">
+        <v>815462.73396063119</v>
+      </c>
+      <c r="I28" s="15">
+        <v>21575234.725972109</v>
+      </c>
+      <c r="J28" s="15">
+        <v>16418753.142934715</v>
+      </c>
+      <c r="K28" s="15">
+        <v>15840365.075875241</v>
+      </c>
+      <c r="L28" s="15">
+        <v>16418753.142934715</v>
+      </c>
+      <c r="M28" s="15">
+        <v>578388.06705947407</v>
+      </c>
+      <c r="N28" s="14">
+        <v>0</v>
+      </c>
+      <c r="O28" s="9">
+        <v>132.15337272513426</v>
+      </c>
+      <c r="P28" s="9">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
@@ -173,16 +173,16 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>成交量</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>成交均量</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每年投入本金</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -608,7 +608,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -686,6 +686,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -695,7 +698,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -773,6 +776,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5099420.2574212886</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5355510.8810719606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -815,7 +821,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -893,6 +899,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -902,7 +911,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -980,6 +989,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5116912.1641673045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5056978.0408539018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1022,7 +1034,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1100,6 +1112,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1109,7 +1124,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1187,6 +1202,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>17491.906746015884</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-298532.84021805879</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1208,11 +1226,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="396423936"/>
-        <c:axId val="531658624"/>
+        <c:axId val="466601856"/>
+        <c:axId val="479561600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="396423936"/>
+        <c:axId val="466601856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1255,14 +1273,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531658624"/>
+        <c:crossAx val="479561600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="531658624"/>
+        <c:axId val="479561600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1313,7 +1331,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396423936"/>
+        <c:crossAx val="466601856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1504,7 +1522,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1582,6 +1600,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>620567.12226842251</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1542224.4036726714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1596,8 +1617,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="614018048"/>
-        <c:axId val="614016512"/>
+        <c:axId val="623824896"/>
+        <c:axId val="623457792"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1622,7 +1643,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1700,6 +1721,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1709,7 +1733,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1787,6 +1811,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1803,11 +1830,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="613894016"/>
-        <c:axId val="613895552"/>
+        <c:axId val="623416064"/>
+        <c:axId val="623418752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="613894016"/>
+        <c:axId val="623416064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1850,14 +1877,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613895552"/>
+        <c:crossAx val="623418752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="613895552"/>
+        <c:axId val="623418752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1908,12 +1935,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613894016"/>
+        <c:crossAx val="623416064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="614016512"/>
+        <c:axId val="623457792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1950,12 +1977,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614018048"/>
+        <c:crossAx val="623824896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="614018048"/>
+        <c:axId val="623824896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1964,7 +1991,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="614016512"/>
+        <c:crossAx val="623457792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2126,7 +2153,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2204,6 +2231,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>185507.43415975483</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>256090.62365067154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2218,8 +2248,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="581279104"/>
-        <c:axId val="581276032"/>
+        <c:axId val="509216640"/>
+        <c:axId val="509214720"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2244,7 +2274,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2322,6 +2352,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2331,7 +2364,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2409,6 +2442,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2425,11 +2461,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="581169920"/>
-        <c:axId val="581171840"/>
+        <c:axId val="509124992"/>
+        <c:axId val="509126912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="581169920"/>
+        <c:axId val="509124992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2472,14 +2508,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="581171840"/>
+        <c:crossAx val="509126912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="581171840"/>
+        <c:axId val="509126912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2530,12 +2566,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="581169920"/>
+        <c:crossAx val="509124992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="581276032"/>
+        <c:axId val="509214720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2572,12 +2608,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="581279104"/>
+        <c:crossAx val="509216640"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="581279104"/>
+        <c:axId val="509216640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2586,7 +2622,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="581276032"/>
+        <c:crossAx val="509214720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2765,7 +2801,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2843,6 +2879,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2852,7 +2891,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2930,6 +2969,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5257796.0090485606</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5513886.6326992325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2972,7 +3014,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3050,6 +3092,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3059,7 +3104,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3137,6 +3182,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5291208.9974096352</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5220510.1568498099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3179,7 +3227,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3257,6 +3305,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3266,7 +3317,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3344,6 +3395,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>33412.988361074589</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-293376.47584942263</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3365,11 +3419,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="584923392"/>
-        <c:axId val="588272000"/>
+        <c:axId val="509393536"/>
+        <c:axId val="509538688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="584923392"/>
+        <c:axId val="509393536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3412,14 +3466,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588272000"/>
+        <c:crossAx val="509538688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="588272000"/>
+        <c:axId val="509538688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3470,7 +3524,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584923392"/>
+        <c:crossAx val="509393536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3661,7 +3715,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3739,6 +3793,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>185507.43415975483</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>256090.62365067154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3753,8 +3810,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="589108352"/>
-        <c:axId val="589049216"/>
+        <c:axId val="618625664"/>
+        <c:axId val="618624128"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3779,7 +3836,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3857,6 +3914,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3866,7 +3926,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3944,6 +4004,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3960,11 +4023,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="589046144"/>
-        <c:axId val="589047680"/>
+        <c:axId val="618595456"/>
+        <c:axId val="618596992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="589046144"/>
+        <c:axId val="618595456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4007,14 +4070,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="589047680"/>
+        <c:crossAx val="618596992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="589047680"/>
+        <c:axId val="618596992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4065,12 +4128,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="589046144"/>
+        <c:crossAx val="618595456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="589049216"/>
+        <c:axId val="618624128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4107,12 +4170,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="589108352"/>
+        <c:crossAx val="618625664"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="589108352"/>
+        <c:axId val="618625664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4121,7 +4184,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="589049216"/>
+        <c:crossAx val="618624128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4300,7 +4363,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4378,6 +4441,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4387,7 +4453,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4465,6 +4531,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5448601.2588873617</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5704691.8825380336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4507,7 +4576,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4585,6 +4654,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4594,7 +4666,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4672,6 +4744,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5476602.2061683256</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5394453.3269900708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4714,7 +4789,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4792,6 +4867,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4801,7 +4879,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4879,6 +4957,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>28000.947280963883</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-310238.5555479629</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4900,11 +4981,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="596720640"/>
-        <c:axId val="596751104"/>
+        <c:axId val="619731968"/>
+        <c:axId val="622072576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="596720640"/>
+        <c:axId val="619731968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4947,14 +5028,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="596751104"/>
+        <c:crossAx val="622072576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="596751104"/>
+        <c:axId val="622072576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5005,7 +5086,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="596720640"/>
+        <c:crossAx val="619731968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5196,7 +5277,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5274,6 +5355,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>185507.43415975483</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>256090.62365067154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5288,8 +5372,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="605844608"/>
-        <c:axId val="597346176"/>
+        <c:axId val="622119552"/>
+        <c:axId val="622117632"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5314,7 +5398,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5392,6 +5476,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5401,7 +5488,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5479,6 +5566,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5495,11 +5585,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="597300736"/>
-        <c:axId val="597302272"/>
+        <c:axId val="622101632"/>
+        <c:axId val="622103168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="597300736"/>
+        <c:axId val="622101632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5542,14 +5632,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="597302272"/>
+        <c:crossAx val="622103168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="597302272"/>
+        <c:axId val="622103168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5600,12 +5690,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="597300736"/>
+        <c:crossAx val="622101632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="597346176"/>
+        <c:axId val="622117632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5642,12 +5732,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605844608"/>
+        <c:crossAx val="622119552"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="605844608"/>
+        <c:axId val="622119552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5656,7 +5746,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="597346176"/>
+        <c:crossAx val="622117632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5835,7 +5925,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5913,6 +6003,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5922,7 +6015,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6000,6 +6093,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45086881.638241291</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>47148897.343884908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6042,7 +6138,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6120,6 +6216,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6129,7 +6228,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6207,6 +6306,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45979345.877830125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45201638.977256298</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6249,7 +6351,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6327,6 +6429,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6336,7 +6441,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6414,6 +6519,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>892464.23958883435</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1947258.3666286096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6435,11 +6543,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="607043584"/>
-        <c:axId val="607045888"/>
+        <c:axId val="622294144"/>
+        <c:axId val="622295680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="607043584"/>
+        <c:axId val="622294144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6482,7 +6590,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607045888"/>
+        <c:crossAx val="622295680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6490,7 +6598,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="607045888"/>
+        <c:axId val="622295680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6541,7 +6649,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607043584"/>
+        <c:crossAx val="622294144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6732,7 +6840,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6810,6 +6918,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>60419641.566249207</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63307618.799025491</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6824,8 +6935,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="609884800"/>
-        <c:axId val="609883264"/>
+        <c:axId val="622536576"/>
+        <c:axId val="622534656"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6850,7 +6961,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6928,6 +7039,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6937,7 +7051,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7015,6 +7129,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7031,11 +7148,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="609458048"/>
-        <c:axId val="609459584"/>
+        <c:axId val="622415232"/>
+        <c:axId val="622487808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="609458048"/>
+        <c:axId val="622415232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7078,7 +7195,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609459584"/>
+        <c:crossAx val="622487808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7086,7 +7203,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="609459584"/>
+        <c:axId val="622487808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7137,12 +7254,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609458048"/>
+        <c:crossAx val="622415232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="609883264"/>
+        <c:axId val="622534656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7179,12 +7296,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609884800"/>
+        <c:crossAx val="622536576"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="609884800"/>
+        <c:axId val="622536576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7193,7 +7310,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="609883264"/>
+        <c:crossAx val="622534656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7372,7 +7489,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7450,6 +7567,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7459,7 +7579,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7537,6 +7657,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>15840365.075875241</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17382589.479547914</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7579,7 +7702,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7657,6 +7780,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7666,7 +7792,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7744,6 +7870,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>16418753.142934715</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16946941.709956296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7786,7 +7915,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7864,6 +7993,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7873,7 +8005,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7951,6 +8083,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>578388.06705947407</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-435647.76959161833</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7972,11 +8107,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="613663488"/>
-        <c:axId val="613665408"/>
+        <c:axId val="622648320"/>
+        <c:axId val="622674688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="613663488"/>
+        <c:axId val="622648320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8019,14 +8154,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613665408"/>
+        <c:crossAx val="622674688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="613665408"/>
+        <c:axId val="622674688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8077,7 +8212,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613663488"/>
+        <c:crossAx val="622648320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8791,7 +8926,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10028,6 +10163,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:13" ht="12.75">
+      <c r="A29" s="12">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="13">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="14">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="14">
+        <v>256090.62365067154</v>
+      </c>
+      <c r="F29" s="15">
+        <v>358670.347954394</v>
+      </c>
+      <c r="G29" s="15">
+        <v>7082602.4305558074</v>
+      </c>
+      <c r="H29" s="15">
+        <v>5056978.0408539018</v>
+      </c>
+      <c r="I29" s="15">
+        <v>5355510.8810719606</v>
+      </c>
+      <c r="J29" s="15">
+        <v>5056978.0408539018</v>
+      </c>
+      <c r="K29" s="15">
+        <v>-298532.84021805879</v>
+      </c>
+      <c r="L29" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -10044,7 +10217,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM28"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11817,6 +11990,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="29" spans="1:21" ht="12.75">
+      <c r="A29" s="12">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="13">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="14">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="14">
+        <v>256090.62365067154</v>
+      </c>
+      <c r="F29" s="15">
+        <v>358670.347954394</v>
+      </c>
+      <c r="G29" s="15">
+        <v>7311639.0118637569</v>
+      </c>
+      <c r="H29" s="15">
+        <v>5220510.1568498099</v>
+      </c>
+      <c r="I29" s="15">
+        <v>5513886.6326992325</v>
+      </c>
+      <c r="J29" s="15">
+        <v>5220510.1568498099</v>
+      </c>
+      <c r="K29" s="15">
+        <v>-293376.47584942263</v>
+      </c>
+      <c r="L29" s="14">
+        <v>0</v>
+      </c>
+      <c r="M29" s="23">
+        <v>0.76999998092651367</v>
+      </c>
+      <c r="N29" s="23">
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="O29" s="23">
+        <v>0.72366664807001746</v>
+      </c>
+      <c r="P29" s="23">
+        <v>0.74888094787370585</v>
+      </c>
+      <c r="Q29" s="23">
+        <v>-2.5214299803688389E-2</v>
+      </c>
+      <c r="R29" s="23">
+        <v>2.5214288450422728E-2</v>
+      </c>
+      <c r="S29" s="9">
+        <v>3.7821432675634093E-4</v>
+      </c>
+      <c r="T29" s="9">
+        <v>-66.6666966847407</v>
+      </c>
+      <c r="U29" s="11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -11833,7 +12071,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11874,7 +12112,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -13212,6 +13450,50 @@
         <v>132.15337272513426</v>
       </c>
       <c r="N28" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="12.75">
+      <c r="A29" s="12">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="13">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="14">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="14">
+        <v>256090.62365067154</v>
+      </c>
+      <c r="F29" s="15">
+        <v>358670.347954394</v>
+      </c>
+      <c r="G29" s="15">
+        <v>7555256.9017697945</v>
+      </c>
+      <c r="H29" s="15">
+        <v>5394453.3269900708</v>
+      </c>
+      <c r="I29" s="15">
+        <v>5704691.8825380336</v>
+      </c>
+      <c r="J29" s="15">
+        <v>5394453.3269900708</v>
+      </c>
+      <c r="K29" s="15">
+        <v>-310238.5555479629</v>
+      </c>
+      <c r="L29" s="14">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9">
+        <v>19.588439525500419</v>
+      </c>
+      <c r="N29" s="9">
         <v>1</v>
       </c>
     </row>
@@ -13231,7 +13513,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14613,6 +14895,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="29" spans="1:14" ht="12.75">
+      <c r="A29" s="12">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="13">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="14">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="14">
+        <v>2062015.7056436134</v>
+      </c>
+      <c r="F29" s="15">
+        <v>2887977.2327762875</v>
+      </c>
+      <c r="G29" s="15">
+        <v>63307618.799025491</v>
+      </c>
+      <c r="H29" s="15">
+        <v>45201638.977256298</v>
+      </c>
+      <c r="I29" s="15">
+        <v>47148897.343884908</v>
+      </c>
+      <c r="J29" s="15">
+        <v>45201638.977256298</v>
+      </c>
+      <c r="K29" s="15">
+        <v>-1947258.3666286096</v>
+      </c>
+      <c r="L29" s="14">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9">
+        <v>19.588439525500419</v>
+      </c>
+      <c r="N29" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14629,7 +14955,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI28"/>
+  <dimension ref="A1:AI29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14682,10 +15008,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -14793,7 +15119,7 @@
         <v>7</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="T3" s="16" t="s">
         <v>20</v>
@@ -16172,6 +16498,56 @@
         <v>132.15337272513426</v>
       </c>
       <c r="P28" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="12.75">
+      <c r="A29" s="12">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="13">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="14">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="14">
+        <v>3152600</v>
+      </c>
+      <c r="F29" s="14">
+        <v>4215152.2814262221</v>
+      </c>
+      <c r="G29" s="14">
+        <v>1542224.4036726714</v>
+      </c>
+      <c r="H29" s="15">
+        <v>2159978.196794806</v>
+      </c>
+      <c r="I29" s="15">
+        <v>23735212.922766916</v>
+      </c>
+      <c r="J29" s="15">
+        <v>16946941.709956296</v>
+      </c>
+      <c r="K29" s="15">
+        <v>17382589.479547914</v>
+      </c>
+      <c r="L29" s="15">
+        <v>16946941.709956296</v>
+      </c>
+      <c r="M29" s="15">
+        <v>-435647.76959161833</v>
+      </c>
+      <c r="N29" s="14">
+        <v>0</v>
+      </c>
+      <c r="O29" s="9">
+        <v>19.588439525500419</v>
+      </c>
+      <c r="P29" s="9">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="31">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -179,10 +179,6 @@
   <si>
     <t>成交均量</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每年投入本金</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -608,7 +604,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -689,6 +685,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -698,7 +697,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -779,6 +778,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>5355510.8810719606</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5703941.5221370691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -821,7 +823,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -902,6 +904,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -911,7 +916,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -992,6 +997,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>5056978.0408539018</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5200013.3228820767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1034,7 +1042,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1115,6 +1123,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1124,7 +1135,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1205,6 +1216,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-298532.84021805879</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-503928.19925499242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1226,11 +1240,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="466601856"/>
-        <c:axId val="479561600"/>
+        <c:axId val="558630016"/>
+        <c:axId val="559888640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="466601856"/>
+        <c:axId val="558630016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1273,14 +1287,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479561600"/>
+        <c:crossAx val="559888640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="479561600"/>
+        <c:axId val="559888640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1331,7 +1345,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466601856"/>
+        <c:crossAx val="558630016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1522,7 +1536,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1603,6 +1617,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1542224.4036726714</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1288917.1577942353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1617,8 +1634,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="623824896"/>
-        <c:axId val="623457792"/>
+        <c:axId val="446605952"/>
+        <c:axId val="446604416"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1643,7 +1660,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1724,6 +1741,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1733,7 +1753,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1814,6 +1834,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1830,11 +1853,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="623416064"/>
-        <c:axId val="623418752"/>
+        <c:axId val="446601088"/>
+        <c:axId val="446602624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="623416064"/>
+        <c:axId val="446601088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1877,14 +1900,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="623418752"/>
+        <c:crossAx val="446602624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="623418752"/>
+        <c:axId val="446602624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1935,12 +1958,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="623416064"/>
+        <c:crossAx val="446601088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="623457792"/>
+        <c:axId val="446604416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1977,12 +2000,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="623824896"/>
+        <c:crossAx val="446605952"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="623824896"/>
+        <c:axId val="446605952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1991,7 +2014,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="623457792"/>
+        <c:crossAx val="446604416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2153,7 +2176,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2234,6 +2257,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>256090.62365067154</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>348430.64106510871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2248,8 +2274,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="509216640"/>
-        <c:axId val="509214720"/>
+        <c:axId val="591729792"/>
+        <c:axId val="591728000"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2274,7 +2300,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2355,6 +2381,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2364,7 +2393,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2445,6 +2474,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2461,11 +2493,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="509124992"/>
-        <c:axId val="509126912"/>
+        <c:axId val="590609024"/>
+        <c:axId val="591726080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="509124992"/>
+        <c:axId val="590609024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2508,14 +2540,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509126912"/>
+        <c:crossAx val="591726080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="509126912"/>
+        <c:axId val="591726080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2566,12 +2598,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509124992"/>
+        <c:crossAx val="590609024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="509214720"/>
+        <c:axId val="591728000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2608,12 +2640,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509216640"/>
+        <c:crossAx val="591729792"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="509216640"/>
+        <c:axId val="591729792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2622,7 +2654,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="509214720"/>
+        <c:crossAx val="591728000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2801,7 +2833,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2882,6 +2914,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2891,7 +2926,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2972,6 +3007,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>5513886.6326992325</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5932003.401977363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3014,7 +3052,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3095,6 +3133,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3104,7 +3145,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3185,6 +3226,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>5220510.1568498099</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5426589.5098371096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3227,7 +3271,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3308,6 +3352,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3317,7 +3364,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3398,6 +3445,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-293376.47584942263</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-505413.89214025345</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3419,11 +3469,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="509393536"/>
-        <c:axId val="509538688"/>
+        <c:axId val="595595264"/>
+        <c:axId val="595596800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="509393536"/>
+        <c:axId val="595595264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3466,14 +3516,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509538688"/>
+        <c:crossAx val="595596800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="509538688"/>
+        <c:axId val="595596800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3524,7 +3574,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509393536"/>
+        <c:crossAx val="595595264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3715,7 +3765,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3796,6 +3846,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>256090.62365067154</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>418116.76927813044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3810,8 +3863,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="618625664"/>
-        <c:axId val="618624128"/>
+        <c:axId val="595704448"/>
+        <c:axId val="595702912"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3836,7 +3889,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3917,6 +3970,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3926,7 +3982,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4007,6 +4063,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4023,11 +4082,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="618595456"/>
-        <c:axId val="618596992"/>
+        <c:axId val="595695104"/>
+        <c:axId val="595696640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="618595456"/>
+        <c:axId val="595695104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4070,14 +4129,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618596992"/>
+        <c:crossAx val="595696640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="618596992"/>
+        <c:axId val="595696640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4128,12 +4187,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618595456"/>
+        <c:crossAx val="595695104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="618624128"/>
+        <c:axId val="595702912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4170,12 +4229,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618625664"/>
+        <c:crossAx val="595704448"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="618625664"/>
+        <c:axId val="595704448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4184,7 +4243,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="618624128"/>
+        <c:crossAx val="595702912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4363,7 +4422,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4444,6 +4503,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4453,7 +4515,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4534,6 +4596,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>5704691.8825380336</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6053122.5236031422</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4576,7 +4641,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4657,6 +4722,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4666,7 +4734,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4747,6 +4815,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>5394453.3269900708</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5523781.636790554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4789,7 +4860,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4870,6 +4941,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4879,7 +4953,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4960,6 +5034,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-310238.5555479629</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-529340.8868125882</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4981,11 +5058,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="619731968"/>
-        <c:axId val="622072576"/>
+        <c:axId val="595806848"/>
+        <c:axId val="595821696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="619731968"/>
+        <c:axId val="595806848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5028,14 +5105,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="622072576"/>
+        <c:crossAx val="595821696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="622072576"/>
+        <c:axId val="595821696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5086,7 +5163,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619731968"/>
+        <c:crossAx val="595806848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5277,7 +5354,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5358,6 +5435,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>256090.62365067154</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>348430.64106510871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5372,8 +5452,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="622119552"/>
-        <c:axId val="622117632"/>
+        <c:axId val="595889536"/>
+        <c:axId val="595886848"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5398,7 +5478,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5479,6 +5559,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5488,7 +5571,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5569,6 +5652,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5585,11 +5671,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="622101632"/>
-        <c:axId val="622103168"/>
+        <c:axId val="595874176"/>
+        <c:axId val="595875712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="622101632"/>
+        <c:axId val="595874176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5632,14 +5718,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="622103168"/>
+        <c:crossAx val="595875712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="622103168"/>
+        <c:axId val="595875712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5690,12 +5776,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="622101632"/>
+        <c:crossAx val="595874176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="622117632"/>
+        <c:axId val="595886848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5732,12 +5818,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="622119552"/>
+        <c:crossAx val="595889536"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="622119552"/>
+        <c:axId val="595889536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5746,7 +5832,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="622117632"/>
+        <c:crossAx val="595886848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5925,7 +6011,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6006,6 +6092,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6015,7 +6104,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6096,6 +6185,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>47148897.343884908</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>50421369.515802942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6138,7 +6230,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6219,6 +6311,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6228,7 +6323,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6309,6 +6404,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45201638.977256298</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>46638191.200187624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6351,7 +6449,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6432,6 +6530,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6441,7 +6542,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6522,6 +6623,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-1947258.3666286096</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3783178.3156153187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6543,11 +6647,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="622294144"/>
-        <c:axId val="622295680"/>
+        <c:axId val="596286464"/>
+        <c:axId val="596370560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="622294144"/>
+        <c:axId val="596286464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6590,7 +6694,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="622295680"/>
+        <c:crossAx val="596370560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6598,7 +6702,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="622295680"/>
+        <c:axId val="596370560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6649,7 +6753,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="622294144"/>
+        <c:crossAx val="596286464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6840,7 +6944,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6921,6 +7025,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>63307618.799025491</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>68084950.420234233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6935,8 +7042,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="622536576"/>
-        <c:axId val="622534656"/>
+        <c:axId val="602068096"/>
+        <c:axId val="601984384"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6961,7 +7068,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7042,6 +7149,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7051,7 +7161,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7132,6 +7242,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7148,11 +7261,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="622415232"/>
-        <c:axId val="622487808"/>
+        <c:axId val="601967232"/>
+        <c:axId val="601981312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="622415232"/>
+        <c:axId val="601967232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7195,7 +7308,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="622487808"/>
+        <c:crossAx val="601981312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7203,7 +7316,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="622487808"/>
+        <c:axId val="601981312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7254,12 +7367,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="622415232"/>
+        <c:crossAx val="601967232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="622534656"/>
+        <c:axId val="601984384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7296,12 +7409,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="622536576"/>
+        <c:crossAx val="602068096"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="622536576"/>
+        <c:axId val="602068096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7310,7 +7423,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="622534656"/>
+        <c:crossAx val="601984384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7489,7 +7602,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7570,6 +7683,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7579,7 +7695,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7660,6 +7776,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>17382589.479547914</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18671506.637342148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7702,7 +7821,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7783,6 +7902,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7792,7 +7914,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7873,6 +7995,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>16946941.709956296</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17547538.066478729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7915,7 +8040,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7996,6 +8121,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8005,7 +8133,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8086,6 +8214,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-435647.76959161833</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1123968.5708634183</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8107,11 +8238,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="622648320"/>
-        <c:axId val="622674688"/>
+        <c:axId val="607227264"/>
+        <c:axId val="611089024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="622648320"/>
+        <c:axId val="607227264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8154,14 +8285,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="622674688"/>
+        <c:crossAx val="611089024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="622674688"/>
+        <c:axId val="611089024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8212,7 +8343,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="622648320"/>
+        <c:crossAx val="607227264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8926,7 +9057,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10201,6 +10332,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="1:13" ht="12.75">
+      <c r="A30" s="12">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="13">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="14">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="14">
+        <v>348430.64106510871</v>
+      </c>
+      <c r="F30" s="15">
+        <v>508657.86839762604</v>
+      </c>
+      <c r="G30" s="15">
+        <v>7591260.2989534335</v>
+      </c>
+      <c r="H30" s="15">
+        <v>5200013.3228820767</v>
+      </c>
+      <c r="I30" s="15">
+        <v>5703941.5221370691</v>
+      </c>
+      <c r="J30" s="15">
+        <v>5200013.3228820767</v>
+      </c>
+      <c r="K30" s="15">
+        <v>-503928.19925499242</v>
+      </c>
+      <c r="L30" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -10217,7 +10386,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12055,6 +12224,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="30" spans="1:21" ht="12.75">
+      <c r="A30" s="12">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="13">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="14">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="14">
+        <v>418116.76927813044</v>
+      </c>
+      <c r="F30" s="15">
+        <v>610389.44207715127</v>
+      </c>
+      <c r="G30" s="15">
+        <v>7922028.4539409084</v>
+      </c>
+      <c r="H30" s="15">
+        <v>5426589.5098371096</v>
+      </c>
+      <c r="I30" s="15">
+        <v>5932003.401977363</v>
+      </c>
+      <c r="J30" s="15">
+        <v>5426589.5098371096</v>
+      </c>
+      <c r="K30" s="15">
+        <v>-505413.89214025345</v>
+      </c>
+      <c r="L30" s="14">
+        <v>0</v>
+      </c>
+      <c r="M30" s="23">
+        <v>0.72600001096725464</v>
+      </c>
+      <c r="N30" s="23">
+        <v>0.67500001192092896</v>
+      </c>
+      <c r="O30" s="23">
+        <v>0.69533334175745642</v>
+      </c>
+      <c r="P30" s="23">
+        <v>0.7400238055161068</v>
+      </c>
+      <c r="Q30" s="23">
+        <v>-4.4690463758650378E-2</v>
+      </c>
+      <c r="R30" s="23">
+        <v>2.3690478676841358E-2</v>
+      </c>
+      <c r="S30" s="9">
+        <v>3.5535718015262035E-4</v>
+      </c>
+      <c r="T30" s="9">
+        <v>-125.76209587057316</v>
+      </c>
+      <c r="U30" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -12071,7 +12305,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12112,7 +12346,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -13494,6 +13728,50 @@
         <v>19.588439525500419</v>
       </c>
       <c r="N29" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="12.75">
+      <c r="A30" s="12">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="13">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="14">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="14">
+        <v>348430.64106510871</v>
+      </c>
+      <c r="F30" s="15">
+        <v>508657.86839762604</v>
+      </c>
+      <c r="G30" s="15">
+        <v>8063914.7701674206</v>
+      </c>
+      <c r="H30" s="15">
+        <v>5523781.636790554</v>
+      </c>
+      <c r="I30" s="15">
+        <v>6053122.5236031422</v>
+      </c>
+      <c r="J30" s="15">
+        <v>5523781.636790554</v>
+      </c>
+      <c r="K30" s="15">
+        <v>-529340.8868125882</v>
+      </c>
+      <c r="L30" s="14">
+        <v>0</v>
+      </c>
+      <c r="M30" s="9">
+        <v>-38.600823638801678</v>
+      </c>
+      <c r="N30" s="9">
         <v>1</v>
       </c>
     </row>
@@ -13513,7 +13791,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14939,6 +15217,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="30" spans="1:14" ht="12.75">
+      <c r="A30" s="12">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="13">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="14">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="14">
+        <v>3272472.1719180341</v>
+      </c>
+      <c r="F30" s="15">
+        <v>4777331.6212087413</v>
+      </c>
+      <c r="G30" s="15">
+        <v>68084950.420234233</v>
+      </c>
+      <c r="H30" s="15">
+        <v>46638191.200187624</v>
+      </c>
+      <c r="I30" s="15">
+        <v>50421369.515802942</v>
+      </c>
+      <c r="J30" s="15">
+        <v>46638191.200187624</v>
+      </c>
+      <c r="K30" s="15">
+        <v>-3783178.3156153187</v>
+      </c>
+      <c r="L30" s="14">
+        <v>0</v>
+      </c>
+      <c r="M30" s="9">
+        <v>-38.600823638801678</v>
+      </c>
+      <c r="N30" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14955,7 +15277,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI29"/>
+  <dimension ref="A1:AI30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15119,7 +15441,7 @@
         <v>7</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="T3" s="16" t="s">
         <v>20</v>
@@ -16548,6 +16870,56 @@
         <v>19.588439525500419</v>
       </c>
       <c r="P29" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="12.75">
+      <c r="A30" s="12">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="13">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="14">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="14">
+        <v>1644900</v>
+      </c>
+      <c r="F30" s="14">
+        <v>4176288.16796875</v>
+      </c>
+      <c r="G30" s="14">
+        <v>1288917.1577942353</v>
+      </c>
+      <c r="H30" s="15">
+        <v>1881630.8807417192</v>
+      </c>
+      <c r="I30" s="15">
+        <v>25616843.803508636</v>
+      </c>
+      <c r="J30" s="15">
+        <v>17547538.066478729</v>
+      </c>
+      <c r="K30" s="15">
+        <v>18671506.637342148</v>
+      </c>
+      <c r="L30" s="15">
+        <v>17547538.066478729</v>
+      </c>
+      <c r="M30" s="15">
+        <v>-1123968.5708634183</v>
+      </c>
+      <c r="N30" s="14">
+        <v>0</v>
+      </c>
+      <c r="O30" s="9">
+        <v>-38.600823638801678</v>
+      </c>
+      <c r="P30" s="9">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="30">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -154,10 +154,6 @@
   </si>
   <si>
     <t>年化收益率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -344,7 +340,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -406,9 +402,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -604,7 +597,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -688,6 +681,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -697,7 +693,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -781,6 +777,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5703941.5221370691</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6068134.445580963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -823,7 +822,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -907,6 +906,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -916,7 +918,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1000,6 +1002,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5200013.3228820767</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5397198.4075353509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1042,7 +1047,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1126,6 +1131,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1135,7 +1143,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1219,6 +1227,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-503928.19925499242</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-670936.03804561216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1240,11 +1251,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="558630016"/>
-        <c:axId val="559888640"/>
+        <c:axId val="595257216"/>
+        <c:axId val="601105536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="558630016"/>
+        <c:axId val="595257216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1287,14 +1298,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559888640"/>
+        <c:crossAx val="601105536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="559888640"/>
+        <c:axId val="601105536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1345,7 +1356,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558630016"/>
+        <c:crossAx val="595257216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1536,7 +1547,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1620,6 +1631,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1288917.1577942353</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2762891.4536756147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1634,8 +1648,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="446605952"/>
-        <c:axId val="446604416"/>
+        <c:axId val="480167424"/>
+        <c:axId val="480165888"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1660,7 +1674,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1744,6 +1758,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1753,7 +1770,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1837,6 +1854,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1853,11 +1873,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="446601088"/>
-        <c:axId val="446602624"/>
+        <c:axId val="668654592"/>
+        <c:axId val="669563136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="446601088"/>
+        <c:axId val="668654592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1900,14 +1920,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446602624"/>
+        <c:crossAx val="669563136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="446602624"/>
+        <c:axId val="669563136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1958,12 +1978,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446601088"/>
+        <c:crossAx val="668654592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="446604416"/>
+        <c:axId val="480165888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2000,12 +2020,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446605952"/>
+        <c:crossAx val="480167424"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="446605952"/>
+        <c:axId val="480167424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2014,7 +2034,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="446604416"/>
+        <c:crossAx val="480165888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2176,7 +2196,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2260,6 +2280,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>348430.64106510871</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>364192.92344389425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2274,8 +2297,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="591729792"/>
-        <c:axId val="591728000"/>
+        <c:axId val="603221376"/>
+        <c:axId val="603219456"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2300,7 +2323,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2384,6 +2407,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2393,7 +2419,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2477,6 +2503,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2493,11 +2522,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="590609024"/>
-        <c:axId val="591726080"/>
+        <c:axId val="603178112"/>
+        <c:axId val="603217920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="590609024"/>
+        <c:axId val="603178112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2540,14 +2569,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591726080"/>
+        <c:crossAx val="603217920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="591726080"/>
+        <c:axId val="603217920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2598,12 +2627,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="590609024"/>
+        <c:crossAx val="603178112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="591728000"/>
+        <c:axId val="603219456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2640,12 +2669,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591729792"/>
+        <c:crossAx val="603221376"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="591729792"/>
+        <c:axId val="603221376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2654,7 +2683,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="591728000"/>
+        <c:crossAx val="603219456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2833,7 +2862,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2917,6 +2946,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2926,7 +2958,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3010,6 +3042,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5932003.401977363</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6369034.9101100359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3052,7 +3087,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3136,6 +3171,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3145,7 +3183,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3229,6 +3267,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5426589.5098371096</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5689336.2748800395</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3271,7 +3312,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3355,6 +3396,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3364,7 +3408,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3448,6 +3492,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-505413.89214025345</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-679698.63522999641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3469,11 +3516,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="595595264"/>
-        <c:axId val="595596800"/>
+        <c:axId val="656683776"/>
+        <c:axId val="656691200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="595595264"/>
+        <c:axId val="656683776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3516,14 +3563,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595596800"/>
+        <c:crossAx val="656691200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="595596800"/>
+        <c:axId val="656691200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3574,7 +3621,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595595264"/>
+        <c:crossAx val="656683776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3765,7 +3812,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3849,6 +3896,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>418116.76927813044</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>437031.5081326731</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3863,8 +3913,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="595704448"/>
-        <c:axId val="595702912"/>
+        <c:axId val="656733696"/>
+        <c:axId val="656732160"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3889,7 +3939,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3973,6 +4023,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3982,7 +4035,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4066,6 +4119,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4082,11 +4138,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="595695104"/>
-        <c:axId val="595696640"/>
+        <c:axId val="656707968"/>
+        <c:axId val="656709888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="595695104"/>
+        <c:axId val="656707968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4129,14 +4185,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595696640"/>
+        <c:crossAx val="656709888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="595696640"/>
+        <c:axId val="656709888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4187,12 +4243,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595695104"/>
+        <c:crossAx val="656707968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="595702912"/>
+        <c:axId val="656732160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4229,12 +4285,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595704448"/>
+        <c:crossAx val="656733696"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="595704448"/>
+        <c:axId val="656733696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4243,7 +4299,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="595702912"/>
+        <c:crossAx val="656732160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4422,7 +4478,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4506,6 +4562,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4515,7 +4574,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4599,6 +4658,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>6053122.5236031422</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6417315.4470470361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4641,7 +4703,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4725,6 +4787,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4734,7 +4799,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4818,6 +4883,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5523781.636790554</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5710568.3160903649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4860,7 +4928,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4944,6 +5012,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4953,7 +5024,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5037,6 +5108,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-529340.8868125882</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-706747.1309566712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5058,11 +5132,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="595806848"/>
-        <c:axId val="595821696"/>
+        <c:axId val="658024704"/>
+        <c:axId val="658026496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="595806848"/>
+        <c:axId val="658024704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5105,14 +5179,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595821696"/>
+        <c:crossAx val="658026496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="595821696"/>
+        <c:axId val="658026496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5163,7 +5237,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595806848"/>
+        <c:crossAx val="658024704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5354,7 +5428,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5438,6 +5512,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>348430.64106510871</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>364192.92344389425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5452,8 +5529,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="595889536"/>
-        <c:axId val="595886848"/>
+        <c:axId val="658835328"/>
+        <c:axId val="658833792"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5478,7 +5555,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5562,6 +5639,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5571,7 +5651,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5655,6 +5735,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5671,11 +5754,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="595874176"/>
-        <c:axId val="595875712"/>
+        <c:axId val="658522496"/>
+        <c:axId val="658524800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="595874176"/>
+        <c:axId val="658522496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5718,14 +5801,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595875712"/>
+        <c:crossAx val="658524800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="595875712"/>
+        <c:axId val="658524800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5776,12 +5859,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595874176"/>
+        <c:crossAx val="658522496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="595886848"/>
+        <c:axId val="658833792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5818,12 +5901,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595889536"/>
+        <c:crossAx val="658835328"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="595889536"/>
+        <c:axId val="658835328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5832,7 +5915,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="595886848"/>
+        <c:crossAx val="658833792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6011,8 +6094,8 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0" formatCode="0.00_ ">
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -6095,6 +6178,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6104,7 +6190,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6188,6 +6274,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>50421369.515802942</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>53918394.269471437</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6230,8 +6319,8 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0" formatCode="0.00_ ">
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -6314,6 +6403,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6323,7 +6415,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6407,6 +6499,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>46638191.200187624</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48637346.038182497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6449,8 +6544,8 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0" formatCode="0.00_ ">
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -6533,6 +6628,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6542,7 +6640,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6626,6 +6724,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-3783178.3156153187</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-5281048.2312889397</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6647,17 +6748,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="596286464"/>
-        <c:axId val="596370560"/>
+        <c:axId val="661199488"/>
+        <c:axId val="661209472"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="596286464"/>
+      <c:dateAx>
+        <c:axId val="661199488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -6694,15 +6795,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="596370560"/>
+        <c:crossAx val="661209472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="596370560"/>
+        <c:axId val="661209472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6753,7 +6853,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="596286464"/>
+        <c:crossAx val="661199488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6944,7 +7044,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7028,6 +7128,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>68084950.420234233</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>73359497.658637092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7042,8 +7145,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="602068096"/>
-        <c:axId val="601984384"/>
+        <c:axId val="666702208"/>
+        <c:axId val="661318656"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7068,8 +7171,8 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0" formatCode="0.00_ ">
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -7152,6 +7255,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7161,7 +7267,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7245,6 +7351,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7261,17 +7370,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="601967232"/>
-        <c:axId val="601981312"/>
+        <c:axId val="661302656"/>
+        <c:axId val="661317120"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="601967232"/>
+      <c:dateAx>
+        <c:axId val="661302656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7308,15 +7417,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601981312"/>
+        <c:crossAx val="661317120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="601981312"/>
+        <c:axId val="661317120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7367,12 +7475,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601967232"/>
+        <c:crossAx val="661302656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="601984384"/>
+        <c:axId val="661318656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7409,12 +7517,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602068096"/>
+        <c:crossAx val="666702208"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="602068096"/>
+        <c:axId val="666702208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7423,7 +7531,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="601984384"/>
+        <c:crossAx val="661318656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7602,7 +7710,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7686,6 +7794,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7695,7 +7806,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7779,6 +7890,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>18671506.637342148</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21434398.09101776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7821,7 +7935,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7905,6 +8019,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7914,7 +8031,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7998,6 +8115,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>17547538.066478729</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19746858.577810202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8040,7 +8160,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8124,6 +8244,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8133,7 +8256,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8217,6 +8340,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-1123968.5708634183</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1687539.5132075585</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8238,11 +8364,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="607227264"/>
-        <c:axId val="611089024"/>
+        <c:axId val="668066560"/>
+        <c:axId val="668068864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="607227264"/>
+        <c:axId val="668066560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8285,14 +8411,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="611089024"/>
+        <c:crossAx val="668068864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="611089024"/>
+        <c:axId val="668068864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8343,7 +8469,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607227264"/>
+        <c:crossAx val="668066560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9057,7 +9183,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG30"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10370,6 +10496,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" spans="1:13" ht="12.75">
+      <c r="A31" s="12">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="13">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="14">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="14">
+        <v>364192.92344389425</v>
+      </c>
+      <c r="F31" s="15">
+        <v>549310.60370153643</v>
+      </c>
+      <c r="G31" s="15">
+        <v>8140570.9026549701</v>
+      </c>
+      <c r="H31" s="15">
+        <v>5397198.4075353509</v>
+      </c>
+      <c r="I31" s="15">
+        <v>6068134.445580963</v>
+      </c>
+      <c r="J31" s="15">
+        <v>5397198.4075353509</v>
+      </c>
+      <c r="K31" s="15">
+        <v>-670936.03804561216</v>
+      </c>
+      <c r="L31" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -10386,7 +10550,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM30"/>
+  <dimension ref="A1:AM31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10427,7 +10591,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -10463,10 +10627,10 @@
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>4</v>
@@ -10487,7 +10651,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.1" customHeight="1">
@@ -12286,6 +12450,71 @@
         <v>-125.76209587057316</v>
       </c>
       <c r="U30" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="12.75">
+      <c r="A31" s="12">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="13">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="14">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="14">
+        <v>437031.5081326731</v>
+      </c>
+      <c r="F31" s="15">
+        <v>659172.72444184369</v>
+      </c>
+      <c r="G31" s="15">
+        <v>8581201.1783827525</v>
+      </c>
+      <c r="H31" s="15">
+        <v>5689336.2748800395</v>
+      </c>
+      <c r="I31" s="15">
+        <v>6369034.9101100359</v>
+      </c>
+      <c r="J31" s="15">
+        <v>5689336.2748800395</v>
+      </c>
+      <c r="K31" s="15">
+        <v>-679698.63522999641</v>
+      </c>
+      <c r="L31" s="14">
+        <v>0</v>
+      </c>
+      <c r="M31" s="23">
+        <v>0.69499999284744263</v>
+      </c>
+      <c r="N31" s="23">
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="O31" s="23">
+        <v>0.66433332363764441</v>
+      </c>
+      <c r="P31" s="23">
+        <v>0.73140475675037919</v>
+      </c>
+      <c r="Q31" s="23">
+        <v>-6.707143311273478E-2</v>
+      </c>
+      <c r="R31" s="23">
+        <v>2.4653063212933164E-2</v>
+      </c>
+      <c r="S31" s="9">
+        <v>3.6979594819399746E-4</v>
+      </c>
+      <c r="T31" s="9">
+        <v>-181.37416983689786</v>
+      </c>
+      <c r="U31" s="11">
         <v>1.2</v>
       </c>
     </row>
@@ -12305,7 +12534,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG30"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12346,7 +12575,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -12385,7 +12614,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -13772,6 +14001,50 @@
         <v>-38.600823638801678</v>
       </c>
       <c r="N30" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="12.75">
+      <c r="A31" s="12">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="13">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="14">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="14">
+        <v>364192.92344389425</v>
+      </c>
+      <c r="F31" s="15">
+        <v>549310.60370153643</v>
+      </c>
+      <c r="G31" s="15">
+        <v>8613225.3738689572</v>
+      </c>
+      <c r="H31" s="15">
+        <v>5710568.3160903649</v>
+      </c>
+      <c r="I31" s="15">
+        <v>6417315.4470470361</v>
+      </c>
+      <c r="J31" s="15">
+        <v>5710568.3160903649</v>
+      </c>
+      <c r="K31" s="15">
+        <v>-706747.1309566712</v>
+      </c>
+      <c r="L31" s="14">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9">
+        <v>11.750560187063723</v>
+      </c>
+      <c r="N31" s="9">
         <v>1</v>
       </c>
     </row>
@@ -13791,7 +14064,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG30"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13871,7 +14144,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -13895,7 +14168,7 @@
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:33" ht="14.1" customHeight="1">
-      <c r="A3" s="31">
+      <c r="A3" s="12">
         <v>44377</v>
       </c>
       <c r="B3" s="13">
@@ -15258,6 +15531,50 @@
         <v>-38.600823638801678</v>
       </c>
       <c r="N30" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="12.75">
+      <c r="A31" s="12">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="13">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="14">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="14">
+        <v>3497024.7536684927</v>
+      </c>
+      <c r="F31" s="15">
+        <v>5274547.2384028593</v>
+      </c>
+      <c r="G31" s="15">
+        <v>73359497.658637092</v>
+      </c>
+      <c r="H31" s="15">
+        <v>48637346.038182497</v>
+      </c>
+      <c r="I31" s="15">
+        <v>53918394.269471437</v>
+      </c>
+      <c r="J31" s="15">
+        <v>48637346.038182497</v>
+      </c>
+      <c r="K31" s="15">
+        <v>-5281048.2312889397</v>
+      </c>
+      <c r="L31" s="14">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9">
+        <v>11.750560187063723</v>
+      </c>
+      <c r="N31" s="9">
         <v>1</v>
       </c>
     </row>
@@ -15277,7 +15594,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI30"/>
+  <dimension ref="A1:AI31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15330,10 +15647,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -15363,7 +15680,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.1" customHeight="1">
@@ -16920,6 +17237,56 @@
         <v>-38.600823638801678</v>
       </c>
       <c r="P30" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="12.75">
+      <c r="A31" s="12">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="13">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="14">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="14">
+        <v>3279702</v>
+      </c>
+      <c r="F31" s="14">
+        <v>4151158.042563708</v>
+      </c>
+      <c r="G31" s="14">
+        <v>2762891.4536756147</v>
+      </c>
+      <c r="H31" s="15">
+        <v>4167257.1724589658</v>
+      </c>
+      <c r="I31" s="15">
+        <v>29784100.975967601</v>
+      </c>
+      <c r="J31" s="15">
+        <v>19746858.577810202</v>
+      </c>
+      <c r="K31" s="15">
+        <v>21434398.09101776</v>
+      </c>
+      <c r="L31" s="15">
+        <v>19746858.577810202</v>
+      </c>
+      <c r="M31" s="15">
+        <v>-1687539.5132075585</v>
+      </c>
+      <c r="N31" s="14">
+        <v>0</v>
+      </c>
+      <c r="O31" s="9">
+        <v>11.750560187063723</v>
+      </c>
+      <c r="P31" s="9">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="31">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -167,6 +167,10 @@
   <si>
     <t>标志</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>成交量</t>
@@ -597,7 +601,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -684,6 +688,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -693,7 +703,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -780,6 +790,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>6068134.445580963</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6471218.9630682301</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6865089.2319875453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -822,7 +838,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -909,6 +925,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -918,7 +940,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1005,6 +1027,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>5397198.4075353509</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5702596.3614385333</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6043907.7728215661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1047,7 +1075,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1134,6 +1162,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1143,7 +1177,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1230,6 +1264,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-670936.03804561216</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-768622.60162969679</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-821181.45916597918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1251,11 +1291,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="595257216"/>
-        <c:axId val="601105536"/>
+        <c:axId val="568141696"/>
+        <c:axId val="593658240"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="595257216"/>
+        <c:axId val="568141696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1298,14 +1338,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601105536"/>
+        <c:crossAx val="593658240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="601105536"/>
+        <c:axId val="593658240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1356,7 +1396,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595257216"/>
+        <c:crossAx val="568141696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1547,7 +1587,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1634,6 +1674,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2762891.4536756147</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4076946.3995297765</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5334579.4633873561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1648,8 +1694,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="480167424"/>
-        <c:axId val="480165888"/>
+        <c:axId val="598774912"/>
+        <c:axId val="598739200"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1674,7 +1720,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1761,6 +1807,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1770,7 +1822,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1857,6 +1909,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1873,11 +1931,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="668654592"/>
-        <c:axId val="669563136"/>
+        <c:axId val="598497536"/>
+        <c:axId val="598737280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="668654592"/>
+        <c:axId val="598497536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1920,14 +1978,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="669563136"/>
+        <c:crossAx val="598737280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="669563136"/>
+        <c:axId val="598737280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1978,12 +2036,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="668654592"/>
+        <c:crossAx val="598497536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="480165888"/>
+        <c:axId val="598739200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2020,12 +2078,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480167424"/>
+        <c:crossAx val="598774912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="480167424"/>
+        <c:axId val="598774912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2034,7 +2092,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="480165888"/>
+        <c:crossAx val="598739200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2196,7 +2254,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2283,6 +2341,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>364192.92344389425</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>403084.51748726668</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>393870.26891931542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2297,8 +2361,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="603221376"/>
-        <c:axId val="603219456"/>
+        <c:axId val="596851712"/>
+        <c:axId val="596849792"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2323,7 +2387,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2410,6 +2474,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2419,7 +2489,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2506,6 +2576,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2522,11 +2598,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="603178112"/>
-        <c:axId val="603217920"/>
+        <c:axId val="596840832"/>
+        <c:axId val="596843904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="603178112"/>
+        <c:axId val="596840832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2569,14 +2645,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="603217920"/>
+        <c:crossAx val="596843904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="603217920"/>
+        <c:axId val="596843904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2627,12 +2703,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="603178112"/>
+        <c:crossAx val="596840832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="603219456"/>
+        <c:axId val="596849792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2669,12 +2745,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="603221376"/>
+        <c:crossAx val="596851712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="603221376"/>
+        <c:axId val="596851712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2683,7 +2759,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="603219456"/>
+        <c:crossAx val="596849792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2862,7 +2938,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2949,6 +3025,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2958,7 +3040,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3045,6 +3127,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>6369034.9101100359</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6852736.3310947558</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7325380.6537979338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3087,7 +3175,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3174,6 +3262,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3183,7 +3277,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3270,6 +3364,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>5689336.2748800395</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6070063.58452</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6486762.2314372649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3312,7 +3412,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3399,6 +3499,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3408,7 +3514,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3495,6 +3601,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-679698.63522999641</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-782672.74657475576</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-838618.42236066889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3516,11 +3628,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="656683776"/>
-        <c:axId val="656691200"/>
+        <c:axId val="596914560"/>
+        <c:axId val="596916096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="656683776"/>
+        <c:axId val="596914560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3563,14 +3675,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656691200"/>
+        <c:crossAx val="596916096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="656691200"/>
+        <c:axId val="596916096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3621,7 +3733,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656683776"/>
+        <c:crossAx val="596914560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3812,7 +3924,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3899,6 +4011,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>437031.5081326731</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>483701.42098472</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>472644.32270317851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3913,8 +4031,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="656733696"/>
-        <c:axId val="656732160"/>
+        <c:axId val="596990592"/>
+        <c:axId val="596988672"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3939,7 +4057,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4026,6 +4144,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4035,7 +4159,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4122,6 +4246,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4138,11 +4268,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="656707968"/>
-        <c:axId val="656709888"/>
+        <c:axId val="596977152"/>
+        <c:axId val="596978688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="656707968"/>
+        <c:axId val="596977152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4185,14 +4315,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656709888"/>
+        <c:crossAx val="596978688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="656709888"/>
+        <c:axId val="596978688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4243,12 +4373,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656707968"/>
+        <c:crossAx val="596977152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="656732160"/>
+        <c:axId val="596988672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4285,12 +4415,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656733696"/>
+        <c:crossAx val="596990592"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="656733696"/>
+        <c:axId val="596990592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4299,7 +4429,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="656732160"/>
+        <c:crossAx val="596988672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4478,7 +4608,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4565,6 +4695,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4574,7 +4710,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4661,6 +4797,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>6417315.4470470361</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6901016.868031756</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7294887.1369510712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4703,7 +4845,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4790,6 +4932,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4799,7 +4947,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4886,6 +5034,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>5710568.3160903649</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6090911.3365144944</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6428643.7831311915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4928,7 +5082,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5015,6 +5169,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5024,7 +5184,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5111,6 +5271,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-706747.1309566712</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-810105.53151726164</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-866243.3538198797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5132,11 +5298,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="658024704"/>
-        <c:axId val="658026496"/>
+        <c:axId val="597032960"/>
+        <c:axId val="597034880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="658024704"/>
+        <c:axId val="597032960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5179,14 +5345,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="658026496"/>
+        <c:crossAx val="597034880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="658026496"/>
+        <c:axId val="597034880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5237,7 +5403,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="658024704"/>
+        <c:crossAx val="597032960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5428,7 +5594,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5515,6 +5681,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>364192.92344389425</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>483701.42098472</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>393870.26891931542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5529,8 +5701,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="658835328"/>
-        <c:axId val="658833792"/>
+        <c:axId val="597863808"/>
+        <c:axId val="597861504"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5555,7 +5727,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5642,6 +5814,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5651,7 +5829,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5738,6 +5916,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5754,11 +5938,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="658522496"/>
-        <c:axId val="658524800"/>
+        <c:axId val="597075072"/>
+        <c:axId val="597076608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="658522496"/>
+        <c:axId val="597075072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5801,14 +5985,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="658524800"/>
+        <c:crossAx val="597076608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="658524800"/>
+        <c:axId val="597076608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5859,12 +6043,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="658522496"/>
+        <c:crossAx val="597075072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="658833792"/>
+        <c:axId val="597861504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5901,12 +6085,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="658835328"/>
+        <c:crossAx val="597863808"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="658835328"/>
+        <c:axId val="597863808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5915,7 +6099,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="658833792"/>
+        <c:crossAx val="597861504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6094,7 +6278,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6181,6 +6365,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6190,7 +6380,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6277,6 +6467,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>53918394.269471437</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58804657.6645867</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>62737723.820857614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6319,7 +6515,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6406,6 +6602,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6415,7 +6617,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6502,6 +6704,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>48637346.038182497</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>52643298.049953662</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>56091169.142944716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6544,7 +6752,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6631,6 +6839,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6640,7 +6854,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6727,6 +6941,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-5281048.2312889397</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-6161359.6146330386</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-6646554.6779128984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6748,11 +6968,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="661199488"/>
-        <c:axId val="661209472"/>
+        <c:axId val="598000000"/>
+        <c:axId val="598002304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="661199488"/>
+        <c:axId val="598000000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6795,14 +7015,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="661209472"/>
+        <c:crossAx val="598002304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="661209472"/>
+        <c:axId val="598002304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6853,7 +7073,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="661199488"/>
+        <c:crossAx val="598000000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7044,7 +7264,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7131,6 +7351,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>73359497.658637092</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>80865278.339622617</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>86963055.506408319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7145,8 +7371,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="666702208"/>
-        <c:axId val="661318656"/>
+        <c:axId val="598096128"/>
+        <c:axId val="598094592"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7171,7 +7397,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7258,6 +7484,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7267,7 +7499,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7354,6 +7586,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7370,11 +7608,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="661302656"/>
-        <c:axId val="661317120"/>
+        <c:axId val="598054016"/>
+        <c:axId val="598055936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="661302656"/>
+        <c:axId val="598054016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7417,14 +7655,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="661317120"/>
+        <c:crossAx val="598055936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="661317120"/>
+        <c:axId val="598055936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7475,12 +7713,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="661302656"/>
+        <c:crossAx val="598054016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="661318656"/>
+        <c:axId val="598094592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7517,12 +7755,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="666702208"/>
+        <c:crossAx val="598096128"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="666702208"/>
+        <c:axId val="598096128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7531,7 +7769,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="661318656"/>
+        <c:crossAx val="598094592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7710,7 +7948,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7797,6 +8035,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7806,7 +8050,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7893,6 +8137,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>21434398.09101776</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>25511344.490547538</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30845923.953934893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7935,7 +8185,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8022,6 +8272,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8031,7 +8287,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8118,6 +8374,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>19746858.577810202</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23466396.816588655</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28584694.620009139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8160,7 +8422,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8247,6 +8509,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8256,7 +8524,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8343,6 +8611,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-1687539.5132075585</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2044947.6739588827</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2261229.3339257538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8364,11 +8638,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="668066560"/>
-        <c:axId val="668068864"/>
+        <c:axId val="598222336"/>
+        <c:axId val="598224256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="668066560"/>
+        <c:axId val="598222336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8411,14 +8685,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="668068864"/>
+        <c:crossAx val="598224256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="668068864"/>
+        <c:axId val="598224256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8469,7 +8743,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="668066560"/>
+        <c:crossAx val="598222336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9183,7 +9457,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG31"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10534,6 +10808,82 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="1:13" ht="12.75">
+      <c r="A32" s="12">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="13">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="13">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="14">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="14">
+        <v>403084.51748726668</v>
+      </c>
+      <c r="F32" s="15">
+        <v>619177.42444764997</v>
+      </c>
+      <c r="G32" s="15">
+        <v>8759748.3271026202</v>
+      </c>
+      <c r="H32" s="15">
+        <v>5702596.3614385333</v>
+      </c>
+      <c r="I32" s="15">
+        <v>6471218.9630682301</v>
+      </c>
+      <c r="J32" s="15">
+        <v>5702596.3614385333</v>
+      </c>
+      <c r="K32" s="15">
+        <v>-768622.60162969679</v>
+      </c>
+      <c r="L32" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="12.75">
+      <c r="A33" s="12">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="13">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="13">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="14">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="14">
+        <v>393870.26891931542</v>
+      </c>
+      <c r="F33" s="15">
+        <v>610651.59777762846</v>
+      </c>
+      <c r="G33" s="15">
+        <v>9370399.9248802494</v>
+      </c>
+      <c r="H33" s="15">
+        <v>6043907.7728215661</v>
+      </c>
+      <c r="I33" s="15">
+        <v>6865089.2319875453</v>
+      </c>
+      <c r="J33" s="15">
+        <v>6043907.7728215661</v>
+      </c>
+      <c r="K33" s="15">
+        <v>-821181.45916597918</v>
+      </c>
+      <c r="L33" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -10550,7 +10900,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM31"/>
+  <dimension ref="A1:AM33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12518,6 +12868,136 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="32" spans="1:21" ht="12.75">
+      <c r="A32" s="12">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="13">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="13">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="14">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="14">
+        <v>483701.42098472</v>
+      </c>
+      <c r="F32" s="15">
+        <v>743012.90933717985</v>
+      </c>
+      <c r="G32" s="15">
+        <v>9324214.0877199322</v>
+      </c>
+      <c r="H32" s="15">
+        <v>6070063.58452</v>
+      </c>
+      <c r="I32" s="15">
+        <v>6852736.3310947558</v>
+      </c>
+      <c r="J32" s="15">
+        <v>6070063.58452</v>
+      </c>
+      <c r="K32" s="15">
+        <v>-782672.74657475576</v>
+      </c>
+      <c r="L32" s="14">
+        <v>0</v>
+      </c>
+      <c r="M32" s="23">
+        <v>0.6809999942779541</v>
+      </c>
+      <c r="N32" s="23">
+        <v>0.64800000190734863</v>
+      </c>
+      <c r="O32" s="23">
+        <v>0.66000000635782874</v>
+      </c>
+      <c r="P32" s="23">
+        <v>0.72697618699073774</v>
+      </c>
+      <c r="Q32" s="23">
+        <v>-6.6976180632908999E-2</v>
+      </c>
+      <c r="R32" s="23">
+        <v>2.8551020190829352E-2</v>
+      </c>
+      <c r="S32" s="9">
+        <v>4.2826530286244025E-4</v>
+      </c>
+      <c r="T32" s="9">
+        <v>-156.38946275884015</v>
+      </c>
+      <c r="U32" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="12.75">
+      <c r="A33" s="12">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="13">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="13">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="14">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="14">
+        <v>472644.32270317851</v>
+      </c>
+      <c r="F33" s="15">
+        <v>732781.91733315412</v>
+      </c>
+      <c r="G33" s="15">
+        <v>10056996.005053086</v>
+      </c>
+      <c r="H33" s="15">
+        <v>6486762.2314372649</v>
+      </c>
+      <c r="I33" s="15">
+        <v>7325380.6537979338</v>
+      </c>
+      <c r="J33" s="15">
+        <v>6486762.2314372649</v>
+      </c>
+      <c r="K33" s="15">
+        <v>-838618.42236066889</v>
+      </c>
+      <c r="L33" s="14">
+        <v>0</v>
+      </c>
+      <c r="M33" s="23">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="N33" s="23">
+        <v>0.6119999885559082</v>
+      </c>
+      <c r="O33" s="23">
+        <v>0.63599999745686853</v>
+      </c>
+      <c r="P33" s="23">
+        <v>0.72223809314909437</v>
+      </c>
+      <c r="Q33" s="23">
+        <v>-8.6238095692225847E-2</v>
+      </c>
+      <c r="R33" s="23">
+        <v>3.4170063855696688E-2</v>
+      </c>
+      <c r="S33" s="9">
+        <v>5.1255095783545035E-4</v>
+      </c>
+      <c r="T33" s="9">
+        <v>-168.25272565369349</v>
+      </c>
+      <c r="U33" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -12534,7 +13014,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG31"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14048,6 +14528,94 @@
         <v>1</v>
       </c>
     </row>
+    <row r="32" spans="1:14" ht="12.75">
+      <c r="A32" s="12">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="13">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="13">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="14">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="14">
+        <v>483701.42098472</v>
+      </c>
+      <c r="F32" s="15">
+        <v>743012.90933717985</v>
+      </c>
+      <c r="G32" s="15">
+        <v>9356238.2832061369</v>
+      </c>
+      <c r="H32" s="15">
+        <v>6090911.3365144944</v>
+      </c>
+      <c r="I32" s="15">
+        <v>6901016.868031756</v>
+      </c>
+      <c r="J32" s="15">
+        <v>6090911.3365144944</v>
+      </c>
+      <c r="K32" s="15">
+        <v>-810105.53151726164</v>
+      </c>
+      <c r="L32" s="14">
+        <v>0</v>
+      </c>
+      <c r="M32" s="9">
+        <v>-113.41457128255375</v>
+      </c>
+      <c r="N32" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="12.75">
+      <c r="A33" s="12">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="13">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="13">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="14">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="14">
+        <v>393870.26891931542</v>
+      </c>
+      <c r="F33" s="15">
+        <v>610651.59777762846</v>
+      </c>
+      <c r="G33" s="15">
+        <v>9966889.8809837662</v>
+      </c>
+      <c r="H33" s="15">
+        <v>6428643.7831311915</v>
+      </c>
+      <c r="I33" s="15">
+        <v>7294887.1369510712</v>
+      </c>
+      <c r="J33" s="15">
+        <v>6428643.7831311915</v>
+      </c>
+      <c r="K33" s="15">
+        <v>-866243.3538198797</v>
+      </c>
+      <c r="L33" s="14">
+        <v>0</v>
+      </c>
+      <c r="M33" s="9">
+        <v>134.00503901876459</v>
+      </c>
+      <c r="N33" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14064,7 +14632,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG31"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14105,7 +14673,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -15575,6 +16143,94 @@
         <v>11.750560187063723</v>
       </c>
       <c r="N31" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="12.75">
+      <c r="A32" s="12">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="13">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="13">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="14">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="14">
+        <v>4886263.3951152666</v>
+      </c>
+      <c r="F32" s="15">
+        <v>7505780.6809855308</v>
+      </c>
+      <c r="G32" s="15">
+        <v>80865278.339622617</v>
+      </c>
+      <c r="H32" s="15">
+        <v>52643298.049953662</v>
+      </c>
+      <c r="I32" s="15">
+        <v>58804657.6645867</v>
+      </c>
+      <c r="J32" s="15">
+        <v>52643298.049953662</v>
+      </c>
+      <c r="K32" s="15">
+        <v>-6161359.6146330386</v>
+      </c>
+      <c r="L32" s="14">
+        <v>0</v>
+      </c>
+      <c r="M32" s="9">
+        <v>-113.41457128255375</v>
+      </c>
+      <c r="N32" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="12.75">
+      <c r="A33" s="12">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="13">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="13">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="14">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="14">
+        <v>3933066.1562709101</v>
+      </c>
+      <c r="F33" s="15">
+        <v>6097777.1667857049</v>
+      </c>
+      <c r="G33" s="15">
+        <v>86963055.506408319</v>
+      </c>
+      <c r="H33" s="15">
+        <v>56091169.142944716</v>
+      </c>
+      <c r="I33" s="15">
+        <v>62737723.820857614</v>
+      </c>
+      <c r="J33" s="15">
+        <v>56091169.142944716</v>
+      </c>
+      <c r="K33" s="15">
+        <v>-6646554.6779128984</v>
+      </c>
+      <c r="L33" s="14">
+        <v>0</v>
+      </c>
+      <c r="M33" s="9">
+        <v>134.00503901876459</v>
+      </c>
+      <c r="N33" s="9">
         <v>1</v>
       </c>
     </row>
@@ -15594,7 +16250,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI31"/>
+  <dimension ref="A1:AI33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15635,7 +16291,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -15647,10 +16303,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -17287,6 +17943,106 @@
         <v>11.750560187063723</v>
       </c>
       <c r="P31" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="12.75">
+      <c r="A32" s="12">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="13">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="13">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="14">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="14">
+        <v>3444800</v>
+      </c>
+      <c r="F32" s="14">
+        <v>4128629.2469860404</v>
+      </c>
+      <c r="G32" s="14">
+        <v>4076946.3995297765</v>
+      </c>
+      <c r="H32" s="15">
+        <v>6262590.2552848859</v>
+      </c>
+      <c r="I32" s="15">
+        <v>36046691.231252484</v>
+      </c>
+      <c r="J32" s="15">
+        <v>23466396.816588655</v>
+      </c>
+      <c r="K32" s="15">
+        <v>25511344.490547538</v>
+      </c>
+      <c r="L32" s="15">
+        <v>23466396.816588655</v>
+      </c>
+      <c r="M32" s="15">
+        <v>-2044947.6739588827</v>
+      </c>
+      <c r="N32" s="14">
+        <v>0</v>
+      </c>
+      <c r="O32" s="9">
+        <v>-113.41457128255375</v>
+      </c>
+      <c r="P32" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="12.75">
+      <c r="A33" s="12">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="13">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="13">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="14">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="14">
+        <v>5609700</v>
+      </c>
+      <c r="F33" s="14">
+        <v>4135906.376174428</v>
+      </c>
+      <c r="G33" s="14">
+        <v>5334579.4633873561</v>
+      </c>
+      <c r="H33" s="15">
+        <v>8270666.0792833995</v>
+      </c>
+      <c r="I33" s="15">
+        <v>44317357.310535885</v>
+      </c>
+      <c r="J33" s="15">
+        <v>28584694.620009139</v>
+      </c>
+      <c r="K33" s="15">
+        <v>30845923.953934893</v>
+      </c>
+      <c r="L33" s="15">
+        <v>28584694.620009139</v>
+      </c>
+      <c r="M33" s="15">
+        <v>-2261229.3339257538</v>
+      </c>
+      <c r="N33" s="14">
+        <v>0</v>
+      </c>
+      <c r="O33" s="9">
+        <v>134.00503901876459</v>
+      </c>
+      <c r="P33" s="9">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="32">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -154,6 +154,10 @@
   </si>
   <si>
     <t>年化收益率</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -601,7 +605,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -694,6 +698,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -703,7 +710,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -796,6 +803,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>6865089.2319875453</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7429784.6436091401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -838,7 +848,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -931,6 +941,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -940,7 +953,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1033,6 +1046,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>6043907.7728215661</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5821489.671180008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1075,7 +1091,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1168,6 +1184,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1177,7 +1196,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1270,6 +1289,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-821181.45916597918</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1608294.9724291321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1291,11 +1313,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="568141696"/>
-        <c:axId val="593658240"/>
+        <c:axId val="390096384"/>
+        <c:axId val="390097920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="568141696"/>
+        <c:axId val="390096384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1338,14 +1360,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593658240"/>
+        <c:crossAx val="390097920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="593658240"/>
+        <c:axId val="390097920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1396,7 +1418,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568141696"/>
+        <c:crossAx val="390096384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1587,7 +1609,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1680,6 +1702,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>5334579.4633873561</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20793795.79339486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1694,8 +1719,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="598774912"/>
-        <c:axId val="598739200"/>
+        <c:axId val="533273216"/>
+        <c:axId val="533271296"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1720,7 +1745,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1813,6 +1838,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1822,7 +1850,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1915,6 +1943,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1931,11 +1962,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="598497536"/>
-        <c:axId val="598737280"/>
+        <c:axId val="532608512"/>
+        <c:axId val="532610048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="598497536"/>
+        <c:axId val="532608512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1978,14 +2009,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598737280"/>
+        <c:crossAx val="532610048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="598737280"/>
+        <c:axId val="532610048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2036,12 +2067,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598497536"/>
+        <c:crossAx val="532608512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="598739200"/>
+        <c:axId val="533271296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2078,12 +2109,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598774912"/>
+        <c:crossAx val="533273216"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="598774912"/>
+        <c:axId val="533273216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2092,7 +2123,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="598739200"/>
+        <c:crossAx val="533271296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2254,7 +2285,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2347,6 +2378,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>393870.26891931542</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>564695.41162159434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2361,8 +2395,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="596851712"/>
-        <c:axId val="596849792"/>
+        <c:axId val="525058816"/>
+        <c:axId val="504095872"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2387,7 +2421,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2480,6 +2514,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2489,7 +2526,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2582,6 +2619,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2598,11 +2638,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="596840832"/>
-        <c:axId val="596843904"/>
+        <c:axId val="503825920"/>
+        <c:axId val="503827456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="596840832"/>
+        <c:axId val="503825920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2645,14 +2685,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="596843904"/>
+        <c:crossAx val="503827456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="596843904"/>
+        <c:axId val="503827456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2703,12 +2743,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="596840832"/>
+        <c:crossAx val="503825920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="596849792"/>
+        <c:axId val="504095872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2745,12 +2785,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="596851712"/>
+        <c:crossAx val="525058816"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="596851712"/>
+        <c:axId val="525058816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2759,7 +2799,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="596849792"/>
+        <c:crossAx val="504095872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2938,7 +2978,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3031,6 +3071,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3040,7 +3083,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3133,6 +3176,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>7325380.6537979338</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8003015.1477438472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3175,7 +3221,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3268,6 +3314,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3277,7 +3326,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3370,6 +3419,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>6486762.2314372649</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6319609.1472786088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3412,7 +3464,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3505,6 +3557,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3514,7 +3569,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3607,6 +3662,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-838618.42236066889</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1683406.0004652385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3628,11 +3686,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="596914560"/>
-        <c:axId val="596916096"/>
+        <c:axId val="528345344"/>
+        <c:axId val="528347136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="596914560"/>
+        <c:axId val="528345344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3675,14 +3733,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="596916096"/>
+        <c:crossAx val="528347136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="596916096"/>
+        <c:axId val="528347136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3733,7 +3791,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="596914560"/>
+        <c:crossAx val="528345344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3924,7 +3982,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4017,6 +4075,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>472644.32270317851</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>677634.49394591316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4031,8 +4092,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="596990592"/>
-        <c:axId val="596988672"/>
+        <c:axId val="528407168"/>
+        <c:axId val="528404864"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4057,7 +4118,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4150,6 +4211,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4159,7 +4223,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4252,6 +4316,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4268,11 +4335,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="596977152"/>
-        <c:axId val="596978688"/>
+        <c:axId val="528388864"/>
+        <c:axId val="528390400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="596977152"/>
+        <c:axId val="528388864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4315,14 +4382,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="596978688"/>
+        <c:crossAx val="528390400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="596978688"/>
+        <c:axId val="528390400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4373,12 +4440,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="596977152"/>
+        <c:crossAx val="528388864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="596988672"/>
+        <c:axId val="528404864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4415,12 +4482,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="596990592"/>
+        <c:crossAx val="528407168"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="596990592"/>
+        <c:axId val="528407168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4429,7 +4496,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="596988672"/>
+        <c:crossAx val="528404864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4608,7 +4675,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4701,6 +4768,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4710,7 +4780,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4803,6 +4873,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>7294887.1369510712</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7972521.6308969846</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4845,7 +4918,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4938,6 +5011,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4947,7 +5023,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5040,6 +5116,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>6428643.7831311915</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6269059.6126209693</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5082,7 +5161,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5175,6 +5254,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5184,7 +5266,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5277,6 +5359,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-866243.3538198797</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1703462.0182760153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5298,11 +5383,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="597032960"/>
-        <c:axId val="597034880"/>
+        <c:axId val="528442880"/>
+        <c:axId val="528444416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="597032960"/>
+        <c:axId val="528442880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5345,14 +5430,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="597034880"/>
+        <c:crossAx val="528444416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="597034880"/>
+        <c:axId val="528444416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5403,7 +5488,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="597032960"/>
+        <c:crossAx val="528442880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5594,7 +5679,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5687,6 +5772,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>393870.26891931542</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>677634.49394591316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5701,8 +5789,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="597863808"/>
-        <c:axId val="597861504"/>
+        <c:axId val="528900480"/>
+        <c:axId val="528513664"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5727,7 +5815,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5820,6 +5908,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5829,7 +5920,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5922,6 +6013,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5938,11 +6032,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="597075072"/>
-        <c:axId val="597076608"/>
+        <c:axId val="528509568"/>
+        <c:axId val="528511744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="597075072"/>
+        <c:axId val="528509568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5985,14 +6079,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="597076608"/>
+        <c:crossAx val="528511744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="597076608"/>
+        <c:axId val="528511744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6043,12 +6137,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="597075072"/>
+        <c:crossAx val="528509568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="597861504"/>
+        <c:axId val="528513664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6085,12 +6179,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="597863808"/>
+        <c:crossAx val="528900480"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="597863808"/>
+        <c:axId val="528900480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6099,7 +6193,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="597861504"/>
+        <c:crossAx val="528513664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6278,7 +6372,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6371,6 +6465,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6380,7 +6477,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6473,6 +6570,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>62737723.820857614</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>70839944.850778222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6515,7 +6615,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6608,6 +6708,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6617,7 +6720,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6710,6 +6813,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>56091169.142944716</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>56888494.256736919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6752,7 +6858,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6845,6 +6951,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6854,7 +6963,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6947,6 +7056,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-6646554.6779128984</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-13951450.594041303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6968,11 +7080,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="598000000"/>
-        <c:axId val="598002304"/>
+        <c:axId val="531346176"/>
+        <c:axId val="531347712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="598000000"/>
+        <c:axId val="531346176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7015,14 +7127,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598002304"/>
+        <c:crossAx val="531347712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="598002304"/>
+        <c:axId val="531347712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7073,7 +7185,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598000000"/>
+        <c:crossAx val="531346176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7264,7 +7376,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7357,6 +7469,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>86963055.506408319</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>101405517.50538883</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7371,8 +7486,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="598096128"/>
-        <c:axId val="598094592"/>
+        <c:axId val="531745408"/>
+        <c:axId val="531743872"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7397,7 +7512,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7490,6 +7605,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7499,7 +7617,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7592,6 +7710,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7608,11 +7729,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="598054016"/>
-        <c:axId val="598055936"/>
+        <c:axId val="531543552"/>
+        <c:axId val="531545088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="598054016"/>
+        <c:axId val="531543552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7655,14 +7776,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598055936"/>
+        <c:crossAx val="531545088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="598055936"/>
+        <c:axId val="531545088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7713,12 +7834,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598054016"/>
+        <c:crossAx val="531543552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="598094592"/>
+        <c:axId val="531743872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7755,12 +7876,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598096128"/>
+        <c:crossAx val="531745408"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="598096128"/>
+        <c:axId val="531745408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7769,7 +7890,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="598094592"/>
+        <c:crossAx val="531743872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7948,7 +8069,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8041,6 +8162,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8050,7 +8174,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8143,6 +8267,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>30845923.953934893</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>51639719.747329757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8185,7 +8312,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8278,6 +8405,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8287,7 +8417,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8380,6 +8510,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>28584694.620009139</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45655832.779697917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8422,7 +8555,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8515,6 +8648,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8524,7 +8660,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8617,6 +8753,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-2261229.3339257538</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-5983886.9676318392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8638,11 +8777,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="598222336"/>
-        <c:axId val="598224256"/>
+        <c:axId val="531897728"/>
+        <c:axId val="532268160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="598222336"/>
+        <c:axId val="531897728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8685,14 +8824,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598224256"/>
+        <c:crossAx val="532268160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="598224256"/>
+        <c:axId val="532268160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8743,7 +8882,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598222336"/>
+        <c:crossAx val="531897728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9457,7 +9596,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10884,6 +11023,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="34" spans="1:12" ht="12.75">
+      <c r="A34" s="12">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="13">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="13">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="14">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="14">
+        <v>564695.41162159434</v>
+      </c>
+      <c r="F34" s="15">
+        <v>1006587.2053139294</v>
+      </c>
+      <c r="G34" s="15">
+        <v>10376987.13019418</v>
+      </c>
+      <c r="H34" s="15">
+        <v>5821489.671180008</v>
+      </c>
+      <c r="I34" s="15">
+        <v>7429784.6436091401</v>
+      </c>
+      <c r="J34" s="15">
+        <v>5821489.671180008</v>
+      </c>
+      <c r="K34" s="15">
+        <v>-1608294.9724291321</v>
+      </c>
+      <c r="L34" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -10900,7 +11077,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM33"/>
+  <dimension ref="A1:AM34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10941,7 +11118,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -10977,10 +11154,10 @@
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>4</v>
@@ -11001,7 +11178,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.1" customHeight="1">
@@ -12995,6 +13172,71 @@
         <v>-168.25272565369349</v>
       </c>
       <c r="U33" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="12.75">
+      <c r="A34" s="12">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="13">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="13">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="14">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="14">
+        <v>677634.49394591316</v>
+      </c>
+      <c r="F34" s="15">
+        <v>1207904.646376715</v>
+      </c>
+      <c r="G34" s="15">
+        <v>11264900.651429802</v>
+      </c>
+      <c r="H34" s="15">
+        <v>6319609.1472786088</v>
+      </c>
+      <c r="I34" s="15">
+        <v>8003015.1477438472</v>
+      </c>
+      <c r="J34" s="15">
+        <v>6319609.1472786088</v>
+      </c>
+      <c r="K34" s="15">
+        <v>-1683406.0004652385</v>
+      </c>
+      <c r="L34" s="14">
+        <v>0</v>
+      </c>
+      <c r="M34" s="23">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="N34" s="23">
+        <v>0.55900001525878906</v>
+      </c>
+      <c r="O34" s="23">
+        <v>0.58833332856496179</v>
+      </c>
+      <c r="P34" s="23">
+        <v>0.71309523450760626</v>
+      </c>
+      <c r="Q34" s="23">
+        <v>-0.12476190594264447</v>
+      </c>
+      <c r="R34" s="23">
+        <v>4.5925167823324356E-2</v>
+      </c>
+      <c r="S34" s="9">
+        <v>6.8887751734986527E-4</v>
+      </c>
+      <c r="T34" s="9">
+        <v>-181.10898207653469</v>
+      </c>
+      <c r="U34" s="11">
         <v>1.2</v>
       </c>
     </row>
@@ -13014,7 +13256,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13094,7 +13336,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -14614,6 +14856,50 @@
       </c>
       <c r="N33" s="9">
         <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="12.75">
+      <c r="A34" s="12">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="13">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="13">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="14">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="14">
+        <v>677634.49394591316</v>
+      </c>
+      <c r="F34" s="15">
+        <v>1207904.646376715</v>
+      </c>
+      <c r="G34" s="15">
+        <v>11174794.52736048</v>
+      </c>
+      <c r="H34" s="15">
+        <v>6269059.6126209693</v>
+      </c>
+      <c r="I34" s="15">
+        <v>7972521.6308969846</v>
+      </c>
+      <c r="J34" s="15">
+        <v>6269059.6126209693</v>
+      </c>
+      <c r="K34" s="15">
+        <v>-1703462.0182760153</v>
+      </c>
+      <c r="L34" s="14">
+        <v>0</v>
+      </c>
+      <c r="M34" s="9">
+        <v>-202.99979347003418</v>
+      </c>
+      <c r="N34" s="9">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -14632,7 +14918,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14673,7 +14959,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -14712,7 +14998,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -16232,6 +16518,50 @@
       </c>
       <c r="N33" s="9">
         <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="12.75">
+      <c r="A34" s="12">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="13">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="13">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="14">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="14">
+        <v>8102221.0299206059</v>
+      </c>
+      <c r="F34" s="15">
+        <v>14442461.998980502</v>
+      </c>
+      <c r="G34" s="15">
+        <v>101405517.50538883</v>
+      </c>
+      <c r="H34" s="15">
+        <v>56888494.256736919</v>
+      </c>
+      <c r="I34" s="15">
+        <v>70839944.850778222</v>
+      </c>
+      <c r="J34" s="15">
+        <v>56888494.256736919</v>
+      </c>
+      <c r="K34" s="15">
+        <v>-13951450.594041303</v>
+      </c>
+      <c r="L34" s="14">
+        <v>0</v>
+      </c>
+      <c r="M34" s="9">
+        <v>-202.99979347003418</v>
+      </c>
+      <c r="N34" s="9">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -16250,7 +16580,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI33"/>
+  <dimension ref="A1:AI34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16291,7 +16621,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -16303,10 +16633,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -16336,7 +16666,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.1" customHeight="1">
@@ -18044,6 +18374,56 @@
       </c>
       <c r="P33" s="9">
         <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="12.75">
+      <c r="A34" s="12">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="13">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="13">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="14">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="14">
+        <v>10787006</v>
+      </c>
+      <c r="F34" s="14">
+        <v>4203114.608389196</v>
+      </c>
+      <c r="G34" s="14">
+        <v>20793795.79339486</v>
+      </c>
+      <c r="H34" s="15">
+        <v>37065590.342653081</v>
+      </c>
+      <c r="I34" s="15">
+        <v>81382947.653188974</v>
+      </c>
+      <c r="J34" s="15">
+        <v>45655832.779697917</v>
+      </c>
+      <c r="K34" s="15">
+        <v>51639719.747329757</v>
+      </c>
+      <c r="L34" s="15">
+        <v>45655832.779697917</v>
+      </c>
+      <c r="M34" s="15">
+        <v>-5983886.9676318392</v>
+      </c>
+      <c r="N34" s="14">
+        <v>0</v>
+      </c>
+      <c r="O34" s="9">
+        <v>-202.99979347003418</v>
+      </c>
+      <c r="P34" s="9">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
@@ -173,7 +173,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
+    <t>每年投入本金</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -605,7 +605,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -701,6 +701,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -710,7 +713,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -806,6 +809,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>7429784.6436091401</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7795825.7760371994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -848,7 +854,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -944,6 +950,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -953,7 +962,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1049,6 +1058,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>5821489.671180008</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6986559.0402471395</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1091,7 +1103,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1187,6 +1199,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1196,7 +1211,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1292,6 +1307,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-1608294.9724291321</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-809266.7357900599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1313,11 +1331,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="390096384"/>
-        <c:axId val="390097920"/>
+        <c:axId val="420869248"/>
+        <c:axId val="420871552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="390096384"/>
+        <c:axId val="420869248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1360,14 +1378,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390097920"/>
+        <c:crossAx val="420871552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="390097920"/>
+        <c:axId val="420871552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1418,7 +1436,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390096384"/>
+        <c:crossAx val="420869248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1609,7 +1627,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1705,6 +1723,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>20793795.79339486</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10424510.063189363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1719,8 +1740,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="533273216"/>
-        <c:axId val="533271296"/>
+        <c:axId val="528773888"/>
+        <c:axId val="528661504"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1745,7 +1766,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1841,6 +1862,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1850,7 +1874,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1946,6 +1970,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1962,11 +1989,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="532608512"/>
-        <c:axId val="532610048"/>
+        <c:axId val="528591872"/>
+        <c:axId val="528659968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="532608512"/>
+        <c:axId val="528591872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2009,14 +2036,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532610048"/>
+        <c:crossAx val="528659968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="532610048"/>
+        <c:axId val="528659968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2067,12 +2094,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532608512"/>
+        <c:crossAx val="528591872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="533271296"/>
+        <c:axId val="528661504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2109,12 +2136,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533273216"/>
+        <c:crossAx val="528773888"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="533273216"/>
+        <c:axId val="528773888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2123,7 +2150,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="533271296"/>
+        <c:crossAx val="528661504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2285,7 +2312,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2381,6 +2408,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>564695.41162159434</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>366041.13242805976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2395,8 +2425,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="525058816"/>
-        <c:axId val="504095872"/>
+        <c:axId val="497516928"/>
+        <c:axId val="494971520"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2421,7 +2451,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2517,6 +2547,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2526,7 +2559,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2622,6 +2655,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2638,11 +2674,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="503825920"/>
-        <c:axId val="503827456"/>
+        <c:axId val="493332736"/>
+        <c:axId val="494969216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="503825920"/>
+        <c:axId val="493332736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2685,14 +2721,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503827456"/>
+        <c:crossAx val="494969216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="503827456"/>
+        <c:axId val="494969216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2743,12 +2779,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503825920"/>
+        <c:crossAx val="493332736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="504095872"/>
+        <c:axId val="494971520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2785,12 +2821,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525058816"/>
+        <c:crossAx val="497516928"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="525058816"/>
+        <c:axId val="497516928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2799,7 +2835,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="504095872"/>
+        <c:crossAx val="494971520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2978,7 +3014,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3074,6 +3110,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3083,7 +3122,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3179,6 +3218,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>8003015.1477438472</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8442264.5066575184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3221,7 +3263,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3317,6 +3359,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3326,7 +3371,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3422,6 +3467,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>6319609.1472786088</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7626256.1034424435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3464,7 +3512,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3560,6 +3608,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3569,7 +3620,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3665,6 +3716,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-1683406.0004652385</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-816008.40321507491</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3686,11 +3740,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="528345344"/>
-        <c:axId val="528347136"/>
+        <c:axId val="527885056"/>
+        <c:axId val="527886592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="528345344"/>
+        <c:axId val="527885056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3733,14 +3787,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528347136"/>
+        <c:crossAx val="527886592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="528347136"/>
+        <c:axId val="527886592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3791,7 +3845,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528345344"/>
+        <c:crossAx val="527885056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3982,7 +4036,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4078,6 +4132,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>677634.49394591316</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>439249.35891367169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4092,8 +4149,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="528407168"/>
-        <c:axId val="528404864"/>
+        <c:axId val="527921920"/>
+        <c:axId val="527911552"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4118,7 +4175,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4214,6 +4271,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4223,7 +4283,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4319,6 +4379,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4335,11 +4398,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="528388864"/>
-        <c:axId val="528390400"/>
+        <c:axId val="527907072"/>
+        <c:axId val="527909632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="528388864"/>
+        <c:axId val="527907072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4382,14 +4445,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528390400"/>
+        <c:crossAx val="527909632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="528390400"/>
+        <c:axId val="527909632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4440,12 +4503,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528388864"/>
+        <c:crossAx val="527907072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="528404864"/>
+        <c:axId val="527911552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4482,12 +4545,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528407168"/>
+        <c:crossAx val="527921920"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="528407168"/>
+        <c:axId val="527921920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4496,7 +4559,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="528404864"/>
+        <c:crossAx val="527911552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4675,7 +4738,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4771,6 +4834,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4780,7 +4846,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4876,6 +4942,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>7972521.6308969846</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8338562.763325044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4918,7 +4987,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5014,6 +5083,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5023,7 +5095,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5119,6 +5191,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>6269059.6126209693</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7495560.1687694201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5161,7 +5236,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5257,6 +5332,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5266,7 +5344,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5362,6 +5440,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-1703462.0182760153</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-843002.59455562383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5383,11 +5464,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="528442880"/>
-        <c:axId val="528444416"/>
+        <c:axId val="527950976"/>
+        <c:axId val="527952512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="528442880"/>
+        <c:axId val="527950976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5430,14 +5511,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528444416"/>
+        <c:crossAx val="527952512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="528444416"/>
+        <c:axId val="527952512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5488,7 +5569,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528442880"/>
+        <c:crossAx val="527950976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5679,7 +5760,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5775,6 +5856,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>677634.49394591316</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>366041.13242805976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5789,8 +5873,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="528900480"/>
-        <c:axId val="528513664"/>
+        <c:axId val="527994880"/>
+        <c:axId val="527993088"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5815,7 +5899,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5911,6 +5995,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5920,7 +6007,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6016,6 +6103,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6032,11 +6122,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="528509568"/>
-        <c:axId val="528511744"/>
+        <c:axId val="527988608"/>
+        <c:axId val="527991552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="528509568"/>
+        <c:axId val="527988608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6079,14 +6169,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528511744"/>
+        <c:crossAx val="527991552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="528511744"/>
+        <c:axId val="527991552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6137,12 +6227,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528509568"/>
+        <c:crossAx val="527988608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="528513664"/>
+        <c:axId val="527993088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6179,12 +6269,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528900480"/>
+        <c:crossAx val="527994880"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="528900480"/>
+        <c:axId val="527994880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6193,7 +6283,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="528513664"/>
+        <c:crossAx val="527993088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6372,7 +6462,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6468,6 +6558,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6477,7 +6570,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6573,6 +6666,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>70839944.850778222</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>74363623.440136388</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6615,7 +6711,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6711,6 +6807,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6720,7 +6819,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6816,6 +6915,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>56888494.256736919</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>68220399.918290302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6858,7 +6960,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6954,6 +7056,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6963,7 +7068,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7059,6 +7164,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-13951450.594041303</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-6143223.5218460858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7080,11 +7188,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="531346176"/>
-        <c:axId val="531347712"/>
+        <c:axId val="528011264"/>
+        <c:axId val="528013184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="531346176"/>
+        <c:axId val="528011264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7127,14 +7235,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531347712"/>
+        <c:crossAx val="528013184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="531347712"/>
+        <c:axId val="528013184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7185,7 +7293,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531346176"/>
+        <c:crossAx val="528011264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7376,7 +7484,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7472,6 +7580,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>101405517.50538883</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>106928524.59967154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7486,8 +7597,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="531745408"/>
-        <c:axId val="531743872"/>
+        <c:axId val="528079488"/>
+        <c:axId val="528077568"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7512,7 +7623,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7608,6 +7719,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7617,7 +7731,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7713,6 +7827,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7729,11 +7846,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="531543552"/>
-        <c:axId val="531545088"/>
+        <c:axId val="528074240"/>
+        <c:axId val="528075776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="531543552"/>
+        <c:axId val="528074240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7776,14 +7893,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531545088"/>
+        <c:crossAx val="528075776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="531545088"/>
+        <c:axId val="528075776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7834,12 +7951,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531543552"/>
+        <c:crossAx val="528074240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="531743872"/>
+        <c:axId val="528077568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7876,12 +7993,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531745408"/>
+        <c:crossAx val="528079488"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="531745408"/>
+        <c:axId val="528079488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7890,7 +8007,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="531743872"/>
+        <c:crossAx val="528077568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8069,7 +8186,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8165,6 +8282,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8174,7 +8294,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8270,6 +8390,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>51639719.747329757</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>62064229.810519122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8312,7 +8435,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8408,6 +8531,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8417,7 +8543,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8513,6 +8639,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45655832.779697917</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>62346831.59727785</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8555,7 +8684,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8651,6 +8780,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8660,7 +8792,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8756,6 +8888,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-5983886.9676318392</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>282601.78675872833</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8777,11 +8912,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="531897728"/>
-        <c:axId val="532268160"/>
+        <c:axId val="528478208"/>
+        <c:axId val="528480128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="531897728"/>
+        <c:axId val="528478208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8824,14 +8959,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532268160"/>
+        <c:crossAx val="528480128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="532268160"/>
+        <c:axId val="528480128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8882,7 +9017,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531897728"/>
+        <c:crossAx val="528478208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9596,7 +9731,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11061,6 +11196,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="1:12" ht="12.75">
+      <c r="A35" s="12">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="13">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="13">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="14">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="14">
+        <v>366041.13242805976</v>
+      </c>
+      <c r="F35" s="15">
+        <v>573732.17219783086</v>
+      </c>
+      <c r="G35" s="15">
+        <v>10950719.30239201</v>
+      </c>
+      <c r="H35" s="15">
+        <v>6986559.0402471395</v>
+      </c>
+      <c r="I35" s="15">
+        <v>7795825.7760371994</v>
+      </c>
+      <c r="J35" s="15">
+        <v>6986559.0402471395</v>
+      </c>
+      <c r="K35" s="15">
+        <v>-809266.7357900599</v>
+      </c>
+      <c r="L35" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -11077,7 +11250,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM34"/>
+  <dimension ref="A1:AM35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11261,7 +11434,7 @@
         <v>7</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="X3" s="16" t="s">
         <v>20</v>
@@ -13237,6 +13410,71 @@
         <v>-181.10898207653469</v>
       </c>
       <c r="U34" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="12.75">
+      <c r="A35" s="12">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="13">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="13">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="14">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="14">
+        <v>439249.35891367169</v>
+      </c>
+      <c r="F35" s="15">
+        <v>688478.60663739708</v>
+      </c>
+      <c r="G35" s="15">
+        <v>11953379.2580672</v>
+      </c>
+      <c r="H35" s="15">
+        <v>7626256.1034424435</v>
+      </c>
+      <c r="I35" s="15">
+        <v>8442264.5066575184</v>
+      </c>
+      <c r="J35" s="15">
+        <v>7626256.1034424435</v>
+      </c>
+      <c r="K35" s="15">
+        <v>-816008.40321507491</v>
+      </c>
+      <c r="L35" s="14">
+        <v>0</v>
+      </c>
+      <c r="M35" s="23">
+        <v>0.63999998569488525</v>
+      </c>
+      <c r="N35" s="23">
+        <v>0.53600001335144043</v>
+      </c>
+      <c r="O35" s="23">
+        <v>0.60466667016347253</v>
+      </c>
+      <c r="P35" s="23">
+        <v>0.70433333043825086</v>
+      </c>
+      <c r="Q35" s="23">
+        <v>-9.9666660274778329E-2</v>
+      </c>
+      <c r="R35" s="23">
+        <v>5.3904759241610103E-2</v>
+      </c>
+      <c r="S35" s="9">
+        <v>8.0857138862415153E-4</v>
+      </c>
+      <c r="T35" s="9">
+        <v>-123.2626601398413</v>
+      </c>
+      <c r="U35" s="11">
         <v>1.2</v>
       </c>
     </row>
@@ -13256,7 +13494,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13406,7 +13644,7 @@
         <v>7</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="R3" s="16" t="s">
         <v>20</v>
@@ -14900,6 +15138,50 @@
       </c>
       <c r="N34" s="9">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="12.75">
+      <c r="A35" s="12">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="13">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="13">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="14">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="14">
+        <v>366041.13242805976</v>
+      </c>
+      <c r="F35" s="15">
+        <v>573732.17219783086</v>
+      </c>
+      <c r="G35" s="15">
+        <v>11748526.69955831</v>
+      </c>
+      <c r="H35" s="15">
+        <v>7495560.1687694201</v>
+      </c>
+      <c r="I35" s="15">
+        <v>8338562.763325044</v>
+      </c>
+      <c r="J35" s="15">
+        <v>7495560.1687694201</v>
+      </c>
+      <c r="K35" s="15">
+        <v>-843002.59455562383</v>
+      </c>
+      <c r="L35" s="14">
+        <v>0</v>
+      </c>
+      <c r="M35" s="9">
+        <v>102.81793481326457</v>
+      </c>
+      <c r="N35" s="9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -14918,7 +15200,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15068,7 +15350,7 @@
         <v>7</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="R3" s="16" t="s">
         <v>20</v>
@@ -16562,6 +16844,50 @@
       </c>
       <c r="N34" s="9">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="12.75">
+      <c r="A35" s="12">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="13">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="13">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="14">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="14">
+        <v>3523678.5893581696</v>
+      </c>
+      <c r="F35" s="15">
+        <v>5523007.0942827109</v>
+      </c>
+      <c r="G35" s="15">
+        <v>106928524.59967154</v>
+      </c>
+      <c r="H35" s="15">
+        <v>68220399.918290302</v>
+      </c>
+      <c r="I35" s="15">
+        <v>74363623.440136388</v>
+      </c>
+      <c r="J35" s="15">
+        <v>68220399.918290302</v>
+      </c>
+      <c r="K35" s="15">
+        <v>-6143223.5218460858</v>
+      </c>
+      <c r="L35" s="14">
+        <v>0</v>
+      </c>
+      <c r="M35" s="9">
+        <v>102.81793481326457</v>
+      </c>
+      <c r="N35" s="9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -16580,7 +16906,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI34"/>
+  <dimension ref="A1:AI35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16621,7 +16947,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -16744,7 +17070,7 @@
         <v>7</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="T3" s="16" t="s">
         <v>20</v>
@@ -18424,6 +18750,56 @@
       </c>
       <c r="P34" s="9">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="12.75">
+      <c r="A35" s="12">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="13">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="13">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="14">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="14">
+        <v>12736000</v>
+      </c>
+      <c r="F35" s="14">
+        <v>4305005.2464849772</v>
+      </c>
+      <c r="G35" s="14">
+        <v>10424510.063189363</v>
+      </c>
+      <c r="H35" s="15">
+        <v>16339357.17272768</v>
+      </c>
+      <c r="I35" s="15">
+        <v>97722304.825916648</v>
+      </c>
+      <c r="J35" s="15">
+        <v>62346831.59727785</v>
+      </c>
+      <c r="K35" s="15">
+        <v>62064229.810519122</v>
+      </c>
+      <c r="L35" s="15">
+        <v>62346831.59727785</v>
+      </c>
+      <c r="M35" s="15">
+        <v>282601.78675872833</v>
+      </c>
+      <c r="N35" s="14">
+        <v>0</v>
+      </c>
+      <c r="O35" s="9">
+        <v>102.81793481326457</v>
+      </c>
+      <c r="P35" s="9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="31">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -157,10 +157,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>最高价</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -173,7 +169,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>每年投入本金</t>
+    <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -605,7 +601,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -704,6 +700,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -713,7 +712,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -812,6 +811,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>7795825.7760371994</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8128674.1780120125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -854,7 +856,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -953,6 +955,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -962,7 +967,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1061,6 +1066,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>6986559.0402471395</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7407013.3741792245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1103,7 +1111,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1202,6 +1210,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1211,7 +1222,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1310,6 +1321,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-809266.7357900599</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-721660.80383278802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1331,11 +1345,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="420869248"/>
-        <c:axId val="420871552"/>
+        <c:axId val="516086400"/>
+        <c:axId val="518717824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="420869248"/>
+        <c:axId val="516086400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,14 +1392,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420871552"/>
+        <c:crossAx val="518717824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="420871552"/>
+        <c:axId val="518717824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1436,7 +1450,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420869248"/>
+        <c:crossAx val="516086400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1627,7 +1641,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1726,6 +1740,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>10424510.063189363</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5902723.3579780655</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1740,8 +1757,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="528773888"/>
-        <c:axId val="528661504"/>
+        <c:axId val="551336960"/>
+        <c:axId val="551335040"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1766,7 +1783,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1865,6 +1882,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1874,7 +1894,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1973,6 +1993,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1989,11 +2012,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="528591872"/>
-        <c:axId val="528659968"/>
+        <c:axId val="551330176"/>
+        <c:axId val="551331712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="528591872"/>
+        <c:axId val="551330176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2036,14 +2059,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528659968"/>
+        <c:crossAx val="551331712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="528659968"/>
+        <c:axId val="551331712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2094,12 +2117,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528591872"/>
+        <c:crossAx val="551330176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="528661504"/>
+        <c:axId val="551335040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2136,12 +2159,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528773888"/>
+        <c:crossAx val="551336960"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="528773888"/>
+        <c:axId val="551336960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2150,7 +2173,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="528661504"/>
+        <c:crossAx val="551335040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2312,7 +2335,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2411,6 +2434,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>366041.13242805976</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>332848.40197481349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2425,8 +2451,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="497516928"/>
-        <c:axId val="494971520"/>
+        <c:axId val="518829184"/>
+        <c:axId val="518765952"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2451,7 +2477,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2550,6 +2576,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2559,7 +2588,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2658,6 +2687,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2674,11 +2706,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493332736"/>
-        <c:axId val="494969216"/>
+        <c:axId val="518748800"/>
+        <c:axId val="518764032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493332736"/>
+        <c:axId val="518748800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2721,14 +2753,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494969216"/>
+        <c:crossAx val="518764032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="494969216"/>
+        <c:axId val="518764032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2779,12 +2811,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493332736"/>
+        <c:crossAx val="518748800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="494971520"/>
+        <c:axId val="518765952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2821,12 +2853,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497516928"/>
+        <c:crossAx val="518829184"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="497516928"/>
+        <c:axId val="518829184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2835,7 +2867,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="494971520"/>
+        <c:crossAx val="518765952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3014,7 +3046,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3113,6 +3145,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3122,7 +3157,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3221,6 +3256,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>8442264.5066575184</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8775112.9086323325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3263,7 +3301,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3362,6 +3400,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3371,7 +3412,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3470,6 +3511,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>7626256.1034424435</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8054731.7332755178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3512,7 +3556,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3611,6 +3655,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3620,7 +3667,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3719,6 +3766,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-816008.40321507491</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-720381.17535681464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3740,11 +3790,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="527885056"/>
-        <c:axId val="527886592"/>
+        <c:axId val="518891776"/>
+        <c:axId val="518898816"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="527885056"/>
+        <c:axId val="518891776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3787,14 +3837,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527886592"/>
+        <c:crossAx val="518898816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="527886592"/>
+        <c:axId val="518898816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3845,7 +3895,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527885056"/>
+        <c:crossAx val="518891776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4036,7 +4086,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4135,6 +4185,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>439249.35891367169</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>332848.40197481349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4149,8 +4202,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="527921920"/>
-        <c:axId val="527911552"/>
+        <c:axId val="518944640"/>
+        <c:axId val="518942720"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4175,7 +4228,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4274,6 +4327,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4283,7 +4339,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4382,6 +4438,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4398,11 +4457,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="527907072"/>
-        <c:axId val="527909632"/>
+        <c:axId val="518918912"/>
+        <c:axId val="518920448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="527907072"/>
+        <c:axId val="518918912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4445,14 +4504,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527909632"/>
+        <c:crossAx val="518920448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="527909632"/>
+        <c:axId val="518920448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4503,12 +4562,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527907072"/>
+        <c:crossAx val="518918912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="527911552"/>
+        <c:axId val="518942720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4545,12 +4604,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527921920"/>
+        <c:crossAx val="518944640"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="527921920"/>
+        <c:axId val="518944640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4559,7 +4618,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="527911552"/>
+        <c:crossAx val="518942720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4738,7 +4797,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4837,6 +4896,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4846,7 +4908,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4945,6 +5007,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>8338562.763325044</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8671411.165299857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4987,7 +5052,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5086,6 +5151,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5095,7 +5163,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5194,6 +5262,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>7495560.1687694201</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7922396.9748132583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5236,7 +5307,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5335,6 +5406,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5344,7 +5418,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5443,6 +5517,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-843002.59455562383</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-749014.19048659876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5464,11 +5541,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="527950976"/>
-        <c:axId val="527952512"/>
+        <c:axId val="543169152"/>
+        <c:axId val="543172096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="527950976"/>
+        <c:axId val="543169152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5511,14 +5588,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527952512"/>
+        <c:crossAx val="543172096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="527952512"/>
+        <c:axId val="543172096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5569,7 +5646,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527950976"/>
+        <c:crossAx val="543169152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5760,7 +5837,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5859,6 +5936,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>366041.13242805976</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>332848.40197481349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5873,8 +5953,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="527994880"/>
-        <c:axId val="527993088"/>
+        <c:axId val="543221248"/>
+        <c:axId val="543206784"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5899,7 +5979,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5998,6 +6078,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6007,7 +6090,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6106,6 +6189,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6122,11 +6208,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="527988608"/>
-        <c:axId val="527991552"/>
+        <c:axId val="543203328"/>
+        <c:axId val="543205248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="527988608"/>
+        <c:axId val="543203328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6169,14 +6255,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527991552"/>
+        <c:crossAx val="543205248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="527991552"/>
+        <c:axId val="543205248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6227,12 +6313,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527988608"/>
+        <c:crossAx val="543203328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="527993088"/>
+        <c:axId val="543206784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6269,12 +6355,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527994880"/>
+        <c:crossAx val="543221248"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="527994880"/>
+        <c:axId val="543221248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6283,7 +6369,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="527993088"/>
+        <c:crossAx val="543206784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6462,7 +6548,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6561,6 +6647,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6570,7 +6659,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6669,6 +6758,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>74363623.440136388</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>77419045.194995031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6711,7 +6803,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6810,6 +6902,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6819,7 +6914,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6918,6 +7013,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>68220399.918290302</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>72131251.603521094</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6960,7 +7058,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7059,6 +7157,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7068,7 +7169,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7167,6 +7268,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-6143223.5218460858</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-5287793.591473937</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7188,11 +7292,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="528011264"/>
-        <c:axId val="528013184"/>
+        <c:axId val="543341568"/>
+        <c:axId val="543364608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="528011264"/>
+        <c:axId val="543341568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7235,14 +7339,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528013184"/>
+        <c:crossAx val="543364608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="528013184"/>
+        <c:axId val="543364608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7293,7 +7397,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528011264"/>
+        <c:crossAx val="543341568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7484,7 +7588,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7583,6 +7687,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>106928524.59967154</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>111658279.43566212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7597,8 +7704,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="528079488"/>
-        <c:axId val="528077568"/>
+        <c:axId val="543640192"/>
+        <c:axId val="543638272"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7623,7 +7730,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7722,6 +7829,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7731,7 +7841,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7830,6 +7940,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7846,11 +7959,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="528074240"/>
-        <c:axId val="528075776"/>
+        <c:axId val="543577216"/>
+        <c:axId val="543579136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="528074240"/>
+        <c:axId val="543577216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7893,14 +8006,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528075776"/>
+        <c:crossAx val="543579136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="528075776"/>
+        <c:axId val="543579136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7951,12 +8064,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528074240"/>
+        <c:crossAx val="543577216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="528077568"/>
+        <c:axId val="543638272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7993,12 +8106,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528079488"/>
+        <c:crossAx val="543640192"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="528079488"/>
+        <c:axId val="543640192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8007,7 +8120,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="528077568"/>
+        <c:crossAx val="543638272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8186,7 +8299,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8285,6 +8398,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8294,7 +8410,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8393,6 +8509,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>62064229.810519122</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>67966953.16849719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8435,7 +8554,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8534,6 +8653,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8543,7 +8665,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8642,6 +8764,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>62346831.59727785</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>69031334.978182539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8684,7 +8809,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8783,6 +8908,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8792,7 +8920,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8891,6 +9019,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>282601.78675872833</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1064381.8096853495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8912,11 +9043,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="528478208"/>
-        <c:axId val="528480128"/>
+        <c:axId val="543966336"/>
+        <c:axId val="543967872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="528478208"/>
+        <c:axId val="543966336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8959,14 +9090,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528480128"/>
+        <c:crossAx val="543967872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="528480128"/>
+        <c:axId val="543967872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9017,7 +9148,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528478208"/>
+        <c:crossAx val="543966336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9731,7 +9862,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG35"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11234,6 +11365,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="36" spans="1:12" ht="12.75">
+      <c r="A36" s="12">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="13">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="13">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="14">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="14">
+        <v>332848.40197481349</v>
+      </c>
+      <c r="F36" s="15">
+        <v>515245.18223669764</v>
+      </c>
+      <c r="G36" s="15">
+        <v>11465964.484628707</v>
+      </c>
+      <c r="H36" s="15">
+        <v>7407013.3741792245</v>
+      </c>
+      <c r="I36" s="15">
+        <v>8128674.1780120125</v>
+      </c>
+      <c r="J36" s="15">
+        <v>7407013.3741792245</v>
+      </c>
+      <c r="K36" s="15">
+        <v>-721660.80383278802</v>
+      </c>
+      <c r="L36" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -11250,7 +11419,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM35"/>
+  <dimension ref="A1:AM36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11291,7 +11460,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -11327,10 +11496,10 @@
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>4</v>
@@ -11351,7 +11520,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.1" customHeight="1">
@@ -11434,7 +11603,7 @@
         <v>7</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="X3" s="16" t="s">
         <v>20</v>
@@ -13476,6 +13645,71 @@
       </c>
       <c r="U35" s="11">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="12.75">
+      <c r="A36" s="12">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="13">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="13">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="14">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="14">
+        <v>332848.40197481349</v>
+      </c>
+      <c r="F36" s="15">
+        <v>515245.18223669764</v>
+      </c>
+      <c r="G36" s="15">
+        <v>12468624.440303897</v>
+      </c>
+      <c r="H36" s="15">
+        <v>8054731.7332755178</v>
+      </c>
+      <c r="I36" s="15">
+        <v>8775112.9086323325</v>
+      </c>
+      <c r="J36" s="15">
+        <v>8054731.7332755178</v>
+      </c>
+      <c r="K36" s="15">
+        <v>-720381.17535681464</v>
+      </c>
+      <c r="L36" s="14">
+        <v>0</v>
+      </c>
+      <c r="M36" s="23">
+        <v>0.67000001668930054</v>
+      </c>
+      <c r="N36" s="23">
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="O36" s="23">
+        <v>0.6500000158945719</v>
+      </c>
+      <c r="P36" s="23">
+        <v>0.69566666607629701</v>
+      </c>
+      <c r="Q36" s="23">
+        <v>-4.566665018172511E-2</v>
+      </c>
+      <c r="R36" s="23">
+        <v>5.2999996957324789E-2</v>
+      </c>
+      <c r="S36" s="9">
+        <v>7.9499995435987185E-4</v>
+      </c>
+      <c r="T36" s="9">
+        <v>-57.442330570315015</v>
+      </c>
+      <c r="U36" s="11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -13494,7 +13728,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG35"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13535,7 +13769,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -13574,7 +13808,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -13644,7 +13878,7 @@
         <v>7</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="R3" s="16" t="s">
         <v>20</v>
@@ -15181,6 +15415,50 @@
         <v>102.81793481326457</v>
       </c>
       <c r="N35" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="12.75">
+      <c r="A36" s="12">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="13">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="13">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="14">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="14">
+        <v>332848.40197481349</v>
+      </c>
+      <c r="F36" s="15">
+        <v>515245.18223669764</v>
+      </c>
+      <c r="G36" s="15">
+        <v>12263771.881795008</v>
+      </c>
+      <c r="H36" s="15">
+        <v>7922396.9748132583</v>
+      </c>
+      <c r="I36" s="15">
+        <v>8671411.165299857</v>
+      </c>
+      <c r="J36" s="15">
+        <v>7922396.9748132583</v>
+      </c>
+      <c r="K36" s="15">
+        <v>-749014.19048659876</v>
+      </c>
+      <c r="L36" s="14">
+        <v>0</v>
+      </c>
+      <c r="M36" s="9">
+        <v>-98.887766665906639</v>
+      </c>
+      <c r="N36" s="9">
         <v>1</v>
       </c>
     </row>
@@ -15200,7 +15478,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG35"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15280,7 +15558,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -15350,7 +15628,7 @@
         <v>7</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="R3" s="16" t="s">
         <v>20</v>
@@ -16887,6 +17165,50 @@
         <v>102.81793481326457</v>
       </c>
       <c r="N35" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="12.75">
+      <c r="A36" s="12">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="13">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="13">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="14">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="14">
+        <v>3055421.7548586358</v>
+      </c>
+      <c r="F36" s="15">
+        <v>4729754.8359905733</v>
+      </c>
+      <c r="G36" s="15">
+        <v>111658279.43566212</v>
+      </c>
+      <c r="H36" s="15">
+        <v>72131251.603521094</v>
+      </c>
+      <c r="I36" s="15">
+        <v>77419045.194995031</v>
+      </c>
+      <c r="J36" s="15">
+        <v>72131251.603521094</v>
+      </c>
+      <c r="K36" s="15">
+        <v>-5287793.591473937</v>
+      </c>
+      <c r="L36" s="14">
+        <v>0</v>
+      </c>
+      <c r="M36" s="9">
+        <v>-98.887766665906639</v>
+      </c>
+      <c r="N36" s="9">
         <v>1</v>
       </c>
     </row>
@@ -16906,7 +17228,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI35"/>
+  <dimension ref="A1:AI36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16947,7 +17269,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -16959,10 +17281,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -16992,7 +17314,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.1" customHeight="1">
@@ -17070,7 +17392,7 @@
         <v>7</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="T3" s="16" t="s">
         <v>20</v>
@@ -18799,6 +19121,56 @@
         <v>102.81793481326457</v>
       </c>
       <c r="P35" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="12.75">
+      <c r="A36" s="12">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="13">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="13">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="14">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="14">
+        <v>8545319</v>
+      </c>
+      <c r="F36" s="14">
+        <v>4423306.3268190296</v>
+      </c>
+      <c r="G36" s="14">
+        <v>5902723.3579780655</v>
+      </c>
+      <c r="H36" s="15">
+        <v>9137342.2682208288</v>
+      </c>
+      <c r="I36" s="15">
+        <v>106859647.09413747</v>
+      </c>
+      <c r="J36" s="15">
+        <v>69031334.978182539</v>
+      </c>
+      <c r="K36" s="15">
+        <v>67966953.16849719</v>
+      </c>
+      <c r="L36" s="15">
+        <v>69031334.978182539</v>
+      </c>
+      <c r="M36" s="15">
+        <v>1064381.8096853495</v>
+      </c>
+      <c r="N36" s="14">
+        <v>0</v>
+      </c>
+      <c r="O36" s="9">
+        <v>-98.887766665906639</v>
+      </c>
+      <c r="P36" s="9">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="32">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -167,6 +167,10 @@
   <si>
     <t>标志</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
@@ -601,7 +605,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -703,6 +707,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -712,7 +719,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -814,6 +821,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>8128674.1780120125</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8413009.3176757134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -856,7 +866,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -958,6 +968,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -967,7 +980,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1069,6 +1082,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>7407013.3741792245</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7897735.2676850744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1111,7 +1127,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1213,6 +1229,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1222,7 +1241,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1324,6 +1343,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-721660.80383278802</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-515274.04999063909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1345,11 +1367,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="516086400"/>
-        <c:axId val="518717824"/>
+        <c:axId val="579048192"/>
+        <c:axId val="579050112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="516086400"/>
+        <c:axId val="579048192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1392,14 +1414,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518717824"/>
+        <c:crossAx val="579050112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="518717824"/>
+        <c:axId val="579050112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1450,7 +1472,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516086400"/>
+        <c:crossAx val="579048192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1641,7 +1663,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1742,7 +1764,10 @@
                   <c:v>10424510.063189363</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5902723.3579780655</c:v>
+                  <c:v>5825999.8957356149</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2781940.8148546959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1757,8 +1782,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="551336960"/>
-        <c:axId val="551335040"/>
+        <c:axId val="623459712"/>
+        <c:axId val="623458176"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1783,7 +1808,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1885,6 +1910,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1894,7 +1922,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1996,6 +2024,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2012,11 +2043,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="551330176"/>
-        <c:axId val="551331712"/>
+        <c:axId val="622319488"/>
+        <c:axId val="623456256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="551330176"/>
+        <c:axId val="622319488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2059,14 +2090,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="551331712"/>
+        <c:crossAx val="623456256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="551331712"/>
+        <c:axId val="623456256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2117,12 +2148,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="551330176"/>
+        <c:crossAx val="622319488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="551335040"/>
+        <c:axId val="623458176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2159,12 +2190,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="551336960"/>
+        <c:crossAx val="623459712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="551336960"/>
+        <c:axId val="623459712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2173,7 +2204,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="551335040"/>
+        <c:crossAx val="623458176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2335,7 +2366,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2437,6 +2468,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>332848.40197481349</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>284335.13966370182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2451,8 +2485,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="518829184"/>
-        <c:axId val="518765952"/>
+        <c:axId val="579690880"/>
+        <c:axId val="579650688"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2477,7 +2511,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2579,6 +2613,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2588,7 +2625,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2690,6 +2727,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2706,11 +2746,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="518748800"/>
-        <c:axId val="518764032"/>
+        <c:axId val="579433216"/>
+        <c:axId val="579435136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="518748800"/>
+        <c:axId val="579433216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2753,14 +2793,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518764032"/>
+        <c:crossAx val="579435136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="518764032"/>
+        <c:axId val="579435136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2811,12 +2851,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518748800"/>
+        <c:crossAx val="579433216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="518765952"/>
+        <c:axId val="579650688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2853,12 +2893,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518829184"/>
+        <c:crossAx val="579690880"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="518829184"/>
+        <c:axId val="579690880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2867,7 +2907,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="518765952"/>
+        <c:crossAx val="579650688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3046,7 +3086,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3148,6 +3188,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3157,7 +3200,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3259,6 +3302,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>8775112.9086323325</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9059448.0482960343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3301,7 +3347,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3403,6 +3449,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3412,7 +3461,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3514,6 +3563,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>8054731.7332755178</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8563501.4529138077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3556,7 +3608,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3658,6 +3710,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3667,7 +3722,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3769,6 +3824,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-720381.17535681464</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-495946.59538222663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3790,11 +3848,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="518891776"/>
-        <c:axId val="518898816"/>
+        <c:axId val="599117184"/>
+        <c:axId val="602412160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="518891776"/>
+        <c:axId val="599117184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3837,14 +3895,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518898816"/>
+        <c:crossAx val="602412160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="518898816"/>
+        <c:axId val="602412160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3895,7 +3953,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518891776"/>
+        <c:crossAx val="599117184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4086,7 +4144,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4188,6 +4246,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>332848.40197481349</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>284335.13966370182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4202,8 +4263,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="518944640"/>
-        <c:axId val="518942720"/>
+        <c:axId val="602469888"/>
+        <c:axId val="602455424"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4228,7 +4289,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4330,6 +4391,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4339,7 +4403,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4441,6 +4505,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4457,11 +4524,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="518918912"/>
-        <c:axId val="518920448"/>
+        <c:axId val="602451968"/>
+        <c:axId val="602453888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="518918912"/>
+        <c:axId val="602451968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4504,14 +4571,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518920448"/>
+        <c:crossAx val="602453888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="518920448"/>
+        <c:axId val="602453888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4562,12 +4629,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518918912"/>
+        <c:crossAx val="602451968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="518942720"/>
+        <c:axId val="602455424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4604,12 +4671,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518944640"/>
+        <c:crossAx val="602469888"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="518944640"/>
+        <c:axId val="602469888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4618,7 +4685,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="518942720"/>
+        <c:crossAx val="602455424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4797,7 +4864,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4899,6 +4966,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4908,7 +4978,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5010,6 +5080,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>8671411.165299857</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8955746.3049635589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5052,7 +5125,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5154,6 +5227,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5163,7 +5239,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5265,6 +5341,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>7922396.9748132583</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8427479.3592410143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5307,7 +5386,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5409,6 +5488,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5418,7 +5500,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5520,6 +5602,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-749014.19048659876</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-528266.94572254457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5541,11 +5626,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="543169152"/>
-        <c:axId val="543172096"/>
+        <c:axId val="602532096"/>
+        <c:axId val="602534656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="543169152"/>
+        <c:axId val="602532096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5588,14 +5673,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543172096"/>
+        <c:crossAx val="602534656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="543172096"/>
+        <c:axId val="602534656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5646,7 +5731,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543169152"/>
+        <c:crossAx val="602532096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5837,7 +5922,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5939,6 +6024,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>332848.40197481349</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>284335.13966370182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5953,8 +6041,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="543221248"/>
-        <c:axId val="543206784"/>
+        <c:axId val="602602496"/>
+        <c:axId val="602600960"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5979,7 +6067,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6081,6 +6169,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6090,7 +6181,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6192,6 +6283,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6208,11 +6302,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="543203328"/>
-        <c:axId val="543205248"/>
+        <c:axId val="602572672"/>
+        <c:axId val="602574208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="543203328"/>
+        <c:axId val="602572672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6255,14 +6349,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543205248"/>
+        <c:crossAx val="602574208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="543205248"/>
+        <c:axId val="602574208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6313,12 +6407,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543203328"/>
+        <c:crossAx val="602572672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="543206784"/>
+        <c:axId val="602600960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6355,12 +6449,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543221248"/>
+        <c:crossAx val="602602496"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="543221248"/>
+        <c:axId val="602602496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6369,7 +6463,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="543206784"/>
+        <c:crossAx val="602600960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6548,7 +6642,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6650,6 +6744,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6659,7 +6756,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6761,6 +6858,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>77419045.194995031</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>79831433.727593049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6803,7 +6903,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6905,6 +7005,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6914,7 +7017,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7016,6 +7119,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>72131251.603521094</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>76553483.256008387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7058,7 +7164,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7160,6 +7266,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7169,7 +7278,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7271,6 +7380,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-5287793.591473937</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-3277950.4715846628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7292,11 +7404,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="543341568"/>
-        <c:axId val="543364608"/>
+        <c:axId val="621882368"/>
+        <c:axId val="621905408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="543341568"/>
+        <c:axId val="621882368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7339,14 +7451,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543364608"/>
+        <c:crossAx val="621905408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="543364608"/>
+        <c:axId val="621905408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7397,7 +7509,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543341568"/>
+        <c:crossAx val="621882368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7588,7 +7700,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7690,6 +7802,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>111658279.43566212</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>115291394.83387817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7704,8 +7819,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="543640192"/>
-        <c:axId val="543638272"/>
+        <c:axId val="622103552"/>
+        <c:axId val="622100864"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7730,7 +7845,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7832,6 +7947,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7841,7 +7959,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7943,6 +8061,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7959,11 +8080,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="543577216"/>
-        <c:axId val="543579136"/>
+        <c:axId val="622089344"/>
+        <c:axId val="622090880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="543577216"/>
+        <c:axId val="622089344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8006,14 +8127,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543579136"/>
+        <c:crossAx val="622090880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="543579136"/>
+        <c:axId val="622090880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8064,12 +8185,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543577216"/>
+        <c:crossAx val="622089344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="543638272"/>
+        <c:axId val="622100864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8106,12 +8227,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543640192"/>
+        <c:crossAx val="622103552"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="543640192"/>
+        <c:axId val="622103552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8120,7 +8241,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="543638272"/>
+        <c:crossAx val="622100864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8299,7 +8420,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8401,6 +8522,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8410,7 +8534,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8511,7 +8635,10 @@
                   <c:v>62064229.810519122</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>67966953.16849719</c:v>
+                  <c:v>67890229.706254736</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>70672170.521109432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8554,7 +8681,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8656,6 +8783,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8665,7 +8795,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8766,7 +8896,10 @@
                   <c:v>62346831.59727785</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>69031334.978182539</c:v>
+                  <c:v>68954611.515940085</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>73657882.523451313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8809,7 +8942,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8911,6 +9044,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8920,7 +9056,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9022,6 +9158,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1064381.8096853495</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2985712.0023418814</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9043,11 +9182,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="543966336"/>
-        <c:axId val="543967872"/>
+        <c:axId val="622186496"/>
+        <c:axId val="622188800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="543966336"/>
+        <c:axId val="622186496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9090,14 +9229,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543967872"/>
+        <c:crossAx val="622188800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="543967872"/>
+        <c:axId val="622188800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9148,7 +9287,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543966336"/>
+        <c:crossAx val="622186496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9862,7 +10001,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG36"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11403,6 +11542,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="37" spans="1:12" ht="12.75">
+      <c r="A37" s="12">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="13">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="14">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="14">
+        <v>284335.13966370182</v>
+      </c>
+      <c r="F37" s="15">
+        <v>428215.58808091015</v>
+      </c>
+      <c r="G37" s="15">
+        <v>11894180.072709618</v>
+      </c>
+      <c r="H37" s="15">
+        <v>7897735.2676850744</v>
+      </c>
+      <c r="I37" s="15">
+        <v>8413009.3176757134</v>
+      </c>
+      <c r="J37" s="15">
+        <v>7897735.2676850744</v>
+      </c>
+      <c r="K37" s="15">
+        <v>-515274.04999063909</v>
+      </c>
+      <c r="L37" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -11419,7 +11596,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM36"/>
+  <dimension ref="A1:AM37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13712,6 +13889,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="37" spans="1:21" ht="12.75">
+      <c r="A37" s="12">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="13">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="14">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="14">
+        <v>284335.13966370182</v>
+      </c>
+      <c r="F37" s="15">
+        <v>428215.58808091015</v>
+      </c>
+      <c r="G37" s="15">
+        <v>12896840.028384808</v>
+      </c>
+      <c r="H37" s="15">
+        <v>8563501.4529138077</v>
+      </c>
+      <c r="I37" s="15">
+        <v>9059448.0482960343</v>
+      </c>
+      <c r="J37" s="15">
+        <v>8563501.4529138077</v>
+      </c>
+      <c r="K37" s="15">
+        <v>-495946.59538222663</v>
+      </c>
+      <c r="L37" s="14">
+        <v>0</v>
+      </c>
+      <c r="M37" s="23">
+        <v>0.67299997806549072</v>
+      </c>
+      <c r="N37" s="23">
+        <v>0.62900000810623169</v>
+      </c>
+      <c r="O37" s="23">
+        <v>0.65533332029978431</v>
+      </c>
+      <c r="P37" s="23">
+        <v>0.68721428466978529</v>
+      </c>
+      <c r="Q37" s="23">
+        <v>-3.1880964370000986E-2</v>
+      </c>
+      <c r="R37" s="23">
+        <v>5.026190433048066E-2</v>
+      </c>
+      <c r="S37" s="9">
+        <v>7.5392856495720988E-4</v>
+      </c>
+      <c r="T37" s="9">
+        <v>-42.286452393285337</v>
+      </c>
+      <c r="U37" s="11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13728,7 +13970,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG36"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15462,6 +15704,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="37" spans="1:14" ht="12.75">
+      <c r="A37" s="12">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="13">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="14">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="14">
+        <v>284335.13966370182</v>
+      </c>
+      <c r="F37" s="15">
+        <v>428215.58808091015</v>
+      </c>
+      <c r="G37" s="15">
+        <v>12691987.469875919</v>
+      </c>
+      <c r="H37" s="15">
+        <v>8427479.3592410143</v>
+      </c>
+      <c r="I37" s="15">
+        <v>8955746.3049635589</v>
+      </c>
+      <c r="J37" s="15">
+        <v>8427479.3592410143</v>
+      </c>
+      <c r="K37" s="15">
+        <v>-528266.94572254457</v>
+      </c>
+      <c r="L37" s="14">
+        <v>0</v>
+      </c>
+      <c r="M37" s="9">
+        <v>191.90436156354073</v>
+      </c>
+      <c r="N37" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -15478,7 +15764,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG36"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17212,6 +17498,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="37" spans="1:14" ht="12.75">
+      <c r="A37" s="12">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="13">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="14">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="14">
+        <v>2412388.5325980242</v>
+      </c>
+      <c r="F37" s="15">
+        <v>3633115.398216052</v>
+      </c>
+      <c r="G37" s="15">
+        <v>115291394.83387817</v>
+      </c>
+      <c r="H37" s="15">
+        <v>76553483.256008387</v>
+      </c>
+      <c r="I37" s="15">
+        <v>79831433.727593049</v>
+      </c>
+      <c r="J37" s="15">
+        <v>76553483.256008387</v>
+      </c>
+      <c r="K37" s="15">
+        <v>-3277950.4715846628</v>
+      </c>
+      <c r="L37" s="14">
+        <v>0</v>
+      </c>
+      <c r="M37" s="9">
+        <v>191.90436156354073</v>
+      </c>
+      <c r="N37" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -17228,7 +17558,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI36"/>
+  <dimension ref="A1:AI37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17269,7 +17599,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -17281,10 +17611,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -19132,10 +19462,10 @@
         <v>0.64600002765655518</v>
       </c>
       <c r="C36" s="13">
-        <v>17.659999849999998</v>
+        <v>17.700000760000002</v>
       </c>
       <c r="D36" s="14">
-        <v>26.839619570961851</v>
+        <v>26.839674744630816</v>
       </c>
       <c r="E36" s="14">
         <v>8545319</v>
@@ -19144,22 +19474,22 @@
         <v>4423306.3268190296</v>
       </c>
       <c r="G36" s="14">
-        <v>5902723.3579780655</v>
+        <v>5825999.8957356149</v>
       </c>
       <c r="H36" s="15">
-        <v>9137342.2682208288</v>
+        <v>9018575.3038899209</v>
       </c>
       <c r="I36" s="15">
-        <v>106859647.09413747</v>
+        <v>106740880.12980656</v>
       </c>
       <c r="J36" s="15">
-        <v>69031334.978182539</v>
+        <v>68954611.515940085</v>
       </c>
       <c r="K36" s="15">
-        <v>67966953.16849719</v>
+        <v>67890229.706254736</v>
       </c>
       <c r="L36" s="15">
-        <v>69031334.978182539</v>
+        <v>68954611.515940085</v>
       </c>
       <c r="M36" s="15">
         <v>1064381.8096853495</v>
@@ -19171,6 +19501,56 @@
         <v>-98.887766665906639</v>
       </c>
       <c r="P36" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="12.75">
+      <c r="A37" s="12">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="13">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="14">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="14">
+        <v>5195700</v>
+      </c>
+      <c r="F37" s="14">
+        <v>4505504.5858242754</v>
+      </c>
+      <c r="G37" s="14">
+        <v>2781940.8148546959</v>
+      </c>
+      <c r="H37" s="15">
+        <v>4189670.061351785</v>
+      </c>
+      <c r="I37" s="15">
+        <v>110930550.19115835</v>
+      </c>
+      <c r="J37" s="15">
+        <v>73657882.523451313</v>
+      </c>
+      <c r="K37" s="15">
+        <v>70672170.521109432</v>
+      </c>
+      <c r="L37" s="15">
+        <v>73657882.523451313</v>
+      </c>
+      <c r="M37" s="15">
+        <v>2985712.0023418814</v>
+      </c>
+      <c r="N37" s="14">
+        <v>0</v>
+      </c>
+      <c r="O37" s="9">
+        <v>191.90436156354073</v>
+      </c>
+      <c r="P37" s="9">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="32">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -157,6 +157,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>最高价</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -169,7 +173,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
+    <t>每年投入本金</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1363,11 +1367,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="501629312"/>
-        <c:axId val="501633408"/>
+        <c:axId val="521374336"/>
+        <c:axId val="521376896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="501629312"/>
+        <c:axId val="521374336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1410,14 +1414,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501633408"/>
+        <c:crossAx val="521376896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="501633408"/>
+        <c:axId val="521376896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1468,7 +1472,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501629312"/>
+        <c:crossAx val="521374336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1778,8 +1782,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="614391168"/>
-        <c:axId val="614389248"/>
+        <c:axId val="637834368"/>
+        <c:axId val="637663488"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2039,11 +2043,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="614384384"/>
-        <c:axId val="614385920"/>
+        <c:axId val="637659392"/>
+        <c:axId val="637661952"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="614384384"/>
+        <c:axId val="637659392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2086,14 +2090,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614385920"/>
+        <c:crossAx val="637661952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="614385920"/>
+        <c:axId val="637661952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2144,12 +2148,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614384384"/>
+        <c:crossAx val="637659392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="614389248"/>
+        <c:axId val="637663488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2186,12 +2190,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614391168"/>
+        <c:crossAx val="637834368"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="614391168"/>
+        <c:axId val="637834368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2200,7 +2204,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="614389248"/>
+        <c:crossAx val="637663488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2481,8 +2485,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="501777920"/>
-        <c:axId val="501774976"/>
+        <c:axId val="521402240"/>
+        <c:axId val="521400704"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2742,11 +2746,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="501681152"/>
-        <c:axId val="501773440"/>
+        <c:axId val="521394048"/>
+        <c:axId val="521395584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="501681152"/>
+        <c:axId val="521394048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2789,14 +2793,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501773440"/>
+        <c:crossAx val="521395584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="501773440"/>
+        <c:axId val="521395584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2847,12 +2851,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501681152"/>
+        <c:crossAx val="521394048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="501774976"/>
+        <c:axId val="521400704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2889,12 +2893,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501777920"/>
+        <c:crossAx val="521402240"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="501777920"/>
+        <c:axId val="521402240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2903,7 +2907,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="501774976"/>
+        <c:crossAx val="521400704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3844,11 +3848,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="502359552"/>
-        <c:axId val="504827904"/>
+        <c:axId val="521534848"/>
+        <c:axId val="543207808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="502359552"/>
+        <c:axId val="521534848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3891,14 +3895,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504827904"/>
+        <c:crossAx val="543207808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="504827904"/>
+        <c:axId val="543207808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3949,7 +3953,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502359552"/>
+        <c:crossAx val="521534848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4259,8 +4263,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="601923584"/>
-        <c:axId val="601921792"/>
+        <c:axId val="564736384"/>
+        <c:axId val="564688384"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4520,11 +4524,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="601913984"/>
-        <c:axId val="601919872"/>
+        <c:axId val="564685056"/>
+        <c:axId val="564686848"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="601913984"/>
+        <c:axId val="564685056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4567,14 +4571,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601919872"/>
+        <c:crossAx val="564686848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="601919872"/>
+        <c:axId val="564686848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4625,12 +4629,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601913984"/>
+        <c:crossAx val="564685056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="601921792"/>
+        <c:axId val="564688384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4667,12 +4671,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601923584"/>
+        <c:crossAx val="564736384"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="601923584"/>
+        <c:axId val="564736384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4681,7 +4685,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="601921792"/>
+        <c:crossAx val="564688384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5622,11 +5626,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="613425536"/>
-        <c:axId val="613427456"/>
+        <c:axId val="578488576"/>
+        <c:axId val="578519424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="613425536"/>
+        <c:axId val="578488576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5669,14 +5673,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613427456"/>
+        <c:crossAx val="578519424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="613427456"/>
+        <c:axId val="578519424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5727,7 +5731,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613425536"/>
+        <c:crossAx val="578488576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6037,8 +6041,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="613563008"/>
-        <c:axId val="613561088"/>
+        <c:axId val="578671360"/>
+        <c:axId val="578668416"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6298,11 +6302,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="613536896"/>
-        <c:axId val="613538432"/>
+        <c:axId val="578654976"/>
+        <c:axId val="578657280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="613536896"/>
+        <c:axId val="578654976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6345,14 +6349,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613538432"/>
+        <c:crossAx val="578657280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="613538432"/>
+        <c:axId val="578657280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6403,12 +6407,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613536896"/>
+        <c:crossAx val="578654976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="613561088"/>
+        <c:axId val="578668416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6445,12 +6449,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613563008"/>
+        <c:crossAx val="578671360"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="613563008"/>
+        <c:axId val="578671360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6459,7 +6463,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="613561088"/>
+        <c:crossAx val="578668416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7400,11 +7404,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="613598720"/>
-        <c:axId val="613600256"/>
+        <c:axId val="578692992"/>
+        <c:axId val="578694528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="613598720"/>
+        <c:axId val="578692992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7447,14 +7451,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613600256"/>
+        <c:crossAx val="578694528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="613600256"/>
+        <c:axId val="578694528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7505,7 +7509,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613598720"/>
+        <c:crossAx val="578692992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7815,8 +7819,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="613716736"/>
-        <c:axId val="613698176"/>
+        <c:axId val="637535744"/>
+        <c:axId val="637534208"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8076,11 +8080,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="613665024"/>
-        <c:axId val="613696256"/>
+        <c:axId val="621076864"/>
+        <c:axId val="621078400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="613665024"/>
+        <c:axId val="621076864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8123,14 +8127,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613696256"/>
+        <c:crossAx val="621078400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="613696256"/>
+        <c:axId val="621078400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8181,12 +8185,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613665024"/>
+        <c:crossAx val="621076864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="613698176"/>
+        <c:axId val="637534208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8223,12 +8227,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613716736"/>
+        <c:crossAx val="637535744"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="613716736"/>
+        <c:axId val="637535744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8237,7 +8241,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="613698176"/>
+        <c:crossAx val="637534208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9178,11 +9182,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="613909632"/>
-        <c:axId val="614023552"/>
+        <c:axId val="637606144"/>
+        <c:axId val="637625088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="613909632"/>
+        <c:axId val="637606144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9225,14 +9229,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614023552"/>
+        <c:crossAx val="637625088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="614023552"/>
+        <c:axId val="637625088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9283,7 +9287,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613909632"/>
+        <c:crossAx val="637606144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11633,7 +11637,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -11669,10 +11673,10 @@
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>4</v>
@@ -11693,7 +11697,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.1" customHeight="1">
@@ -14046,7 +14050,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -15840,7 +15844,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -15910,7 +15914,7 @@
         <v>7</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="R3" s="16" t="s">
         <v>20</v>
@@ -17595,7 +17599,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -17607,10 +17611,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -17640,7 +17644,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.1" customHeight="1">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="31">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -171,10 +171,6 @@
   <si>
     <t>标志</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每年投入本金</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>成交量</t>
@@ -348,7 +344,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -412,6 +408,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -605,7 +602,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -710,6 +707,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -719,7 +719,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -824,6 +824,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>8410118.6915784068</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8666706.9546631575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -866,7 +869,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -971,6 +974,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -980,7 +986,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1085,6 +1091,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>7894764.1240472868</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7984896.5277196188</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1127,7 +1136,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1232,6 +1241,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1241,7 +1253,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1346,6 +1358,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-515354.56753112003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-681810.42694353871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1367,11 +1382,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="521374336"/>
-        <c:axId val="521376896"/>
+        <c:axId val="530346368"/>
+        <c:axId val="537303680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="521374336"/>
+        <c:axId val="530346368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1414,14 +1429,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521376896"/>
+        <c:crossAx val="537303680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="521376896"/>
+        <c:axId val="537303680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1472,7 +1487,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521374336"/>
+        <c:crossAx val="530346368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1663,7 +1678,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1768,6 +1783,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>2781940.8200028366</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2948035.3462715377</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1782,8 +1800,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="637834368"/>
-        <c:axId val="637663488"/>
+        <c:axId val="491098496"/>
+        <c:axId val="491096704"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1808,7 +1826,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1913,6 +1931,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1922,7 +1943,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2027,6 +2048,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2043,11 +2067,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="637659392"/>
-        <c:axId val="637661952"/>
+        <c:axId val="491093376"/>
+        <c:axId val="491095168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="637659392"/>
+        <c:axId val="491093376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2090,14 +2114,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637661952"/>
+        <c:crossAx val="491095168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="637661952"/>
+        <c:axId val="491095168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2148,12 +2172,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637659392"/>
+        <c:crossAx val="491093376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="637663488"/>
+        <c:axId val="491096704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2190,12 +2214,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637834368"/>
+        <c:crossAx val="491098496"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="637834368"/>
+        <c:axId val="491098496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2204,7 +2228,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="637663488"/>
+        <c:crossAx val="491096704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2366,7 +2390,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2471,6 +2495,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>284335.14001448749</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>256588.26308475045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2485,8 +2512,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="521402240"/>
-        <c:axId val="521400704"/>
+        <c:axId val="598896640"/>
+        <c:axId val="598894464"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2511,7 +2538,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2616,6 +2643,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2625,7 +2655,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2730,6 +2760,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2746,11 +2779,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="521394048"/>
-        <c:axId val="521395584"/>
+        <c:axId val="598891136"/>
+        <c:axId val="598892928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="521394048"/>
+        <c:axId val="598891136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2793,14 +2826,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521395584"/>
+        <c:crossAx val="598892928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="521395584"/>
+        <c:axId val="598892928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2851,12 +2884,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521394048"/>
+        <c:crossAx val="598891136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="521400704"/>
+        <c:axId val="598894464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2893,12 +2926,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521402240"/>
+        <c:crossAx val="598896640"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="521402240"/>
+        <c:axId val="598896640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2907,7 +2940,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="521400704"/>
+        <c:crossAx val="598894464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3086,7 +3119,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3191,6 +3224,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3200,7 +3236,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3305,6 +3341,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>9056557.413373854</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9313145.6764586046</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3347,7 +3386,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3452,6 +3491,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3461,7 +3503,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3566,6 +3608,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>8560530.3008917402</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8636625.4667957127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3608,7 +3653,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3713,6 +3758,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3722,7 +3770,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3827,6 +3875,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-496027.11248211376</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-676520.20966289192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3848,11 +3899,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="521534848"/>
-        <c:axId val="543207808"/>
+        <c:axId val="598923520"/>
+        <c:axId val="598946560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="521534848"/>
+        <c:axId val="598923520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3895,14 +3946,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543207808"/>
+        <c:crossAx val="598946560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="543207808"/>
+        <c:axId val="598946560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3953,7 +4004,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521534848"/>
+        <c:crossAx val="598923520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4144,7 +4195,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4249,6 +4300,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>284335.14001448749</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>256588.26308475045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4263,8 +4317,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="564736384"/>
-        <c:axId val="564688384"/>
+        <c:axId val="598977920"/>
+        <c:axId val="598976384"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4289,7 +4343,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4394,6 +4448,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4403,7 +4460,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4508,6 +4565,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4524,11 +4584,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="564685056"/>
-        <c:axId val="564686848"/>
+        <c:axId val="598972288"/>
+        <c:axId val="598973824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="564685056"/>
+        <c:axId val="598972288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4571,14 +4631,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564686848"/>
+        <c:crossAx val="598973824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="564686848"/>
+        <c:axId val="598973824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4629,12 +4689,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564685056"/>
+        <c:crossAx val="598972288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="564688384"/>
+        <c:axId val="598976384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4671,12 +4731,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564736384"/>
+        <c:crossAx val="598977920"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="564736384"/>
+        <c:axId val="598977920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4685,7 +4745,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="564688384"/>
+        <c:crossAx val="598976384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4864,7 +4924,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4969,6 +5029,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4978,7 +5041,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5083,6 +5146,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>8952855.6654767562</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9209443.9285615068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5125,7 +5191,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5230,6 +5296,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5239,7 +5308,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5344,6 +5413,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>8424508.2037815619</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8503471.3052840903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5386,7 +5458,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5491,6 +5563,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5500,7 +5575,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5605,6 +5680,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-528347.46169519424</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-705972.62327741645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5626,11 +5704,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="578488576"/>
-        <c:axId val="578519424"/>
+        <c:axId val="602411392"/>
+        <c:axId val="602413312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="578488576"/>
+        <c:axId val="602411392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5673,14 +5751,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578519424"/>
+        <c:crossAx val="602413312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="578519424"/>
+        <c:axId val="602413312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5731,7 +5809,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578488576"/>
+        <c:crossAx val="602411392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5922,7 +6000,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6027,6 +6105,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>284335.14001448749</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>256588.26308475045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6041,8 +6122,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="578671360"/>
-        <c:axId val="578668416"/>
+        <c:axId val="602536960"/>
+        <c:axId val="602535424"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6067,7 +6148,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6172,6 +6253,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6181,7 +6265,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6286,6 +6370,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6302,11 +6389,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="578654976"/>
-        <c:axId val="578657280"/>
+        <c:axId val="602482944"/>
+        <c:axId val="602533888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="578654976"/>
+        <c:axId val="602482944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6349,14 +6436,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578657280"/>
+        <c:crossAx val="602533888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="578657280"/>
+        <c:axId val="602533888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6407,12 +6494,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578654976"/>
+        <c:crossAx val="602482944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="578668416"/>
+        <c:axId val="602535424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6449,12 +6536,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578671360"/>
+        <c:crossAx val="602536960"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="578671360"/>
+        <c:axId val="602536960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6463,7 +6550,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="578668416"/>
+        <c:crossAx val="602535424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6642,7 +6729,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6747,6 +6834,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6756,7 +6846,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6861,6 +6951,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>79791718.243891552</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>81859747.281784296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6903,7 +6996,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7008,6 +7101,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7017,7 +7113,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7122,6 +7218,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>76512661.363221973</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>76967471.740869641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7164,7 +7263,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7269,6 +7368,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7278,7 +7380,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7383,6 +7485,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-3279056.8806695789</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-4892275.5409146547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7404,11 +7509,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="578692992"/>
-        <c:axId val="578694528"/>
+        <c:axId val="602599424"/>
+        <c:axId val="602600960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="578692992"/>
+        <c:axId val="602599424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7451,14 +7556,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578694528"/>
+        <c:crossAx val="602600960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="578694528"/>
+        <c:axId val="602600960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7509,7 +7614,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578692992"/>
+        <c:crossAx val="602599424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7700,7 +7805,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7805,6 +7910,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>115229916.07734182</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>118411499.32926121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7819,8 +7927,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="637535744"/>
-        <c:axId val="637534208"/>
+        <c:axId val="605457408"/>
+        <c:axId val="605455872"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7845,7 +7953,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7950,6 +8058,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7959,7 +8070,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8064,6 +8175,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8080,11 +8194,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="621076864"/>
-        <c:axId val="621078400"/>
+        <c:axId val="602913024"/>
+        <c:axId val="605454336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="621076864"/>
+        <c:axId val="602913024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8127,14 +8241,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="621078400"/>
+        <c:crossAx val="605454336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="621078400"/>
+        <c:axId val="605454336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8185,12 +8299,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="621076864"/>
+        <c:crossAx val="602913024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="637534208"/>
+        <c:axId val="605455872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8227,12 +8341,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637535744"/>
+        <c:crossAx val="605457408"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="637535744"/>
+        <c:axId val="605457408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8241,7 +8355,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="637534208"/>
+        <c:crossAx val="605455872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8420,7 +8534,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8525,6 +8639,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8534,7 +8651,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8639,6 +8756,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>70672170.183533117</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>73620205.529804662</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8681,7 +8801,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8786,6 +8906,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8795,7 +8918,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8900,6 +9023,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>73657882.232897803</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>75052890.041306674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8942,7 +9068,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9047,6 +9173,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9056,7 +9185,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9161,6 +9290,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>2985712.049364686</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1432684.5115020126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9182,11 +9314,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="637606144"/>
-        <c:axId val="637625088"/>
+        <c:axId val="606533888"/>
+        <c:axId val="606564352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="637606144"/>
+        <c:axId val="606533888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9229,14 +9361,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637625088"/>
+        <c:crossAx val="606564352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="637625088"/>
+        <c:axId val="606564352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9287,7 +9419,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637606144"/>
+        <c:crossAx val="606533888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10001,7 +10133,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG37"/>
+  <dimension ref="A1:AG39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10165,11 +10297,21 @@
         <v>44561</v>
       </c>
       <c r="Z3" s="11">
-        <v>245217.81577195294</v>
+        <v>245217.76659387304</v>
       </c>
       <c r="AA3" s="11">
         <f>-Z3</f>
-        <v>-245217.81577195294</v>
+        <v>-245217.76659387304</v>
+      </c>
+      <c r="AB3" s="24">
+        <v>44561</v>
+      </c>
+      <c r="AC3" s="11">
+        <v>245217.76659387304</v>
+      </c>
+      <c r="AD3" s="11">
+        <f>-AC3</f>
+        <v>-245217.76659387304</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1">
@@ -10238,15 +10380,22 @@
         <v>44925</v>
       </c>
       <c r="Z4" s="9">
-        <v>3518640.0716485097</v>
+        <v>3518640.0102128703</v>
       </c>
       <c r="AA4" s="9">
         <f>-Z4</f>
-        <v>-3518640.0716485097</v>
-      </c>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
+        <v>-3518640.0102128703</v>
+      </c>
+      <c r="AB4" s="24">
+        <v>44925</v>
+      </c>
+      <c r="AC4" s="9">
+        <v>3518640.0102128703</v>
+      </c>
+      <c r="AD4" s="9">
+        <f>-AC4</f>
+        <v>-3518640.0102128703</v>
+      </c>
       <c r="AE4" s="17"/>
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
@@ -10311,18 +10460,25 @@
         <v>-4.8683695729055391E-2</v>
       </c>
       <c r="W5" s="19">
-        <v>-4.5834423753382425E-2</v>
+        <v>-4.5834421638543787E-2</v>
       </c>
       <c r="Y5" s="24">
         <v>44925</v>
       </c>
       <c r="Z5" s="9"/>
       <c r="AA5" s="9">
-        <v>3580619.3649953026</v>
-      </c>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
+        <v>3580619.270033245</v>
+      </c>
+      <c r="AB5" s="24">
+        <v>45289</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>3101231.3499326059</v>
+      </c>
+      <c r="AD5" s="9">
+        <f>-AC5</f>
+        <v>-3101231.3499326059</v>
+      </c>
       <c r="AE5" s="17"/>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
@@ -10365,14 +10521,42 @@
         <v>0</v>
       </c>
       <c r="M6" s="9"/>
+      <c r="P6" s="24">
+        <v>45289</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>3101231.3499326059</v>
+      </c>
+      <c r="R6" s="8">
+        <v>6865089.1267393492</v>
+      </c>
+      <c r="S6" s="8">
+        <v>6043907.692957717</v>
+      </c>
+      <c r="T6" s="8">
+        <v>-821181.43378163222</v>
+      </c>
+      <c r="U6" s="8">
+        <v>0</v>
+      </c>
+      <c r="V6" s="19">
+        <v>-0.11961700986271995</v>
+      </c>
+      <c r="W6" s="19">
+        <v>-7.7878942670306261E-2</v>
+      </c>
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
       <c r="AA6" s="20">
-        <v>-4.5834423753382425E-2</v>
-      </c>
-      <c r="AB6" s="9"/>
+        <v>-4.5834421638543787E-2</v>
+      </c>
+      <c r="AB6" s="24">
+        <v>45289</v>
+      </c>
       <c r="AC6" s="9"/>
-      <c r="AD6" s="20"/>
+      <c r="AD6" s="20">
+        <v>6043907.692957717</v>
+      </c>
       <c r="AE6" s="17"/>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1">
@@ -10416,6 +10600,9 @@
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
+      <c r="AD7" s="10">
+        <v>-7.7878942670306261E-2</v>
+      </c>
       <c r="AG7" s="10"/>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1">
@@ -11579,6 +11766,47 @@
       <c r="L37" s="14">
         <v>0</v>
       </c>
+    </row>
+    <row r="38" spans="1:12" ht="12.75">
+      <c r="A38" s="12">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="13">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="13">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="14">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="14">
+        <v>256588.26308475045</v>
+      </c>
+      <c r="F38" s="15">
+        <v>394751.18845592643</v>
+      </c>
+      <c r="G38" s="15">
+        <v>12284456.647082906</v>
+      </c>
+      <c r="H38" s="15">
+        <v>7984896.5277196188</v>
+      </c>
+      <c r="I38" s="15">
+        <v>8666706.9546631575</v>
+      </c>
+      <c r="J38" s="15">
+        <v>7984896.5277196188</v>
+      </c>
+      <c r="K38" s="15">
+        <v>-681810.42694353871</v>
+      </c>
+      <c r="L38" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -11596,7 +11824,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM37"/>
+  <dimension ref="A1:AM39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11804,11 +12032,21 @@
         <v>44561</v>
       </c>
       <c r="AF3" s="11">
-        <v>245217.81577195294</v>
+        <v>245217.76659387304</v>
       </c>
       <c r="AG3" s="11">
         <f>-AF3</f>
-        <v>-245217.81577195294</v>
+        <v>-245217.76659387304</v>
+      </c>
+      <c r="AH3" s="24">
+        <v>44561</v>
+      </c>
+      <c r="AI3" s="11">
+        <v>245217.76659387304</v>
+      </c>
+      <c r="AJ3" s="11">
+        <f>-AI3</f>
+        <v>-245217.76659387304</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="14.1" customHeight="1">
@@ -11889,15 +12127,22 @@
         <v>44925</v>
       </c>
       <c r="AF4" s="9">
-        <v>3677015.8232757808</v>
+        <v>3677015.7524936297</v>
       </c>
       <c r="AG4" s="9">
         <f>-AF4</f>
-        <v>-3677015.8232757808</v>
-      </c>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="9"/>
-      <c r="AJ4" s="9"/>
+        <v>-3677015.7524936297</v>
+      </c>
+      <c r="AH4" s="24">
+        <v>44925</v>
+      </c>
+      <c r="AI4" s="9">
+        <v>3677015.7524936297</v>
+      </c>
+      <c r="AJ4" s="9">
+        <f>-AI4</f>
+        <v>-3677015.7524936297</v>
+      </c>
       <c r="AK4" s="17"/>
       <c r="AL4" s="9"/>
       <c r="AM4" s="9"/>
@@ -11974,18 +12219,25 @@
         <v>-4.4877698360521322E-2</v>
       </c>
       <c r="AC5" s="19">
-        <v>-4.2342539246702948E-2</v>
+        <v>-4.2342537264987379E-2</v>
       </c>
       <c r="AE5" s="24">
         <v>44925</v>
       </c>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9">
-        <v>3746212.8109874739</v>
-      </c>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="9"/>
-      <c r="AJ5" s="9"/>
+        <v>3746212.7063183677</v>
+      </c>
+      <c r="AH5" s="24">
+        <v>45289</v>
+      </c>
+      <c r="AI5" s="9">
+        <v>3403147.0205534808</v>
+      </c>
+      <c r="AJ5" s="9">
+        <f>-AI5</f>
+        <v>-3403147.0205534808</v>
+      </c>
       <c r="AK5" s="17"/>
       <c r="AL5" s="9"/>
       <c r="AM5" s="9"/>
@@ -12040,14 +12292,42 @@
       <c r="Q6" s="23"/>
       <c r="R6" s="23"/>
       <c r="S6" s="9"/>
+      <c r="V6" s="24">
+        <v>45289</v>
+      </c>
+      <c r="W6" s="18">
+        <v>3403147.0205534808</v>
+      </c>
+      <c r="X6" s="8">
+        <v>7325380.5396409836</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>6486762.14334027</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>-838618.39630071353</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="19">
+        <v>-0.11448120568789101</v>
+      </c>
+      <c r="AC6" s="19">
+        <v>-7.5126800444976438E-2</v>
+      </c>
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
       <c r="AG6" s="20">
-        <v>-4.2342539246702948E-2</v>
-      </c>
-      <c r="AH6" s="9"/>
+        <v>-4.2342537264987379E-2</v>
+      </c>
+      <c r="AH6" s="24">
+        <v>45289</v>
+      </c>
       <c r="AI6" s="9"/>
-      <c r="AJ6" s="20"/>
+      <c r="AJ6" s="20">
+        <v>6486762.14334027</v>
+      </c>
       <c r="AK6" s="17"/>
     </row>
     <row r="7" spans="1:39" ht="14.1" customHeight="1">
@@ -12103,6 +12383,9 @@
       <c r="AE7" s="9"/>
       <c r="AF7" s="9"/>
       <c r="AG7" s="9"/>
+      <c r="AJ7" s="10">
+        <v>-7.5126800444976438E-2</v>
+      </c>
       <c r="AM7" s="10"/>
     </row>
     <row r="8" spans="1:39" ht="14.1" customHeight="1">
@@ -13953,6 +14236,74 @@
       <c r="U37" s="11">
         <v>1</v>
       </c>
+    </row>
+    <row r="38" spans="1:21" ht="12.75">
+      <c r="A38" s="12">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="13">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="13">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="14">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="14">
+        <v>256588.26308475045</v>
+      </c>
+      <c r="F38" s="15">
+        <v>394751.18845592643</v>
+      </c>
+      <c r="G38" s="15">
+        <v>13287116.590131167</v>
+      </c>
+      <c r="H38" s="15">
+        <v>8636625.4667957127</v>
+      </c>
+      <c r="I38" s="15">
+        <v>9313145.6764586046</v>
+      </c>
+      <c r="J38" s="15">
+        <v>8636625.4667957127</v>
+      </c>
+      <c r="K38" s="15">
+        <v>-676520.20966289192</v>
+      </c>
+      <c r="L38" s="14">
+        <v>0</v>
+      </c>
+      <c r="M38" s="23">
+        <v>0.68300002813339233</v>
+      </c>
+      <c r="N38" s="23">
+        <v>0.6470000147819519</v>
+      </c>
+      <c r="O38" s="23">
+        <v>0.66000000635782874</v>
+      </c>
+      <c r="P38" s="23">
+        <v>0.68021428538504092</v>
+      </c>
+      <c r="Q38" s="23">
+        <v>-2.0214279027212179E-2</v>
+      </c>
+      <c r="R38" s="23">
+        <v>4.6149659192480992E-2</v>
+      </c>
+      <c r="S38" s="9">
+        <v>6.9224488788721488E-4</v>
+      </c>
+      <c r="T38" s="9">
+        <v>-29.201052085639414</v>
+      </c>
+      <c r="U38" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -13970,7 +14321,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG37"/>
+  <dimension ref="A1:AG39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14144,11 +14495,21 @@
         <v>44561</v>
       </c>
       <c r="Z3" s="11">
-        <v>250495.57337637764</v>
+        <v>250495.52419829773</v>
       </c>
       <c r="AA3" s="11">
         <f>-Z3</f>
-        <v>-250495.57337637764</v>
+        <v>-250495.52419829773</v>
+      </c>
+      <c r="AB3" s="24">
+        <v>44561</v>
+      </c>
+      <c r="AC3" s="11">
+        <v>250495.52419829773</v>
+      </c>
+      <c r="AD3" s="11">
+        <f>-AC3</f>
+        <v>-250495.52419829773</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1">
@@ -14222,15 +14583,22 @@
         <v>44925</v>
       </c>
       <c r="Z4" s="9">
-        <v>3805407.6578482944</v>
+        <v>3805407.5827613538</v>
       </c>
       <c r="AA4" s="9">
         <f>-Z4</f>
-        <v>-3805407.6578482944</v>
-      </c>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
+        <v>-3805407.5827613538</v>
+      </c>
+      <c r="AB4" s="24">
+        <v>44925</v>
+      </c>
+      <c r="AC4" s="9">
+        <v>3805407.5827613538</v>
+      </c>
+      <c r="AD4" s="9">
+        <f>-AC4</f>
+        <v>-3805407.5827613538</v>
+      </c>
       <c r="AE4" s="17"/>
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
@@ -14300,7 +14668,7 @@
         <v>-4.7074199488096664E-2</v>
       </c>
       <c r="W5" s="19">
-        <v>-4.4450912908414297E-2</v>
+        <v>-4.4450885679429564E-2</v>
       </c>
       <c r="Y5" s="24">
         <v>44925</v>
@@ -14309,9 +14677,16 @@
       <c r="AA5" s="9">
         <v>3864974.823122385</v>
       </c>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
+      <c r="AB5" s="24">
+        <v>45289</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>3238983.9113250882</v>
+      </c>
+      <c r="AD5" s="9">
+        <f>-AC5</f>
+        <v>-3238983.9113250882</v>
+      </c>
       <c r="AE5" s="17"/>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
@@ -14359,14 +14734,42 @@
       <c r="N6" s="9">
         <v>1</v>
       </c>
+      <c r="P6" s="24">
+        <v>45289</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>3238983.9113250882</v>
+      </c>
+      <c r="R6" s="8">
+        <v>7294887.0182847399</v>
+      </c>
+      <c r="S6" s="8">
+        <v>6428643.6917510191</v>
+      </c>
+      <c r="T6" s="8">
+        <v>-866243.32653372083</v>
+      </c>
+      <c r="U6" s="8">
+        <v>0</v>
+      </c>
+      <c r="V6" s="19">
+        <v>-0.11874664053911588</v>
+      </c>
+      <c r="W6" s="19">
+        <v>-7.6986041644461101E-2</v>
+      </c>
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
       <c r="AA6" s="20">
-        <v>-4.4450912908414297E-2</v>
-      </c>
-      <c r="AB6" s="9"/>
+        <v>-4.4450885679429564E-2</v>
+      </c>
+      <c r="AB6" s="24">
+        <v>45289</v>
+      </c>
       <c r="AC6" s="9"/>
-      <c r="AD6" s="20"/>
+      <c r="AD6" s="20">
+        <v>6428643.6917510191</v>
+      </c>
       <c r="AE6" s="17"/>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1">
@@ -14415,6 +14818,9 @@
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
+      <c r="AD7" s="10">
+        <v>-7.6986041644461101E-2</v>
+      </c>
       <c r="AG7" s="10"/>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1">
@@ -15747,6 +16153,53 @@
       <c r="N37" s="9">
         <v>1</v>
       </c>
+    </row>
+    <row r="38" spans="1:14" ht="12.75">
+      <c r="A38" s="12">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="13">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="13">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="14">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="14">
+        <v>256588.26308475045</v>
+      </c>
+      <c r="F38" s="15">
+        <v>394751.18845592643</v>
+      </c>
+      <c r="G38" s="15">
+        <v>13082264.026445493</v>
+      </c>
+      <c r="H38" s="15">
+        <v>8503471.3052840903</v>
+      </c>
+      <c r="I38" s="15">
+        <v>9209443.9285615068</v>
+      </c>
+      <c r="J38" s="15">
+        <v>8503471.3052840903</v>
+      </c>
+      <c r="K38" s="15">
+        <v>-705972.62327741645</v>
+      </c>
+      <c r="L38" s="14">
+        <v>0</v>
+      </c>
+      <c r="M38" s="9">
+        <v>-76.574709137121957</v>
+      </c>
+      <c r="N38" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -15764,7 +16217,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG37"/>
+  <dimension ref="A1:AG39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15914,7 +16367,7 @@
         <v>7</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="R3" s="16" t="s">
         <v>20</v>
@@ -15938,11 +16391,21 @@
         <v>44561</v>
       </c>
       <c r="Z3" s="11">
-        <v>919630.88726893254</v>
+        <v>919630.63204484491</v>
       </c>
       <c r="AA3" s="11">
         <f>-Z3</f>
-        <v>-919630.88726893254</v>
+        <v>-919630.63204484491</v>
+      </c>
+      <c r="AB3" s="24">
+        <v>44561</v>
+      </c>
+      <c r="AC3" s="11">
+        <v>919630.63204484491</v>
+      </c>
+      <c r="AD3" s="11">
+        <f>-AC3</f>
+        <v>-919630.63204484491</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1">
@@ -16016,15 +16479,22 @@
         <v>44925</v>
       </c>
       <c r="Z4" s="9">
-        <v>34224314.893007115</v>
+        <v>34224313.882963724</v>
       </c>
       <c r="AA4" s="9">
         <f>-Z4</f>
-        <v>-34224314.893007115</v>
-      </c>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
+        <v>-34224313.882963724</v>
+      </c>
+      <c r="AB4" s="24">
+        <v>44925</v>
+      </c>
+      <c r="AC4" s="9">
+        <v>34224313.882963724</v>
+      </c>
+      <c r="AD4" s="9">
+        <f>-AC4</f>
+        <v>-34224313.882963724</v>
+      </c>
       <c r="AE4" s="17"/>
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
@@ -16094,7 +16564,7 @@
         <v>-2.9749695931046517E-2</v>
       </c>
       <c r="W5" s="19">
-        <v>-2.9012536271850409E-2</v>
+        <v>-2.9012502354556768E-2</v>
       </c>
       <c r="Y5" s="24">
         <v>44925</v>
@@ -16103,9 +16573,16 @@
       <c r="AA5" s="9">
         <v>34098424.032504037</v>
       </c>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
+      <c r="AB5" s="24">
+        <v>45289</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>27593778.109442025</v>
+      </c>
+      <c r="AD5" s="9">
+        <f>-AC5</f>
+        <v>-27593778.109442025</v>
+      </c>
       <c r="AE5" s="17"/>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
@@ -16153,14 +16630,42 @@
       <c r="N6" s="9">
         <v>1</v>
       </c>
+      <c r="P6" s="24">
+        <v>45289</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>27593778.109442025</v>
+      </c>
+      <c r="R6" s="8">
+        <v>62737722.624450594</v>
+      </c>
+      <c r="S6" s="8">
+        <v>56091168.152955428</v>
+      </c>
+      <c r="T6" s="8">
+        <v>-6646554.4714951664</v>
+      </c>
+      <c r="U6" s="8">
+        <v>0</v>
+      </c>
+      <c r="V6" s="19">
+        <v>-0.1059419149031212</v>
+      </c>
+      <c r="W6" s="19">
+        <v>-6.9053782169448907E-2</v>
+      </c>
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
       <c r="AA6" s="20">
-        <v>-2.9012536271850409E-2</v>
-      </c>
-      <c r="AB6" s="9"/>
+        <v>-2.9012502354556768E-2</v>
+      </c>
+      <c r="AB6" s="24">
+        <v>45289</v>
+      </c>
       <c r="AC6" s="9"/>
-      <c r="AD6" s="20"/>
+      <c r="AD6" s="20">
+        <v>56091168.152955428</v>
+      </c>
       <c r="AE6" s="17"/>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1">
@@ -16209,6 +16714,9 @@
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
+      <c r="AD7" s="10">
+        <v>-6.9053782169448907E-2</v>
+      </c>
       <c r="AG7" s="10"/>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1">
@@ -17541,6 +18049,53 @@
       <c r="N37" s="9">
         <v>1</v>
       </c>
+    </row>
+    <row r="38" spans="1:14" ht="12.75">
+      <c r="A38" s="12">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="13">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="13">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="14">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="14">
+        <v>2068029.0378927437</v>
+      </c>
+      <c r="F38" s="15">
+        <v>3181583.2519193841</v>
+      </c>
+      <c r="G38" s="15">
+        <v>118411499.32926121</v>
+      </c>
+      <c r="H38" s="15">
+        <v>76967471.740869641</v>
+      </c>
+      <c r="I38" s="15">
+        <v>81859747.281784296</v>
+      </c>
+      <c r="J38" s="15">
+        <v>76967471.740869641</v>
+      </c>
+      <c r="K38" s="15">
+        <v>-4892275.5409146547</v>
+      </c>
+      <c r="L38" s="14">
+        <v>0</v>
+      </c>
+      <c r="M38" s="9">
+        <v>-76.574709137121957</v>
+      </c>
+      <c r="N38" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -17558,7 +18113,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI37"/>
+  <dimension ref="A1:AI39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17611,10 +18166,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -17746,11 +18301,21 @@
         <v>44561</v>
       </c>
       <c r="AB3" s="11">
-        <v>181466.76336656811</v>
+        <v>181466.70885177652</v>
       </c>
       <c r="AC3" s="11">
         <f>-AB3</f>
-        <v>-181466.76336656811</v>
+        <v>-181466.70885177652</v>
+      </c>
+      <c r="AD3" s="24">
+        <v>44561</v>
+      </c>
+      <c r="AE3" s="11">
+        <v>181466.70885177652</v>
+      </c>
+      <c r="AF3" s="11">
+        <f>-AE3</f>
+        <v>-181466.70885177652</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="14.1" customHeight="1">
@@ -17830,15 +18395,22 @@
         <v>44925</v>
       </c>
       <c r="AB4" s="9">
-        <v>11783345.139712771</v>
+        <v>11783344.784188394</v>
       </c>
       <c r="AC4" s="9">
         <f>-AB4</f>
-        <v>-11783345.139712771</v>
-      </c>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
+        <v>-11783344.784188394</v>
+      </c>
+      <c r="AD4" s="24">
+        <v>44925</v>
+      </c>
+      <c r="AE4" s="9">
+        <v>11783344.784188394</v>
+      </c>
+      <c r="AF4" s="9">
+        <f>-AE4</f>
+        <v>-11783344.784188394</v>
+      </c>
       <c r="AG4" s="17"/>
       <c r="AH4" s="9"/>
       <c r="AI4" s="9"/>
@@ -17914,18 +18486,25 @@
         <v>-8.1354874031472069E-3</v>
       </c>
       <c r="Y5" s="19">
-        <v>-8.0149029262136517E-3</v>
+        <v>-8.0149020746822508E-3</v>
       </c>
       <c r="AA5" s="24">
         <v>44925</v>
       </c>
       <c r="AB5" s="9"/>
       <c r="AC5" s="9">
-        <v>11867472.315836368</v>
-      </c>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
+        <v>11867471.919857511</v>
+      </c>
+      <c r="AD5" s="24">
+        <v>45289</v>
+      </c>
+      <c r="AE5" s="9">
+        <v>18881112.093126651</v>
+      </c>
+      <c r="AF5" s="9">
+        <f>-AE5</f>
+        <v>-18881112.093126651</v>
+      </c>
       <c r="AG5" s="17"/>
       <c r="AH5" s="9"/>
       <c r="AI5" s="9"/>
@@ -17979,14 +18558,42 @@
       <c r="P6" s="9">
         <v>1</v>
       </c>
+      <c r="R6" s="24">
+        <v>45289</v>
+      </c>
+      <c r="S6" s="18">
+        <v>18881112.093126651</v>
+      </c>
+      <c r="T6" s="8">
+        <v>30845923.586166821</v>
+      </c>
+      <c r="U6" s="8">
+        <v>28584694.306419734</v>
+      </c>
+      <c r="V6" s="8">
+        <v>-2261229.2797470875</v>
+      </c>
+      <c r="W6" s="8">
+        <v>0</v>
+      </c>
+      <c r="X6" s="19">
+        <v>-7.3307232102499259E-2</v>
+      </c>
+      <c r="Y6" s="19">
+        <v>-5.3413709629969719E-2</v>
+      </c>
       <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
       <c r="AC6" s="20">
-        <v>-8.0149029262136517E-3</v>
-      </c>
-      <c r="AD6" s="9"/>
+        <v>-8.0149020746822508E-3</v>
+      </c>
+      <c r="AD6" s="24">
+        <v>45289</v>
+      </c>
       <c r="AE6" s="9"/>
-      <c r="AF6" s="20"/>
+      <c r="AF6" s="20">
+        <v>28584694.306419734</v>
+      </c>
       <c r="AG6" s="17"/>
     </row>
     <row r="7" spans="1:35" ht="14.1" customHeight="1">
@@ -18041,6 +18648,9 @@
       <c r="AA7" s="9"/>
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
+      <c r="AF7" s="10">
+        <v>-5.3413709629969719E-2</v>
+      </c>
       <c r="AI7" s="10"/>
     </row>
     <row r="8" spans="1:35" ht="14.1" customHeight="1">
@@ -19553,6 +20163,59 @@
       <c r="P37" s="9">
         <v>1</v>
       </c>
+    </row>
+    <row r="38" spans="1:16" ht="12.75">
+      <c r="A38" s="12">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="13">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="13">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="14">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="14">
+        <v>6567000</v>
+      </c>
+      <c r="F38" s="14">
+        <v>4606710.9436179576</v>
+      </c>
+      <c r="G38" s="14">
+        <v>2948035.3462715377</v>
+      </c>
+      <c r="H38" s="15">
+        <v>4535439.1606228212</v>
+      </c>
+      <c r="I38" s="15">
+        <v>115465988.91420057</v>
+      </c>
+      <c r="J38" s="15">
+        <v>75052890.041306674</v>
+      </c>
+      <c r="K38" s="15">
+        <v>73620205.529804662</v>
+      </c>
+      <c r="L38" s="15">
+        <v>75052890.041306674</v>
+      </c>
+      <c r="M38" s="15">
+        <v>1432684.5115020126</v>
+      </c>
+      <c r="N38" s="14">
+        <v>0</v>
+      </c>
+      <c r="O38" s="9">
+        <v>-76.574709137121957</v>
+      </c>
+      <c r="P38" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="30">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -154,10 +154,6 @@
   </si>
   <si>
     <t>年化收益率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -344,7 +340,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -408,7 +404,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -602,7 +597,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -710,6 +705,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -719,7 +717,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -827,6 +825,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>8666706.9546631575</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8941047.8112862259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -869,7 +870,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -977,6 +978,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -986,7 +990,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1094,6 +1098,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>7984896.5277196188</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8087255.0088565843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1136,7 +1143,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1244,6 +1251,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1253,7 +1263,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1361,6 +1371,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-681810.42694353871</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-853792.8024296416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1382,11 +1395,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="530346368"/>
-        <c:axId val="537303680"/>
+        <c:axId val="609769728"/>
+        <c:axId val="609771520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="530346368"/>
+        <c:axId val="609769728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1429,14 +1442,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537303680"/>
+        <c:crossAx val="609771520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="537303680"/>
+        <c:axId val="609771520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1487,7 +1500,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530346368"/>
+        <c:crossAx val="609769728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1678,7 +1691,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1786,6 +1799,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2948035.3462715377</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4952616.3335655155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1800,8 +1816,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="491098496"/>
-        <c:axId val="491096704"/>
+        <c:axId val="611150464"/>
+        <c:axId val="611148928"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1826,7 +1842,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1934,6 +1950,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1943,7 +1962,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2051,6 +2070,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2067,11 +2089,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="491093376"/>
-        <c:axId val="491095168"/>
+        <c:axId val="611136640"/>
+        <c:axId val="611138560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="491093376"/>
+        <c:axId val="611136640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2114,14 +2136,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491095168"/>
+        <c:crossAx val="611138560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="491095168"/>
+        <c:axId val="611138560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2172,12 +2194,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491093376"/>
+        <c:crossAx val="611136640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="491096704"/>
+        <c:axId val="611148928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2214,12 +2236,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491098496"/>
+        <c:crossAx val="611150464"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="491098496"/>
+        <c:axId val="611150464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2228,7 +2250,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="491096704"/>
+        <c:crossAx val="611148928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2390,7 +2412,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2498,6 +2520,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>256588.26308475045</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>274340.85662306892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2512,8 +2537,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="598896640"/>
-        <c:axId val="598894464"/>
+        <c:axId val="609819264"/>
+        <c:axId val="609817344"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2538,7 +2563,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2646,6 +2671,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2655,7 +2683,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2763,6 +2791,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2779,11 +2810,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="598891136"/>
-        <c:axId val="598892928"/>
+        <c:axId val="609811072"/>
+        <c:axId val="609815552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="598891136"/>
+        <c:axId val="609811072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2826,14 +2857,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598892928"/>
+        <c:crossAx val="609815552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="598892928"/>
+        <c:axId val="609815552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2884,12 +2915,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598891136"/>
+        <c:crossAx val="609811072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="598894464"/>
+        <c:axId val="609817344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2926,12 +2957,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598896640"/>
+        <c:crossAx val="609819264"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="598896640"/>
+        <c:axId val="609819264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2940,7 +2971,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="598894464"/>
+        <c:crossAx val="609817344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3119,7 +3150,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3227,6 +3258,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3236,7 +3270,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3344,6 +3378,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>9313145.6764586046</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9587486.5330816731</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3386,7 +3423,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3494,6 +3531,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3503,7 +3543,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3611,6 +3651,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>8636625.4667957127</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8724946.7101643179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3653,7 +3696,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3761,6 +3804,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3770,7 +3816,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3878,6 +3924,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-676520.20966289192</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-862539.82291735522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3899,11 +3948,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="598923520"/>
-        <c:axId val="598946560"/>
+        <c:axId val="609850112"/>
+        <c:axId val="609851648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="598923520"/>
+        <c:axId val="609850112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3946,14 +3995,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598946560"/>
+        <c:crossAx val="609851648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="598946560"/>
+        <c:axId val="609851648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4004,7 +4053,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598923520"/>
+        <c:crossAx val="609850112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4195,7 +4244,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4303,6 +4352,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>256588.26308475045</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>274340.85662306892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4317,8 +4369,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="598977920"/>
-        <c:axId val="598976384"/>
+        <c:axId val="609940992"/>
+        <c:axId val="609922048"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4343,7 +4395,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4451,6 +4503,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4460,7 +4515,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4568,6 +4623,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4584,11 +4642,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="598972288"/>
-        <c:axId val="598973824"/>
+        <c:axId val="609916416"/>
+        <c:axId val="609918976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="598972288"/>
+        <c:axId val="609916416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4631,14 +4689,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598973824"/>
+        <c:crossAx val="609918976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="598973824"/>
+        <c:axId val="609918976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4689,12 +4747,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598972288"/>
+        <c:crossAx val="609916416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="598976384"/>
+        <c:axId val="609922048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4731,12 +4789,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598977920"/>
+        <c:crossAx val="609940992"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="598977920"/>
+        <c:axId val="609940992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4745,7 +4803,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="598976384"/>
+        <c:crossAx val="609922048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4924,7 +4982,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5032,6 +5090,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5041,7 +5102,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5149,6 +5210,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>9209443.9285615068</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9538652.9565091897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5191,7 +5255,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5299,6 +5363,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5308,7 +5375,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5416,6 +5483,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>8503471.3052840903</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8649528.6555758659</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5458,7 +5528,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5566,6 +5636,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5575,7 +5648,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5683,6 +5756,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-705972.62327741645</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-889124.3009333238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5704,11 +5780,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="602411392"/>
-        <c:axId val="602413312"/>
+        <c:axId val="609990528"/>
+        <c:axId val="610050048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="602411392"/>
+        <c:axId val="609990528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5751,14 +5827,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602413312"/>
+        <c:crossAx val="610050048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="602413312"/>
+        <c:axId val="610050048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5809,7 +5885,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602411392"/>
+        <c:crossAx val="609990528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6000,7 +6076,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6108,6 +6184,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>256588.26308475045</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>329209.02794768271</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6122,8 +6201,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="602536960"/>
-        <c:axId val="602535424"/>
+        <c:axId val="610146176"/>
+        <c:axId val="610144640"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6148,7 +6227,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6256,6 +6335,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6265,7 +6347,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6373,6 +6455,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6389,11 +6474,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="602482944"/>
-        <c:axId val="602533888"/>
+        <c:axId val="610140160"/>
+        <c:axId val="610142464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="602482944"/>
+        <c:axId val="610140160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6436,14 +6521,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602533888"/>
+        <c:crossAx val="610142464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="602533888"/>
+        <c:axId val="610142464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6494,12 +6579,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602482944"/>
+        <c:crossAx val="610140160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="602535424"/>
+        <c:axId val="610144640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6536,12 +6621,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602536960"/>
+        <c:crossAx val="610146176"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="602536960"/>
+        <c:axId val="610146176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6550,7 +6635,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="602535424"/>
+        <c:crossAx val="610144640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6729,7 +6814,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6837,6 +6922,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6846,7 +6934,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6954,6 +7042,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>81859747.281784296</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>84603332.370388374</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6996,7 +7087,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7104,6 +7195,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7113,7 +7207,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7221,6 +7315,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>76967471.740869641</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>78053296.008253068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7263,7 +7360,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7371,6 +7468,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7380,7 +7480,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7488,6 +7588,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-4892275.5409146547</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-6550036.362135306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7509,11 +7612,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="602599424"/>
-        <c:axId val="602600960"/>
+        <c:axId val="610281728"/>
+        <c:axId val="610406400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="602599424"/>
+        <c:axId val="610281728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7556,14 +7659,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602600960"/>
+        <c:crossAx val="610406400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="602600960"/>
+        <c:axId val="610406400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7614,7 +7717,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602599424"/>
+        <c:crossAx val="610281728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7805,7 +7908,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7913,6 +8016,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>118411499.32926121</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>122725312.51366755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7927,8 +8033,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="605457408"/>
-        <c:axId val="605455872"/>
+        <c:axId val="610462720"/>
+        <c:axId val="610460032"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7953,7 +8059,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8061,6 +8167,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8070,7 +8179,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8178,6 +8287,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8194,11 +8306,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="602913024"/>
-        <c:axId val="605454336"/>
+        <c:axId val="610451840"/>
+        <c:axId val="610453376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="602913024"/>
+        <c:axId val="610451840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8241,14 +8353,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605454336"/>
+        <c:crossAx val="610453376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="605454336"/>
+        <c:axId val="610453376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8299,12 +8411,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602913024"/>
+        <c:crossAx val="610451840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="605455872"/>
+        <c:axId val="610460032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8341,12 +8453,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605457408"/>
+        <c:crossAx val="610462720"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="605457408"/>
+        <c:axId val="610462720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8355,7 +8467,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="605455872"/>
+        <c:crossAx val="610460032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8534,7 +8646,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8642,6 +8754,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8651,7 +8766,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8759,6 +8874,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>73620205.529804662</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>78572821.86337018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8801,7 +8919,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8909,6 +9027,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8918,7 +9039,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9026,6 +9147,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>75052890.041306674</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>78388982.695248798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9068,7 +9192,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9176,6 +9300,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9185,7 +9312,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9293,6 +9420,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1432684.5115020126</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-183839.16812138259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9314,11 +9444,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="606533888"/>
-        <c:axId val="606564352"/>
+        <c:axId val="611005184"/>
+        <c:axId val="611008512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="606533888"/>
+        <c:axId val="611005184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9361,14 +9491,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="606564352"/>
+        <c:crossAx val="611008512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="606564352"/>
+        <c:axId val="611008512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9419,7 +9549,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="606533888"/>
+        <c:crossAx val="611005184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11805,8 +11935,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="31"/>
+    <row r="39" spans="1:12" ht="12.75">
+      <c r="A39" s="12">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="13">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="13">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="14">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="14">
+        <v>274340.85662306892</v>
+      </c>
+      <c r="F39" s="15">
+        <v>431353.5633495017</v>
+      </c>
+      <c r="G39" s="15">
+        <v>12715810.210432408</v>
+      </c>
+      <c r="H39" s="15">
+        <v>8087255.0088565843</v>
+      </c>
+      <c r="I39" s="15">
+        <v>8941047.8112862259</v>
+      </c>
+      <c r="J39" s="15">
+        <v>8087255.0088565843</v>
+      </c>
+      <c r="K39" s="15">
+        <v>-853792.8024296416</v>
+      </c>
+      <c r="L39" s="14">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -11865,7 +12030,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -11901,10 +12066,10 @@
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>4</v>
@@ -11925,7 +12090,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.1" customHeight="1">
@@ -14302,8 +14467,70 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
-      <c r="A39" s="31"/>
+    <row r="39" spans="1:21" ht="12.75">
+      <c r="A39" s="12">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="13">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="13">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="14">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="14">
+        <v>274340.85662306892</v>
+      </c>
+      <c r="F39" s="15">
+        <v>431353.5633495017</v>
+      </c>
+      <c r="G39" s="15">
+        <v>13718470.153480669</v>
+      </c>
+      <c r="H39" s="15">
+        <v>8724946.7101643179</v>
+      </c>
+      <c r="I39" s="15">
+        <v>9587486.5330816731</v>
+      </c>
+      <c r="J39" s="15">
+        <v>8724946.7101643179</v>
+      </c>
+      <c r="K39" s="15">
+        <v>-862539.82291735522</v>
+      </c>
+      <c r="L39" s="14">
+        <v>0</v>
+      </c>
+      <c r="M39" s="23">
+        <v>0.66900002956390381</v>
+      </c>
+      <c r="N39" s="23">
+        <v>0.62999999523162842</v>
+      </c>
+      <c r="O39" s="23">
+        <v>0.64500000079472863</v>
+      </c>
+      <c r="P39" s="23">
+        <v>0.67228571431977413</v>
+      </c>
+      <c r="Q39" s="23">
+        <v>-2.7285713525045496E-2</v>
+      </c>
+      <c r="R39" s="23">
+        <v>4.0986394192896743E-2</v>
+      </c>
+      <c r="S39" s="9">
+        <v>6.1479591289345117E-4</v>
+      </c>
+      <c r="T39" s="9">
+        <v>-44.381741896476008</v>
+      </c>
+      <c r="U39" s="11">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -14401,7 +14628,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -16198,8 +16425,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="31"/>
+    <row r="39" spans="1:14" ht="12.75">
+      <c r="A39" s="12">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="13">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="13">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="14">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="14">
+        <v>329209.02794768271</v>
+      </c>
+      <c r="F39" s="15">
+        <v>517624.27601940202</v>
+      </c>
+      <c r="G39" s="15">
+        <v>13599888.302464895</v>
+      </c>
+      <c r="H39" s="15">
+        <v>8649528.6555758659</v>
+      </c>
+      <c r="I39" s="15">
+        <v>9538652.9565091897</v>
+      </c>
+      <c r="J39" s="15">
+        <v>8649528.6555758659</v>
+      </c>
+      <c r="K39" s="15">
+        <v>-889124.3009333238</v>
+      </c>
+      <c r="L39" s="14">
+        <v>0</v>
+      </c>
+      <c r="M39" s="9">
+        <v>-109.41232702522433</v>
+      </c>
+      <c r="N39" s="9">
+        <v>1.2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -16297,7 +16565,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -18094,8 +18362,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="31"/>
+    <row r="39" spans="1:14" ht="12.75">
+      <c r="A39" s="12">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="13">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="13">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="14">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="14">
+        <v>2743585.0886040754</v>
+      </c>
+      <c r="F39" s="15">
+        <v>4313813.1844063476</v>
+      </c>
+      <c r="G39" s="15">
+        <v>122725312.51366755</v>
+      </c>
+      <c r="H39" s="15">
+        <v>78053296.008253068</v>
+      </c>
+      <c r="I39" s="15">
+        <v>84603332.370388374</v>
+      </c>
+      <c r="J39" s="15">
+        <v>78053296.008253068</v>
+      </c>
+      <c r="K39" s="15">
+        <v>-6550036.362135306</v>
+      </c>
+      <c r="L39" s="14">
+        <v>0</v>
+      </c>
+      <c r="M39" s="9">
+        <v>-109.41232702522433</v>
+      </c>
+      <c r="N39" s="9">
+        <v>1.2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -18166,10 +18475,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -18199,7 +18508,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.1" customHeight="1">
@@ -20214,8 +20523,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="31"/>
+    <row r="39" spans="1:16" ht="12.75">
+      <c r="A39" s="12">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="13">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="13">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="14">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="14">
+        <v>8456200</v>
+      </c>
+      <c r="F39" s="14">
+        <v>4684454.1679955423</v>
+      </c>
+      <c r="G39" s="14">
+        <v>4952616.3335655155</v>
+      </c>
+      <c r="H39" s="15">
+        <v>7787132.8743485035</v>
+      </c>
+      <c r="I39" s="15">
+        <v>123253121.78854908</v>
+      </c>
+      <c r="J39" s="15">
+        <v>78388982.695248798</v>
+      </c>
+      <c r="K39" s="15">
+        <v>78572821.86337018</v>
+      </c>
+      <c r="L39" s="15">
+        <v>78388982.695248798</v>
+      </c>
+      <c r="M39" s="15">
+        <v>-183839.16812138259</v>
+      </c>
+      <c r="N39" s="14">
+        <v>0</v>
+      </c>
+      <c r="O39" s="9">
+        <v>-109.41232702522433</v>
+      </c>
+      <c r="P39" s="9">
+        <v>1.2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="15600" windowHeight="7620" tabRatio="569" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="15600" windowHeight="7620" tabRatio="569" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="模型四 (1)PE副本" sheetId="9" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="32">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -157,6 +157,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>最高价</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -167,6 +171,10 @@
   <si>
     <t>标志</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>深创100ETF</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>成交量</t>
@@ -597,7 +605,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -708,6 +716,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -717,7 +728,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -828,6 +839,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>8941047.8112862259</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9209325.2065264452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -870,7 +884,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -981,6 +995,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -990,7 +1007,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1101,6 +1118,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>8087255.0088565843</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8317385.4645985421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1143,7 +1163,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1254,6 +1274,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1263,7 +1286,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1374,6 +1397,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-853792.8024296416</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-891939.74192790315</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1395,11 +1421,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="609769728"/>
-        <c:axId val="609771520"/>
+        <c:axId val="496456064"/>
+        <c:axId val="496457984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="609769728"/>
+        <c:axId val="496456064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1442,14 +1468,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609771520"/>
+        <c:crossAx val="496457984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="609771520"/>
+        <c:axId val="496457984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1500,7 +1526,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609769728"/>
+        <c:crossAx val="496456064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1691,7 +1717,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1802,6 +1828,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>4952616.3335655155</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4181898.253168257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1816,8 +1845,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="611150464"/>
-        <c:axId val="611148928"/>
+        <c:axId val="493836544"/>
+        <c:axId val="493835008"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1842,7 +1871,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1953,6 +1982,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1962,7 +1994,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2073,6 +2105,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2089,11 +2124,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="611136640"/>
-        <c:axId val="611138560"/>
+        <c:axId val="493823488"/>
+        <c:axId val="493825024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="611136640"/>
+        <c:axId val="493823488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2136,14 +2171,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="611138560"/>
+        <c:crossAx val="493825024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="611138560"/>
+        <c:axId val="493825024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2194,12 +2229,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="611136640"/>
+        <c:crossAx val="493823488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="611148928"/>
+        <c:axId val="493835008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2236,12 +2271,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="611150464"/>
+        <c:crossAx val="493836544"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="611150464"/>
+        <c:axId val="493836544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2250,7 +2285,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="611148928"/>
+        <c:crossAx val="493835008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2412,7 +2447,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2523,6 +2558,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>274340.85662306892</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>268277.3952402196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2537,8 +2575,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="609819264"/>
-        <c:axId val="609817344"/>
+        <c:axId val="519549312"/>
+        <c:axId val="515394176"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2563,7 +2601,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2674,6 +2712,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2683,7 +2724,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2794,6 +2835,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2810,11 +2854,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="609811072"/>
-        <c:axId val="609815552"/>
+        <c:axId val="515267584"/>
+        <c:axId val="515392256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="609811072"/>
+        <c:axId val="515267584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2857,14 +2901,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609815552"/>
+        <c:crossAx val="515392256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="609815552"/>
+        <c:axId val="515392256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2915,12 +2959,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609811072"/>
+        <c:crossAx val="515267584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="609817344"/>
+        <c:axId val="515394176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2957,12 +3001,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609819264"/>
+        <c:crossAx val="519549312"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="609819264"/>
+        <c:axId val="519549312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2971,7 +3015,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="609817344"/>
+        <c:crossAx val="515394176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3150,7 +3194,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3261,6 +3305,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3270,7 +3317,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3381,6 +3428,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>9587486.5330816731</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9855763.9283218924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3423,7 +3473,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3534,6 +3584,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3543,7 +3596,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3654,6 +3707,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>8724946.7101643179</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8952069.2248036787</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3696,7 +3752,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3807,6 +3863,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3816,7 +3875,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3927,6 +3986,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-862539.82291735522</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-903694.7035182137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3948,11 +4010,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="609850112"/>
-        <c:axId val="609851648"/>
+        <c:axId val="519648384"/>
+        <c:axId val="519650688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="609850112"/>
+        <c:axId val="519648384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3995,14 +4057,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609851648"/>
+        <c:crossAx val="519650688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="609851648"/>
+        <c:axId val="519650688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4053,7 +4115,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609850112"/>
+        <c:crossAx val="519648384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4244,7 +4306,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4355,6 +4417,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>274340.85662306892</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>268277.3952402196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4369,8 +4434,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="609940992"/>
-        <c:axId val="609922048"/>
+        <c:axId val="652685696"/>
+        <c:axId val="608367744"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4395,7 +4460,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4506,6 +4571,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4515,7 +4583,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4626,6 +4694,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4642,11 +4713,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="609916416"/>
-        <c:axId val="609918976"/>
+        <c:axId val="519703552"/>
+        <c:axId val="607419008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="609916416"/>
+        <c:axId val="519703552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4689,14 +4760,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609918976"/>
+        <c:crossAx val="607419008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="609918976"/>
+        <c:axId val="607419008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4747,12 +4818,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609916416"/>
+        <c:crossAx val="519703552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="609922048"/>
+        <c:axId val="608367744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4789,12 +4860,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609940992"/>
+        <c:crossAx val="652685696"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="609940992"/>
+        <c:axId val="652685696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4803,7 +4874,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="609922048"/>
+        <c:crossAx val="608367744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4982,7 +5053,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5093,6 +5164,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5102,7 +5176,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5213,6 +5287,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>9538652.9565091897</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9806930.351749409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5255,7 +5332,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5366,6 +5443,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5375,7 +5455,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5486,6 +5566,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>8649528.6555758659</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8877006.9111881889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5528,7 +5611,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5639,6 +5722,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5648,7 +5734,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5759,6 +5845,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-889124.3009333238</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-929923.44056122005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5780,11 +5869,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="609990528"/>
-        <c:axId val="610050048"/>
+        <c:axId val="653927168"/>
+        <c:axId val="653928704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="609990528"/>
+        <c:axId val="653927168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5827,14 +5916,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610050048"/>
+        <c:crossAx val="653928704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="610050048"/>
+        <c:axId val="653928704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5885,7 +5974,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609990528"/>
+        <c:crossAx val="653927168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6076,7 +6165,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6187,6 +6276,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>329209.02794768271</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>268277.3952402196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6201,8 +6293,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="610146176"/>
-        <c:axId val="610144640"/>
+        <c:axId val="656184064"/>
+        <c:axId val="656047104"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6227,7 +6319,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6338,6 +6430,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6347,7 +6442,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6458,6 +6553,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6474,11 +6572,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="610140160"/>
-        <c:axId val="610142464"/>
+        <c:axId val="654043392"/>
+        <c:axId val="656044800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="610140160"/>
+        <c:axId val="654043392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6521,14 +6619,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610142464"/>
+        <c:crossAx val="656044800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="610142464"/>
+        <c:axId val="656044800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6579,12 +6677,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610140160"/>
+        <c:crossAx val="654043392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="610144640"/>
+        <c:axId val="656047104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6621,12 +6719,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610146176"/>
+        <c:crossAx val="656184064"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="610146176"/>
+        <c:axId val="656184064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6635,7 +6733,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="610144640"/>
+        <c:crossAx val="656047104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6814,7 +6912,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6925,6 +7023,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6934,7 +7035,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7045,6 +7146,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>84603332.370388374</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>86814275.510388196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7087,7 +7191,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7198,6 +7302,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7207,7 +7314,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7318,6 +7425,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>78053296.008253068</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>79896067.950831026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7360,7 +7470,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7471,6 +7581,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7480,7 +7593,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7591,6 +7704,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-6550036.362135306</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-6918207.5595571697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7612,11 +7728,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="610281728"/>
-        <c:axId val="610406400"/>
+        <c:axId val="656390400"/>
+        <c:axId val="656433152"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="610281728"/>
+        <c:axId val="656390400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7659,14 +7775,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610406400"/>
+        <c:crossAx val="656433152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="610406400"/>
+        <c:axId val="656433152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7717,7 +7833,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610281728"/>
+        <c:crossAx val="656390400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7908,7 +8024,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8019,6 +8135,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>122725312.51366755</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>126218113.59324563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8033,8 +8152,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="610462720"/>
-        <c:axId val="610460032"/>
+        <c:axId val="657473920"/>
+        <c:axId val="656583296"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8059,7 +8178,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8170,6 +8289,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8179,7 +8301,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8290,6 +8412,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8306,11 +8431,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="610451840"/>
-        <c:axId val="610453376"/>
+        <c:axId val="656562432"/>
+        <c:axId val="656580608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="610451840"/>
+        <c:axId val="656562432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8353,14 +8478,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610453376"/>
+        <c:crossAx val="656580608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="610453376"/>
+        <c:axId val="656580608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8411,12 +8536,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610451840"/>
+        <c:crossAx val="656562432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="610460032"/>
+        <c:axId val="656583296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8453,12 +8578,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610462720"/>
+        <c:crossAx val="657473920"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="610462720"/>
+        <c:axId val="657473920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8467,7 +8592,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="610460032"/>
+        <c:crossAx val="656583296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8646,7 +8771,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8757,6 +8882,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8766,7 +8894,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8877,6 +9005,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>78572821.86337018</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>82754720.116538435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8919,7 +9050,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9030,6 +9161,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9039,7 +9173,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9150,6 +9284,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>78388982.695248798</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>82201126.343556553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9192,7 +9329,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9303,6 +9440,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9312,7 +9452,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9423,6 +9563,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-183839.16812138259</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-553593.7729818821</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9444,11 +9587,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="611005184"/>
-        <c:axId val="611008512"/>
+        <c:axId val="657761792"/>
+        <c:axId val="657763712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="611005184"/>
+        <c:axId val="657761792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9491,14 +9634,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="611008512"/>
+        <c:crossAx val="657763712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="611008512"/>
+        <c:axId val="657763712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9549,7 +9692,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="611005184"/>
+        <c:crossAx val="657761792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10263,7 +10406,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG39"/>
+  <dimension ref="A1:AG40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11973,6 +12116,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="40" spans="1:12" ht="12.75">
+      <c r="A40" s="12">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="13">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="13">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="14">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="14">
+        <v>268277.3952402196</v>
+      </c>
+      <c r="F40" s="15">
+        <v>423818.93897167547</v>
+      </c>
+      <c r="G40" s="15">
+        <v>13139629.149404084</v>
+      </c>
+      <c r="H40" s="15">
+        <v>8317385.4645985421</v>
+      </c>
+      <c r="I40" s="15">
+        <v>9209325.2065264452</v>
+      </c>
+      <c r="J40" s="15">
+        <v>8317385.4645985421</v>
+      </c>
+      <c r="K40" s="15">
+        <v>-891939.74192790315</v>
+      </c>
+      <c r="L40" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -11989,7 +12170,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM39"/>
+  <dimension ref="A1:AM40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12030,7 +12211,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -12066,10 +12247,10 @@
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>4</v>
@@ -12090,7 +12271,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.1" customHeight="1">
@@ -14529,6 +14710,71 @@
         <v>-44.381741896476008</v>
       </c>
       <c r="U39" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="12.75">
+      <c r="A40" s="12">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="13">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="13">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="14">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="14">
+        <v>268277.3952402196</v>
+      </c>
+      <c r="F40" s="15">
+        <v>423818.93897167547</v>
+      </c>
+      <c r="G40" s="15">
+        <v>14142289.092452345</v>
+      </c>
+      <c r="H40" s="15">
+        <v>8952069.2248036787</v>
+      </c>
+      <c r="I40" s="15">
+        <v>9855763.9283218924</v>
+      </c>
+      <c r="J40" s="15">
+        <v>8952069.2248036787</v>
+      </c>
+      <c r="K40" s="15">
+        <v>-903694.7035182137</v>
+      </c>
+      <c r="L40" s="14">
+        <v>0</v>
+      </c>
+      <c r="M40" s="23">
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="N40" s="23">
+        <v>0.61299997568130493</v>
+      </c>
+      <c r="O40" s="23">
+        <v>0.63166666030883789</v>
+      </c>
+      <c r="P40" s="23">
+        <v>0.66545238097508741</v>
+      </c>
+      <c r="Q40" s="23">
+        <v>-3.3785720666249519E-2</v>
+      </c>
+      <c r="R40" s="23">
+        <v>3.7027211416335297E-2</v>
+      </c>
+      <c r="S40" s="9">
+        <v>5.5540817124502941E-4</v>
+      </c>
+      <c r="T40" s="9">
+        <v>-60.830435012351074</v>
+      </c>
+      <c r="U40" s="11">
         <v>1</v>
       </c>
     </row>
@@ -14548,7 +14794,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG39"/>
+  <dimension ref="A1:AG40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14589,10 +14835,10 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>9</v>
@@ -14628,7 +14874,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -16467,6 +16713,50 @@
       </c>
       <c r="N39" s="9">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="12.75">
+      <c r="A40" s="12">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="13">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="13">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="14">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="14">
+        <v>268277.3952402196</v>
+      </c>
+      <c r="F40" s="15">
+        <v>423818.93897167547</v>
+      </c>
+      <c r="G40" s="15">
+        <v>14023707.241436571</v>
+      </c>
+      <c r="H40" s="15">
+        <v>8877006.9111881889</v>
+      </c>
+      <c r="I40" s="15">
+        <v>9806930.351749409</v>
+      </c>
+      <c r="J40" s="15">
+        <v>8877006.9111881889</v>
+      </c>
+      <c r="K40" s="15">
+        <v>-929923.44056122005</v>
+      </c>
+      <c r="L40" s="14">
+        <v>0</v>
+      </c>
+      <c r="M40" s="9">
+        <v>-35.422966834096719</v>
+      </c>
+      <c r="N40" s="9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -16485,7 +16775,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG39"/>
+  <dimension ref="A1:AG40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16565,7 +16855,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -18404,6 +18694,50 @@
       </c>
       <c r="N39" s="9">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="12.75">
+      <c r="A40" s="12">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="13">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="13">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="14">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="14">
+        <v>2210943.1399998264</v>
+      </c>
+      <c r="F40" s="15">
+        <v>3492801.0795780676</v>
+      </c>
+      <c r="G40" s="15">
+        <v>126218113.59324563</v>
+      </c>
+      <c r="H40" s="15">
+        <v>79896067.950831026</v>
+      </c>
+      <c r="I40" s="15">
+        <v>86814275.510388196</v>
+      </c>
+      <c r="J40" s="15">
+        <v>79896067.950831026</v>
+      </c>
+      <c r="K40" s="15">
+        <v>-6918207.5595571697</v>
+      </c>
+      <c r="L40" s="14">
+        <v>0</v>
+      </c>
+      <c r="M40" s="9">
+        <v>-35.422966834096719</v>
+      </c>
+      <c r="N40" s="9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -18422,7 +18756,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI39"/>
+  <dimension ref="A1:AI40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18463,10 +18797,10 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>9</v>
@@ -18475,10 +18809,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -18508,7 +18842,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.1" customHeight="1">
@@ -20571,6 +20905,56 @@
       </c>
       <c r="P39" s="9">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="12.75">
+      <c r="A40" s="12">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="13">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="13">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="14">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="14">
+        <v>9012202</v>
+      </c>
+      <c r="F40" s="14">
+        <v>4764694.1608626992</v>
+      </c>
+      <c r="G40" s="14">
+        <v>4181898.253168257</v>
+      </c>
+      <c r="H40" s="15">
+        <v>6606474.1643934222</v>
+      </c>
+      <c r="I40" s="15">
+        <v>129859595.95294251</v>
+      </c>
+      <c r="J40" s="15">
+        <v>82201126.343556553</v>
+      </c>
+      <c r="K40" s="15">
+        <v>82754720.116538435</v>
+      </c>
+      <c r="L40" s="15">
+        <v>82201126.343556553</v>
+      </c>
+      <c r="M40" s="15">
+        <v>-553593.7729818821</v>
+      </c>
+      <c r="N40" s="14">
+        <v>0</v>
+      </c>
+      <c r="O40" s="9">
+        <v>-35.422966834096719</v>
+      </c>
+      <c r="P40" s="9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="15600" windowHeight="7620" tabRatio="569" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="15600" windowHeight="7620" tabRatio="569" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="模型四 (1)PE副本" sheetId="9" r:id="rId1"/>
@@ -173,7 +173,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>深创100ETF</t>
+    <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -605,7 +605,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -719,6 +719,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -728,7 +731,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -842,6 +845,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>9209325.2065264452</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9314484.7442212198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -884,7 +890,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -998,6 +1004,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1007,7 +1016,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1121,6 +1130,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>8317385.4645985421</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8120333.5067951689</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1163,7 +1175,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1277,6 +1289,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1286,7 +1301,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1400,6 +1415,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-891939.74192790315</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1194151.2374260509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1421,11 +1439,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="496456064"/>
-        <c:axId val="496457984"/>
+        <c:axId val="423479936"/>
+        <c:axId val="473891200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="496456064"/>
+        <c:axId val="423479936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1468,14 +1486,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496457984"/>
+        <c:crossAx val="473891200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="496457984"/>
+        <c:axId val="473891200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1526,7 +1544,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496456064"/>
+        <c:crossAx val="423479936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1717,7 +1735,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1831,6 +1849,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>4181898.253168257</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>790864.00325670931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1845,8 +1866,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="493836544"/>
-        <c:axId val="493835008"/>
+        <c:axId val="480082560"/>
+        <c:axId val="480081024"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1871,7 +1892,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1985,6 +2006,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1994,7 +2018,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2108,6 +2132,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2124,11 +2151,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493823488"/>
-        <c:axId val="493825024"/>
+        <c:axId val="480065408"/>
+        <c:axId val="480066944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493823488"/>
+        <c:axId val="480065408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2171,14 +2198,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493825024"/>
+        <c:crossAx val="480066944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493825024"/>
+        <c:axId val="480066944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2229,12 +2256,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493823488"/>
+        <c:crossAx val="480065408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="493835008"/>
+        <c:axId val="480081024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2271,12 +2298,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493836544"/>
+        <c:crossAx val="480082560"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="493836544"/>
+        <c:axId val="480082560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2285,7 +2312,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="493835008"/>
+        <c:crossAx val="480081024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2447,7 +2474,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2561,6 +2588,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>268277.3952402196</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>105159.53769477447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2575,8 +2605,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="519549312"/>
-        <c:axId val="515394176"/>
+        <c:axId val="480024064"/>
+        <c:axId val="480013696"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2601,7 +2631,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2715,6 +2745,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2724,7 +2757,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2838,6 +2871,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2854,11 +2890,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="515267584"/>
-        <c:axId val="515392256"/>
+        <c:axId val="480007680"/>
+        <c:axId val="480010624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="515267584"/>
+        <c:axId val="480007680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2901,14 +2937,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515392256"/>
+        <c:crossAx val="480010624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="515392256"/>
+        <c:axId val="480010624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2959,12 +2995,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515267584"/>
+        <c:crossAx val="480007680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="515394176"/>
+        <c:axId val="480013696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3001,12 +3037,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519549312"/>
+        <c:crossAx val="480024064"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="519549312"/>
+        <c:axId val="480024064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3015,7 +3051,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="515394176"/>
+        <c:crossAx val="480013696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3194,7 +3230,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3308,6 +3344,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3317,7 +3356,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3431,6 +3470,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>9855763.9283218924</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9960923.466016667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3473,7 +3515,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3587,6 +3629,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3596,7 +3641,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3710,6 +3755,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>8952069.2248036787</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8731956.0863977727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3752,7 +3800,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3866,6 +3914,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3875,7 +3926,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3989,6 +4040,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-903694.7035182137</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1228967.3796188943</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4010,11 +4064,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="519648384"/>
-        <c:axId val="519650688"/>
+        <c:axId val="480130944"/>
+        <c:axId val="480132480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="519648384"/>
+        <c:axId val="480130944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4057,14 +4111,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519650688"/>
+        <c:crossAx val="480132480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="519650688"/>
+        <c:axId val="480132480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4115,7 +4169,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519648384"/>
+        <c:crossAx val="480130944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4306,7 +4360,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4420,6 +4474,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>268277.3952402196</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>105159.53769477447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4434,8 +4491,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="652685696"/>
-        <c:axId val="608367744"/>
+        <c:axId val="480954624"/>
+        <c:axId val="480918912"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4460,7 +4517,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4574,6 +4631,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4583,7 +4643,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4697,6 +4757,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4713,11 +4776,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="519703552"/>
-        <c:axId val="607419008"/>
+        <c:axId val="480902528"/>
+        <c:axId val="480916608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="519703552"/>
+        <c:axId val="480902528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4760,14 +4823,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607419008"/>
+        <c:crossAx val="480916608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="607419008"/>
+        <c:axId val="480916608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4818,12 +4881,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519703552"/>
+        <c:crossAx val="480902528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="608367744"/>
+        <c:axId val="480918912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4860,12 +4923,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="652685696"/>
+        <c:crossAx val="480954624"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="652685696"/>
+        <c:axId val="480954624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4874,7 +4937,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="608367744"/>
+        <c:crossAx val="480918912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5053,7 +5116,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5167,6 +5230,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5176,7 +5242,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5290,6 +5356,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>9806930.351749409</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9912089.8894441836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5332,7 +5401,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5446,6 +5515,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5455,7 +5527,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5569,6 +5641,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>8877006.9111881889</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8659621.1555818245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5611,7 +5686,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5725,6 +5800,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5734,7 +5812,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5848,6 +5926,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-929923.44056122005</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1252468.7338623591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5869,11 +5950,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="653927168"/>
-        <c:axId val="653928704"/>
+        <c:axId val="481052160"/>
+        <c:axId val="481054080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="653927168"/>
+        <c:axId val="481052160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5916,14 +5997,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="653928704"/>
+        <c:crossAx val="481054080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="653928704"/>
+        <c:axId val="481054080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5974,7 +6055,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="653927168"/>
+        <c:crossAx val="481052160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6165,7 +6246,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6279,6 +6360,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>268277.3952402196</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>105159.53769477447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6293,8 +6377,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="656184064"/>
-        <c:axId val="656047104"/>
+        <c:axId val="585882624"/>
+        <c:axId val="488871808"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6319,7 +6403,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6433,6 +6517,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6442,7 +6529,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6556,6 +6643,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6572,11 +6662,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="654043392"/>
-        <c:axId val="656044800"/>
+        <c:axId val="488838656"/>
+        <c:axId val="488869888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="654043392"/>
+        <c:axId val="488838656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6619,14 +6709,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656044800"/>
+        <c:crossAx val="488869888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="656044800"/>
+        <c:axId val="488869888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6677,12 +6767,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="654043392"/>
+        <c:crossAx val="488838656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="656047104"/>
+        <c:axId val="488871808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6719,12 +6809,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656184064"/>
+        <c:crossAx val="585882624"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="656184064"/>
+        <c:axId val="585882624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6733,7 +6823,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="656047104"/>
+        <c:crossAx val="488871808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6912,7 +7002,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7026,6 +7116,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7035,7 +7128,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7149,6 +7242,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>86814275.510388196</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>87356868.845013961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7191,7 +7287,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7305,6 +7401,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7314,7 +7413,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7428,6 +7527,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>79896067.950831026</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>77535644.432070196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7470,7 +7572,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7584,6 +7686,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7593,7 +7698,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7707,6 +7812,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-6918207.5595571697</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-9821224.4129437655</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7728,11 +7836,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="656390400"/>
-        <c:axId val="656433152"/>
+        <c:axId val="628187904"/>
+        <c:axId val="628189824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="656390400"/>
+        <c:axId val="628187904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7775,14 +7883,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656433152"/>
+        <c:crossAx val="628189824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="656433152"/>
+        <c:axId val="628189824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7833,7 +7941,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656390400"/>
+        <c:crossAx val="628187904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8024,7 +8132,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8138,6 +8246,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>126218113.59324563</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>127107610.84226432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8152,8 +8263,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="657473920"/>
-        <c:axId val="656583296"/>
+        <c:axId val="686024192"/>
+        <c:axId val="686016768"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8178,7 +8289,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8292,6 +8403,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8301,7 +8415,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8415,6 +8529,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8431,11 +8548,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="656562432"/>
-        <c:axId val="656580608"/>
+        <c:axId val="633269248"/>
+        <c:axId val="633466240"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="656562432"/>
+        <c:axId val="633269248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8478,14 +8595,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656580608"/>
+        <c:crossAx val="633466240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="656580608"/>
+        <c:axId val="633466240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8536,12 +8653,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656562432"/>
+        <c:crossAx val="633269248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="656583296"/>
+        <c:axId val="686016768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8578,12 +8695,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="657473920"/>
+        <c:crossAx val="686024192"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="657473920"/>
+        <c:axId val="686024192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8592,7 +8709,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="656583296"/>
+        <c:crossAx val="686016768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8771,7 +8888,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8885,6 +9002,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8894,7 +9014,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9008,6 +9128,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>82754720.116538435</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>83545584.119795144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9050,7 +9173,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9164,6 +9287,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9173,7 +9299,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9287,6 +9413,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>82201126.343556553</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>80005219.392208055</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9329,7 +9458,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9443,6 +9572,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9452,7 +9584,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9566,6 +9698,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-553593.7729818821</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-3540364.7275870889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9587,11 +9722,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="657761792"/>
-        <c:axId val="657763712"/>
+        <c:axId val="706707840"/>
+        <c:axId val="706709376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="657761792"/>
+        <c:axId val="706707840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9634,14 +9769,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="657763712"/>
+        <c:crossAx val="706709376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="657763712"/>
+        <c:axId val="706709376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9692,7 +9827,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="657761792"/>
+        <c:crossAx val="706707840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10406,7 +10541,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG40"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12154,6 +12289,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="41" spans="1:12" ht="12.75">
+      <c r="A41" s="12">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="13">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="13">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="14">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="14">
+        <v>105159.53769477447</v>
+      </c>
+      <c r="F41" s="15">
+        <v>172392.68070274981</v>
+      </c>
+      <c r="G41" s="15">
+        <v>13312021.830106834</v>
+      </c>
+      <c r="H41" s="15">
+        <v>8120333.5067951689</v>
+      </c>
+      <c r="I41" s="15">
+        <v>9314484.7442212198</v>
+      </c>
+      <c r="J41" s="15">
+        <v>8120333.5067951689</v>
+      </c>
+      <c r="K41" s="15">
+        <v>-1194151.2374260509</v>
+      </c>
+      <c r="L41" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -12170,7 +12343,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM40"/>
+  <dimension ref="A1:AM41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14778,6 +14951,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="41" spans="1:21" ht="12.75">
+      <c r="A41" s="12">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="13">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="13">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="14">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="14">
+        <v>105159.53769477447</v>
+      </c>
+      <c r="F41" s="15">
+        <v>172392.68070274981</v>
+      </c>
+      <c r="G41" s="15">
+        <v>14314681.773155095</v>
+      </c>
+      <c r="H41" s="15">
+        <v>8731956.0863977727</v>
+      </c>
+      <c r="I41" s="15">
+        <v>9960923.466016667</v>
+      </c>
+      <c r="J41" s="15">
+        <v>8731956.0863977727</v>
+      </c>
+      <c r="K41" s="15">
+        <v>-1228967.3796188943</v>
+      </c>
+      <c r="L41" s="14">
+        <v>0</v>
+      </c>
+      <c r="M41" s="23">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="N41" s="23">
+        <v>0.58399999141693115</v>
+      </c>
+      <c r="O41" s="23">
+        <v>0.60999999443689978</v>
+      </c>
+      <c r="P41" s="23">
+        <v>0.65569047558875304</v>
+      </c>
+      <c r="Q41" s="23">
+        <v>-4.5690481151853257E-2</v>
+      </c>
+      <c r="R41" s="23">
+        <v>3.2074830969985625E-2</v>
+      </c>
+      <c r="S41" s="9">
+        <v>4.8112246454978433E-4</v>
+      </c>
+      <c r="T41" s="9">
+        <v>-94.966426468172983</v>
+      </c>
+      <c r="U41" s="11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14794,7 +15032,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG40"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14835,10 +15073,10 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>9</v>
@@ -16756,6 +16994,50 @@
         <v>-35.422966834096719</v>
       </c>
       <c r="N40" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="12.75">
+      <c r="A41" s="12">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="13">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="13">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="14">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="14">
+        <v>105159.53769477447</v>
+      </c>
+      <c r="F41" s="15">
+        <v>172392.68070274981</v>
+      </c>
+      <c r="G41" s="15">
+        <v>14196099.922139321</v>
+      </c>
+      <c r="H41" s="15">
+        <v>8659621.1555818245</v>
+      </c>
+      <c r="I41" s="15">
+        <v>9912089.8894441836</v>
+      </c>
+      <c r="J41" s="15">
+        <v>8659621.1555818245</v>
+      </c>
+      <c r="K41" s="15">
+        <v>-1252468.7338623591</v>
+      </c>
+      <c r="L41" s="14">
+        <v>0</v>
+      </c>
+      <c r="M41" s="9">
+        <v>170.37062431435149</v>
+      </c>
+      <c r="N41" s="9">
         <v>1</v>
       </c>
     </row>
@@ -16775,7 +17057,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG40"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16816,7 +17098,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -18737,6 +19019,50 @@
         <v>-35.422966834096719</v>
       </c>
       <c r="N40" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="12.75">
+      <c r="A41" s="12">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="13">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="13">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="14">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="14">
+        <v>542593.33462576638</v>
+      </c>
+      <c r="F41" s="15">
+        <v>889497.24901869858</v>
+      </c>
+      <c r="G41" s="15">
+        <v>127107610.84226432</v>
+      </c>
+      <c r="H41" s="15">
+        <v>77535644.432070196</v>
+      </c>
+      <c r="I41" s="15">
+        <v>87356868.845013961</v>
+      </c>
+      <c r="J41" s="15">
+        <v>77535644.432070196</v>
+      </c>
+      <c r="K41" s="15">
+        <v>-9821224.4129437655</v>
+      </c>
+      <c r="L41" s="14">
+        <v>0</v>
+      </c>
+      <c r="M41" s="9">
+        <v>170.37062431435149</v>
+      </c>
+      <c r="N41" s="9">
         <v>1</v>
       </c>
     </row>
@@ -18756,7 +19082,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI40"/>
+  <dimension ref="A1:AI41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18797,10 +19123,10 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>9</v>
@@ -20954,6 +21280,56 @@
         <v>-35.422966834096719</v>
       </c>
       <c r="P40" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="12.75">
+      <c r="A41" s="12">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="13">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="13">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="14">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="14">
+        <v>6956200</v>
+      </c>
+      <c r="F41" s="14">
+        <v>4772486.4689518735</v>
+      </c>
+      <c r="G41" s="14">
+        <v>790864.00325670931</v>
+      </c>
+      <c r="H41" s="15">
+        <v>1296498.3355904128</v>
+      </c>
+      <c r="I41" s="15">
+        <v>131156094.28853291</v>
+      </c>
+      <c r="J41" s="15">
+        <v>80005219.392208055</v>
+      </c>
+      <c r="K41" s="15">
+        <v>83545584.119795144</v>
+      </c>
+      <c r="L41" s="15">
+        <v>80005219.392208055</v>
+      </c>
+      <c r="M41" s="15">
+        <v>-3540364.7275870889</v>
+      </c>
+      <c r="N41" s="14">
+        <v>0</v>
+      </c>
+      <c r="O41" s="9">
+        <v>170.37062431435149</v>
+      </c>
+      <c r="P41" s="9">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="30">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -157,10 +157,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>最高价</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -171,10 +167,6 @@
   <si>
     <t>标志</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>成交量</t>
@@ -605,7 +597,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -722,6 +714,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -731,7 +726,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -848,6 +843,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>9314484.7442212198</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9315019.3275703583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -890,7 +888,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1007,6 +1005,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1016,7 +1017,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1133,6 +1134,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>8120333.5067951689</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10210855.587295413</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1175,7 +1179,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1292,6 +1296,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1301,7 +1308,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1418,6 +1425,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-1194151.2374260509</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>895836.25972505473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1439,11 +1449,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="423479936"/>
-        <c:axId val="473891200"/>
+        <c:axId val="540894720"/>
+        <c:axId val="540902528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="423479936"/>
+        <c:axId val="540894720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1486,14 +1496,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473891200"/>
+        <c:crossAx val="540902528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="473891200"/>
+        <c:axId val="540902528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1544,7 +1554,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423479936"/>
+        <c:crossAx val="540894720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1735,7 +1745,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1852,6 +1862,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>790864.00325670931</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>508.65435607668536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1866,8 +1879,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="480082560"/>
-        <c:axId val="480081024"/>
+        <c:axId val="474294528"/>
+        <c:axId val="474292992"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1892,7 +1905,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2009,6 +2022,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2018,7 +2034,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2135,6 +2151,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2151,11 +2170,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="480065408"/>
-        <c:axId val="480066944"/>
+        <c:axId val="474232320"/>
+        <c:axId val="474233856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="480065408"/>
+        <c:axId val="474232320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2198,14 +2217,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480066944"/>
+        <c:crossAx val="474233856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="480066944"/>
+        <c:axId val="474233856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2256,12 +2275,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480065408"/>
+        <c:crossAx val="474232320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="480081024"/>
+        <c:axId val="474292992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2298,12 +2317,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480082560"/>
+        <c:crossAx val="474294528"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="480082560"/>
+        <c:axId val="474294528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2312,7 +2331,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="480081024"/>
+        <c:crossAx val="474292992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2474,7 +2493,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2591,6 +2610,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>105159.53769477447</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>534.58334913787519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2605,8 +2627,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="480024064"/>
-        <c:axId val="480013696"/>
+        <c:axId val="568826112"/>
+        <c:axId val="568823808"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2631,7 +2653,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2748,6 +2770,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2757,7 +2782,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2874,6 +2899,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2890,11 +2918,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="480007680"/>
-        <c:axId val="480010624"/>
+        <c:axId val="568816000"/>
+        <c:axId val="568817920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="480007680"/>
+        <c:axId val="568816000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2937,14 +2965,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480010624"/>
+        <c:crossAx val="568817920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="480010624"/>
+        <c:axId val="568817920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2995,12 +3023,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480007680"/>
+        <c:crossAx val="568816000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="480013696"/>
+        <c:axId val="568823808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3037,12 +3065,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480024064"/>
+        <c:crossAx val="568826112"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="480024064"/>
+        <c:axId val="568826112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3051,7 +3079,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="480013696"/>
+        <c:crossAx val="568823808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3230,7 +3258,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3347,6 +3375,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3356,7 +3387,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3473,6 +3504,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>9960923.466016667</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9961458.0493658055</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3515,7 +3549,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3632,6 +3666,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3641,7 +3678,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3758,6 +3795,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>8731956.0863977727</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10979895.783215756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3800,7 +3840,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3917,6 +3957,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3926,7 +3969,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4043,6 +4086,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-1228967.3796188943</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1018437.7338499501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4064,11 +4110,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="480130944"/>
-        <c:axId val="480132480"/>
+        <c:axId val="573085952"/>
+        <c:axId val="573088128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="480130944"/>
+        <c:axId val="573085952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4111,14 +4157,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480132480"/>
+        <c:crossAx val="573088128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="480132480"/>
+        <c:axId val="573088128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4169,7 +4215,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480130944"/>
+        <c:crossAx val="573085952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4360,7 +4406,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4477,6 +4523,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>105159.53769477447</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>534.58334913787519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4491,8 +4540,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="480954624"/>
-        <c:axId val="480918912"/>
+        <c:axId val="573221120"/>
+        <c:axId val="573219200"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4517,7 +4566,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4634,6 +4683,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4643,7 +4695,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4760,6 +4812,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4776,11 +4831,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="480902528"/>
-        <c:axId val="480916608"/>
+        <c:axId val="573195008"/>
+        <c:axId val="573196544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="480902528"/>
+        <c:axId val="573195008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4823,14 +4878,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480916608"/>
+        <c:crossAx val="573196544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="480916608"/>
+        <c:axId val="573196544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4881,12 +4936,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480902528"/>
+        <c:crossAx val="573195008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="480918912"/>
+        <c:axId val="573219200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4923,12 +4978,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480954624"/>
+        <c:crossAx val="573221120"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="480954624"/>
+        <c:axId val="573221120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4937,7 +4992,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="480918912"/>
+        <c:crossAx val="573219200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5116,7 +5171,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5233,6 +5288,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5242,7 +5300,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5359,6 +5417,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>9912089.8894441836</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9912624.4727933221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5401,7 +5462,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5518,6 +5579,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5527,7 +5591,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5644,6 +5708,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>8659621.1555818245</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10888943.501168342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5686,7 +5753,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5803,6 +5870,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5812,7 +5882,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5929,6 +5999,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-1252468.7338623591</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>976319.02837502025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5950,11 +6023,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="481052160"/>
-        <c:axId val="481054080"/>
+        <c:axId val="573291904"/>
+        <c:axId val="573303040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="481052160"/>
+        <c:axId val="573291904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5997,14 +6070,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481054080"/>
+        <c:crossAx val="573303040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="481054080"/>
+        <c:axId val="573303040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6055,7 +6128,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481052160"/>
+        <c:crossAx val="573291904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6246,7 +6319,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6363,6 +6436,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>105159.53769477447</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>534.58334913787519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6377,8 +6453,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="585882624"/>
-        <c:axId val="488871808"/>
+        <c:axId val="573384576"/>
+        <c:axId val="573382656"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6403,7 +6479,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6520,6 +6596,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6529,7 +6608,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6646,6 +6725,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6662,11 +6744,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="488838656"/>
-        <c:axId val="488869888"/>
+        <c:axId val="573364480"/>
+        <c:axId val="573379328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="488838656"/>
+        <c:axId val="573364480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6709,14 +6791,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488869888"/>
+        <c:crossAx val="573379328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="488869888"/>
+        <c:axId val="573379328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6767,12 +6849,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488838656"/>
+        <c:crossAx val="573364480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="488871808"/>
+        <c:axId val="573382656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6809,12 +6891,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585882624"/>
+        <c:crossAx val="573384576"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="585882624"/>
+        <c:axId val="573384576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6823,7 +6905,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="488871808"/>
+        <c:crossAx val="573382656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7002,7 +7084,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7119,6 +7201,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7128,7 +7213,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7245,6 +7330,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>87356868.845013961</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>87357065.508889571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7287,7 +7375,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7404,6 +7492,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7413,7 +7504,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7530,6 +7621,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>77535644.432070196</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>97491736.664887249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7572,7 +7666,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7689,6 +7783,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7698,7 +7795,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7815,6 +7912,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-9821224.4129437655</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10134671.155997679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7836,11 +7936,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="628187904"/>
-        <c:axId val="628189824"/>
+        <c:axId val="573533568"/>
+        <c:axId val="573632512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="628187904"/>
+        <c:axId val="573533568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7883,14 +7983,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="628189824"/>
+        <c:crossAx val="573632512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="628189824"/>
+        <c:axId val="573632512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7941,7 +8041,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="628187904"/>
+        <c:crossAx val="573533568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8132,7 +8232,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8249,6 +8349,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>127107610.84226432</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>127107867.24887526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8263,8 +8366,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="686024192"/>
-        <c:axId val="686016768"/>
+        <c:axId val="574371712"/>
+        <c:axId val="574370176"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8289,7 +8392,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8406,6 +8509,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8415,7 +8521,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8532,6 +8638,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8548,11 +8657,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="633269248"/>
-        <c:axId val="633466240"/>
+        <c:axId val="574288256"/>
+        <c:axId val="574289792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="633269248"/>
+        <c:axId val="574288256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8595,14 +8704,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="633466240"/>
+        <c:crossAx val="574289792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="633466240"/>
+        <c:axId val="574289792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8653,12 +8762,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="633269248"/>
+        <c:crossAx val="574288256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="686016768"/>
+        <c:axId val="574370176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8695,12 +8804,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="686024192"/>
+        <c:crossAx val="574371712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="686024192"/>
+        <c:axId val="574371712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8709,7 +8818,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="686016768"/>
+        <c:crossAx val="574370176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8888,7 +8997,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9005,6 +9114,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9014,7 +9126,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9131,6 +9243,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>83545584.119795144</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>83546092.774151221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9173,7 +9288,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9290,6 +9405,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9299,7 +9417,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9416,6 +9534,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>80005219.392208055</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>100597235.53780489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9458,7 +9579,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9575,6 +9696,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9584,7 +9708,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9701,6 +9825,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-3540364.7275870889</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>17051142.763653666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9722,11 +9849,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="706707840"/>
-        <c:axId val="706709376"/>
+        <c:axId val="574603648"/>
+        <c:axId val="574606336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="706707840"/>
+        <c:axId val="574603648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9769,14 +9896,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="706709376"/>
+        <c:crossAx val="574606336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="706709376"/>
+        <c:axId val="574606336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9827,7 +9954,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="706707840"/>
+        <c:crossAx val="574603648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10541,7 +10668,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG41"/>
+  <dimension ref="A1:AG42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12327,6 +12454,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="42" spans="1:12" ht="12.75">
+      <c r="A42" s="12">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="13">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="13">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="14">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="14">
+        <v>534.58334913787519</v>
+      </c>
+      <c r="F42" s="15">
+        <v>696.97957693832984</v>
+      </c>
+      <c r="G42" s="15">
+        <v>13312718.809683772</v>
+      </c>
+      <c r="H42" s="15">
+        <v>10210855.587295413</v>
+      </c>
+      <c r="I42" s="15">
+        <v>9315019.3275703583</v>
+      </c>
+      <c r="J42" s="15">
+        <v>10210855.587295413</v>
+      </c>
+      <c r="K42" s="15">
+        <v>895836.25972505473</v>
+      </c>
+      <c r="L42" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -12343,7 +12508,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM41"/>
+  <dimension ref="A1:AM42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12384,7 +12549,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -12420,10 +12585,10 @@
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>4</v>
@@ -12444,7 +12609,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.1" customHeight="1">
@@ -15013,6 +15178,71 @@
         <v>-94.966426468172983</v>
       </c>
       <c r="U41" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="12.75">
+      <c r="A42" s="12">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="13">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="13">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="14">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="14">
+        <v>534.58334913787519</v>
+      </c>
+      <c r="F42" s="15">
+        <v>696.97957693832984</v>
+      </c>
+      <c r="G42" s="15">
+        <v>14315378.752732033</v>
+      </c>
+      <c r="H42" s="15">
+        <v>10979895.783215756</v>
+      </c>
+      <c r="I42" s="15">
+        <v>9961458.0493658055</v>
+      </c>
+      <c r="J42" s="15">
+        <v>10979895.783215756</v>
+      </c>
+      <c r="K42" s="15">
+        <v>1018437.7338499501</v>
+      </c>
+      <c r="L42" s="14">
+        <v>0</v>
+      </c>
+      <c r="M42" s="23">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="N42" s="23">
+        <v>0.58899998664855957</v>
+      </c>
+      <c r="O42" s="23">
+        <v>0.70766667524973548</v>
+      </c>
+      <c r="P42" s="23">
+        <v>0.6522857135250455</v>
+      </c>
+      <c r="Q42" s="23">
+        <v>5.5380961724689981E-2</v>
+      </c>
+      <c r="R42" s="23">
+        <v>2.8619046722139607E-2</v>
+      </c>
+      <c r="S42" s="9">
+        <v>4.2928570083209408E-4</v>
+      </c>
+      <c r="T42" s="9">
+        <v>129.00723601402009</v>
+      </c>
+      <c r="U42" s="11">
         <v>1</v>
       </c>
     </row>
@@ -15032,7 +15262,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG41"/>
+  <dimension ref="A1:AG42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15112,7 +15342,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -17038,6 +17268,50 @@
         <v>170.37062431435149</v>
       </c>
       <c r="N41" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="12.75">
+      <c r="A42" s="12">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="13">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="13">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="14">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="14">
+        <v>534.58334913787519</v>
+      </c>
+      <c r="F42" s="15">
+        <v>696.97957693832984</v>
+      </c>
+      <c r="G42" s="15">
+        <v>14196796.901716258</v>
+      </c>
+      <c r="H42" s="15">
+        <v>10888943.501168342</v>
+      </c>
+      <c r="I42" s="15">
+        <v>9912624.4727933221</v>
+      </c>
+      <c r="J42" s="15">
+        <v>10888943.501168342</v>
+      </c>
+      <c r="K42" s="15">
+        <v>976319.02837502025</v>
+      </c>
+      <c r="L42" s="14">
+        <v>0</v>
+      </c>
+      <c r="M42" s="9">
+        <v>265.35751850843906</v>
+      </c>
+      <c r="N42" s="9">
         <v>1</v>
       </c>
     </row>
@@ -17057,7 +17331,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG41"/>
+  <dimension ref="A1:AG42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17098,7 +17372,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -17137,7 +17411,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -19063,6 +19337,50 @@
         <v>170.37062431435149</v>
       </c>
       <c r="N41" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="12.75">
+      <c r="A42" s="12">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="13">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="13">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="14">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="14">
+        <v>196.6638756048801</v>
+      </c>
+      <c r="F42" s="15">
+        <v>256.40661094139233</v>
+      </c>
+      <c r="G42" s="15">
+        <v>127107867.24887526</v>
+      </c>
+      <c r="H42" s="15">
+        <v>97491736.664887249</v>
+      </c>
+      <c r="I42" s="15">
+        <v>87357065.508889571</v>
+      </c>
+      <c r="J42" s="15">
+        <v>97491736.664887249</v>
+      </c>
+      <c r="K42" s="15">
+        <v>10134671.155997679</v>
+      </c>
+      <c r="L42" s="14">
+        <v>0</v>
+      </c>
+      <c r="M42" s="9">
+        <v>265.35751850843906</v>
+      </c>
+      <c r="N42" s="9">
         <v>1</v>
       </c>
     </row>
@@ -19082,7 +19400,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI41"/>
+  <dimension ref="A1:AI42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19135,10 +19453,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -19168,7 +19486,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.1" customHeight="1">
@@ -21330,6 +21648,56 @@
         <v>170.37062431435149</v>
       </c>
       <c r="P41" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="12.75">
+      <c r="A42" s="12">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="13">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="13">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="14">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="14">
+        <v>12479809</v>
+      </c>
+      <c r="F42" s="14">
+        <v>4825138.2799101509</v>
+      </c>
+      <c r="G42" s="14">
+        <v>508.65435607668536</v>
+      </c>
+      <c r="H42" s="15">
+        <v>663.17385021045902</v>
+      </c>
+      <c r="I42" s="15">
+        <v>131156757.46238312</v>
+      </c>
+      <c r="J42" s="15">
+        <v>100597235.53780489</v>
+      </c>
+      <c r="K42" s="15">
+        <v>83546092.774151221</v>
+      </c>
+      <c r="L42" s="15">
+        <v>100597235.53780489</v>
+      </c>
+      <c r="M42" s="15">
+        <v>17051142.763653666</v>
+      </c>
+      <c r="N42" s="14">
+        <v>0</v>
+      </c>
+      <c r="O42" s="9">
+        <v>265.35751850843906</v>
+      </c>
+      <c r="P42" s="9">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="31">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -167,6 +167,10 @@
   <si>
     <t>标志</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>成交量</t>
@@ -597,7 +601,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -717,6 +721,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -726,7 +733,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -846,6 +853,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>9315019.3275703583</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9316744.2474954911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -888,7 +898,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1008,6 +1018,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1017,7 +1030,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1137,6 +1150,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>10210855.587295413</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10345707.568357404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1179,7 +1195,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1299,6 +1315,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1308,7 +1327,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1428,6 +1447,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>895836.25972505473</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1028963.3208619133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1449,11 +1471,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="540894720"/>
-        <c:axId val="540902528"/>
+        <c:axId val="516687360"/>
+        <c:axId val="516956928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="540894720"/>
+        <c:axId val="516687360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1496,14 +1518,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540902528"/>
+        <c:crossAx val="516956928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="540902528"/>
+        <c:axId val="516956928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1554,7 +1576,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540894720"/>
+        <c:crossAx val="516687360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1745,7 +1767,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1861,10 +1883,13 @@
                   <c:v>4181898.253168257</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>790864.00325670931</c:v>
+                  <c:v>790864.00338428561</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>508.65435607668536</c:v>
+                  <c:v>508.65435720173048</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1879,8 +1904,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="474294528"/>
-        <c:axId val="474292992"/>
+        <c:axId val="606270592"/>
+        <c:axId val="606248320"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1905,7 +1930,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2025,6 +2050,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2034,7 +2062,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2154,6 +2182,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.76700001955032349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77700001001358032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2170,11 +2201,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="474232320"/>
-        <c:axId val="474233856"/>
+        <c:axId val="606243072"/>
+        <c:axId val="606246400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="474232320"/>
+        <c:axId val="606243072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2217,14 +2248,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474233856"/>
+        <c:crossAx val="606246400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="474233856"/>
+        <c:axId val="606246400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2275,12 +2306,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474232320"/>
+        <c:crossAx val="606243072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="474292992"/>
+        <c:axId val="606248320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2317,12 +2348,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474294528"/>
+        <c:crossAx val="606270592"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="474294528"/>
+        <c:axId val="606270592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2331,7 +2362,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="474292992"/>
+        <c:crossAx val="606248320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2493,7 +2524,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2613,6 +2644,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>534.58334913787519</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1724.9199251330979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2627,8 +2661,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="568826112"/>
-        <c:axId val="568823808"/>
+        <c:axId val="549735424"/>
+        <c:axId val="549719040"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2653,7 +2687,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2773,6 +2807,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2782,7 +2819,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2902,6 +2939,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.76700001955032349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77700001001358032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2918,11 +2958,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="568816000"/>
-        <c:axId val="568817920"/>
+        <c:axId val="517335680"/>
+        <c:axId val="547229696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="568816000"/>
+        <c:axId val="517335680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2965,14 +3005,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568817920"/>
+        <c:crossAx val="547229696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="568817920"/>
+        <c:axId val="547229696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3023,12 +3063,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568816000"/>
+        <c:crossAx val="517335680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="568823808"/>
+        <c:axId val="549719040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3065,12 +3105,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568826112"/>
+        <c:crossAx val="549735424"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="568826112"/>
+        <c:axId val="549735424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3079,7 +3119,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="568823808"/>
+        <c:crossAx val="549719040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3258,7 +3298,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3378,6 +3418,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3387,7 +3430,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3507,6 +3550,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>9961458.0493658055</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9963182.9692909382</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3549,7 +3595,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3669,6 +3715,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3678,7 +3727,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3798,6 +3847,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>10979895.783215756</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11124774.354146119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3840,7 +3892,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3960,6 +4012,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3969,7 +4024,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4089,6 +4144,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1018437.7338499501</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1161591.384855181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4110,11 +4168,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="573085952"/>
-        <c:axId val="573088128"/>
+        <c:axId val="562911488"/>
+        <c:axId val="562946432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="573085952"/>
+        <c:axId val="562911488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4157,14 +4215,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573088128"/>
+        <c:crossAx val="562946432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="573088128"/>
+        <c:axId val="562946432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4215,7 +4273,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573085952"/>
+        <c:crossAx val="562911488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4406,7 +4464,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4526,6 +4584,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>534.58334913787519</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1724.9199251330979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4540,8 +4601,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="573221120"/>
-        <c:axId val="573219200"/>
+        <c:axId val="562994560"/>
+        <c:axId val="562991872"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4566,7 +4627,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4686,6 +4747,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4695,7 +4759,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4815,6 +4879,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.76700001955032349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77700001001358032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4831,11 +4898,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="573195008"/>
-        <c:axId val="573196544"/>
+        <c:axId val="562975488"/>
+        <c:axId val="562977408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="573195008"/>
+        <c:axId val="562975488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4878,14 +4945,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573196544"/>
+        <c:crossAx val="562977408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="573196544"/>
+        <c:axId val="562977408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4936,12 +5003,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573195008"/>
+        <c:crossAx val="562975488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="573219200"/>
+        <c:axId val="562991872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4978,12 +5045,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573221120"/>
+        <c:crossAx val="562994560"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="573221120"/>
+        <c:axId val="562994560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4992,7 +5059,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="573219200"/>
+        <c:crossAx val="562991872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5171,7 +5238,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5291,6 +5358,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5300,7 +5370,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5420,6 +5490,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>9912624.4727933221</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9914349.3927184548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5462,7 +5535,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5582,6 +5655,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5591,7 +5667,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5711,6 +5787,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>10888943.501168342</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11032636.254719432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5753,7 +5832,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5873,6 +5952,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5882,7 +5964,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6002,6 +6084,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>976319.02837502025</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1118286.8620009776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6023,11 +6108,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="573291904"/>
-        <c:axId val="573303040"/>
+        <c:axId val="563027328"/>
+        <c:axId val="563086464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="573291904"/>
+        <c:axId val="563027328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6070,14 +6155,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573303040"/>
+        <c:crossAx val="563086464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="573303040"/>
+        <c:axId val="563086464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6128,7 +6213,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573291904"/>
+        <c:crossAx val="563027328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6319,7 +6404,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6439,6 +6524,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>534.58334913787519</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1724.9199251330979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6453,8 +6541,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="573384576"/>
-        <c:axId val="573382656"/>
+        <c:axId val="563944832"/>
+        <c:axId val="563943296"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6479,7 +6567,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6599,6 +6687,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6608,7 +6699,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6728,6 +6819,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.76700001955032349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77700001001358032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6744,11 +6838,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="573364480"/>
-        <c:axId val="573379328"/>
+        <c:axId val="563840512"/>
+        <c:axId val="563941760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="573364480"/>
+        <c:axId val="563840512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6791,14 +6885,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573379328"/>
+        <c:crossAx val="563941760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="573379328"/>
+        <c:axId val="563941760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6849,12 +6943,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573364480"/>
+        <c:crossAx val="563840512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="573382656"/>
+        <c:axId val="563943296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6891,12 +6985,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573384576"/>
+        <c:crossAx val="563944832"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="573384576"/>
+        <c:axId val="563944832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6905,7 +6999,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="573382656"/>
+        <c:crossAx val="563943296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7084,7 +7178,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7204,6 +7298,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7213,7 +7310,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7333,6 +7430,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>87357065.508889571</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>87358205.377673924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7375,7 +7475,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7495,6 +7595,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7504,7 +7607,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7624,6 +7727,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>97491736.664887249</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>98763953.993965268</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7666,7 +7772,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7786,6 +7892,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7795,7 +7904,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7915,6 +8024,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>10134671.155997679</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11405748.616291344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7936,11 +8048,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="573533568"/>
-        <c:axId val="573632512"/>
+        <c:axId val="564066176"/>
+        <c:axId val="564254592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="573533568"/>
+        <c:axId val="564066176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7983,14 +8095,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573632512"/>
+        <c:crossAx val="564254592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="573632512"/>
+        <c:axId val="564254592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8041,7 +8153,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573533568"/>
+        <c:crossAx val="564066176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8232,7 +8344,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8352,6 +8464,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>127107867.24887526</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>127109334.26144883</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8366,8 +8481,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="574371712"/>
-        <c:axId val="574370176"/>
+        <c:axId val="578724992"/>
+        <c:axId val="564583040"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8392,7 +8507,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8512,6 +8627,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8521,7 +8639,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8641,6 +8759,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.76700001955032349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77700001001358032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8657,11 +8778,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="574288256"/>
-        <c:axId val="574289792"/>
+        <c:axId val="564560256"/>
+        <c:axId val="564574080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="574288256"/>
+        <c:axId val="564560256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8704,14 +8825,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574289792"/>
+        <c:crossAx val="564574080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="574289792"/>
+        <c:axId val="564574080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8762,12 +8883,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574288256"/>
+        <c:crossAx val="564560256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="574370176"/>
+        <c:axId val="564583040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8804,12 +8925,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574371712"/>
+        <c:crossAx val="578724992"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="574371712"/>
+        <c:axId val="578724992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8818,7 +8939,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="574370176"/>
+        <c:crossAx val="564583040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8997,7 +9118,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9117,6 +9238,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9126,7 +9250,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9242,10 +9366,13 @@
                   <c:v>82754720.116538435</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>83545584.119795144</c:v>
+                  <c:v>83545584.119922727</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>83546092.774151221</c:v>
+                  <c:v>83546092.774279922</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>83546092.774279922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9288,7 +9415,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9408,6 +9535,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9417,7 +9547,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9533,10 +9663,13 @@
                   <c:v>82201126.343556553</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>80005219.392208055</c:v>
+                  <c:v>80005219.392335638</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>100597235.53780489</c:v>
+                  <c:v>100597235.53796645</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>101908801.86178407</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9579,7 +9712,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9699,6 +9832,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9708,7 +9844,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9827,7 +9963,10 @@
                   <c:v>-3540364.7275870889</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>17051142.763653666</c:v>
+                  <c:v>17051142.763686523</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>18362709.087504148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9849,11 +9988,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="574603648"/>
-        <c:axId val="574606336"/>
+        <c:axId val="597790080"/>
+        <c:axId val="597791872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="574603648"/>
+        <c:axId val="597790080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9896,14 +10035,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574606336"/>
+        <c:crossAx val="597791872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="574606336"/>
+        <c:axId val="597791872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9954,7 +10093,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574603648"/>
+        <c:crossAx val="597790080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10668,7 +10807,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG42"/>
+  <dimension ref="A1:AG43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12492,6 +12631,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="43" spans="1:12" ht="12.75">
+      <c r="A43" s="12">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="13">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="13">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="14">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E43" s="14">
+        <v>1724.9199251330979</v>
+      </c>
+      <c r="F43" s="15">
+        <v>2219.9741350105646</v>
+      </c>
+      <c r="G43" s="15">
+        <v>13314938.783818783</v>
+      </c>
+      <c r="H43" s="15">
+        <v>10345707.568357404</v>
+      </c>
+      <c r="I43" s="15">
+        <v>9316744.2474954911</v>
+      </c>
+      <c r="J43" s="15">
+        <v>10345707.568357404</v>
+      </c>
+      <c r="K43" s="15">
+        <v>1028963.3208619133</v>
+      </c>
+      <c r="L43" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -12508,7 +12685,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM42"/>
+  <dimension ref="A1:AM43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15246,6 +15423,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="43" spans="1:21" ht="12.75">
+      <c r="A43" s="12">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="13">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="13">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="14">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E43" s="14">
+        <v>1724.9199251330979</v>
+      </c>
+      <c r="F43" s="15">
+        <v>2219.9741350105646</v>
+      </c>
+      <c r="G43" s="15">
+        <v>14317598.726867044</v>
+      </c>
+      <c r="H43" s="15">
+        <v>11124774.354146119</v>
+      </c>
+      <c r="I43" s="15">
+        <v>9963182.9692909382</v>
+      </c>
+      <c r="J43" s="15">
+        <v>11124774.354146119</v>
+      </c>
+      <c r="K43" s="15">
+        <v>1161591.384855181</v>
+      </c>
+      <c r="L43" s="14">
+        <v>0</v>
+      </c>
+      <c r="M43" s="23">
+        <v>0.87400001287460327</v>
+      </c>
+      <c r="N43" s="23">
+        <v>0.72699999809265137</v>
+      </c>
+      <c r="O43" s="23">
+        <v>0.79266667366027832</v>
+      </c>
+      <c r="P43" s="23">
+        <v>0.65721428678149274</v>
+      </c>
+      <c r="Q43" s="23">
+        <v>0.13545238687878558</v>
+      </c>
+      <c r="R43" s="23">
+        <v>3.3816329475973732E-2</v>
+      </c>
+      <c r="S43" s="9">
+        <v>5.0724494213960592E-4</v>
+      </c>
+      <c r="T43" s="9">
+        <v>267.03546083167419</v>
+      </c>
+      <c r="U43" s="11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -15262,7 +15504,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG42"/>
+  <dimension ref="A1:AG43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15303,7 +15545,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -17312,6 +17554,50 @@
         <v>265.35751850843906</v>
       </c>
       <c r="N42" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="12.75">
+      <c r="A43" s="12">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="13">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="13">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="14">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E43" s="14">
+        <v>1724.9199251330979</v>
+      </c>
+      <c r="F43" s="15">
+        <v>2219.9741350105646</v>
+      </c>
+      <c r="G43" s="15">
+        <v>14199016.87585127</v>
+      </c>
+      <c r="H43" s="15">
+        <v>11032636.254719432</v>
+      </c>
+      <c r="I43" s="15">
+        <v>9914349.3927184548</v>
+      </c>
+      <c r="J43" s="15">
+        <v>11032636.254719432</v>
+      </c>
+      <c r="K43" s="15">
+        <v>1118286.8620009776</v>
+      </c>
+      <c r="L43" s="14">
+        <v>0</v>
+      </c>
+      <c r="M43" s="9">
+        <v>15.433066648351565</v>
+      </c>
+      <c r="N43" s="9">
         <v>1</v>
       </c>
     </row>
@@ -17331,7 +17617,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG42"/>
+  <dimension ref="A1:AG43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17372,7 +17658,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -19381,6 +19667,50 @@
         <v>265.35751850843906</v>
       </c>
       <c r="N42" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="12.75">
+      <c r="A43" s="12">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="13">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="13">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="14">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E43" s="14">
+        <v>1139.868784348736</v>
+      </c>
+      <c r="F43" s="15">
+        <v>1467.0125735633046</v>
+      </c>
+      <c r="G43" s="15">
+        <v>127109334.26144883</v>
+      </c>
+      <c r="H43" s="15">
+        <v>98763953.993965268</v>
+      </c>
+      <c r="I43" s="15">
+        <v>87358205.377673924</v>
+      </c>
+      <c r="J43" s="15">
+        <v>98763953.993965268</v>
+      </c>
+      <c r="K43" s="15">
+        <v>11405748.616291344</v>
+      </c>
+      <c r="L43" s="14">
+        <v>0</v>
+      </c>
+      <c r="M43" s="9">
+        <v>15.433066648351565</v>
+      </c>
+      <c r="N43" s="9">
         <v>1</v>
       </c>
     </row>
@@ -19400,7 +19730,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI42"/>
+  <dimension ref="A1:AI43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19453,10 +19783,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -21612,7 +21942,7 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="14">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="14">
         <v>6956200</v>
@@ -21621,22 +21951,22 @@
         <v>4772486.4689518735</v>
       </c>
       <c r="G41" s="14">
-        <v>790864.00325670931</v>
+        <v>790864.00338428561</v>
       </c>
       <c r="H41" s="15">
-        <v>1296498.3355904128</v>
+        <v>1296498.3357995544</v>
       </c>
       <c r="I41" s="15">
-        <v>131156094.28853291</v>
+        <v>131156094.28874207</v>
       </c>
       <c r="J41" s="15">
-        <v>80005219.392208055</v>
+        <v>80005219.392335638</v>
       </c>
       <c r="K41" s="15">
-        <v>83545584.119795144</v>
+        <v>83545584.119922727</v>
       </c>
       <c r="L41" s="15">
-        <v>80005219.392208055</v>
+        <v>80005219.392335638</v>
       </c>
       <c r="M41" s="15">
         <v>-3540364.7275870889</v>
@@ -21662,7 +21992,7 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="14">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="14">
         <v>12479809</v>
@@ -21671,25 +22001,25 @@
         <v>4825138.2799101509</v>
       </c>
       <c r="G42" s="14">
-        <v>508.65435607668536</v>
+        <v>508.65435720173048</v>
       </c>
       <c r="H42" s="15">
-        <v>663.17385021045902</v>
+        <v>663.17385167727139</v>
       </c>
       <c r="I42" s="15">
-        <v>131156757.46238312</v>
+        <v>131156757.46259375</v>
       </c>
       <c r="J42" s="15">
-        <v>100597235.53780489</v>
+        <v>100597235.53796645</v>
       </c>
       <c r="K42" s="15">
-        <v>83546092.774151221</v>
+        <v>83546092.774279922</v>
       </c>
       <c r="L42" s="15">
-        <v>100597235.53780489</v>
+        <v>100597235.53796645</v>
       </c>
       <c r="M42" s="15">
-        <v>17051142.763653666</v>
+        <v>17051142.763686523</v>
       </c>
       <c r="N42" s="14">
         <v>0</v>
@@ -21698,6 +22028,56 @@
         <v>265.35751850843906</v>
       </c>
       <c r="P42" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="12.75">
+      <c r="A43" s="12">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="13">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="13">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="14">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E43" s="14">
+        <v>0</v>
+      </c>
+      <c r="F43" s="14">
+        <v>4776893.3677173248</v>
+      </c>
+      <c r="G43" s="14">
+        <v>0</v>
+      </c>
+      <c r="H43" s="15">
+        <v>0</v>
+      </c>
+      <c r="I43" s="15">
+        <v>131156757.46259375</v>
+      </c>
+      <c r="J43" s="15">
+        <v>101908801.86178407</v>
+      </c>
+      <c r="K43" s="15">
+        <v>83546092.774279922</v>
+      </c>
+      <c r="L43" s="15">
+        <v>101908801.86178407</v>
+      </c>
+      <c r="M43" s="15">
+        <v>18362709.087504148</v>
+      </c>
+      <c r="N43" s="14">
+        <v>0</v>
+      </c>
+      <c r="O43" s="9">
+        <v>15.433066648351565</v>
+      </c>
+      <c r="P43" s="9">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
@@ -157,6 +157,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>最高价</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -167,10 +171,6 @@
   <si>
     <t>标志</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>成交量</t>
@@ -601,7 +601,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -724,6 +724,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -733,7 +736,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -856,6 +859,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>9316744.2474954911</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9319756.864148153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -898,7 +904,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1021,6 +1027,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1030,7 +1039,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1153,6 +1162,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>10345707.568357404</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10401980.048079319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1195,7 +1207,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1318,6 +1330,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1327,7 +1342,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1450,6 +1465,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1028963.3208619133</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1082223.1839311663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1471,11 +1489,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="516687360"/>
-        <c:axId val="516956928"/>
+        <c:axId val="494130688"/>
+        <c:axId val="494132224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="516687360"/>
+        <c:axId val="494130688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1518,14 +1536,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516956928"/>
+        <c:crossAx val="494132224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="516956928"/>
+        <c:axId val="494132224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1576,7 +1594,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516687360"/>
+        <c:crossAx val="494130688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1767,7 +1785,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1889,7 +1907,10 @@
                   <c:v>508.65435720173048</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>376.48656100691892</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>939.36970189355725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1904,8 +1925,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="606270592"/>
-        <c:axId val="606248320"/>
+        <c:axId val="617750528"/>
+        <c:axId val="617715584"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1930,7 +1951,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2053,6 +2074,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2062,7 +2086,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2185,6 +2209,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2201,11 +2228,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="606243072"/>
-        <c:axId val="606246400"/>
+        <c:axId val="617671296"/>
+        <c:axId val="617714048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="606243072"/>
+        <c:axId val="617671296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2248,14 +2275,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="606246400"/>
+        <c:crossAx val="617714048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="606246400"/>
+        <c:axId val="617714048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2306,12 +2333,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="606243072"/>
+        <c:crossAx val="617671296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="606248320"/>
+        <c:axId val="617715584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2348,12 +2375,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="606270592"/>
+        <c:crossAx val="617750528"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="606270592"/>
+        <c:axId val="617750528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2362,7 +2389,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="606248320"/>
+        <c:crossAx val="617715584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2524,7 +2551,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2647,6 +2674,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1724.9199251330979</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3012.6166526625288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2661,8 +2691,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="549735424"/>
-        <c:axId val="549719040"/>
+        <c:axId val="495139072"/>
+        <c:axId val="494704896"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2687,7 +2717,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2810,6 +2840,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2819,7 +2852,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2942,6 +2975,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2958,11 +2994,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="517335680"/>
-        <c:axId val="547229696"/>
+        <c:axId val="494256512"/>
+        <c:axId val="494259584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="517335680"/>
+        <c:axId val="494256512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3005,14 +3041,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547229696"/>
+        <c:crossAx val="494259584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="547229696"/>
+        <c:axId val="494259584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3063,12 +3099,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517335680"/>
+        <c:crossAx val="494256512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="549719040"/>
+        <c:axId val="494704896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3105,12 +3141,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549735424"/>
+        <c:crossAx val="495139072"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="549735424"/>
+        <c:axId val="495139072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3119,7 +3155,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="549719040"/>
+        <c:crossAx val="494704896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3298,7 +3334,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3421,6 +3457,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3430,7 +3469,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3553,6 +3592,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>9963182.9692909382</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9966195.5859436002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3595,7 +3637,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3718,6 +3760,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3727,7 +3772,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3850,6 +3895,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>11124774.354146119</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11185057.481768021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3892,7 +3940,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4015,6 +4063,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4024,7 +4075,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4147,6 +4198,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1161591.384855181</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1218861.8958244212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4168,11 +4222,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="562911488"/>
-        <c:axId val="562946432"/>
+        <c:axId val="533054592"/>
+        <c:axId val="533056512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="562911488"/>
+        <c:axId val="533054592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4215,14 +4269,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562946432"/>
+        <c:crossAx val="533056512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="562946432"/>
+        <c:axId val="533056512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4273,7 +4327,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562911488"/>
+        <c:crossAx val="533054592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4464,7 +4518,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4587,6 +4641,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1724.9199251330979</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3012.6166526625288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4601,8 +4658,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="562994560"/>
-        <c:axId val="562991872"/>
+        <c:axId val="533289216"/>
+        <c:axId val="533287296"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4627,7 +4684,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4750,6 +4807,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4759,7 +4819,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4882,6 +4942,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4898,11 +4961,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="562975488"/>
-        <c:axId val="562977408"/>
+        <c:axId val="533282176"/>
+        <c:axId val="533283968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="562975488"/>
+        <c:axId val="533282176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4945,14 +5008,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562977408"/>
+        <c:crossAx val="533283968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="562977408"/>
+        <c:axId val="533283968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5003,12 +5066,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562975488"/>
+        <c:crossAx val="533282176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="562991872"/>
+        <c:axId val="533287296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5045,12 +5108,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562994560"/>
+        <c:crossAx val="533289216"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="562994560"/>
+        <c:axId val="533289216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5059,7 +5122,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="562991872"/>
+        <c:crossAx val="533287296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5238,7 +5301,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5361,6 +5424,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5370,7 +5436,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5493,6 +5559,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>9914349.3927184548</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9917362.0093711168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5535,7 +5604,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5658,6 +5727,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5667,7 +5739,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5790,6 +5862,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>11032636.254719432</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11092445.05397602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5832,7 +5907,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5955,6 +6030,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5964,7 +6042,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6087,6 +6165,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1118286.8620009776</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1175083.0446049031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6108,11 +6189,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="563027328"/>
-        <c:axId val="563086464"/>
+        <c:axId val="533733376"/>
+        <c:axId val="533736448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="563027328"/>
+        <c:axId val="533733376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6155,14 +6236,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563086464"/>
+        <c:crossAx val="533736448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="563086464"/>
+        <c:axId val="533736448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6213,7 +6294,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563027328"/>
+        <c:crossAx val="533733376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6404,7 +6485,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6527,6 +6608,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1724.9199251330979</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3012.6166526625288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6541,8 +6625,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="563944832"/>
-        <c:axId val="563943296"/>
+        <c:axId val="589218176"/>
+        <c:axId val="584933376"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6567,7 +6651,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6690,6 +6774,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6699,7 +6786,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6822,6 +6909,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6838,11 +6928,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="563840512"/>
-        <c:axId val="563941760"/>
+        <c:axId val="584020352"/>
+        <c:axId val="584107904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="563840512"/>
+        <c:axId val="584020352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6885,14 +6975,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563941760"/>
+        <c:crossAx val="584107904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="563941760"/>
+        <c:axId val="584107904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6943,12 +7033,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563840512"/>
+        <c:crossAx val="584020352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="563943296"/>
+        <c:axId val="584933376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6985,12 +7075,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563944832"/>
+        <c:crossAx val="589218176"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="563944832"/>
+        <c:axId val="589218176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6999,7 +7089,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="563943296"/>
+        <c:crossAx val="584933376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7178,7 +7268,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7301,6 +7391,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7310,7 +7403,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7433,6 +7526,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>87358205.377673924</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>87360836.355941683</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7475,7 +7571,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7598,6 +7694,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7607,7 +7706,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7730,6 +7829,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>98763953.993965268</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>99275023.339656532</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7772,7 +7874,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7895,6 +7997,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7904,7 +8009,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8027,6 +8132,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>11405748.616291344</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11914186.983714849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8048,11 +8156,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="564066176"/>
-        <c:axId val="564254592"/>
+        <c:axId val="614932864"/>
+        <c:axId val="614937344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="564066176"/>
+        <c:axId val="614932864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8095,14 +8203,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564254592"/>
+        <c:crossAx val="614937344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="564254592"/>
+        <c:axId val="614937344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8153,7 +8261,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564066176"/>
+        <c:crossAx val="614932864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8344,7 +8452,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8467,6 +8575,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>127109334.26144883</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>127112702.99154706</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8481,8 +8592,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="578724992"/>
-        <c:axId val="564583040"/>
+        <c:axId val="614976512"/>
+        <c:axId val="614972416"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8507,7 +8618,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8630,6 +8741,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8639,7 +8753,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8762,6 +8876,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8778,11 +8895,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="564560256"/>
-        <c:axId val="564574080"/>
+        <c:axId val="614969344"/>
+        <c:axId val="614970880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="564560256"/>
+        <c:axId val="614969344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8825,14 +8942,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564574080"/>
+        <c:crossAx val="614970880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="564574080"/>
+        <c:axId val="614970880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8883,12 +9000,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564560256"/>
+        <c:crossAx val="614969344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="564583040"/>
+        <c:axId val="614972416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8925,12 +9042,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578724992"/>
+        <c:crossAx val="614976512"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="578724992"/>
+        <c:axId val="614976512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8939,7 +9056,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="564583040"/>
+        <c:crossAx val="614972416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9118,7 +9235,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9241,6 +9358,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9250,7 +9370,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9372,7 +9492,10 @@
                   <c:v>83546092.774279922</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>83546092.774279922</c:v>
+                  <c:v>83546469.260840923</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>83547408.630542815</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9415,7 +9538,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9538,6 +9661,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9547,7 +9673,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9669,7 +9795,10 @@
                   <c:v>100597235.53796645</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>101908801.86178407</c:v>
+                  <c:v>101909178.34834507</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>102434747.74924307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9712,7 +9841,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9835,6 +9964,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9844,7 +9976,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9967,6 +10099,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>18362709.087504148</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>18887339.118700251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9988,11 +10123,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="597790080"/>
-        <c:axId val="597791872"/>
+        <c:axId val="617640320"/>
+        <c:axId val="617641856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="597790080"/>
+        <c:axId val="617640320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10035,14 +10170,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="597791872"/>
+        <c:crossAx val="617641856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="597791872"/>
+        <c:axId val="617641856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10093,7 +10228,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="597790080"/>
+        <c:crossAx val="617640320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10807,7 +10942,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG43"/>
+  <dimension ref="A1:AG44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12669,6 +12804,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="44" spans="1:12" ht="12.75">
+      <c r="A44" s="12">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="13">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="13">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="14">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="14">
+        <v>3012.6166526625288</v>
+      </c>
+      <c r="F44" s="15">
+        <v>3857.3835886907341</v>
+      </c>
+      <c r="G44" s="15">
+        <v>13318796.167407474</v>
+      </c>
+      <c r="H44" s="15">
+        <v>10401980.048079319</v>
+      </c>
+      <c r="I44" s="15">
+        <v>9319756.864148153</v>
+      </c>
+      <c r="J44" s="15">
+        <v>10401980.048079319</v>
+      </c>
+      <c r="K44" s="15">
+        <v>1082223.1839311663</v>
+      </c>
+      <c r="L44" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -12685,7 +12858,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM43"/>
+  <dimension ref="A1:AM44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12726,7 +12899,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -12762,10 +12935,10 @@
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>4</v>
@@ -12786,7 +12959,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.1" customHeight="1">
@@ -15485,6 +15658,71 @@
         <v>267.03546083167419</v>
       </c>
       <c r="U43" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="12.75">
+      <c r="A44" s="12">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="13">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="13">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="14">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="14">
+        <v>3012.6166526625288</v>
+      </c>
+      <c r="F44" s="15">
+        <v>3857.3835886907341</v>
+      </c>
+      <c r="G44" s="15">
+        <v>14321456.110455735</v>
+      </c>
+      <c r="H44" s="15">
+        <v>11185057.481768021</v>
+      </c>
+      <c r="I44" s="15">
+        <v>9966195.5859436002</v>
+      </c>
+      <c r="J44" s="15">
+        <v>11185057.481768021</v>
+      </c>
+      <c r="K44" s="15">
+        <v>1218861.8958244212</v>
+      </c>
+      <c r="L44" s="14">
+        <v>0</v>
+      </c>
+      <c r="M44" s="23">
+        <v>0.85500001907348633</v>
+      </c>
+      <c r="N44" s="23">
+        <v>0.75300002098083496</v>
+      </c>
+      <c r="O44" s="23">
+        <v>0.79633335272471106</v>
+      </c>
+      <c r="P44" s="23">
+        <v>0.66442857327915372</v>
+      </c>
+      <c r="Q44" s="23">
+        <v>0.13190477944555734</v>
+      </c>
+      <c r="R44" s="23">
+        <v>4.3340140256751959E-2</v>
+      </c>
+      <c r="S44" s="9">
+        <v>6.5010210385127941E-4</v>
+      </c>
+      <c r="T44" s="9">
+        <v>202.89855803286639</v>
+      </c>
+      <c r="U44" s="11">
         <v>1</v>
       </c>
     </row>
@@ -15504,7 +15742,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG43"/>
+  <dimension ref="A1:AG44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15545,7 +15783,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -15584,7 +15822,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -17598,6 +17836,50 @@
         <v>15.433066648351565</v>
       </c>
       <c r="N43" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="12.75">
+      <c r="A44" s="12">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="13">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="13">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="14">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="14">
+        <v>3012.6166526625288</v>
+      </c>
+      <c r="F44" s="15">
+        <v>3857.3835886907341</v>
+      </c>
+      <c r="G44" s="15">
+        <v>14202874.25943996</v>
+      </c>
+      <c r="H44" s="15">
+        <v>11092445.05397602</v>
+      </c>
+      <c r="I44" s="15">
+        <v>9917362.0093711168</v>
+      </c>
+      <c r="J44" s="15">
+        <v>11092445.05397602</v>
+      </c>
+      <c r="K44" s="15">
+        <v>1175083.0446049031</v>
+      </c>
+      <c r="L44" s="14">
+        <v>0</v>
+      </c>
+      <c r="M44" s="9">
+        <v>-59.010045260336092</v>
+      </c>
+      <c r="N44" s="9">
         <v>1</v>
       </c>
     </row>
@@ -17617,7 +17899,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG43"/>
+  <dimension ref="A1:AG44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17658,7 +17940,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -17697,7 +17979,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -19711,6 +19993,50 @@
         <v>15.433066648351565</v>
       </c>
       <c r="N43" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="12.75">
+      <c r="A44" s="12">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="13">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="13">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="14">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="14">
+        <v>2630.9782677645899</v>
+      </c>
+      <c r="F44" s="15">
+        <v>3368.7300982379434</v>
+      </c>
+      <c r="G44" s="15">
+        <v>127112702.99154706</v>
+      </c>
+      <c r="H44" s="15">
+        <v>99275023.339656532</v>
+      </c>
+      <c r="I44" s="15">
+        <v>87360836.355941683</v>
+      </c>
+      <c r="J44" s="15">
+        <v>99275023.339656532</v>
+      </c>
+      <c r="K44" s="15">
+        <v>11914186.983714849</v>
+      </c>
+      <c r="L44" s="14">
+        <v>0</v>
+      </c>
+      <c r="M44" s="9">
+        <v>-59.010045260336092</v>
+      </c>
+      <c r="N44" s="9">
         <v>1</v>
       </c>
     </row>
@@ -19730,7 +20056,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI43"/>
+  <dimension ref="A1:AI44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19816,7 +20142,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.1" customHeight="1">
@@ -22045,28 +22371,28 @@
         <v>25.600824703771881</v>
       </c>
       <c r="E43" s="14">
-        <v>0</v>
+        <v>1578400</v>
       </c>
       <c r="F43" s="14">
-        <v>4776893.3677173248</v>
+        <v>4778839.6069281753</v>
       </c>
       <c r="G43" s="14">
-        <v>0</v>
+        <v>376.48656100691892</v>
       </c>
       <c r="H43" s="15">
-        <v>0</v>
+        <v>484.5386823101054</v>
       </c>
       <c r="I43" s="15">
-        <v>131156757.46259375</v>
+        <v>131157242.00127606</v>
       </c>
       <c r="J43" s="15">
-        <v>101908801.86178407</v>
+        <v>101909178.34834507</v>
       </c>
       <c r="K43" s="15">
-        <v>83546092.774279922</v>
+        <v>83546469.260840923</v>
       </c>
       <c r="L43" s="15">
-        <v>101908801.86178407</v>
+        <v>101909178.34834507</v>
       </c>
       <c r="M43" s="15">
         <v>18362709.087504148</v>
@@ -22078,6 +22404,56 @@
         <v>15.433066648351565</v>
       </c>
       <c r="P43" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="12.75">
+      <c r="A44" s="12">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="13">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="13">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="14">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="14">
+        <v>1693501</v>
+      </c>
+      <c r="F44" s="14">
+        <v>4743142.4693134017</v>
+      </c>
+      <c r="G44" s="14">
+        <v>939.36970189355725</v>
+      </c>
+      <c r="H44" s="15">
+        <v>1202.778079512733</v>
+      </c>
+      <c r="I44" s="15">
+        <v>131158444.77935557</v>
+      </c>
+      <c r="J44" s="15">
+        <v>102434747.74924307</v>
+      </c>
+      <c r="K44" s="15">
+        <v>83547408.630542815</v>
+      </c>
+      <c r="L44" s="15">
+        <v>102434747.74924307</v>
+      </c>
+      <c r="M44" s="15">
+        <v>18887339.118700251</v>
+      </c>
+      <c r="N44" s="14">
+        <v>0</v>
+      </c>
+      <c r="O44" s="9">
+        <v>-59.010045260336092</v>
+      </c>
+      <c r="P44" s="9">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
@@ -344,7 +344,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -408,6 +408,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -601,7 +602,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -727,6 +728,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -736,7 +740,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -862,6 +866,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>9319756.864148153</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9322156.0793678593</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -904,7 +911,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1030,6 +1037,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1039,7 +1049,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1165,6 +1175,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>10401980.048079319</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10510929.054706667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1207,7 +1220,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1333,6 +1346,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1342,7 +1358,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1468,6 +1484,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1082223.1839311663</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1188772.9753388073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1489,11 +1508,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="494130688"/>
-        <c:axId val="494132224"/>
+        <c:axId val="384749568"/>
+        <c:axId val="384757760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="494130688"/>
+        <c:axId val="384749568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1536,14 +1555,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494132224"/>
+        <c:crossAx val="384757760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="494132224"/>
+        <c:axId val="384757760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1594,7 +1613,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494130688"/>
+        <c:crossAx val="384749568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1785,7 +1804,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1911,6 +1930,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>939.36970189355725</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>971.10827052589309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1925,8 +1947,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="617750528"/>
-        <c:axId val="617715584"/>
+        <c:axId val="533396096"/>
+        <c:axId val="533394560"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1951,7 +1973,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2077,6 +2099,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2086,7 +2111,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2212,6 +2237,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2228,11 +2256,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617671296"/>
-        <c:axId val="617714048"/>
+        <c:axId val="533272064"/>
+        <c:axId val="533273600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617671296"/>
+        <c:axId val="533272064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2275,14 +2303,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617714048"/>
+        <c:crossAx val="533273600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617714048"/>
+        <c:axId val="533273600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2333,12 +2361,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617671296"/>
+        <c:crossAx val="533272064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617715584"/>
+        <c:axId val="533394560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2375,12 +2403,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617750528"/>
+        <c:crossAx val="533396096"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="617750528"/>
+        <c:axId val="533396096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2389,7 +2417,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617715584"/>
+        <c:crossAx val="533394560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2551,7 +2579,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2677,6 +2705,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>3012.6166526625288</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2399.2152197068949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2691,8 +2722,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="495139072"/>
-        <c:axId val="494704896"/>
+        <c:axId val="493069824"/>
+        <c:axId val="493042688"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2717,7 +2748,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2843,6 +2874,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2852,7 +2886,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2978,6 +3012,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2994,11 +3031,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="494256512"/>
-        <c:axId val="494259584"/>
+        <c:axId val="492826624"/>
+        <c:axId val="492904448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="494256512"/>
+        <c:axId val="492826624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3041,14 +3078,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494259584"/>
+        <c:crossAx val="492904448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="494259584"/>
+        <c:axId val="492904448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3099,12 +3136,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494256512"/>
+        <c:crossAx val="492826624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="494704896"/>
+        <c:axId val="493042688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3141,12 +3178,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495139072"/>
+        <c:crossAx val="493069824"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="495139072"/>
+        <c:axId val="493069824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3155,7 +3192,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="494704896"/>
+        <c:crossAx val="493042688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3334,7 +3371,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3460,6 +3497,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3469,7 +3509,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3595,6 +3635,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>9966195.5859436002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9968594.8011633065</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3637,7 +3680,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3763,6 +3806,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3772,7 +3818,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3898,6 +3944,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>11185057.481768021</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11302027.724432154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3940,7 +3989,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4066,6 +4115,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4075,7 +4127,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4201,6 +4253,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1218861.8958244212</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1333432.9232688472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4222,11 +4277,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="533054592"/>
-        <c:axId val="533056512"/>
+        <c:axId val="496589440"/>
+        <c:axId val="496715264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="533054592"/>
+        <c:axId val="496589440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4269,14 +4324,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533056512"/>
+        <c:crossAx val="496715264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="533056512"/>
+        <c:axId val="496715264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4327,7 +4382,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533054592"/>
+        <c:crossAx val="496589440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4518,7 +4573,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4644,6 +4699,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>3012.6166526625288</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2399.2152197068949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4658,8 +4716,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="533289216"/>
-        <c:axId val="533287296"/>
+        <c:axId val="531911040"/>
+        <c:axId val="531909248"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4684,7 +4742,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4810,6 +4868,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4819,7 +4880,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4945,6 +5006,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4961,11 +5025,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="533282176"/>
-        <c:axId val="533283968"/>
+        <c:axId val="531904768"/>
+        <c:axId val="531907712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="533282176"/>
+        <c:axId val="531904768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5008,14 +5072,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533283968"/>
+        <c:crossAx val="531907712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="533283968"/>
+        <c:axId val="531907712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5066,12 +5130,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533282176"/>
+        <c:crossAx val="531904768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="533287296"/>
+        <c:axId val="531909248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5108,12 +5172,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533289216"/>
+        <c:crossAx val="531911040"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="533289216"/>
+        <c:axId val="531911040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5122,7 +5186,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="533287296"/>
+        <c:crossAx val="531909248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5301,7 +5365,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5427,6 +5491,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5436,7 +5503,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5562,6 +5629,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>9917362.0093711168</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9919761.2245908231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5604,7 +5674,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5730,6 +5800,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5739,7 +5812,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5865,6 +5938,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>11092445.05397602</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11208466.646977551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5907,7 +5983,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6033,6 +6109,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6042,7 +6121,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6168,6 +6247,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1175083.0446049031</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1288705.4223867282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6189,11 +6271,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="533733376"/>
-        <c:axId val="533736448"/>
+        <c:axId val="531933824"/>
+        <c:axId val="531935616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="533733376"/>
+        <c:axId val="531933824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6236,14 +6318,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533736448"/>
+        <c:crossAx val="531935616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="533736448"/>
+        <c:axId val="531935616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6294,7 +6376,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533733376"/>
+        <c:crossAx val="531933824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6485,7 +6567,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6611,6 +6693,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>3012.6166526625288</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2399.2152197068949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6625,8 +6710,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="589218176"/>
-        <c:axId val="584933376"/>
+        <c:axId val="532487552"/>
+        <c:axId val="532486016"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6651,7 +6736,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6777,6 +6862,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6786,7 +6874,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6912,6 +7000,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6928,11 +7019,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="584020352"/>
-        <c:axId val="584107904"/>
+        <c:axId val="532473344"/>
+        <c:axId val="532474880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="584020352"/>
+        <c:axId val="532473344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6975,14 +7066,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584107904"/>
+        <c:crossAx val="532474880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="584107904"/>
+        <c:axId val="532474880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7033,12 +7124,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584020352"/>
+        <c:crossAx val="532473344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="584933376"/>
+        <c:axId val="532486016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7075,12 +7166,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="589218176"/>
+        <c:crossAx val="532487552"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="589218176"/>
+        <c:axId val="532487552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7089,7 +7180,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="584933376"/>
+        <c:crossAx val="532486016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7268,7 +7359,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7394,6 +7485,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7403,7 +7497,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7529,6 +7623,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>87360836.355941683</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>87362706.199462548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7571,7 +7668,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7697,6 +7794,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7706,7 +7806,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7832,6 +7932,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>99275023.339656532</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>100293789.29141231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7874,7 +7977,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8000,6 +8103,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8009,7 +8115,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8135,6 +8241,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>11914186.983714849</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12931083.091949761</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8156,11 +8265,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="614932864"/>
-        <c:axId val="614937344"/>
+        <c:axId val="532525440"/>
+        <c:axId val="532526976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="614932864"/>
+        <c:axId val="532525440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8203,14 +8312,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614937344"/>
+        <c:crossAx val="532526976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="614937344"/>
+        <c:axId val="532526976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8261,7 +8370,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614932864"/>
+        <c:crossAx val="532525440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8452,7 +8561,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8578,6 +8687,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>127112702.99154706</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>127115072.88201697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8592,8 +8704,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="614976512"/>
-        <c:axId val="614972416"/>
+        <c:axId val="532599936"/>
+        <c:axId val="532588032"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8618,7 +8730,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8744,6 +8856,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8753,7 +8868,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8879,6 +8994,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8895,11 +9013,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="614969344"/>
-        <c:axId val="614970880"/>
+        <c:axId val="532583168"/>
+        <c:axId val="532585088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="614969344"/>
+        <c:axId val="532583168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8942,14 +9060,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614970880"/>
+        <c:crossAx val="532585088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="614970880"/>
+        <c:axId val="532585088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9000,12 +9118,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614969344"/>
+        <c:crossAx val="532583168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="614972416"/>
+        <c:axId val="532588032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9042,12 +9160,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614976512"/>
+        <c:crossAx val="532599936"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="614976512"/>
+        <c:axId val="532599936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9056,7 +9174,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="614972416"/>
+        <c:crossAx val="532588032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9235,7 +9353,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9361,6 +9479,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9370,7 +9491,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9496,6 +9617,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>83547408.630542815</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>83548379.738813341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9538,7 +9662,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9664,6 +9788,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9673,7 +9800,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9799,6 +9926,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>102434747.74924307</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>103484980.72449741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9841,7 +9971,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9967,6 +10097,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9976,7 +10109,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10102,6 +10235,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>18887339.118700251</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>19936600.985684067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10123,11 +10259,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617640320"/>
-        <c:axId val="617641856"/>
+        <c:axId val="532818944"/>
+        <c:axId val="532882560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617640320"/>
+        <c:axId val="532818944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10170,14 +10306,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617641856"/>
+        <c:crossAx val="532882560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617641856"/>
+        <c:axId val="532882560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10228,7 +10364,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617640320"/>
+        <c:crossAx val="532818944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10942,7 +11078,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG44"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11122,6 +11258,16 @@
         <f>-AC3</f>
         <v>-245217.76659387304</v>
       </c>
+      <c r="AE3" s="24">
+        <v>44561</v>
+      </c>
+      <c r="AF3" s="11">
+        <v>245217.76659387304</v>
+      </c>
+      <c r="AG3" s="11">
+        <f>-AF3</f>
+        <v>-245217.76659387304</v>
+      </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1">
       <c r="A4" s="12">
@@ -11205,9 +11351,16 @@
         <f>-AC4</f>
         <v>-3518640.0102128703</v>
       </c>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
+      <c r="AE4" s="24">
+        <v>44925</v>
+      </c>
+      <c r="AF4" s="9">
+        <v>3518640.0102128703</v>
+      </c>
+      <c r="AG4" s="9">
+        <f>-AF4</f>
+        <v>-3518640.0102128703</v>
+      </c>
     </row>
     <row r="5" spans="1:33" ht="14.1" customHeight="1">
       <c r="A5" s="12">
@@ -11288,9 +11441,16 @@
         <f>-AC5</f>
         <v>-3101231.3499326059</v>
       </c>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
+      <c r="AE5" s="24">
+        <v>45289</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>3101231.3499326059</v>
+      </c>
+      <c r="AG5" s="9">
+        <f>-AF5</f>
+        <v>-3101231.3499326059</v>
+      </c>
     </row>
     <row r="6" spans="1:33" ht="14.1" customHeight="1">
       <c r="A6" s="12">
@@ -11366,7 +11526,16 @@
       <c r="AD6" s="20">
         <v>6043907.692957717</v>
       </c>
-      <c r="AE6" s="17"/>
+      <c r="AE6" s="24">
+        <v>45657</v>
+      </c>
+      <c r="AF6" s="11">
+        <v>2457066.9526285101</v>
+      </c>
+      <c r="AG6" s="11">
+        <f>-AF6</f>
+        <v>-2457066.9526285101</v>
+      </c>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1">
       <c r="A7" s="12">
@@ -11406,13 +11575,42 @@
         <v>0</v>
       </c>
       <c r="M7" s="9"/>
+      <c r="P7" s="24">
+        <v>45657</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>2457066.9526285101</v>
+      </c>
+      <c r="R7" s="8">
+        <v>9322156.0793678593</v>
+      </c>
+      <c r="S7" s="8">
+        <v>10510929.054706667</v>
+      </c>
+      <c r="T7" s="8">
+        <v>1188772.9753388073</v>
+      </c>
+      <c r="U7" s="8">
+        <v>0</v>
+      </c>
+      <c r="V7" s="19">
+        <v>0.12752124779050242</v>
+      </c>
+      <c r="W7" s="19">
+        <v>5.6434982564923741E-2</v>
+      </c>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
       <c r="AD7" s="10">
         <v>-7.7878942670306261E-2</v>
       </c>
-      <c r="AG7" s="10"/>
+      <c r="AE7" s="24">
+        <v>45657</v>
+      </c>
+      <c r="AG7" s="10">
+        <v>10510929.054706667</v>
+      </c>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1">
       <c r="A8" s="12">
@@ -11452,6 +11650,9 @@
         <v>0</v>
       </c>
       <c r="M8" s="9"/>
+      <c r="AG8" s="10">
+        <v>5.6434982564923741E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:33" ht="14.1" customHeight="1">
       <c r="A9" s="12">
@@ -12841,6 +13042,47 @@
       <c r="L44" s="14">
         <v>0</v>
       </c>
+    </row>
+    <row r="45" spans="1:12" ht="12.75">
+      <c r="A45" s="12">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="13">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="13">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="14">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="14">
+        <v>2399.2152197068949</v>
+      </c>
+      <c r="F45" s="15">
+        <v>3040.8305406285012</v>
+      </c>
+      <c r="G45" s="15">
+        <v>13321836.997948103</v>
+      </c>
+      <c r="H45" s="15">
+        <v>10510929.054706667</v>
+      </c>
+      <c r="I45" s="15">
+        <v>9322156.0793678593</v>
+      </c>
+      <c r="J45" s="15">
+        <v>10510929.054706667</v>
+      </c>
+      <c r="K45" s="15">
+        <v>1188772.9753388073</v>
+      </c>
+      <c r="L45" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -12858,7 +13100,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM44"/>
+  <dimension ref="A1:AM46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13082,6 +13324,16 @@
         <f>-AI3</f>
         <v>-245217.76659387304</v>
       </c>
+      <c r="AK3" s="24">
+        <v>44561</v>
+      </c>
+      <c r="AL3" s="11">
+        <v>245217.76659387304</v>
+      </c>
+      <c r="AM3" s="11">
+        <f>-AL3</f>
+        <v>-245217.76659387304</v>
+      </c>
     </row>
     <row r="4" spans="1:39" ht="14.1" customHeight="1">
       <c r="A4" s="12">
@@ -13177,9 +13429,16 @@
         <f>-AI4</f>
         <v>-3677015.7524936297</v>
       </c>
-      <c r="AK4" s="17"/>
-      <c r="AL4" s="9"/>
-      <c r="AM4" s="9"/>
+      <c r="AK4" s="24">
+        <v>44925</v>
+      </c>
+      <c r="AL4" s="9">
+        <v>3677015.7524936297</v>
+      </c>
+      <c r="AM4" s="9">
+        <f>-AL4</f>
+        <v>-3677015.7524936297</v>
+      </c>
     </row>
     <row r="5" spans="1:39" ht="14.1" customHeight="1">
       <c r="A5" s="12">
@@ -13272,9 +13531,16 @@
         <f>-AI5</f>
         <v>-3403147.0205534808</v>
       </c>
-      <c r="AK5" s="17"/>
-      <c r="AL5" s="9"/>
-      <c r="AM5" s="9"/>
+      <c r="AK5" s="24">
+        <v>45289</v>
+      </c>
+      <c r="AL5" s="9">
+        <v>3403147.0205534808</v>
+      </c>
+      <c r="AM5" s="9">
+        <f>-AL5</f>
+        <v>-3403147.0205534808</v>
+      </c>
     </row>
     <row r="6" spans="1:39" ht="14.1" customHeight="1">
       <c r="A6" s="12">
@@ -13362,7 +13628,16 @@
       <c r="AJ6" s="20">
         <v>6486762.14334027</v>
       </c>
-      <c r="AK6" s="17"/>
+      <c r="AK6" s="24">
+        <v>45657</v>
+      </c>
+      <c r="AL6" s="11">
+        <v>2643214.2615223229</v>
+      </c>
+      <c r="AM6" s="11">
+        <f>-AL6</f>
+        <v>-2643214.2615223229</v>
+      </c>
     </row>
     <row r="7" spans="1:39" ht="14.1" customHeight="1">
       <c r="A7" s="12">
@@ -13414,13 +13689,42 @@
       <c r="Q7" s="23"/>
       <c r="R7" s="23"/>
       <c r="S7" s="9"/>
+      <c r="V7" s="24">
+        <v>45657</v>
+      </c>
+      <c r="W7" s="18">
+        <v>2643214.2615223229</v>
+      </c>
+      <c r="X7" s="8">
+        <v>9968594.8011633065</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>11302027.724432154</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>1333432.9232688472</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="19">
+        <v>0.13376337887795775</v>
+      </c>
+      <c r="AC7" s="19">
+        <v>5.9465148301071302E-2</v>
+      </c>
       <c r="AE7" s="9"/>
       <c r="AF7" s="9"/>
       <c r="AG7" s="9"/>
       <c r="AJ7" s="10">
         <v>-7.5126800444976438E-2</v>
       </c>
-      <c r="AM7" s="10"/>
+      <c r="AK7" s="24">
+        <v>45657</v>
+      </c>
+      <c r="AM7" s="10">
+        <v>11302027.724432154</v>
+      </c>
     </row>
     <row r="8" spans="1:39" ht="14.1" customHeight="1">
       <c r="A8" s="12">
@@ -13472,6 +13776,9 @@
       <c r="Q8" s="23"/>
       <c r="R8" s="23"/>
       <c r="S8" s="9"/>
+      <c r="AM8" s="10">
+        <v>5.9465148301071302E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:39" ht="14.1" customHeight="1">
       <c r="A9" s="12">
@@ -15725,6 +16032,74 @@
       <c r="U44" s="11">
         <v>1</v>
       </c>
+    </row>
+    <row r="45" spans="1:21" ht="12.75">
+      <c r="A45" s="12">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="13">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="13">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="14">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="14">
+        <v>2399.2152197068949</v>
+      </c>
+      <c r="F45" s="15">
+        <v>3040.8305406285012</v>
+      </c>
+      <c r="G45" s="15">
+        <v>14324496.940996364</v>
+      </c>
+      <c r="H45" s="15">
+        <v>11302027.724432154</v>
+      </c>
+      <c r="I45" s="15">
+        <v>9968594.8011633065</v>
+      </c>
+      <c r="J45" s="15">
+        <v>11302027.724432154</v>
+      </c>
+      <c r="K45" s="15">
+        <v>1333432.9232688472</v>
+      </c>
+      <c r="L45" s="14">
+        <v>0</v>
+      </c>
+      <c r="M45" s="23">
+        <v>0.84799998998641968</v>
+      </c>
+      <c r="N45" s="23">
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="O45" s="23">
+        <v>0.80433332920074463</v>
+      </c>
+      <c r="P45" s="23">
+        <v>0.67442857367651798</v>
+      </c>
+      <c r="Q45" s="23">
+        <v>0.12990475552422664</v>
+      </c>
+      <c r="R45" s="23">
+        <v>5.7612248018485322E-2</v>
+      </c>
+      <c r="S45" s="9">
+        <v>8.641837202772798E-4</v>
+      </c>
+      <c r="T45" s="9">
+        <v>150.32076221309254</v>
+      </c>
+      <c r="U45" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -15742,7 +16117,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG44"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15932,6 +16307,16 @@
         <f>-AC3</f>
         <v>-250495.52419829773</v>
       </c>
+      <c r="AE3" s="24">
+        <v>44561</v>
+      </c>
+      <c r="AF3" s="11">
+        <v>250495.52419829773</v>
+      </c>
+      <c r="AG3" s="11">
+        <f>-AF3</f>
+        <v>-250495.52419829773</v>
+      </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1">
       <c r="A4" s="12">
@@ -16020,9 +16405,16 @@
         <f>-AC4</f>
         <v>-3805407.5827613538</v>
       </c>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
+      <c r="AE4" s="24">
+        <v>44925</v>
+      </c>
+      <c r="AF4" s="9">
+        <v>3805407.5827613538</v>
+      </c>
+      <c r="AG4" s="9">
+        <f>-AF4</f>
+        <v>-3805407.5827613538</v>
+      </c>
     </row>
     <row r="5" spans="1:33" ht="14.1" customHeight="1">
       <c r="A5" s="12">
@@ -16108,9 +16500,16 @@
         <f>-AC5</f>
         <v>-3238983.9113250882</v>
       </c>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
+      <c r="AE5" s="24">
+        <v>45289</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>3238983.9113250882</v>
+      </c>
+      <c r="AG5" s="9">
+        <f>-AF5</f>
+        <v>-3238983.9113250882</v>
+      </c>
     </row>
     <row r="6" spans="1:33" ht="14.1" customHeight="1">
       <c r="A6" s="12">
@@ -16191,7 +16590,16 @@
       <c r="AD6" s="20">
         <v>6428643.6917510191</v>
       </c>
-      <c r="AE6" s="17"/>
+      <c r="AE6" s="24">
+        <v>45657</v>
+      </c>
+      <c r="AF6" s="11">
+        <v>2624874.2063060831</v>
+      </c>
+      <c r="AG6" s="11">
+        <f>-AF6</f>
+        <v>-2624874.2063060831</v>
+      </c>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1">
       <c r="A7" s="12">
@@ -16235,6 +16643,30 @@
       </c>
       <c r="N7" s="9">
         <v>1</v>
+      </c>
+      <c r="P7" s="24">
+        <v>45657</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>2624874.2063060831</v>
+      </c>
+      <c r="R7" s="8">
+        <v>9919761.2245908231</v>
+      </c>
+      <c r="S7" s="8">
+        <v>11208466.646977551</v>
+      </c>
+      <c r="T7" s="8">
+        <v>1288705.4223867282</v>
+      </c>
+      <c r="U7" s="8">
+        <v>0</v>
+      </c>
+      <c r="V7" s="19">
+        <v>0.12991294782298407</v>
+      </c>
+      <c r="W7" s="19">
+        <v>5.736790008357473E-2</v>
       </c>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
@@ -16242,7 +16674,12 @@
       <c r="AD7" s="10">
         <v>-7.6986041644461101E-2</v>
       </c>
-      <c r="AG7" s="10"/>
+      <c r="AE7" s="24">
+        <v>45657</v>
+      </c>
+      <c r="AG7" s="10">
+        <v>11208466.646977551</v>
+      </c>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1">
       <c r="A8" s="12">
@@ -16286,6 +16723,9 @@
       </c>
       <c r="N8" s="9">
         <v>1</v>
+      </c>
+      <c r="AG8" s="10">
+        <v>5.736790008357473E-2</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="14.1" customHeight="1">
@@ -17882,6 +18322,53 @@
       <c r="N44" s="9">
         <v>1</v>
       </c>
+    </row>
+    <row r="45" spans="1:14" ht="12.75">
+      <c r="A45" s="12">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="13">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="13">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="14">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="14">
+        <v>2399.2152197068949</v>
+      </c>
+      <c r="F45" s="15">
+        <v>3040.8305406285012</v>
+      </c>
+      <c r="G45" s="15">
+        <v>14205915.089980589</v>
+      </c>
+      <c r="H45" s="15">
+        <v>11208466.646977551</v>
+      </c>
+      <c r="I45" s="15">
+        <v>9919761.2245908231</v>
+      </c>
+      <c r="J45" s="15">
+        <v>11208466.646977551</v>
+      </c>
+      <c r="K45" s="15">
+        <v>1288705.4223867282</v>
+      </c>
+      <c r="L45" s="14">
+        <v>0</v>
+      </c>
+      <c r="M45" s="9">
+        <v>-30.986086283622882</v>
+      </c>
+      <c r="N45" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -17899,7 +18386,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG44"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18089,6 +18576,16 @@
         <f>-AC3</f>
         <v>-919630.63204484491</v>
       </c>
+      <c r="AE3" s="24">
+        <v>44561</v>
+      </c>
+      <c r="AF3" s="11">
+        <v>919630.63204484491</v>
+      </c>
+      <c r="AG3" s="11">
+        <f>-AF3</f>
+        <v>-919630.63204484491</v>
+      </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1">
       <c r="A4" s="12">
@@ -18177,9 +18674,16 @@
         <f>-AC4</f>
         <v>-34224313.882963724</v>
       </c>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
+      <c r="AE4" s="24">
+        <v>44925</v>
+      </c>
+      <c r="AF4" s="9">
+        <v>34224313.882963724</v>
+      </c>
+      <c r="AG4" s="9">
+        <f>-AF4</f>
+        <v>-34224313.882963724</v>
+      </c>
     </row>
     <row r="5" spans="1:33" ht="14.1" customHeight="1">
       <c r="A5" s="12">
@@ -18265,9 +18769,16 @@
         <f>-AC5</f>
         <v>-27593778.109442025</v>
       </c>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
+      <c r="AE5" s="24">
+        <v>45289</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>27593778.109442025</v>
+      </c>
+      <c r="AG5" s="9">
+        <f>-AF5</f>
+        <v>-27593778.109442025</v>
+      </c>
     </row>
     <row r="6" spans="1:33" ht="14.1" customHeight="1">
       <c r="A6" s="12">
@@ -18348,7 +18859,16 @@
       <c r="AD6" s="20">
         <v>56091168.152955428</v>
       </c>
-      <c r="AE6" s="17"/>
+      <c r="AE6" s="24">
+        <v>45657</v>
+      </c>
+      <c r="AF6" s="11">
+        <v>24624983.575011954</v>
+      </c>
+      <c r="AG6" s="11">
+        <f>-AF6</f>
+        <v>-24624983.575011954</v>
+      </c>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1">
       <c r="A7" s="12">
@@ -18392,6 +18912,30 @@
       </c>
       <c r="N7" s="9">
         <v>1</v>
+      </c>
+      <c r="P7" s="24">
+        <v>45657</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>24624983.575011954</v>
+      </c>
+      <c r="R7" s="8">
+        <v>87362706.199462548</v>
+      </c>
+      <c r="S7" s="8">
+        <v>100293789.29141231</v>
+      </c>
+      <c r="T7" s="8">
+        <v>12931083.091949761</v>
+      </c>
+      <c r="U7" s="8">
+        <v>0</v>
+      </c>
+      <c r="V7" s="19">
+        <v>0.14801605461289286</v>
+      </c>
+      <c r="W7" s="19">
+        <v>6.6204616111378289E-2</v>
       </c>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
@@ -18399,7 +18943,12 @@
       <c r="AD7" s="10">
         <v>-6.9053782169448907E-2</v>
       </c>
-      <c r="AG7" s="10"/>
+      <c r="AE7" s="24">
+        <v>45657</v>
+      </c>
+      <c r="AG7" s="10">
+        <v>100293789.29141231</v>
+      </c>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1">
       <c r="A8" s="12">
@@ -18443,6 +18992,9 @@
       </c>
       <c r="N8" s="9">
         <v>1</v>
+      </c>
+      <c r="AG8" s="10">
+        <v>6.6204616111378289E-2</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="14.1" customHeight="1">
@@ -20039,6 +20591,53 @@
       <c r="N44" s="9">
         <v>1</v>
       </c>
+    </row>
+    <row r="45" spans="1:14" ht="12.75">
+      <c r="A45" s="12">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="13">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="13">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="14">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="14">
+        <v>1869.843520860353</v>
+      </c>
+      <c r="F45" s="15">
+        <v>2369.8904699025352</v>
+      </c>
+      <c r="G45" s="15">
+        <v>127115072.88201697</v>
+      </c>
+      <c r="H45" s="15">
+        <v>100293789.29141231</v>
+      </c>
+      <c r="I45" s="15">
+        <v>87362706.199462548</v>
+      </c>
+      <c r="J45" s="15">
+        <v>100293789.29141231</v>
+      </c>
+      <c r="K45" s="15">
+        <v>12931083.091949761</v>
+      </c>
+      <c r="L45" s="14">
+        <v>0</v>
+      </c>
+      <c r="M45" s="9">
+        <v>-30.986086283622882</v>
+      </c>
+      <c r="N45" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -20056,7 +20655,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI44"/>
+  <dimension ref="A1:AI46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20260,6 +20859,16 @@
         <f>-AE3</f>
         <v>-181466.70885177652</v>
       </c>
+      <c r="AG3" s="24">
+        <v>44561</v>
+      </c>
+      <c r="AH3" s="11">
+        <v>181466.70885177652</v>
+      </c>
+      <c r="AI3" s="11">
+        <f>-AH3</f>
+        <v>-181466.70885177652</v>
+      </c>
     </row>
     <row r="4" spans="1:35" ht="14.1" customHeight="1">
       <c r="A4" s="12">
@@ -20354,9 +20963,16 @@
         <f>-AE4</f>
         <v>-11783344.784188394</v>
       </c>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="9"/>
+      <c r="AG4" s="24">
+        <v>44925</v>
+      </c>
+      <c r="AH4" s="9">
+        <v>11783344.784188394</v>
+      </c>
+      <c r="AI4" s="9">
+        <f>-AH4</f>
+        <v>-11783344.784188394</v>
+      </c>
     </row>
     <row r="5" spans="1:35" ht="14.1" customHeight="1">
       <c r="A5" s="12">
@@ -20448,9 +21064,16 @@
         <f>-AE5</f>
         <v>-18881112.093126651</v>
       </c>
-      <c r="AG5" s="17"/>
-      <c r="AH5" s="9"/>
-      <c r="AI5" s="9"/>
+      <c r="AG5" s="24">
+        <v>45289</v>
+      </c>
+      <c r="AH5" s="9">
+        <v>18881112.093126651</v>
+      </c>
+      <c r="AI5" s="9">
+        <f>-AH5</f>
+        <v>-18881112.093126651</v>
+      </c>
     </row>
     <row r="6" spans="1:35" ht="14.1" customHeight="1">
       <c r="A6" s="12">
@@ -20537,7 +21160,16 @@
       <c r="AF6" s="20">
         <v>28584694.306419734</v>
       </c>
-      <c r="AG6" s="17"/>
+      <c r="AG6" s="24">
+        <v>45657</v>
+      </c>
+      <c r="AH6" s="11">
+        <v>52702456.152646519</v>
+      </c>
+      <c r="AI6" s="11">
+        <f>-AH6</f>
+        <v>-52702456.152646519</v>
+      </c>
     </row>
     <row r="7" spans="1:35" ht="14.1" customHeight="1">
       <c r="A7" s="12">
@@ -20587,6 +21219,30 @@
       </c>
       <c r="P7" s="9">
         <v>1</v>
+      </c>
+      <c r="R7" s="24">
+        <v>45657</v>
+      </c>
+      <c r="S7" s="18">
+        <v>52702456.152646519</v>
+      </c>
+      <c r="T7" s="8">
+        <v>83548379.738813341</v>
+      </c>
+      <c r="U7" s="8">
+        <v>103484980.72449741</v>
+      </c>
+      <c r="V7" s="8">
+        <v>19936600.985684067</v>
+      </c>
+      <c r="W7" s="8">
+        <v>0</v>
+      </c>
+      <c r="X7" s="19">
+        <v>0.23862343049631032</v>
+      </c>
+      <c r="Y7" s="19">
+        <v>0.14769543427783827</v>
       </c>
       <c r="AA7" s="9"/>
       <c r="AB7" s="9"/>
@@ -20594,7 +21250,12 @@
       <c r="AF7" s="10">
         <v>-5.3413709629969719E-2</v>
       </c>
-      <c r="AI7" s="10"/>
+      <c r="AG7" s="24">
+        <v>45657</v>
+      </c>
+      <c r="AI7" s="10">
+        <v>103484980.72449741</v>
+      </c>
     </row>
     <row r="8" spans="1:35" ht="14.1" customHeight="1">
       <c r="A8" s="12">
@@ -20644,6 +21305,9 @@
       </c>
       <c r="P8" s="9">
         <v>1</v>
+      </c>
+      <c r="AI8" s="10">
+        <v>0.14769543427783827</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="14.1" customHeight="1">
@@ -22456,6 +23120,59 @@
       <c r="P44" s="9">
         <v>1</v>
       </c>
+    </row>
+    <row r="45" spans="1:16" ht="12.75">
+      <c r="A45" s="12">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="13">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="13">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="14">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="14">
+        <v>2431000</v>
+      </c>
+      <c r="F45" s="14">
+        <v>4680826.7802620027</v>
+      </c>
+      <c r="G45" s="14">
+        <v>971.10827052589309</v>
+      </c>
+      <c r="H45" s="15">
+        <v>1230.8090008001936</v>
+      </c>
+      <c r="I45" s="15">
+        <v>131159675.58835638</v>
+      </c>
+      <c r="J45" s="15">
+        <v>103484980.72449741</v>
+      </c>
+      <c r="K45" s="15">
+        <v>83548379.738813341</v>
+      </c>
+      <c r="L45" s="15">
+        <v>103484980.72449741</v>
+      </c>
+      <c r="M45" s="15">
+        <v>19936600.985684067</v>
+      </c>
+      <c r="N45" s="14">
+        <v>0</v>
+      </c>
+      <c r="O45" s="9">
+        <v>-30.986086283622882</v>
+      </c>
+      <c r="P45" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
@@ -157,10 +157,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>最高价</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -171,6 +167,10 @@
   <si>
     <t>标志</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每年投入本金</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>成交量</t>
@@ -344,7 +344,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -408,7 +408,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -856,19 +855,19 @@
                   <c:v>9209325.2065264452</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9314484.7442212198</c:v>
+                  <c:v>9314484.7442325279</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9315019.3275703583</c:v>
+                  <c:v>9315019.3275824543</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9316744.2474954911</c:v>
+                  <c:v>9316744.2475075871</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9319756.864148153</c:v>
+                  <c:v>9319756.864160249</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9322156.0793678593</c:v>
+                  <c:v>9322156.0793799553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1165,19 +1164,19 @@
                   <c:v>8317385.4645985421</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8120333.5067951689</c:v>
+                  <c:v>8120333.506806477</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10210855.587295413</c:v>
+                  <c:v>10210855.58731042</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>10345707.568357404</c:v>
+                  <c:v>10345707.568372607</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>10401980.048079319</c:v>
+                  <c:v>10401980.048094602</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>10510929.054706667</c:v>
+                  <c:v>10510929.054722106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1477,16 +1476,16 @@
                   <c:v>-1194151.2374260509</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>895836.25972505473</c:v>
+                  <c:v>895836.25972796604</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1028963.3208619133</c:v>
+                  <c:v>1028963.3208650202</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1082223.1839311663</c:v>
+                  <c:v>1082223.1839343533</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1188772.9753388073</c:v>
+                  <c:v>1188772.9753421508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1508,11 +1507,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="384749568"/>
-        <c:axId val="384757760"/>
+        <c:axId val="429937024"/>
+        <c:axId val="433478272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="384749568"/>
+        <c:axId val="429937024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1555,14 +1554,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384757760"/>
+        <c:crossAx val="433478272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="384757760"/>
+        <c:axId val="433478272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1613,7 +1612,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384749568"/>
+        <c:crossAx val="429937024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1947,8 +1946,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="533396096"/>
-        <c:axId val="533394560"/>
+        <c:axId val="550554240"/>
+        <c:axId val="550172928"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2256,11 +2255,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="533272064"/>
-        <c:axId val="533273600"/>
+        <c:axId val="550156928"/>
+        <c:axId val="550171392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="533272064"/>
+        <c:axId val="550156928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2303,14 +2302,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533273600"/>
+        <c:crossAx val="550171392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="533273600"/>
+        <c:axId val="550171392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2361,12 +2360,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533272064"/>
+        <c:crossAx val="550156928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="533394560"/>
+        <c:axId val="550172928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2403,12 +2402,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533396096"/>
+        <c:crossAx val="550554240"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="533396096"/>
+        <c:axId val="550554240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2417,7 +2416,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="533394560"/>
+        <c:crossAx val="550172928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2695,10 +2694,10 @@
                   <c:v>268277.3952402196</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>105159.53769477447</c:v>
+                  <c:v>105159.5377060835</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>534.58334913787519</c:v>
+                  <c:v>534.58334992613857</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1724.9199251330979</c:v>
@@ -2722,8 +2721,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="493069824"/>
-        <c:axId val="493042688"/>
+        <c:axId val="506182272"/>
+        <c:axId val="506152064"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3031,11 +3030,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492826624"/>
-        <c:axId val="492904448"/>
+        <c:axId val="504921088"/>
+        <c:axId val="506117120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492826624"/>
+        <c:axId val="504921088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3078,14 +3077,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492904448"/>
+        <c:crossAx val="506117120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="492904448"/>
+        <c:axId val="506117120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3136,12 +3135,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492826624"/>
+        <c:crossAx val="504921088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="493042688"/>
+        <c:axId val="506152064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3178,12 +3177,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493069824"/>
+        <c:crossAx val="506182272"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="493069824"/>
+        <c:axId val="506182272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3192,7 +3191,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="493042688"/>
+        <c:crossAx val="506152064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3625,19 +3624,19 @@
                   <c:v>9855763.9283218924</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9960923.466016667</c:v>
+                  <c:v>9960923.4660279751</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9961458.0493658055</c:v>
+                  <c:v>9961458.0493779015</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9963182.9692909382</c:v>
+                  <c:v>9963182.9693030342</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9966195.5859436002</c:v>
+                  <c:v>9966195.5859556962</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9968594.8011633065</c:v>
+                  <c:v>9968594.8011754025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3934,19 +3933,19 @@
                   <c:v>8952069.2248036787</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8731956.0863977727</c:v>
+                  <c:v>8731956.0864090826</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10979895.783215756</c:v>
+                  <c:v>10979895.783230763</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>11124774.354146119</c:v>
+                  <c:v>11124774.354161322</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11185057.481768021</c:v>
+                  <c:v>11185057.481783303</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>11302027.724432154</c:v>
+                  <c:v>11302027.724447591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4243,19 +4242,19 @@
                   <c:v>-903694.7035182137</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-1228967.3796188943</c:v>
+                  <c:v>-1228967.3796188924</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1018437.7338499501</c:v>
+                  <c:v>1018437.7338528614</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1161591.384855181</c:v>
+                  <c:v>1161591.3848582879</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1218861.8958244212</c:v>
+                  <c:v>1218861.8958276063</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1333432.9232688472</c:v>
+                  <c:v>1333432.9232721888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4277,11 +4276,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="496589440"/>
-        <c:axId val="496715264"/>
+        <c:axId val="511129088"/>
+        <c:axId val="516502656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="496589440"/>
+        <c:axId val="511129088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4324,14 +4323,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496715264"/>
+        <c:crossAx val="516502656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="496715264"/>
+        <c:axId val="516502656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4382,7 +4381,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496589440"/>
+        <c:crossAx val="511129088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4689,10 +4688,10 @@
                   <c:v>268277.3952402196</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>105159.53769477447</c:v>
+                  <c:v>105159.5377060835</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>534.58334913787519</c:v>
+                  <c:v>534.58334992613857</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1724.9199251330979</c:v>
@@ -4716,8 +4715,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="531911040"/>
-        <c:axId val="531909248"/>
+        <c:axId val="545902592"/>
+        <c:axId val="545813248"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5025,11 +5024,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="531904768"/>
-        <c:axId val="531907712"/>
+        <c:axId val="544331264"/>
+        <c:axId val="544335360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="531904768"/>
+        <c:axId val="544331264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5072,14 +5071,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531907712"/>
+        <c:crossAx val="544335360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="531907712"/>
+        <c:axId val="544335360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5130,12 +5129,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531904768"/>
+        <c:crossAx val="544331264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="531909248"/>
+        <c:axId val="545813248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5172,12 +5171,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531911040"/>
+        <c:crossAx val="545902592"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="531911040"/>
+        <c:axId val="545902592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5186,7 +5185,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="531909248"/>
+        <c:crossAx val="545813248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5619,19 +5618,19 @@
                   <c:v>9806930.351749409</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9912089.8894441836</c:v>
+                  <c:v>9912089.8894554917</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9912624.4727933221</c:v>
+                  <c:v>9912624.4728054181</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9914349.3927184548</c:v>
+                  <c:v>9914349.3927305508</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9917362.0093711168</c:v>
+                  <c:v>9917362.0093832128</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9919761.2245908231</c:v>
+                  <c:v>9919761.2246029191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5928,19 +5927,19 @@
                   <c:v>8877006.9111881889</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8659621.1555818245</c:v>
+                  <c:v>8659621.1555931326</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10888943.501168342</c:v>
+                  <c:v>10888943.50118335</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>11032636.254719432</c:v>
+                  <c:v>11032636.254734635</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11092445.05397602</c:v>
+                  <c:v>11092445.053991303</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>11208466.646977551</c:v>
+                  <c:v>11208466.646992989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6240,16 +6239,16 @@
                   <c:v>-1252468.7338623591</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>976319.02837502025</c:v>
+                  <c:v>976319.02837793157</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1118286.8620009776</c:v>
+                  <c:v>1118286.8620040845</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1175083.0446049031</c:v>
+                  <c:v>1175083.0446080901</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1288705.4223867282</c:v>
+                  <c:v>1288705.4223900698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6271,11 +6270,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="531933824"/>
-        <c:axId val="531935616"/>
+        <c:axId val="545926144"/>
+        <c:axId val="545927936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="531933824"/>
+        <c:axId val="545926144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6318,14 +6317,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531935616"/>
+        <c:crossAx val="545927936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="531935616"/>
+        <c:axId val="545927936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6376,7 +6375,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531933824"/>
+        <c:crossAx val="545926144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6683,10 +6682,10 @@
                   <c:v>268277.3952402196</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>105159.53769477447</c:v>
+                  <c:v>105159.5377060835</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>534.58334913787519</c:v>
+                  <c:v>534.58334992613857</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1724.9199251330979</c:v>
@@ -6710,8 +6709,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="532487552"/>
-        <c:axId val="532486016"/>
+        <c:axId val="546001280"/>
+        <c:axId val="545993856"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7019,11 +7018,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="532473344"/>
-        <c:axId val="532474880"/>
+        <c:axId val="545988992"/>
+        <c:axId val="545991680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="532473344"/>
+        <c:axId val="545988992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7066,14 +7065,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532474880"/>
+        <c:crossAx val="545991680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="532474880"/>
+        <c:axId val="545991680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7124,12 +7123,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532473344"/>
+        <c:crossAx val="545988992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="532486016"/>
+        <c:axId val="545993856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7166,12 +7165,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532487552"/>
+        <c:crossAx val="546001280"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="532487552"/>
+        <c:axId val="546001280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7180,7 +7179,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="532486016"/>
+        <c:crossAx val="545993856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7613,19 +7612,19 @@
                   <c:v>86814275.510388196</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>87356868.845013961</c:v>
+                  <c:v>87356868.845101491</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>87357065.508889571</c:v>
+                  <c:v>87357065.508977532</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>87358205.377673924</c:v>
+                  <c:v>87358205.377761886</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>87360836.355941683</c:v>
+                  <c:v>87360836.356029645</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>87362706.199462548</c:v>
+                  <c:v>87362706.199550509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7922,19 +7921,19 @@
                   <c:v>79896067.950831026</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>77535644.432070196</c:v>
+                  <c:v>77535644.432157725</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>97491736.664887249</c:v>
+                  <c:v>97491736.664997727</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>98763953.993965268</c:v>
+                  <c:v>98763953.994077191</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>99275023.339656532</c:v>
+                  <c:v>99275023.339769036</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>100293789.29141231</c:v>
+                  <c:v>100293789.29152597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8234,16 +8233,16 @@
                   <c:v>-9821224.4129437655</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10134671.155997679</c:v>
+                  <c:v>10134671.156020194</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>11405748.616291344</c:v>
+                  <c:v>11405748.616315305</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11914186.983714849</c:v>
+                  <c:v>11914186.983739391</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>12931083.091949761</c:v>
+                  <c:v>12931083.091975465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8265,11 +8264,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="532525440"/>
-        <c:axId val="532526976"/>
+        <c:axId val="546027392"/>
+        <c:axId val="546041856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="532525440"/>
+        <c:axId val="546027392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8312,14 +8311,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532526976"/>
+        <c:crossAx val="546041856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="532526976"/>
+        <c:axId val="546041856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8370,7 +8369,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532525440"/>
+        <c:crossAx val="546027392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8677,19 +8676,19 @@
                   <c:v>126218113.59324563</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>127107610.84226432</c:v>
+                  <c:v>127107610.84240781</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>127107867.24887526</c:v>
+                  <c:v>127107867.24901931</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>127109334.26144883</c:v>
+                  <c:v>127109334.26159288</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>127112702.99154706</c:v>
+                  <c:v>127112702.99169111</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>127115072.88201697</c:v>
+                  <c:v>127115072.88216102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8704,8 +8703,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="532599936"/>
-        <c:axId val="532588032"/>
+        <c:axId val="548985856"/>
+        <c:axId val="548982784"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9013,11 +9012,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="532583168"/>
-        <c:axId val="532585088"/>
+        <c:axId val="548979072"/>
+        <c:axId val="548980992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="532583168"/>
+        <c:axId val="548979072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9060,14 +9059,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532585088"/>
+        <c:crossAx val="548980992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="532585088"/>
+        <c:axId val="548980992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9118,12 +9117,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532583168"/>
+        <c:crossAx val="548979072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="532588032"/>
+        <c:axId val="548982784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9160,12 +9159,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532599936"/>
+        <c:crossAx val="548985856"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="532599936"/>
+        <c:axId val="548985856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9174,7 +9173,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="532588032"/>
+        <c:crossAx val="548982784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10259,11 +10258,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="532818944"/>
-        <c:axId val="532882560"/>
+        <c:axId val="549345536"/>
+        <c:axId val="549347712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="532818944"/>
+        <c:axId val="549345536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10306,14 +10305,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532882560"/>
+        <c:crossAx val="549347712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="532882560"/>
+        <c:axId val="549347712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10364,7 +10363,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532818944"/>
+        <c:crossAx val="549345536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11078,7 +11077,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11579,22 +11578,22 @@
         <v>45657</v>
       </c>
       <c r="Q7" s="18">
-        <v>2457066.9526285101</v>
+        <v>2457066.9526406061</v>
       </c>
       <c r="R7" s="8">
-        <v>9322156.0793678593</v>
+        <v>9322156.0793799553</v>
       </c>
       <c r="S7" s="8">
-        <v>10510929.054706667</v>
+        <v>10510929.054722106</v>
       </c>
       <c r="T7" s="8">
-        <v>1188772.9753388073</v>
+        <v>1188772.9753421508</v>
       </c>
       <c r="U7" s="8">
         <v>0</v>
       </c>
       <c r="V7" s="19">
-        <v>0.12752124779050242</v>
+        <v>0.1275212477906956</v>
       </c>
       <c r="W7" s="19">
         <v>5.6434982564923741E-2</v>
@@ -12902,25 +12901,25 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="14">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="14">
-        <v>105159.53769477447</v>
+        <v>105159.5377060835</v>
       </c>
       <c r="F41" s="15">
-        <v>172392.68070274981</v>
+        <v>172392.68072128922</v>
       </c>
       <c r="G41" s="15">
-        <v>13312021.830106834</v>
+        <v>13312021.830125373</v>
       </c>
       <c r="H41" s="15">
-        <v>8120333.5067951689</v>
+        <v>8120333.506806477</v>
       </c>
       <c r="I41" s="15">
-        <v>9314484.7442212198</v>
+        <v>9314484.7442325279</v>
       </c>
       <c r="J41" s="15">
-        <v>8120333.5067951689</v>
+        <v>8120333.506806477</v>
       </c>
       <c r="K41" s="15">
         <v>-1194151.2374260509</v>
@@ -12940,28 +12939,28 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="14">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="14">
-        <v>534.58334913787519</v>
+        <v>534.58334992613857</v>
       </c>
       <c r="F42" s="15">
-        <v>696.97957693832984</v>
+        <v>696.9795779660526</v>
       </c>
       <c r="G42" s="15">
-        <v>13312718.809683772</v>
+        <v>13312718.809703339</v>
       </c>
       <c r="H42" s="15">
-        <v>10210855.587295413</v>
+        <v>10210855.58731042</v>
       </c>
       <c r="I42" s="15">
-        <v>9315019.3275703583</v>
+        <v>9315019.3275824543</v>
       </c>
       <c r="J42" s="15">
-        <v>10210855.587295413</v>
+        <v>10210855.58731042</v>
       </c>
       <c r="K42" s="15">
-        <v>895836.25972505473</v>
+        <v>895836.25972796604</v>
       </c>
       <c r="L42" s="14">
         <v>0</v>
@@ -12987,19 +12986,19 @@
         <v>2219.9741350105646</v>
       </c>
       <c r="G43" s="15">
-        <v>13314938.783818783</v>
+        <v>13314938.78383835</v>
       </c>
       <c r="H43" s="15">
-        <v>10345707.568357404</v>
+        <v>10345707.568372607</v>
       </c>
       <c r="I43" s="15">
-        <v>9316744.2474954911</v>
+        <v>9316744.2475075871</v>
       </c>
       <c r="J43" s="15">
-        <v>10345707.568357404</v>
+        <v>10345707.568372607</v>
       </c>
       <c r="K43" s="15">
-        <v>1028963.3208619133</v>
+        <v>1028963.3208650202</v>
       </c>
       <c r="L43" s="14">
         <v>0</v>
@@ -13025,19 +13024,19 @@
         <v>3857.3835886907341</v>
       </c>
       <c r="G44" s="15">
-        <v>13318796.167407474</v>
+        <v>13318796.167427041</v>
       </c>
       <c r="H44" s="15">
-        <v>10401980.048079319</v>
+        <v>10401980.048094602</v>
       </c>
       <c r="I44" s="15">
-        <v>9319756.864148153</v>
+        <v>9319756.864160249</v>
       </c>
       <c r="J44" s="15">
-        <v>10401980.048079319</v>
+        <v>10401980.048094602</v>
       </c>
       <c r="K44" s="15">
-        <v>1082223.1839311663</v>
+        <v>1082223.1839343533</v>
       </c>
       <c r="L44" s="14">
         <v>0</v>
@@ -13063,26 +13062,23 @@
         <v>3040.8305406285012</v>
       </c>
       <c r="G45" s="15">
-        <v>13321836.997948103</v>
+        <v>13321836.99796767</v>
       </c>
       <c r="H45" s="15">
-        <v>10510929.054706667</v>
+        <v>10510929.054722106</v>
       </c>
       <c r="I45" s="15">
-        <v>9322156.0793678593</v>
+        <v>9322156.0793799553</v>
       </c>
       <c r="J45" s="15">
-        <v>10510929.054706667</v>
+        <v>10510929.054722106</v>
       </c>
       <c r="K45" s="15">
-        <v>1188772.9753388073</v>
+        <v>1188772.9753421508</v>
       </c>
       <c r="L45" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -13100,7 +13096,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM46"/>
+  <dimension ref="A1:AM45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13141,7 +13137,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -13177,10 +13173,10 @@
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>4</v>
@@ -13201,7 +13197,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.1" customHeight="1">
@@ -13693,22 +13689,22 @@
         <v>45657</v>
       </c>
       <c r="W7" s="18">
-        <v>2643214.2615223229</v>
+        <v>2643214.2615344189</v>
       </c>
       <c r="X7" s="8">
-        <v>9968594.8011633065</v>
+        <v>9968594.8011754025</v>
       </c>
       <c r="Y7" s="8">
-        <v>11302027.724432154</v>
+        <v>11302027.724447591</v>
       </c>
       <c r="Z7" s="8">
-        <v>1333432.9232688472</v>
+        <v>1333432.9232721888</v>
       </c>
       <c r="AA7" s="8">
         <v>0</v>
       </c>
       <c r="AB7" s="19">
-        <v>0.13376337887795775</v>
+        <v>0.13376337887813064</v>
       </c>
       <c r="AC7" s="19">
         <v>5.9465148301071302E-2</v>
@@ -15784,28 +15780,28 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="14">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="14">
-        <v>105159.53769477447</v>
+        <v>105159.5377060835</v>
       </c>
       <c r="F41" s="15">
-        <v>172392.68070274981</v>
+        <v>172392.68072128922</v>
       </c>
       <c r="G41" s="15">
-        <v>14314681.773155095</v>
+        <v>14314681.773173634</v>
       </c>
       <c r="H41" s="15">
-        <v>8731956.0863977727</v>
+        <v>8731956.0864090826</v>
       </c>
       <c r="I41" s="15">
-        <v>9960923.466016667</v>
+        <v>9960923.4660279751</v>
       </c>
       <c r="J41" s="15">
-        <v>8731956.0863977727</v>
+        <v>8731956.0864090826</v>
       </c>
       <c r="K41" s="15">
-        <v>-1228967.3796188943</v>
+        <v>-1228967.3796188924</v>
       </c>
       <c r="L41" s="14">
         <v>0</v>
@@ -15849,28 +15845,28 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="14">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="14">
-        <v>534.58334913787519</v>
+        <v>534.58334992613857</v>
       </c>
       <c r="F42" s="15">
-        <v>696.97957693832984</v>
+        <v>696.9795779660526</v>
       </c>
       <c r="G42" s="15">
-        <v>14315378.752732033</v>
+        <v>14315378.7527516</v>
       </c>
       <c r="H42" s="15">
-        <v>10979895.783215756</v>
+        <v>10979895.783230763</v>
       </c>
       <c r="I42" s="15">
-        <v>9961458.0493658055</v>
+        <v>9961458.0493779015</v>
       </c>
       <c r="J42" s="15">
-        <v>10979895.783215756</v>
+        <v>10979895.783230763</v>
       </c>
       <c r="K42" s="15">
-        <v>1018437.7338499501</v>
+        <v>1018437.7338528614</v>
       </c>
       <c r="L42" s="14">
         <v>0</v>
@@ -15923,19 +15919,19 @@
         <v>2219.9741350105646</v>
       </c>
       <c r="G43" s="15">
-        <v>14317598.726867044</v>
+        <v>14317598.726886611</v>
       </c>
       <c r="H43" s="15">
-        <v>11124774.354146119</v>
+        <v>11124774.354161322</v>
       </c>
       <c r="I43" s="15">
-        <v>9963182.9692909382</v>
+        <v>9963182.9693030342</v>
       </c>
       <c r="J43" s="15">
-        <v>11124774.354146119</v>
+        <v>11124774.354161322</v>
       </c>
       <c r="K43" s="15">
-        <v>1161591.384855181</v>
+        <v>1161591.3848582879</v>
       </c>
       <c r="L43" s="14">
         <v>0</v>
@@ -15988,19 +15984,19 @@
         <v>3857.3835886907341</v>
       </c>
       <c r="G44" s="15">
-        <v>14321456.110455735</v>
+        <v>14321456.110475302</v>
       </c>
       <c r="H44" s="15">
-        <v>11185057.481768021</v>
+        <v>11185057.481783303</v>
       </c>
       <c r="I44" s="15">
-        <v>9966195.5859436002</v>
+        <v>9966195.5859556962</v>
       </c>
       <c r="J44" s="15">
-        <v>11185057.481768021</v>
+        <v>11185057.481783303</v>
       </c>
       <c r="K44" s="15">
-        <v>1218861.8958244212</v>
+        <v>1218861.8958276063</v>
       </c>
       <c r="L44" s="14">
         <v>0</v>
@@ -16053,19 +16049,19 @@
         <v>3040.8305406285012</v>
       </c>
       <c r="G45" s="15">
-        <v>14324496.940996364</v>
+        <v>14324496.941015931</v>
       </c>
       <c r="H45" s="15">
-        <v>11302027.724432154</v>
+        <v>11302027.724447591</v>
       </c>
       <c r="I45" s="15">
-        <v>9968594.8011633065</v>
+        <v>9968594.8011754025</v>
       </c>
       <c r="J45" s="15">
-        <v>11302027.724432154</v>
+        <v>11302027.724447591</v>
       </c>
       <c r="K45" s="15">
-        <v>1333432.9232688472</v>
+        <v>1333432.9232721888</v>
       </c>
       <c r="L45" s="14">
         <v>0</v>
@@ -16097,9 +16093,6 @@
       <c r="U45" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:21">
-      <c r="A46" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -16117,7 +16110,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16197,7 +16190,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -16267,7 +16260,7 @@
         <v>7</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="R3" s="16" t="s">
         <v>20</v>
@@ -16648,22 +16641,22 @@
         <v>45657</v>
       </c>
       <c r="Q7" s="18">
-        <v>2624874.2063060831</v>
+        <v>2624874.2063181791</v>
       </c>
       <c r="R7" s="8">
-        <v>9919761.2245908231</v>
+        <v>9919761.2246029191</v>
       </c>
       <c r="S7" s="8">
-        <v>11208466.646977551</v>
+        <v>11208466.646992989</v>
       </c>
       <c r="T7" s="8">
-        <v>1288705.4223867282</v>
+        <v>1288705.4223900698</v>
       </c>
       <c r="U7" s="8">
         <v>0</v>
       </c>
       <c r="V7" s="19">
-        <v>0.12991294782298407</v>
+        <v>0.12991294782316251</v>
       </c>
       <c r="W7" s="19">
         <v>5.736790008357473E-2</v>
@@ -18158,25 +18151,25 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="14">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="14">
-        <v>105159.53769477447</v>
+        <v>105159.5377060835</v>
       </c>
       <c r="F41" s="15">
-        <v>172392.68070274981</v>
+        <v>172392.68072128922</v>
       </c>
       <c r="G41" s="15">
-        <v>14196099.922139321</v>
+        <v>14196099.922157859</v>
       </c>
       <c r="H41" s="15">
-        <v>8659621.1555818245</v>
+        <v>8659621.1555931326</v>
       </c>
       <c r="I41" s="15">
-        <v>9912089.8894441836</v>
+        <v>9912089.8894554917</v>
       </c>
       <c r="J41" s="15">
-        <v>8659621.1555818245</v>
+        <v>8659621.1555931326</v>
       </c>
       <c r="K41" s="15">
         <v>-1252468.7338623591</v>
@@ -18202,28 +18195,28 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="14">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="14">
-        <v>534.58334913787519</v>
+        <v>534.58334992613857</v>
       </c>
       <c r="F42" s="15">
-        <v>696.97957693832984</v>
+        <v>696.9795779660526</v>
       </c>
       <c r="G42" s="15">
-        <v>14196796.901716258</v>
+        <v>14196796.901735825</v>
       </c>
       <c r="H42" s="15">
-        <v>10888943.501168342</v>
+        <v>10888943.50118335</v>
       </c>
       <c r="I42" s="15">
-        <v>9912624.4727933221</v>
+        <v>9912624.4728054181</v>
       </c>
       <c r="J42" s="15">
-        <v>10888943.501168342</v>
+        <v>10888943.50118335</v>
       </c>
       <c r="K42" s="15">
-        <v>976319.02837502025</v>
+        <v>976319.02837793157</v>
       </c>
       <c r="L42" s="14">
         <v>0</v>
@@ -18255,19 +18248,19 @@
         <v>2219.9741350105646</v>
       </c>
       <c r="G43" s="15">
-        <v>14199016.87585127</v>
+        <v>14199016.875870837</v>
       </c>
       <c r="H43" s="15">
-        <v>11032636.254719432</v>
+        <v>11032636.254734635</v>
       </c>
       <c r="I43" s="15">
-        <v>9914349.3927184548</v>
+        <v>9914349.3927305508</v>
       </c>
       <c r="J43" s="15">
-        <v>11032636.254719432</v>
+        <v>11032636.254734635</v>
       </c>
       <c r="K43" s="15">
-        <v>1118286.8620009776</v>
+        <v>1118286.8620040845</v>
       </c>
       <c r="L43" s="14">
         <v>0</v>
@@ -18299,19 +18292,19 @@
         <v>3857.3835886907341</v>
       </c>
       <c r="G44" s="15">
-        <v>14202874.25943996</v>
+        <v>14202874.259459527</v>
       </c>
       <c r="H44" s="15">
-        <v>11092445.05397602</v>
+        <v>11092445.053991303</v>
       </c>
       <c r="I44" s="15">
-        <v>9917362.0093711168</v>
+        <v>9917362.0093832128</v>
       </c>
       <c r="J44" s="15">
-        <v>11092445.05397602</v>
+        <v>11092445.053991303</v>
       </c>
       <c r="K44" s="15">
-        <v>1175083.0446049031</v>
+        <v>1175083.0446080901</v>
       </c>
       <c r="L44" s="14">
         <v>0</v>
@@ -18343,19 +18336,19 @@
         <v>3040.8305406285012</v>
       </c>
       <c r="G45" s="15">
-        <v>14205915.089980589</v>
+        <v>14205915.090000156</v>
       </c>
       <c r="H45" s="15">
-        <v>11208466.646977551</v>
+        <v>11208466.646992989</v>
       </c>
       <c r="I45" s="15">
-        <v>9919761.2245908231</v>
+        <v>9919761.2246029191</v>
       </c>
       <c r="J45" s="15">
-        <v>11208466.646977551</v>
+        <v>11208466.646992989</v>
       </c>
       <c r="K45" s="15">
-        <v>1288705.4223867282</v>
+        <v>1288705.4223900698</v>
       </c>
       <c r="L45" s="14">
         <v>0</v>
@@ -18366,9 +18359,6 @@
       <c r="N45" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -18386,7 +18376,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18466,7 +18456,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -18917,22 +18907,22 @@
         <v>45657</v>
       </c>
       <c r="Q7" s="18">
-        <v>24624983.575011954</v>
+        <v>24624983.575099915</v>
       </c>
       <c r="R7" s="8">
-        <v>87362706.199462548</v>
+        <v>87362706.199550509</v>
       </c>
       <c r="S7" s="8">
-        <v>100293789.29141231</v>
+        <v>100293789.29152597</v>
       </c>
       <c r="T7" s="8">
-        <v>12931083.091949761</v>
+        <v>12931083.091975465</v>
       </c>
       <c r="U7" s="8">
         <v>0</v>
       </c>
       <c r="V7" s="19">
-        <v>0.14801605461289286</v>
+        <v>0.14801605461303805</v>
       </c>
       <c r="W7" s="19">
         <v>6.6204616111378289E-2</v>
@@ -20427,25 +20417,25 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="14">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="14">
-        <v>542593.33462576638</v>
+        <v>542593.33471329347</v>
       </c>
       <c r="F41" s="15">
-        <v>889497.24901869858</v>
+        <v>889497.2491621857</v>
       </c>
       <c r="G41" s="15">
-        <v>127107610.84226432</v>
+        <v>127107610.84240781</v>
       </c>
       <c r="H41" s="15">
-        <v>77535644.432070196</v>
+        <v>77535644.432157725</v>
       </c>
       <c r="I41" s="15">
-        <v>87356868.845013961</v>
+        <v>87356868.845101491</v>
       </c>
       <c r="J41" s="15">
-        <v>77535644.432070196</v>
+        <v>77535644.432157725</v>
       </c>
       <c r="K41" s="15">
         <v>-9821224.4129437655</v>
@@ -20471,28 +20461,28 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="14">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="14">
-        <v>196.6638756048801</v>
+        <v>196.66387603986257</v>
       </c>
       <c r="F42" s="15">
-        <v>256.40661094139233</v>
+        <v>256.40661150851417</v>
       </c>
       <c r="G42" s="15">
-        <v>127107867.24887526</v>
+        <v>127107867.24901931</v>
       </c>
       <c r="H42" s="15">
-        <v>97491736.664887249</v>
+        <v>97491736.664997727</v>
       </c>
       <c r="I42" s="15">
-        <v>87357065.508889571</v>
+        <v>87357065.508977532</v>
       </c>
       <c r="J42" s="15">
-        <v>97491736.664887249</v>
+        <v>97491736.664997727</v>
       </c>
       <c r="K42" s="15">
-        <v>10134671.155997679</v>
+        <v>10134671.156020194</v>
       </c>
       <c r="L42" s="14">
         <v>0</v>
@@ -20524,19 +20514,19 @@
         <v>1467.0125735633046</v>
       </c>
       <c r="G43" s="15">
-        <v>127109334.26144883</v>
+        <v>127109334.26159288</v>
       </c>
       <c r="H43" s="15">
-        <v>98763953.993965268</v>
+        <v>98763953.994077191</v>
       </c>
       <c r="I43" s="15">
-        <v>87358205.377673924</v>
+        <v>87358205.377761886</v>
       </c>
       <c r="J43" s="15">
-        <v>98763953.993965268</v>
+        <v>98763953.994077191</v>
       </c>
       <c r="K43" s="15">
-        <v>11405748.616291344</v>
+        <v>11405748.616315305</v>
       </c>
       <c r="L43" s="14">
         <v>0</v>
@@ -20568,19 +20558,19 @@
         <v>3368.7300982379434</v>
       </c>
       <c r="G44" s="15">
-        <v>127112702.99154706</v>
+        <v>127112702.99169111</v>
       </c>
       <c r="H44" s="15">
-        <v>99275023.339656532</v>
+        <v>99275023.339769036</v>
       </c>
       <c r="I44" s="15">
-        <v>87360836.355941683</v>
+        <v>87360836.356029645</v>
       </c>
       <c r="J44" s="15">
-        <v>99275023.339656532</v>
+        <v>99275023.339769036</v>
       </c>
       <c r="K44" s="15">
-        <v>11914186.983714849</v>
+        <v>11914186.983739391</v>
       </c>
       <c r="L44" s="14">
         <v>0</v>
@@ -20612,19 +20602,19 @@
         <v>2369.8904699025352</v>
       </c>
       <c r="G45" s="15">
-        <v>127115072.88201697</v>
+        <v>127115072.88216102</v>
       </c>
       <c r="H45" s="15">
-        <v>100293789.29141231</v>
+        <v>100293789.29152597</v>
       </c>
       <c r="I45" s="15">
-        <v>87362706.199462548</v>
+        <v>87362706.199550509</v>
       </c>
       <c r="J45" s="15">
-        <v>100293789.29141231</v>
+        <v>100293789.29152597</v>
       </c>
       <c r="K45" s="15">
-        <v>12931083.091949761</v>
+        <v>12931083.091975465</v>
       </c>
       <c r="L45" s="14">
         <v>0</v>
@@ -20635,9 +20625,6 @@
       <c r="N45" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -20655,7 +20642,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI46"/>
+  <dimension ref="A1:AI45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20741,7 +20728,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.1" customHeight="1">
@@ -23170,9 +23157,6 @@
       <c r="P45" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:16">
-      <c r="A46" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
@@ -169,7 +169,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>每年投入本金</t>
+    <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -601,7 +601,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -730,6 +730,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -739,7 +742,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -868,6 +871,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>9322156.0793799553</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9327292.1649004761</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -910,7 +916,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1039,6 +1045,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1048,7 +1057,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1177,6 +1186,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>10510929.054722106</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10409491.022322454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1219,7 +1231,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1348,6 +1360,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1357,7 +1372,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1486,6 +1501,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1188772.9753421508</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1082198.8574219774</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1507,11 +1525,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="429937024"/>
-        <c:axId val="433478272"/>
+        <c:axId val="536749184"/>
+        <c:axId val="536769280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="429937024"/>
+        <c:axId val="536749184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1554,14 +1572,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433478272"/>
+        <c:crossAx val="536769280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="433478272"/>
+        <c:axId val="536769280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1612,7 +1630,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429937024"/>
+        <c:crossAx val="536749184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1803,7 +1821,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1932,6 +1950,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>971.10827052589309</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1078.8319778520554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1946,8 +1967,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="550554240"/>
-        <c:axId val="550172928"/>
+        <c:axId val="610879360"/>
+        <c:axId val="610877440"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1972,7 +1993,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2101,6 +2122,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2110,7 +2134,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2239,6 +2263,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2255,11 +2282,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="550156928"/>
-        <c:axId val="550171392"/>
+        <c:axId val="610860032"/>
+        <c:axId val="610862976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="550156928"/>
+        <c:axId val="610860032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2302,14 +2329,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550171392"/>
+        <c:crossAx val="610862976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="550171392"/>
+        <c:axId val="610862976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2360,12 +2387,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550156928"/>
+        <c:crossAx val="610860032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="550172928"/>
+        <c:axId val="610877440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2402,12 +2429,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550554240"/>
+        <c:crossAx val="610879360"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="550554240"/>
+        <c:axId val="610879360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2416,7 +2443,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="550172928"/>
+        <c:crossAx val="610877440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2578,7 +2605,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2707,6 +2734,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>2399.2152197068949</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5136.0855205209327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2721,8 +2751,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="506182272"/>
-        <c:axId val="506152064"/>
+        <c:axId val="585796224"/>
+        <c:axId val="585793920"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2747,7 +2777,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2876,6 +2906,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2885,7 +2918,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3014,6 +3047,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3030,11 +3066,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="504921088"/>
-        <c:axId val="506117120"/>
+        <c:axId val="584447872"/>
+        <c:axId val="584830336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="504921088"/>
+        <c:axId val="584447872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3077,14 +3113,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506117120"/>
+        <c:crossAx val="584830336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="506117120"/>
+        <c:axId val="584830336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3135,12 +3171,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504921088"/>
+        <c:crossAx val="584447872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="506152064"/>
+        <c:axId val="585793920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3177,12 +3213,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506182272"/>
+        <c:crossAx val="585796224"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="506182272"/>
+        <c:axId val="585796224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3191,7 +3227,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="506152064"/>
+        <c:crossAx val="585793920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3370,7 +3406,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3499,6 +3535,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3508,7 +3547,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3637,6 +3676,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>9968594.8011754025</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9973730.8866959233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3679,7 +3721,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3808,6 +3850,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3817,7 +3862,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3946,6 +3991,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>11302027.724447591</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11192568.456011154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3988,7 +4036,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4117,6 +4165,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4126,7 +4177,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4255,6 +4306,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1333432.9232721888</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1218837.5693152305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4276,11 +4330,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511129088"/>
-        <c:axId val="516502656"/>
+        <c:axId val="586278400"/>
+        <c:axId val="586282112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="511129088"/>
+        <c:axId val="586278400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4323,14 +4377,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516502656"/>
+        <c:crossAx val="586282112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="516502656"/>
+        <c:axId val="586282112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4381,7 +4435,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511129088"/>
+        <c:crossAx val="586278400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4572,7 +4626,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4701,6 +4755,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>2399.2152197068949</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5136.0855205209327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4715,8 +4772,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="545902592"/>
-        <c:axId val="545813248"/>
+        <c:axId val="586327168"/>
+        <c:axId val="586324992"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4741,7 +4798,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4870,6 +4927,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4879,7 +4939,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5008,6 +5068,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5024,11 +5087,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="544331264"/>
-        <c:axId val="544335360"/>
+        <c:axId val="586316800"/>
+        <c:axId val="586323072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="544331264"/>
+        <c:axId val="586316800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5071,14 +5134,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544335360"/>
+        <c:crossAx val="586323072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="544335360"/>
+        <c:axId val="586323072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5129,12 +5192,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544331264"/>
+        <c:crossAx val="586316800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="545813248"/>
+        <c:axId val="586324992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5171,12 +5234,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545902592"/>
+        <c:crossAx val="586327168"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="545902592"/>
+        <c:axId val="586327168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5185,7 +5248,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="545813248"/>
+        <c:crossAx val="586324992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5364,7 +5427,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5493,6 +5556,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5502,7 +5568,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5631,6 +5697,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>9919761.2246029191</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9924897.3101234399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5673,7 +5742,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5802,6 +5871,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5811,7 +5883,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5940,6 +6012,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>11208466.646992989</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11099956.028219154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5982,7 +6057,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6111,6 +6186,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6120,7 +6198,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6249,6 +6327,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1288705.4223900698</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1175058.7180957142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6270,11 +6351,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="545926144"/>
-        <c:axId val="545927936"/>
+        <c:axId val="600674688"/>
+        <c:axId val="600676992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="545926144"/>
+        <c:axId val="600674688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6317,14 +6398,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545927936"/>
+        <c:crossAx val="600676992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="545927936"/>
+        <c:axId val="600676992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6375,7 +6456,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545926144"/>
+        <c:crossAx val="600674688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6566,7 +6647,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6695,6 +6776,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>2399.2152197068949</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5136.0855205209327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6709,8 +6793,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="546001280"/>
-        <c:axId val="545993856"/>
+        <c:axId val="600763008"/>
+        <c:axId val="600751488"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6735,7 +6819,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6864,6 +6948,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6873,7 +6960,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7002,6 +7089,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7018,11 +7108,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="545988992"/>
-        <c:axId val="545991680"/>
+        <c:axId val="600743296"/>
+        <c:axId val="600749952"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="545988992"/>
+        <c:axId val="600743296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7065,14 +7155,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545991680"/>
+        <c:crossAx val="600749952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="545991680"/>
+        <c:axId val="600749952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7123,12 +7213,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545988992"/>
+        <c:crossAx val="600743296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="545993856"/>
+        <c:axId val="600751488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7165,12 +7255,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="546001280"/>
+        <c:crossAx val="600763008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="546001280"/>
+        <c:axId val="600763008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7179,7 +7269,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="545993856"/>
+        <c:crossAx val="600751488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7358,7 +7448,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7487,6 +7577,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7496,7 +7589,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7625,6 +7718,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>87362706.199550509</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>87368562.856982231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7667,7 +7763,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7796,6 +7892,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7805,7 +7904,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7934,6 +8033,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>100293789.29152597</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>99282730.881700709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7976,7 +8078,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8105,6 +8207,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8114,7 +8219,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8243,6 +8348,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>12931083.091975465</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11914168.024718478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8264,11 +8372,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="546027392"/>
-        <c:axId val="546041856"/>
+        <c:axId val="600795008"/>
+        <c:axId val="600805760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="546027392"/>
+        <c:axId val="600795008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8311,14 +8419,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="546041856"/>
+        <c:crossAx val="600805760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="546041856"/>
+        <c:axId val="600805760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8369,7 +8477,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="546027392"/>
+        <c:crossAx val="600795008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8560,7 +8668,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8689,6 +8797,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>127115072.88216102</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>127122571.80315442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8703,8 +8814,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="548985856"/>
-        <c:axId val="548982784"/>
+        <c:axId val="610691712"/>
+        <c:axId val="610689024"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8729,7 +8840,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8858,6 +8969,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8867,7 +8981,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8996,6 +9110,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9012,11 +9129,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="548979072"/>
-        <c:axId val="548980992"/>
+        <c:axId val="610676736"/>
+        <c:axId val="610678656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="548979072"/>
+        <c:axId val="610676736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9059,14 +9176,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548980992"/>
+        <c:crossAx val="610678656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="548980992"/>
+        <c:axId val="610678656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9117,12 +9234,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548979072"/>
+        <c:crossAx val="610676736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="548982784"/>
+        <c:axId val="610689024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9159,12 +9276,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548985856"/>
+        <c:crossAx val="610691712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="548985856"/>
+        <c:axId val="610691712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9173,7 +9290,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="548982784"/>
+        <c:crossAx val="610689024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9352,7 +9469,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9481,6 +9598,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9490,7 +9610,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9619,6 +9739,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>83548379.738813341</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>83549458.5707912</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9661,7 +9784,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9790,6 +9913,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9799,7 +9925,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9928,6 +10054,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>103484980.72449741</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>102436787.84307285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9970,7 +10099,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10099,6 +10228,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10108,7 +10240,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10237,6 +10369,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>19936600.985684067</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>18887329.272281647</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10258,11 +10393,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="549345536"/>
-        <c:axId val="549347712"/>
+        <c:axId val="610822016"/>
+        <c:axId val="610832384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="549345536"/>
+        <c:axId val="610822016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10305,14 +10440,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549347712"/>
+        <c:crossAx val="610832384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="549347712"/>
+        <c:axId val="610832384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10363,7 +10498,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549345536"/>
+        <c:crossAx val="610822016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11077,7 +11212,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG45"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13080,6 +13215,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="46" spans="1:12" ht="12.75">
+      <c r="A46" s="12">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="13">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="13">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="14">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="14">
+        <v>5136.0855205209327</v>
+      </c>
+      <c r="F46" s="15">
+        <v>6576.2937277333249</v>
+      </c>
+      <c r="G46" s="15">
+        <v>13328413.291695403</v>
+      </c>
+      <c r="H46" s="15">
+        <v>10409491.022322454</v>
+      </c>
+      <c r="I46" s="15">
+        <v>9327292.1649004761</v>
+      </c>
+      <c r="J46" s="15">
+        <v>10409491.022322454</v>
+      </c>
+      <c r="K46" s="15">
+        <v>1082198.8574219774</v>
+      </c>
+      <c r="L46" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13096,7 +13269,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM45"/>
+  <dimension ref="A1:AM46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16094,6 +16267,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="46" spans="1:21" ht="12.75">
+      <c r="A46" s="12">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="13">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="13">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="14">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="14">
+        <v>5136.0855205209327</v>
+      </c>
+      <c r="F46" s="15">
+        <v>6576.2937277333249</v>
+      </c>
+      <c r="G46" s="15">
+        <v>14331073.234743664</v>
+      </c>
+      <c r="H46" s="15">
+        <v>11192568.456011154</v>
+      </c>
+      <c r="I46" s="15">
+        <v>9973730.8866959233</v>
+      </c>
+      <c r="J46" s="15">
+        <v>11192568.456011154</v>
+      </c>
+      <c r="K46" s="15">
+        <v>1218837.5693152305</v>
+      </c>
+      <c r="L46" s="14">
+        <v>0</v>
+      </c>
+      <c r="M46" s="23">
+        <v>0.79900002479553223</v>
+      </c>
+      <c r="N46" s="23">
+        <v>0.7369999885559082</v>
+      </c>
+      <c r="O46" s="23">
+        <v>0.77233334382375085</v>
+      </c>
+      <c r="P46" s="23">
+        <v>0.68245238349551252</v>
+      </c>
+      <c r="Q46" s="23">
+        <v>8.9880960328238335E-2</v>
+      </c>
+      <c r="R46" s="23">
+        <v>6.5867351025951162E-2</v>
+      </c>
+      <c r="S46" s="9">
+        <v>9.8801026538926731E-4</v>
+      </c>
+      <c r="T46" s="9">
+        <v>90.9716867089696</v>
+      </c>
+      <c r="U46" s="11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16110,7 +16348,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG45"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16260,7 +16498,7 @@
         <v>7</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="R3" s="16" t="s">
         <v>20</v>
@@ -18357,6 +18595,50 @@
         <v>-30.986086283622882</v>
       </c>
       <c r="N45" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="12.75">
+      <c r="A46" s="12">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="13">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="13">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="14">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="14">
+        <v>5136.0855205209327</v>
+      </c>
+      <c r="F46" s="15">
+        <v>6576.2937277333249</v>
+      </c>
+      <c r="G46" s="15">
+        <v>14212491.38372789</v>
+      </c>
+      <c r="H46" s="15">
+        <v>11099956.028219154</v>
+      </c>
+      <c r="I46" s="15">
+        <v>9924897.3101234399</v>
+      </c>
+      <c r="J46" s="15">
+        <v>11099956.028219154</v>
+      </c>
+      <c r="K46" s="15">
+        <v>1175058.7180957142</v>
+      </c>
+      <c r="L46" s="14">
+        <v>0</v>
+      </c>
+      <c r="M46" s="9">
+        <v>63.311229058108523</v>
+      </c>
+      <c r="N46" s="9">
         <v>1</v>
       </c>
     </row>
@@ -18376,7 +18658,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG45"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20626,6 +20908,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="46" spans="1:14" ht="12.75">
+      <c r="A46" s="12">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="13">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="13">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="14">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="14">
+        <v>5856.657431728444</v>
+      </c>
+      <c r="F46" s="15">
+        <v>7498.9209934051287</v>
+      </c>
+      <c r="G46" s="15">
+        <v>127122571.80315442</v>
+      </c>
+      <c r="H46" s="15">
+        <v>99282730.881700709</v>
+      </c>
+      <c r="I46" s="15">
+        <v>87368562.856982231</v>
+      </c>
+      <c r="J46" s="15">
+        <v>99282730.881700709</v>
+      </c>
+      <c r="K46" s="15">
+        <v>11914168.024718478</v>
+      </c>
+      <c r="L46" s="14">
+        <v>0</v>
+      </c>
+      <c r="M46" s="9">
+        <v>63.311229058108523</v>
+      </c>
+      <c r="N46" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -20642,7 +20968,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI45"/>
+  <dimension ref="A1:AI46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20683,7 +21009,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -23155,6 +23481,56 @@
         <v>-30.986086283622882</v>
       </c>
       <c r="P45" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="12.75">
+      <c r="A46" s="12">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="13">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="13">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="14">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="14">
+        <v>851700</v>
+      </c>
+      <c r="F46" s="14">
+        <v>4623625.5848982222</v>
+      </c>
+      <c r="G46" s="14">
+        <v>1078.8319778520554</v>
+      </c>
+      <c r="H46" s="15">
+        <v>1381.3469306303568</v>
+      </c>
+      <c r="I46" s="15">
+        <v>131161056.935287</v>
+      </c>
+      <c r="J46" s="15">
+        <v>102436787.84307285</v>
+      </c>
+      <c r="K46" s="15">
+        <v>83549458.5707912</v>
+      </c>
+      <c r="L46" s="15">
+        <v>102436787.84307285</v>
+      </c>
+      <c r="M46" s="15">
+        <v>18887329.272281647</v>
+      </c>
+      <c r="N46" s="14">
+        <v>0</v>
+      </c>
+      <c r="O46" s="9">
+        <v>63.311229058108523</v>
+      </c>
+      <c r="P46" s="9">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
@@ -157,6 +157,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>最高价</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -167,10 +171,6 @@
   <si>
     <t>标志</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>成交量</t>
@@ -601,7 +601,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -733,6 +733,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -742,7 +745,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -873,6 +876,9 @@
                   <c:v>9322156.0793799553</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>9327292.1649004761</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>9327292.1649004761</c:v>
                 </c:pt>
               </c:numCache>
@@ -916,7 +922,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1048,6 +1054,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1057,7 +1066,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1189,6 +1198,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>10409491.022322454</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11022598.084584303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1231,7 +1243,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1363,6 +1375,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1372,7 +1387,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1504,6 +1519,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1082198.8574219774</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1695305.9196838271</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1525,11 +1543,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="536749184"/>
-        <c:axId val="536769280"/>
+        <c:axId val="455138304"/>
+        <c:axId val="455158016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="536749184"/>
+        <c:axId val="455138304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1572,14 +1590,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536769280"/>
+        <c:crossAx val="455158016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="536769280"/>
+        <c:axId val="455158016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1630,7 +1648,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536749184"/>
+        <c:crossAx val="455138304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1821,7 +1839,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1953,6 +1971,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1078.8319778520554</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-152.60175248454331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1967,8 +1988,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="610879360"/>
-        <c:axId val="610877440"/>
+        <c:axId val="639174912"/>
+        <c:axId val="639173376"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1993,7 +2014,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2125,6 +2146,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2134,7 +2158,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2266,6 +2290,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2282,11 +2309,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="610860032"/>
-        <c:axId val="610862976"/>
+        <c:axId val="639058688"/>
+        <c:axId val="639060608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="610860032"/>
+        <c:axId val="639058688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2329,14 +2356,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610862976"/>
+        <c:crossAx val="639060608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="610862976"/>
+        <c:axId val="639060608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2387,12 +2414,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610860032"/>
+        <c:crossAx val="639058688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="610877440"/>
+        <c:axId val="639173376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2429,12 +2456,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610879360"/>
+        <c:crossAx val="639174912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="610879360"/>
+        <c:axId val="639174912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2443,7 +2470,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="610877440"/>
+        <c:crossAx val="639173376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2605,7 +2632,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2737,6 +2764,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>5136.0855205209327</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1054.5417431386754</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2751,8 +2781,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="585796224"/>
-        <c:axId val="585793920"/>
+        <c:axId val="638298368"/>
+        <c:axId val="638296832"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2777,7 +2807,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2909,6 +2939,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2918,7 +2951,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3050,6 +3083,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3066,11 +3102,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="584447872"/>
-        <c:axId val="584830336"/>
+        <c:axId val="638293120"/>
+        <c:axId val="638295040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="584447872"/>
+        <c:axId val="638293120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3113,14 +3149,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584830336"/>
+        <c:crossAx val="638295040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="584830336"/>
+        <c:axId val="638295040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3171,12 +3207,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584447872"/>
+        <c:crossAx val="638293120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="585793920"/>
+        <c:axId val="638296832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3213,12 +3249,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585796224"/>
+        <c:crossAx val="638298368"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="585796224"/>
+        <c:axId val="638298368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3227,7 +3263,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="585793920"/>
+        <c:crossAx val="638296832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3406,7 +3442,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3538,6 +3574,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3547,7 +3586,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3678,6 +3717,9 @@
                   <c:v>9968594.8011754025</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>9973730.8866959233</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>9973730.8866959233</c:v>
                 </c:pt>
               </c:numCache>
@@ -3721,7 +3763,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3853,6 +3895,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3862,7 +3907,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3994,6 +4039,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>11192568.456011154</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11851797.879478069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4036,7 +4084,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4168,6 +4216,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4177,7 +4228,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4309,6 +4360,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1218837.5693152305</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1878066.9927821457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4330,11 +4384,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="586278400"/>
-        <c:axId val="586282112"/>
+        <c:axId val="638390272"/>
+        <c:axId val="638392192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="586278400"/>
+        <c:axId val="638390272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4377,14 +4431,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586282112"/>
+        <c:crossAx val="638392192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="586282112"/>
+        <c:axId val="638392192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4435,7 +4489,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586278400"/>
+        <c:crossAx val="638390272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4626,7 +4680,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4758,6 +4812,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>5136.0855205209327</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1265.4500917664104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4772,8 +4829,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="586327168"/>
-        <c:axId val="586324992"/>
+        <c:axId val="638442112"/>
+        <c:axId val="638440576"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4798,7 +4855,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4930,6 +4987,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4939,7 +4999,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5071,6 +5131,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5087,11 +5150,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="586316800"/>
-        <c:axId val="586323072"/>
+        <c:axId val="638430592"/>
+        <c:axId val="638438784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="586316800"/>
+        <c:axId val="638430592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5134,14 +5197,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586323072"/>
+        <c:crossAx val="638438784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="586323072"/>
+        <c:axId val="638438784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5192,12 +5255,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586316800"/>
+        <c:crossAx val="638430592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="586324992"/>
+        <c:axId val="638440576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5234,12 +5297,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586327168"/>
+        <c:crossAx val="638442112"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="586327168"/>
+        <c:axId val="638442112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5248,7 +5311,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="586324992"/>
+        <c:crossAx val="638440576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5427,7 +5490,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5559,6 +5622,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5568,7 +5634,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5699,6 +5765,9 @@
                   <c:v>9919761.2246029191</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>9924897.3101234399</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>9924897.3101234399</c:v>
                 </c:pt>
               </c:numCache>
@@ -5742,7 +5811,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5874,6 +5943,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5883,7 +5955,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6015,6 +6087,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>11099956.028219154</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11753730.686086988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6057,7 +6132,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6189,6 +6264,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6198,7 +6276,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6330,6 +6408,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1175058.7180957142</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1828833.3759635482</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6351,11 +6432,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="600674688"/>
-        <c:axId val="600676992"/>
+        <c:axId val="638478208"/>
+        <c:axId val="638479744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="600674688"/>
+        <c:axId val="638478208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6398,14 +6479,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="600676992"/>
+        <c:crossAx val="638479744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="600676992"/>
+        <c:axId val="638479744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6456,7 +6537,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="600674688"/>
+        <c:crossAx val="638478208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6647,7 +6728,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6779,6 +6860,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>5136.0855205209327</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1054.5417431386754</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6793,8 +6877,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="600763008"/>
-        <c:axId val="600751488"/>
+        <c:axId val="638535168"/>
+        <c:axId val="638531456"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6819,7 +6903,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6951,6 +7035,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6960,7 +7047,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7092,6 +7179,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7108,11 +7198,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="600743296"/>
-        <c:axId val="600749952"/>
+        <c:axId val="638514688"/>
+        <c:axId val="638517632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="600743296"/>
+        <c:axId val="638514688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7155,14 +7245,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="600749952"/>
+        <c:crossAx val="638517632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="600749952"/>
+        <c:axId val="638517632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7213,12 +7303,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="600743296"/>
+        <c:crossAx val="638514688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="600751488"/>
+        <c:axId val="638531456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7255,12 +7345,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="600763008"/>
+        <c:crossAx val="638535168"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="600763008"/>
+        <c:axId val="638535168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7269,7 +7359,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="600751488"/>
+        <c:crossAx val="638531456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7448,7 +7538,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7580,6 +7670,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7589,7 +7682,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7720,6 +7813,9 @@
                   <c:v>87362706.199550509</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>87368562.856982231</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>87368562.856982231</c:v>
                 </c:pt>
               </c:numCache>
@@ -7763,7 +7859,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7895,6 +7991,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7904,7 +8003,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8036,6 +8135,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>99282730.881700709</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>105130369.66957994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8078,7 +8180,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8210,6 +8312,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8219,7 +8324,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8351,6 +8456,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>11914168.024718478</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17761806.812597707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8372,11 +8480,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="600795008"/>
-        <c:axId val="600805760"/>
+        <c:axId val="638660608"/>
+        <c:axId val="638662144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="600795008"/>
+        <c:axId val="638660608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8419,14 +8527,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="600805760"/>
+        <c:crossAx val="638662144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="600805760"/>
+        <c:axId val="638662144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8477,7 +8585,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="600795008"/>
+        <c:crossAx val="638660608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8668,7 +8776,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8800,6 +8908,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>127122571.80315442</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>127121912.94550198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8814,8 +8925,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="610691712"/>
-        <c:axId val="610689024"/>
+        <c:axId val="638723584"/>
+        <c:axId val="638713216"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8840,7 +8951,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8972,6 +9083,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8981,7 +9095,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9113,6 +9227,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9129,11 +9246,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="610676736"/>
-        <c:axId val="610678656"/>
+        <c:axId val="638709760"/>
+        <c:axId val="638711680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="610676736"/>
+        <c:axId val="638709760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9176,14 +9293,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610678656"/>
+        <c:crossAx val="638711680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="610678656"/>
+        <c:axId val="638711680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9234,12 +9351,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610676736"/>
+        <c:crossAx val="638709760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="610689024"/>
+        <c:axId val="638713216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9276,12 +9393,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610691712"/>
+        <c:crossAx val="638723584"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="610691712"/>
+        <c:axId val="638723584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9290,7 +9407,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="610689024"/>
+        <c:crossAx val="638713216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9469,7 +9586,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9601,6 +9718,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9610,7 +9730,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9741,6 +9861,9 @@
                   <c:v>83548379.738813341</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>83549458.5707912</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>83549458.5707912</c:v>
                 </c:pt>
               </c:numCache>
@@ -9784,7 +9907,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9916,6 +10039,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9925,7 +10051,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10057,6 +10183,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>102436787.84307285</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>108470196.96243578</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10099,7 +10228,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10231,6 +10360,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10240,7 +10372,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10372,6 +10504,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>18887329.272281647</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>24920738.391644582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10393,11 +10528,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="610822016"/>
-        <c:axId val="610832384"/>
+        <c:axId val="638927616"/>
+        <c:axId val="638929536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="610822016"/>
+        <c:axId val="638927616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10440,14 +10575,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610832384"/>
+        <c:crossAx val="638929536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="610832384"/>
+        <c:axId val="638929536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10498,7 +10633,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610822016"/>
+        <c:crossAx val="638927616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11212,7 +11347,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13253,6 +13388,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="47" spans="1:12" ht="12.75">
+      <c r="A47" s="12">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="13">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="13">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="14">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="14">
+        <v>-1054.5417431386754</v>
+      </c>
+      <c r="F47" s="15">
+        <v>-1275.1411307969533</v>
+      </c>
+      <c r="G47" s="15">
+        <v>13327138.150564605</v>
+      </c>
+      <c r="H47" s="15">
+        <v>11021543.542841164</v>
+      </c>
+      <c r="I47" s="15">
+        <v>9327292.1649004761</v>
+      </c>
+      <c r="J47" s="15">
+        <v>11022598.084584303</v>
+      </c>
+      <c r="K47" s="15">
+        <v>1695305.9196838271</v>
+      </c>
+      <c r="L47" s="14">
+        <v>1054.5417431386754</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13269,7 +13442,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM46"/>
+  <dimension ref="A1:AM47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13310,7 +13483,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -13346,10 +13519,10 @@
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>4</v>
@@ -13370,7 +13543,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.1" customHeight="1">
@@ -16330,6 +16503,71 @@
       </c>
       <c r="U46" s="11">
         <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="12.75">
+      <c r="A47" s="12">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="13">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="13">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="14">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="14">
+        <v>-1265.4500917664104</v>
+      </c>
+      <c r="F47" s="15">
+        <v>-1530.169356956344</v>
+      </c>
+      <c r="G47" s="15">
+        <v>14329543.065386707</v>
+      </c>
+      <c r="H47" s="15">
+        <v>11850532.429386303</v>
+      </c>
+      <c r="I47" s="15">
+        <v>9973730.8866959233</v>
+      </c>
+      <c r="J47" s="15">
+        <v>11851797.879478069</v>
+      </c>
+      <c r="K47" s="15">
+        <v>1878066.9927821457</v>
+      </c>
+      <c r="L47" s="14">
+        <v>1265.4500917664104</v>
+      </c>
+      <c r="M47" s="23">
+        <v>0.86900001764297485</v>
+      </c>
+      <c r="N47" s="23">
+        <v>0.77999997138977051</v>
+      </c>
+      <c r="O47" s="23">
+        <v>0.82533333698908484</v>
+      </c>
+      <c r="P47" s="23">
+        <v>0.69597619346209938</v>
+      </c>
+      <c r="Q47" s="23">
+        <v>0.12935714352698546</v>
+      </c>
+      <c r="R47" s="23">
+        <v>7.4687078696529879E-2</v>
+      </c>
+      <c r="S47" s="9">
+        <v>1.1203061804479482E-3</v>
+      </c>
+      <c r="T47" s="9">
+        <v>115.46588404543365</v>
+      </c>
+      <c r="U47" s="11">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -16348,7 +16586,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16389,7 +16627,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -16428,7 +16666,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -18639,6 +18877,50 @@
         <v>63.311229058108523</v>
       </c>
       <c r="N46" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="12.75">
+      <c r="A47" s="12">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="13">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="13">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="14">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="14">
+        <v>-1054.5417431386754</v>
+      </c>
+      <c r="F47" s="15">
+        <v>-1275.1411307969533</v>
+      </c>
+      <c r="G47" s="15">
+        <v>14211216.242597092</v>
+      </c>
+      <c r="H47" s="15">
+        <v>11752676.144343849</v>
+      </c>
+      <c r="I47" s="15">
+        <v>9924897.3101234399</v>
+      </c>
+      <c r="J47" s="15">
+        <v>11753730.686086988</v>
+      </c>
+      <c r="K47" s="15">
+        <v>1828833.3759635482</v>
+      </c>
+      <c r="L47" s="14">
+        <v>1054.5417431386754</v>
+      </c>
+      <c r="M47" s="9">
+        <v>-39.803160451219114</v>
+      </c>
+      <c r="N47" s="9">
         <v>1</v>
       </c>
     </row>
@@ -18658,7 +18940,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18738,7 +19020,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -20949,6 +21231,50 @@
         <v>63.311229058108523</v>
       </c>
       <c r="N46" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="12.75">
+      <c r="A47" s="12">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="13">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="13">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="14">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="14">
+        <v>-544.87529301887162</v>
+      </c>
+      <c r="F47" s="15">
+        <v>-658.8576524391201</v>
+      </c>
+      <c r="G47" s="15">
+        <v>127121912.94550198</v>
+      </c>
+      <c r="H47" s="15">
+        <v>105129824.79428692</v>
+      </c>
+      <c r="I47" s="15">
+        <v>87368562.856982231</v>
+      </c>
+      <c r="J47" s="15">
+        <v>105130369.66957994</v>
+      </c>
+      <c r="K47" s="15">
+        <v>17761806.812597707</v>
+      </c>
+      <c r="L47" s="14">
+        <v>544.87529301887162</v>
+      </c>
+      <c r="M47" s="9">
+        <v>-39.803160451219114</v>
+      </c>
+      <c r="N47" s="9">
         <v>1</v>
       </c>
     </row>
@@ -20968,7 +21294,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI46"/>
+  <dimension ref="A1:AI47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21009,7 +21335,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -21054,7 +21380,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.1" customHeight="1">
@@ -23531,6 +23857,56 @@
         <v>63.311229058108523</v>
       </c>
       <c r="P46" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="12.75">
+      <c r="A47" s="12">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="13">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="13">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="14">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="14">
+        <v>1283704</v>
+      </c>
+      <c r="F47" s="14">
+        <v>4583555.4425912919</v>
+      </c>
+      <c r="G47" s="14">
+        <v>-152.60175248454331</v>
+      </c>
+      <c r="H47" s="15">
+        <v>-184.52448420446106</v>
+      </c>
+      <c r="I47" s="15">
+        <v>131160872.4108028</v>
+      </c>
+      <c r="J47" s="15">
+        <v>108470044.36068329</v>
+      </c>
+      <c r="K47" s="15">
+        <v>83549458.5707912</v>
+      </c>
+      <c r="L47" s="15">
+        <v>108470196.96243578</v>
+      </c>
+      <c r="M47" s="15">
+        <v>24920738.391644582</v>
+      </c>
+      <c r="N47" s="14">
+        <v>152.60175248454331</v>
+      </c>
+      <c r="O47" s="9">
+        <v>-39.803160451219114</v>
+      </c>
+      <c r="P47" s="9">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
@@ -601,7 +601,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -736,6 +736,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -745,7 +748,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -879,6 +882,9 @@
                   <c:v>9327292.1649004761</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>9327292.1649004761</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>9327292.1649004761</c:v>
                 </c:pt>
               </c:numCache>
@@ -922,7 +928,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1057,6 +1063,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1066,7 +1075,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1201,6 +1210,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>11022598.084584303</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10849345.136109971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1243,7 +1255,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1378,6 +1390,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1387,7 +1402,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1522,6 +1537,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1695305.9196838271</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1522052.9712094944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1543,11 +1561,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="455138304"/>
-        <c:axId val="455158016"/>
+        <c:axId val="474262144"/>
+        <c:axId val="480137216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="455138304"/>
+        <c:axId val="474262144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1590,14 +1608,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455158016"/>
+        <c:crossAx val="480137216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="455158016"/>
+        <c:axId val="480137216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1648,7 +1666,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455138304"/>
+        <c:crossAx val="474262144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1839,7 +1857,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1974,6 +1992,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>-152.60175248454331</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.37261038231465826</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1988,8 +2009,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="639174912"/>
-        <c:axId val="639173376"/>
+        <c:axId val="753282432"/>
+        <c:axId val="753280128"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2014,7 +2035,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2149,6 +2170,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2158,7 +2182,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2293,6 +2317,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.82700002193450928</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.81400001049041748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2309,11 +2336,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="639058688"/>
-        <c:axId val="639060608"/>
+        <c:axId val="753260416"/>
+        <c:axId val="753261952"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="639058688"/>
+        <c:axId val="753260416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2356,14 +2383,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="639060608"/>
+        <c:crossAx val="753261952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="639060608"/>
+        <c:axId val="753261952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2414,12 +2441,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="639058688"/>
+        <c:crossAx val="753260416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="639173376"/>
+        <c:axId val="753280128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2456,12 +2483,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="639174912"/>
+        <c:crossAx val="753282432"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="639174912"/>
+        <c:axId val="753282432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2470,7 +2497,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="639173376"/>
+        <c:crossAx val="753280128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2632,7 +2659,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2767,6 +2794,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>-1054.5417431386754</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-11.050952879581011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2781,8 +2811,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="638298368"/>
-        <c:axId val="638296832"/>
+        <c:axId val="703741952"/>
+        <c:axId val="702286464"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2807,7 +2837,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2942,6 +2972,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2951,7 +2984,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3086,6 +3119,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.82700002193450928</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.81400001049041748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3102,11 +3138,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="638293120"/>
-        <c:axId val="638295040"/>
+        <c:axId val="699335424"/>
+        <c:axId val="699870592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="638293120"/>
+        <c:axId val="699335424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3149,14 +3185,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638295040"/>
+        <c:crossAx val="699870592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="638295040"/>
+        <c:axId val="699870592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3207,12 +3243,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638293120"/>
+        <c:crossAx val="699335424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="638296832"/>
+        <c:axId val="702286464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3249,12 +3285,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638298368"/>
+        <c:crossAx val="703741952"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="638298368"/>
+        <c:axId val="703741952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3263,7 +3299,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="638296832"/>
+        <c:crossAx val="702286464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3442,7 +3478,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3577,6 +3613,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3586,7 +3625,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3720,6 +3759,9 @@
                   <c:v>9973730.8866959233</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>9973730.8866959233</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>9973730.8866959233</c:v>
                 </c:pt>
               </c:numCache>
@@ -3763,7 +3805,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3898,6 +3940,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3907,7 +3952,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4042,6 +4087,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>11851797.879478069</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11665513.655639434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4084,7 +4132,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4219,6 +4267,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4228,7 +4279,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4363,6 +4414,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1878066.9927821457</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1691782.7689435109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4384,11 +4438,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="638390272"/>
-        <c:axId val="638392192"/>
+        <c:axId val="751073152"/>
+        <c:axId val="751074688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="638390272"/>
+        <c:axId val="751073152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4431,14 +4485,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638392192"/>
+        <c:crossAx val="751074688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="638392192"/>
+        <c:axId val="751074688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4489,7 +4543,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638390272"/>
+        <c:crossAx val="751073152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4680,7 +4734,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4815,6 +4869,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>-1265.4500917664104</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-11.050952879581011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4829,8 +4886,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="638442112"/>
-        <c:axId val="638440576"/>
+        <c:axId val="752770048"/>
+        <c:axId val="752767744"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4855,7 +4912,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4990,6 +5047,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4999,7 +5059,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5134,6 +5194,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.82700002193450928</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.81400001049041748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5150,11 +5213,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="638430592"/>
-        <c:axId val="638438784"/>
+        <c:axId val="752750592"/>
+        <c:axId val="752753664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="638430592"/>
+        <c:axId val="752750592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5197,14 +5260,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638438784"/>
+        <c:crossAx val="752753664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="638438784"/>
+        <c:axId val="752753664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5255,12 +5318,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638430592"/>
+        <c:crossAx val="752750592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="638440576"/>
+        <c:axId val="752767744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5297,12 +5360,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638442112"/>
+        <c:crossAx val="752770048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="638442112"/>
+        <c:axId val="752770048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5311,7 +5374,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="638440576"/>
+        <c:crossAx val="752767744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5490,7 +5553,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5625,6 +5688,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5634,7 +5700,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5768,6 +5834,9 @@
                   <c:v>9924897.3101234399</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>9924897.3101234399</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>9924897.3101234399</c:v>
                 </c:pt>
               </c:numCache>
@@ -5811,7 +5880,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5946,6 +6015,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5955,7 +6027,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6090,6 +6162,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>11753730.686086988</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11568984.712298762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6132,7 +6207,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6267,6 +6342,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6276,7 +6354,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6411,6 +6489,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1828833.3759635482</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1644087.4021753222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6432,11 +6513,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="638478208"/>
-        <c:axId val="638479744"/>
+        <c:axId val="752849664"/>
+        <c:axId val="752851200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="638478208"/>
+        <c:axId val="752849664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6479,14 +6560,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638479744"/>
+        <c:crossAx val="752851200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="638479744"/>
+        <c:axId val="752851200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6537,7 +6618,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638478208"/>
+        <c:crossAx val="752849664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6728,7 +6809,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6863,6 +6944,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>-1054.5417431386754</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-11.050952879581011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6877,8 +6961,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="638535168"/>
-        <c:axId val="638531456"/>
+        <c:axId val="752968832"/>
+        <c:axId val="752965504"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6903,7 +6987,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7038,6 +7122,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7047,7 +7134,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7182,6 +7269,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.82700002193450928</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.81400001049041748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7198,11 +7288,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="638514688"/>
-        <c:axId val="638517632"/>
+        <c:axId val="752945792"/>
+        <c:axId val="752963584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="638514688"/>
+        <c:axId val="752945792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7245,14 +7335,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638517632"/>
+        <c:crossAx val="752963584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="638517632"/>
+        <c:axId val="752963584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7303,12 +7393,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638514688"/>
+        <c:crossAx val="752945792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="638531456"/>
+        <c:axId val="752965504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7345,12 +7435,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638535168"/>
+        <c:crossAx val="752968832"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="638535168"/>
+        <c:axId val="752968832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7359,7 +7449,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="638531456"/>
+        <c:crossAx val="752965504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7538,7 +7628,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7673,6 +7763,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7682,7 +7775,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7816,6 +7909,9 @@
                   <c:v>87368562.856982231</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>87368562.856982231</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>87368562.856982231</c:v>
                 </c:pt>
               </c:numCache>
@@ -7859,7 +7955,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7994,6 +8090,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8003,7 +8102,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8138,6 +8237,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>105130369.66957994</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>103477783.34649357</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8180,7 +8282,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8315,6 +8417,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8324,7 +8429,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8459,6 +8564,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>17761806.812597707</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16109220.489511341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8480,11 +8588,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="638660608"/>
-        <c:axId val="638662144"/>
+        <c:axId val="753026560"/>
+        <c:axId val="753028096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="638660608"/>
+        <c:axId val="753026560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8527,14 +8635,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638662144"/>
+        <c:crossAx val="753028096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="638662144"/>
+        <c:axId val="753028096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8585,7 +8693,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638660608"/>
+        <c:crossAx val="753026560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8776,7 +8884,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8911,6 +9019,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>127121912.94550198</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>127121912.2274157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8925,8 +9036,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="638723584"/>
-        <c:axId val="638713216"/>
+        <c:axId val="753076864"/>
+        <c:axId val="753074944"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8951,7 +9062,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9086,6 +9197,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9095,7 +9209,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9230,6 +9344,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.82700002193450928</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.81400001049041748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9246,11 +9363,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="638709760"/>
-        <c:axId val="638711680"/>
+        <c:axId val="753061888"/>
+        <c:axId val="753064960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="638709760"/>
+        <c:axId val="753061888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9293,14 +9410,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638711680"/>
+        <c:crossAx val="753064960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="638711680"/>
+        <c:axId val="753064960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9351,12 +9468,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638709760"/>
+        <c:crossAx val="753061888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="638713216"/>
+        <c:axId val="753074944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9393,12 +9510,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638723584"/>
+        <c:crossAx val="753076864"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="638723584"/>
+        <c:axId val="753076864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9407,7 +9524,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="638713216"/>
+        <c:crossAx val="753074944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9586,7 +9703,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9721,6 +9838,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9730,7 +9850,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9864,6 +9984,9 @@
                   <c:v>83549458.5707912</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>83549458.5707912</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>83549458.5707912</c:v>
                 </c:pt>
               </c:numCache>
@@ -9907,7 +10030,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10042,6 +10165,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10051,7 +10177,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10186,6 +10312,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>108470196.96243578</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>106765104.12007827</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10228,7 +10357,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10363,6 +10492,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10372,7 +10504,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10507,6 +10639,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>24920738.391644582</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>23215645.549287066</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10528,11 +10663,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="638927616"/>
-        <c:axId val="638929536"/>
+        <c:axId val="753120000"/>
+        <c:axId val="753121536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="638927616"/>
+        <c:axId val="753120000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10575,14 +10710,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638929536"/>
+        <c:crossAx val="753121536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="638929536"/>
+        <c:axId val="753121536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10633,7 +10768,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638927616"/>
+        <c:crossAx val="753120000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11347,7 +11482,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG47"/>
+  <dimension ref="A1:AG48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13426,6 +13561,44 @@
         <v>1054.5417431386754</v>
       </c>
     </row>
+    <row r="48" spans="1:12" ht="12.75">
+      <c r="A48" s="12">
+        <v>45747</v>
+      </c>
+      <c r="B48" s="13">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="C48" s="13">
+        <v>25.629999160000001</v>
+      </c>
+      <c r="D48" s="14">
+        <v>25.577105780548813</v>
+      </c>
+      <c r="E48" s="14">
+        <v>-11.050952879581011</v>
+      </c>
+      <c r="F48" s="15">
+        <v>-13.576109013712481</v>
+      </c>
+      <c r="G48" s="15">
+        <v>13327124.574455591</v>
+      </c>
+      <c r="H48" s="15">
+        <v>10848279.543413952</v>
+      </c>
+      <c r="I48" s="15">
+        <v>9327292.1649004761</v>
+      </c>
+      <c r="J48" s="15">
+        <v>10849345.136109971</v>
+      </c>
+      <c r="K48" s="15">
+        <v>1522052.9712094944</v>
+      </c>
+      <c r="L48" s="14">
+        <v>1065.5926960182564</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13442,7 +13615,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM47"/>
+  <dimension ref="A1:AM48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16570,6 +16743,71 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="48" spans="1:21" ht="12.75">
+      <c r="A48" s="12">
+        <v>45747</v>
+      </c>
+      <c r="B48" s="13">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="C48" s="13">
+        <v>25.629999160000001</v>
+      </c>
+      <c r="D48" s="14">
+        <v>25.577105780548813</v>
+      </c>
+      <c r="E48" s="14">
+        <v>-11.050952879581011</v>
+      </c>
+      <c r="F48" s="15">
+        <v>-13.576109013712481</v>
+      </c>
+      <c r="G48" s="15">
+        <v>14329529.489277693</v>
+      </c>
+      <c r="H48" s="15">
+        <v>11664237.154594788</v>
+      </c>
+      <c r="I48" s="15">
+        <v>9973730.8866959233</v>
+      </c>
+      <c r="J48" s="15">
+        <v>11665513.655639434</v>
+      </c>
+      <c r="K48" s="15">
+        <v>1691782.7689435109</v>
+      </c>
+      <c r="L48" s="14">
+        <v>1276.5010446459914</v>
+      </c>
+      <c r="M48" s="23">
+        <v>0.85399997234344482</v>
+      </c>
+      <c r="N48" s="23">
+        <v>0.80800002813339233</v>
+      </c>
+      <c r="O48" s="23">
+        <v>0.82533333698908484</v>
+      </c>
+      <c r="P48" s="23">
+        <v>0.71290476549239379</v>
+      </c>
+      <c r="Q48" s="23">
+        <v>0.11242857149669105</v>
+      </c>
+      <c r="R48" s="23">
+        <v>7.6986397204755905E-2</v>
+      </c>
+      <c r="S48" s="9">
+        <v>1.1547959580713385E-3</v>
+      </c>
+      <c r="T48" s="9">
+        <v>97.357953767401114</v>
+      </c>
+      <c r="U48" s="11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16586,7 +16824,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG47"/>
+  <dimension ref="A1:AG48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16627,7 +16865,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -18921,6 +19159,50 @@
         <v>-39.803160451219114</v>
       </c>
       <c r="N47" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="12.75">
+      <c r="A48" s="12">
+        <v>45747</v>
+      </c>
+      <c r="B48" s="13">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="C48" s="13">
+        <v>25.629999160000001</v>
+      </c>
+      <c r="D48" s="14">
+        <v>25.577105780548813</v>
+      </c>
+      <c r="E48" s="14">
+        <v>-11.050952879581011</v>
+      </c>
+      <c r="F48" s="15">
+        <v>-13.576109013712481</v>
+      </c>
+      <c r="G48" s="15">
+        <v>14211202.666488077</v>
+      </c>
+      <c r="H48" s="15">
+        <v>11567919.119602744</v>
+      </c>
+      <c r="I48" s="15">
+        <v>9924897.3101234399</v>
+      </c>
+      <c r="J48" s="15">
+        <v>11568984.712298762</v>
+      </c>
+      <c r="K48" s="15">
+        <v>1644087.4021753222</v>
+      </c>
+      <c r="L48" s="14">
+        <v>1065.5926960182564</v>
+      </c>
+      <c r="M48" s="9">
+        <v>-119.64106934981089</v>
+      </c>
+      <c r="N48" s="9">
         <v>1</v>
       </c>
     </row>
@@ -18940,7 +19222,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG47"/>
+  <dimension ref="A1:AG48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21278,6 +21560,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="48" spans="1:14" ht="12.75">
+      <c r="A48" s="12">
+        <v>45747</v>
+      </c>
+      <c r="B48" s="13">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="C48" s="13">
+        <v>25.629999160000001</v>
+      </c>
+      <c r="D48" s="14">
+        <v>25.577105780548813</v>
+      </c>
+      <c r="E48" s="14">
+        <v>-0.5845222439568758</v>
+      </c>
+      <c r="F48" s="15">
+        <v>-0.71808628553298637</v>
+      </c>
+      <c r="G48" s="15">
+        <v>127121912.2274157</v>
+      </c>
+      <c r="H48" s="15">
+        <v>103477237.88667831</v>
+      </c>
+      <c r="I48" s="15">
+        <v>87368562.856982231</v>
+      </c>
+      <c r="J48" s="15">
+        <v>103477783.34649357</v>
+      </c>
+      <c r="K48" s="15">
+        <v>16109220.489511341</v>
+      </c>
+      <c r="L48" s="14">
+        <v>545.45981526282844</v>
+      </c>
+      <c r="M48" s="9">
+        <v>-119.64106934981089</v>
+      </c>
+      <c r="N48" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -21294,7 +21620,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI47"/>
+  <dimension ref="A1:AI48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21335,7 +21661,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -23907,6 +24233,56 @@
         <v>-39.803160451219114</v>
       </c>
       <c r="P47" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="12.75">
+      <c r="A48" s="12">
+        <v>45747</v>
+      </c>
+      <c r="B48" s="13">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="C48" s="13">
+        <v>25.629999160000001</v>
+      </c>
+      <c r="D48" s="14">
+        <v>25.577105780548813</v>
+      </c>
+      <c r="E48" s="14">
+        <v>2900300</v>
+      </c>
+      <c r="F48" s="14">
+        <v>4549765.5046995059</v>
+      </c>
+      <c r="G48" s="14">
+        <v>-0.37261038231465826</v>
+      </c>
+      <c r="H48" s="15">
+        <v>-0.45775230652659149</v>
+      </c>
+      <c r="I48" s="15">
+        <v>131160871.95305049</v>
+      </c>
+      <c r="J48" s="15">
+        <v>106764951.1457154</v>
+      </c>
+      <c r="K48" s="15">
+        <v>83549458.5707912</v>
+      </c>
+      <c r="L48" s="15">
+        <v>106765104.12007827</v>
+      </c>
+      <c r="M48" s="15">
+        <v>23215645.549287066</v>
+      </c>
+      <c r="N48" s="14">
+        <v>152.97436286685797</v>
+      </c>
+      <c r="O48" s="9">
+        <v>-119.64106934981089</v>
+      </c>
+      <c r="P48" s="9">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
@@ -601,7 +601,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -739,6 +739,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -748,7 +751,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -886,6 +889,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>9327292.1649004761</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9336531.2996112294</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -928,7 +934,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1066,6 +1072,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1075,7 +1084,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1213,6 +1222,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>10849345.136109971</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10258863.442549834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1255,7 +1267,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1393,6 +1405,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1402,7 +1417,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1540,6 +1555,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1522052.9712094944</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>922332.14293860458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1561,11 +1579,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="474262144"/>
-        <c:axId val="480137216"/>
+        <c:axId val="455707264"/>
+        <c:axId val="455716224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="474262144"/>
+        <c:axId val="455707264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1608,14 +1626,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480137216"/>
+        <c:crossAx val="455716224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="480137216"/>
+        <c:axId val="455716224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1666,7 +1684,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474262144"/>
+        <c:crossAx val="455707264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1857,7 +1875,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1995,6 +2013,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-0.37261038231465826</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5756.3535150013122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2009,8 +2030,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="753282432"/>
-        <c:axId val="753280128"/>
+        <c:axId val="540497408"/>
+        <c:axId val="540470272"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2035,7 +2056,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2173,6 +2194,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2182,7 +2206,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2320,6 +2344,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.81400001049041748</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76899999380111694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2336,11 +2363,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="753260416"/>
-        <c:axId val="753261952"/>
+        <c:axId val="540384256"/>
+        <c:axId val="540468736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="753260416"/>
+        <c:axId val="540384256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2383,14 +2410,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="753261952"/>
+        <c:crossAx val="540468736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="753261952"/>
+        <c:axId val="540468736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2441,12 +2468,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="753260416"/>
+        <c:crossAx val="540384256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="753280128"/>
+        <c:axId val="540470272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2483,12 +2510,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="753282432"/>
+        <c:crossAx val="540497408"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="753282432"/>
+        <c:axId val="540497408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2497,7 +2524,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="753280128"/>
+        <c:crossAx val="540470272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2659,7 +2686,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2797,6 +2824,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-11.050952879581011</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9239.1347107527126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2811,8 +2841,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="703741952"/>
-        <c:axId val="702286464"/>
+        <c:axId val="508036992"/>
+        <c:axId val="504177792"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2837,7 +2867,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2975,6 +3005,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2984,7 +3017,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3122,6 +3155,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.81400001049041748</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76899999380111694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3138,11 +3174,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="699335424"/>
-        <c:axId val="699870592"/>
+        <c:axId val="501469568"/>
+        <c:axId val="501472256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="699335424"/>
+        <c:axId val="501469568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3185,14 +3221,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="699870592"/>
+        <c:crossAx val="501472256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="699870592"/>
+        <c:axId val="501472256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3243,12 +3279,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="699335424"/>
+        <c:crossAx val="501469568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="702286464"/>
+        <c:axId val="504177792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3285,12 +3321,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="703741952"/>
+        <c:crossAx val="508036992"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="703741952"/>
+        <c:axId val="508036992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3299,7 +3335,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="702286464"/>
+        <c:crossAx val="504177792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3478,7 +3514,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3616,6 +3652,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3625,7 +3664,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3763,6 +3802,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>9973730.8866959233</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9982970.0214066766</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3805,7 +3847,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3943,6 +3985,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3952,7 +3997,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4090,6 +4135,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>11665513.655639434</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11029923.724182867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4132,7 +4180,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4270,6 +4318,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4279,7 +4330,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4417,6 +4468,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1691782.7689435109</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1046953.7027761899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4438,11 +4492,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="751073152"/>
-        <c:axId val="751074688"/>
+        <c:axId val="511378176"/>
+        <c:axId val="531943808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="751073152"/>
+        <c:axId val="511378176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4485,14 +4539,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="751074688"/>
+        <c:crossAx val="531943808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="751074688"/>
+        <c:axId val="531943808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4543,7 +4597,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="751073152"/>
+        <c:crossAx val="511378176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4734,7 +4788,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4872,6 +4926,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-11.050952879581011</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9239.1347107527126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4886,8 +4943,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="752770048"/>
-        <c:axId val="752767744"/>
+        <c:axId val="537854336"/>
+        <c:axId val="537770624"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4912,7 +4969,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5050,6 +5107,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5059,7 +5119,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5197,6 +5257,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.81400001049041748</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76899999380111694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5213,11 +5276,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="752750592"/>
-        <c:axId val="752753664"/>
+        <c:axId val="537730048"/>
+        <c:axId val="537769088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="752750592"/>
+        <c:axId val="537730048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5260,14 +5323,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="752753664"/>
+        <c:crossAx val="537769088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="752753664"/>
+        <c:axId val="537769088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5318,12 +5381,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="752750592"/>
+        <c:crossAx val="537730048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="752767744"/>
+        <c:axId val="537770624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5360,12 +5423,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="752770048"/>
+        <c:crossAx val="537854336"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="752770048"/>
+        <c:axId val="537854336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5374,7 +5437,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="752767744"/>
+        <c:crossAx val="537770624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5553,7 +5616,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5691,6 +5754,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5700,7 +5766,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5838,6 +5904,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>9924897.3101234399</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9934136.4448341932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5880,7 +5949,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6018,6 +6087,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6027,7 +6099,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6165,6 +6237,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>11568984.712298762</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10938719.489842519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6207,7 +6282,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6345,6 +6420,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6354,7 +6432,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6492,6 +6570,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1644087.4021753222</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1004583.0450083259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6513,11 +6594,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="752849664"/>
-        <c:axId val="752851200"/>
+        <c:axId val="537909504"/>
+        <c:axId val="537918464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="752849664"/>
+        <c:axId val="537909504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6560,14 +6641,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="752851200"/>
+        <c:crossAx val="537918464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="752851200"/>
+        <c:axId val="537918464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6618,7 +6699,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="752849664"/>
+        <c:crossAx val="537909504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6809,7 +6890,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6947,6 +7028,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-11.050952879581011</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9239.1347107527126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6961,8 +7045,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="752968832"/>
-        <c:axId val="752965504"/>
+        <c:axId val="538421120"/>
+        <c:axId val="538412928"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6987,7 +7071,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7125,6 +7209,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7134,7 +7221,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7272,6 +7359,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.81400001049041748</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76899999380111694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7288,11 +7378,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="752945792"/>
-        <c:axId val="752963584"/>
+        <c:axId val="538407680"/>
+        <c:axId val="538411392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="752945792"/>
+        <c:axId val="538407680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7335,14 +7425,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="752963584"/>
+        <c:crossAx val="538411392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="752963584"/>
+        <c:axId val="538411392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7393,12 +7483,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="752945792"/>
+        <c:crossAx val="538407680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="752965504"/>
+        <c:axId val="538412928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7435,12 +7525,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="752968832"/>
+        <c:crossAx val="538421120"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="752968832"/>
+        <c:axId val="538421120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7449,7 +7539,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="752965504"/>
+        <c:crossAx val="538412928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7628,7 +7718,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7766,6 +7856,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7775,7 +7868,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7913,6 +8006,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>87368562.856982231</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>87382693.059985384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7955,7 +8051,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8093,6 +8189,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8102,7 +8201,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8240,6 +8339,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>103477783.34649357</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>97771425.377687231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8282,7 +8384,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8420,6 +8522,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8429,7 +8534,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8567,6 +8672,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>16109220.489511341</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10388732.317701846</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8588,11 +8696,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="753026560"/>
-        <c:axId val="753028096"/>
+        <c:axId val="539212416"/>
+        <c:axId val="539219456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="753026560"/>
+        <c:axId val="539212416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8635,14 +8743,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="753028096"/>
+        <c:crossAx val="539219456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="753028096"/>
+        <c:axId val="539219456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8693,7 +8801,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="753026560"/>
+        <c:crossAx val="539212416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8884,7 +8992,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9022,6 +9130,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>127121912.2274157</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>127140287.00390083</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9036,8 +9147,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="753076864"/>
-        <c:axId val="753074944"/>
+        <c:axId val="539403392"/>
+        <c:axId val="539393024"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9062,7 +9173,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9200,6 +9311,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9209,7 +9323,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9347,6 +9461,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.81400001049041748</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76899999380111694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9363,11 +9480,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="753061888"/>
-        <c:axId val="753064960"/>
+        <c:axId val="539356160"/>
+        <c:axId val="539391488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="753061888"/>
+        <c:axId val="539356160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9410,14 +9527,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="753064960"/>
+        <c:crossAx val="539391488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="753064960"/>
+        <c:axId val="539391488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9468,12 +9585,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="753061888"/>
+        <c:crossAx val="539356160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="753074944"/>
+        <c:axId val="539393024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9510,12 +9627,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="753076864"/>
+        <c:crossAx val="539403392"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="753076864"/>
+        <c:axId val="539403392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9524,7 +9641,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="753074944"/>
+        <c:crossAx val="539393024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9703,7 +9820,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9841,6 +9958,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9850,7 +9970,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9988,6 +10108,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>83549458.5707912</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>83555214.924306199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10030,7 +10153,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10168,6 +10291,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10177,7 +10303,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10315,6 +10441,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>106765104.12007827</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>100868619.04672278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10357,7 +10486,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10495,6 +10624,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10504,7 +10636,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10642,6 +10774,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>23215645.549287066</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>17313404.122416586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10663,11 +10798,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="753120000"/>
-        <c:axId val="753121536"/>
+        <c:axId val="539658496"/>
+        <c:axId val="539865088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="753120000"/>
+        <c:axId val="539658496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10710,14 +10845,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="753121536"/>
+        <c:crossAx val="539865088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="753121536"/>
+        <c:axId val="539865088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10768,7 +10903,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="753120000"/>
+        <c:crossAx val="539658496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11482,7 +11617,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG48"/>
+  <dimension ref="A1:AG49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13599,6 +13734,44 @@
         <v>1065.5926960182564</v>
       </c>
     </row>
+    <row r="49" spans="1:12" ht="12.75">
+      <c r="A49" s="12">
+        <v>45777</v>
+      </c>
+      <c r="B49" s="13">
+        <v>0.76899999380111694</v>
+      </c>
+      <c r="C49" s="13">
+        <v>24.010000229999999</v>
+      </c>
+      <c r="D49" s="14">
+        <v>25.539386200172402</v>
+      </c>
+      <c r="E49" s="14">
+        <v>9239.1347107527126</v>
+      </c>
+      <c r="F49" s="15">
+        <v>12014.479564667186</v>
+      </c>
+      <c r="G49" s="15">
+        <v>13339139.054020258</v>
+      </c>
+      <c r="H49" s="15">
+        <v>10257797.849853816</v>
+      </c>
+      <c r="I49" s="15">
+        <v>9336531.2996112294</v>
+      </c>
+      <c r="J49" s="15">
+        <v>10258863.442549834</v>
+      </c>
+      <c r="K49" s="15">
+        <v>922332.14293860458</v>
+      </c>
+      <c r="L49" s="14">
+        <v>1065.5926960182564</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13615,7 +13788,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM48"/>
+  <dimension ref="A1:AM49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16808,6 +16981,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="49" spans="1:21" ht="12.75">
+      <c r="A49" s="12">
+        <v>45777</v>
+      </c>
+      <c r="B49" s="13">
+        <v>0.76899999380111694</v>
+      </c>
+      <c r="C49" s="13">
+        <v>24.010000229999999</v>
+      </c>
+      <c r="D49" s="14">
+        <v>25.539386200172402</v>
+      </c>
+      <c r="E49" s="14">
+        <v>9239.1347107527126</v>
+      </c>
+      <c r="F49" s="15">
+        <v>12014.479564667186</v>
+      </c>
+      <c r="G49" s="15">
+        <v>14341543.968842359</v>
+      </c>
+      <c r="H49" s="15">
+        <v>11028647.223138221</v>
+      </c>
+      <c r="I49" s="15">
+        <v>9982970.0214066766</v>
+      </c>
+      <c r="J49" s="15">
+        <v>11029923.724182867</v>
+      </c>
+      <c r="K49" s="15">
+        <v>1046953.7027761899</v>
+      </c>
+      <c r="L49" s="14">
+        <v>1276.5010446459914</v>
+      </c>
+      <c r="M49" s="23">
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="N49" s="23">
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="O49" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="P49" s="23">
+        <v>0.72328571762357441</v>
+      </c>
+      <c r="Q49" s="23">
+        <v>2.6714282376425591E-2</v>
+      </c>
+      <c r="R49" s="23">
+        <v>7.1904764288947695E-2</v>
+      </c>
+      <c r="S49" s="9">
+        <v>1.0785714643342153E-3</v>
+      </c>
+      <c r="T49" s="9">
+        <v>24.768208004571939</v>
+      </c>
+      <c r="U49" s="11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16824,7 +17062,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG48"/>
+  <dimension ref="A1:AG49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19206,6 +19444,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="49" spans="1:14" ht="12.75">
+      <c r="A49" s="12">
+        <v>45777</v>
+      </c>
+      <c r="B49" s="13">
+        <v>0.76899999380111694</v>
+      </c>
+      <c r="C49" s="13">
+        <v>24.010000229999999</v>
+      </c>
+      <c r="D49" s="14">
+        <v>25.539386200172402</v>
+      </c>
+      <c r="E49" s="14">
+        <v>9239.1347107527126</v>
+      </c>
+      <c r="F49" s="15">
+        <v>12014.479564667186</v>
+      </c>
+      <c r="G49" s="15">
+        <v>14223217.146052744</v>
+      </c>
+      <c r="H49" s="15">
+        <v>10937653.897146501</v>
+      </c>
+      <c r="I49" s="15">
+        <v>9934136.4448341932</v>
+      </c>
+      <c r="J49" s="15">
+        <v>10938719.489842519</v>
+      </c>
+      <c r="K49" s="15">
+        <v>1004583.0450083259</v>
+      </c>
+      <c r="L49" s="14">
+        <v>1065.5926960182564</v>
+      </c>
+      <c r="M49" s="9">
+        <v>80.163519018203786</v>
+      </c>
+      <c r="N49" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -19222,7 +19504,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG48"/>
+  <dimension ref="A1:AG49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19263,7 +19545,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -21601,6 +21883,50 @@
         <v>-119.64106934981089</v>
       </c>
       <c r="N48" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="12.75">
+      <c r="A49" s="12">
+        <v>45777</v>
+      </c>
+      <c r="B49" s="13">
+        <v>0.76899999380111694</v>
+      </c>
+      <c r="C49" s="13">
+        <v>24.010000229999999</v>
+      </c>
+      <c r="D49" s="14">
+        <v>25.539386200172402</v>
+      </c>
+      <c r="E49" s="14">
+        <v>14130.203003158058</v>
+      </c>
+      <c r="F49" s="15">
+        <v>18374.776485125032</v>
+      </c>
+      <c r="G49" s="15">
+        <v>127140287.00390083</v>
+      </c>
+      <c r="H49" s="15">
+        <v>97770879.917871967</v>
+      </c>
+      <c r="I49" s="15">
+        <v>87382693.059985384</v>
+      </c>
+      <c r="J49" s="15">
+        <v>97771425.377687231</v>
+      </c>
+      <c r="K49" s="15">
+        <v>10388732.317701846</v>
+      </c>
+      <c r="L49" s="14">
+        <v>545.45981526282844</v>
+      </c>
+      <c r="M49" s="9">
+        <v>80.163519018203786</v>
+      </c>
+      <c r="N49" s="9">
         <v>1</v>
       </c>
     </row>
@@ -21620,7 +21946,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI48"/>
+  <dimension ref="A1:AI49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -24286,6 +24612,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="49" spans="1:16" ht="12.75">
+      <c r="A49" s="12">
+        <v>45777</v>
+      </c>
+      <c r="B49" s="13">
+        <v>0.76899999380111694</v>
+      </c>
+      <c r="C49" s="13">
+        <v>24.010000229999999</v>
+      </c>
+      <c r="D49" s="14">
+        <v>25.539386200172402</v>
+      </c>
+      <c r="E49" s="14">
+        <v>1839402</v>
+      </c>
+      <c r="F49" s="14">
+        <v>4515206.3014686154</v>
+      </c>
+      <c r="G49" s="14">
+        <v>5756.3535150013122</v>
+      </c>
+      <c r="H49" s="15">
+        <v>7485.505281408432</v>
+      </c>
+      <c r="I49" s="15">
+        <v>131168357.4583319</v>
+      </c>
+      <c r="J49" s="15">
+        <v>100868466.07235992</v>
+      </c>
+      <c r="K49" s="15">
+        <v>83555214.924306199</v>
+      </c>
+      <c r="L49" s="15">
+        <v>100868619.04672278</v>
+      </c>
+      <c r="M49" s="15">
+        <v>17313404.122416586</v>
+      </c>
+      <c r="N49" s="14">
+        <v>152.97436286685797</v>
+      </c>
+      <c r="O49" s="9">
+        <v>80.163519018203786</v>
+      </c>
+      <c r="P49" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="30">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -154,10 +154,6 @@
   </si>
   <si>
     <t>年化收益率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -601,7 +597,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -742,6 +738,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -751,7 +750,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -892,6 +891,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>9336531.2996112294</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9355758.3811088428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -934,7 +936,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1075,6 +1077,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1084,7 +1089,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1225,6 +1230,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>10258863.442549834</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10451499.484404042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1267,7 +1275,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1408,6 +1416,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1417,7 +1428,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1558,6 +1569,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>922332.14293860458</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1095741.1032951996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1579,11 +1593,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="455707264"/>
-        <c:axId val="455716224"/>
+        <c:axId val="633442304"/>
+        <c:axId val="633445376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="455707264"/>
+        <c:axId val="633442304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1626,14 +1640,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455716224"/>
+        <c:crossAx val="633445376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="455716224"/>
+        <c:axId val="633445376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1684,7 +1698,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455707264"/>
+        <c:crossAx val="633442304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1875,7 +1889,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2016,6 +2030,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>5756.3535150013122</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>24807.393257151027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2030,8 +2047,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="540497408"/>
-        <c:axId val="540470272"/>
+        <c:axId val="669805184"/>
+        <c:axId val="669802880"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2056,7 +2073,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2197,6 +2214,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2206,7 +2226,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2347,6 +2367,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.76899999380111694</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.78200000524520874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2363,11 +2386,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="540384256"/>
-        <c:axId val="540468736"/>
+        <c:axId val="669790592"/>
+        <c:axId val="669792128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="540384256"/>
+        <c:axId val="669790592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2410,14 +2433,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540468736"/>
+        <c:crossAx val="669792128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="540468736"/>
+        <c:axId val="669792128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2468,12 +2491,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540384256"/>
+        <c:crossAx val="669790592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="540470272"/>
+        <c:axId val="669802880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2510,12 +2533,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540497408"/>
+        <c:crossAx val="669805184"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="540497408"/>
+        <c:axId val="669805184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2524,7 +2547,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="540470272"/>
+        <c:crossAx val="669802880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2686,7 +2709,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2827,6 +2850,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>9239.1347107527126</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19227.081497612831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2841,8 +2867,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="508036992"/>
-        <c:axId val="504177792"/>
+        <c:axId val="665078784"/>
+        <c:axId val="665076864"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2867,7 +2893,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3008,6 +3034,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3017,7 +3046,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3158,6 +3187,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.76899999380111694</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.78200000524520874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3174,11 +3206,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="501469568"/>
-        <c:axId val="501472256"/>
+        <c:axId val="665068672"/>
+        <c:axId val="665070592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="501469568"/>
+        <c:axId val="665068672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3221,14 +3253,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501472256"/>
+        <c:crossAx val="665070592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="501472256"/>
+        <c:axId val="665070592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3279,12 +3311,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501469568"/>
+        <c:crossAx val="665068672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="504177792"/>
+        <c:axId val="665076864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3321,12 +3353,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508036992"/>
+        <c:crossAx val="665078784"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="508036992"/>
+        <c:axId val="665078784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3335,7 +3367,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="504177792"/>
+        <c:crossAx val="665076864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3514,7 +3546,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3655,6 +3687,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3664,7 +3699,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3805,6 +3840,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>9982970.0214066766</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10002197.10290429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3847,7 +3885,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3988,6 +4026,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3997,7 +4038,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4138,6 +4179,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>11029923.724182867</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11235591.041401375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4180,7 +4224,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4321,6 +4365,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4330,7 +4377,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4471,6 +4518,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1046953.7027761899</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1233393.9384970851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4492,11 +4542,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511378176"/>
-        <c:axId val="531943808"/>
+        <c:axId val="669144192"/>
+        <c:axId val="669229056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="511378176"/>
+        <c:axId val="669144192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4539,14 +4589,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531943808"/>
+        <c:crossAx val="669229056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="531943808"/>
+        <c:axId val="669229056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4597,7 +4647,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511378176"/>
+        <c:crossAx val="669144192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4788,7 +4838,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4929,6 +4979,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>9239.1347107527126</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19227.081497612831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4943,8 +4996,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="537854336"/>
-        <c:axId val="537770624"/>
+        <c:axId val="669374336"/>
+        <c:axId val="669372416"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4969,7 +5022,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5110,6 +5163,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5119,7 +5175,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5260,6 +5316,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.76899999380111694</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.78200000524520874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5276,11 +5335,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="537730048"/>
-        <c:axId val="537769088"/>
+        <c:axId val="669364992"/>
+        <c:axId val="669366528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="537730048"/>
+        <c:axId val="669364992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5323,14 +5382,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537769088"/>
+        <c:crossAx val="669366528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="537769088"/>
+        <c:axId val="669366528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5381,12 +5440,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537730048"/>
+        <c:crossAx val="669364992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="537770624"/>
+        <c:axId val="669372416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5423,12 +5482,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537854336"/>
+        <c:crossAx val="669374336"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="537854336"/>
+        <c:axId val="669374336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5437,7 +5496,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="537770624"/>
+        <c:crossAx val="669372416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5616,7 +5675,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5757,6 +5816,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5766,7 +5828,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5907,6 +5969,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>9934136.4448341932</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9957208.9426313285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5949,7 +6014,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6090,6 +6155,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6099,7 +6167,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6240,6 +6308,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>10938719.489842519</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11146693.973310143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6282,7 +6353,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6423,6 +6494,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6432,7 +6506,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6573,6 +6647,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1004583.0450083259</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1189485.0306788143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6594,11 +6671,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="537909504"/>
-        <c:axId val="537918464"/>
+        <c:axId val="669415296"/>
+        <c:axId val="669421568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="537909504"/>
+        <c:axId val="669415296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6641,14 +6718,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537918464"/>
+        <c:crossAx val="669421568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="537918464"/>
+        <c:axId val="669421568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6699,7 +6776,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537909504"/>
+        <c:crossAx val="669415296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6890,7 +6967,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7031,6 +7108,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>9239.1347107527126</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>23072.497797135398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7045,8 +7125,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="538421120"/>
-        <c:axId val="538412928"/>
+        <c:axId val="669491584"/>
+        <c:axId val="669465600"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7071,7 +7151,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7212,6 +7292,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7221,7 +7304,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7362,6 +7445,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.76899999380111694</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.78200000524520874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7378,11 +7464,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="538407680"/>
-        <c:axId val="538411392"/>
+        <c:axId val="669452544"/>
+        <c:axId val="669463296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="538407680"/>
+        <c:axId val="669452544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7425,14 +7511,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538411392"/>
+        <c:crossAx val="669463296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="538411392"/>
+        <c:axId val="669463296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7483,12 +7569,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538407680"/>
+        <c:crossAx val="669452544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="538412928"/>
+        <c:axId val="669465600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7525,12 +7611,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538421120"/>
+        <c:crossAx val="669491584"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="538421120"/>
+        <c:axId val="669491584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7539,7 +7625,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="538412928"/>
+        <c:crossAx val="669465600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7718,7 +7804,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7859,6 +7945,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7868,7 +7957,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8009,6 +8098,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>87382693.059985384</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>87433597.158293262</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8051,7 +8143,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8192,6 +8284,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8201,7 +8296,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8342,6 +8437,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>97771425.377687231</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>99475154.662050933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8384,7 +8482,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8525,6 +8623,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8534,7 +8635,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8675,6 +8776,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>10388732.317701846</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12041557.503757671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8696,11 +8800,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="539212416"/>
-        <c:axId val="539219456"/>
+        <c:axId val="669522944"/>
+        <c:axId val="669529216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="539212416"/>
+        <c:axId val="669522944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8743,14 +8847,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539219456"/>
+        <c:crossAx val="669529216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="539219456"/>
+        <c:axId val="669529216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8801,7 +8905,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539212416"/>
+        <c:crossAx val="669522944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8992,7 +9096,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9133,6 +9237,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>127140287.00390083</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>127205381.75833361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9147,8 +9254,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="539403392"/>
-        <c:axId val="539393024"/>
+        <c:axId val="669600768"/>
+        <c:axId val="669598464"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9173,7 +9280,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9314,6 +9421,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9323,7 +9433,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9464,6 +9574,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.76899999380111694</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.78200000524520874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9480,11 +9593,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="539356160"/>
-        <c:axId val="539391488"/>
+        <c:axId val="669585408"/>
+        <c:axId val="669587328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="539356160"/>
+        <c:axId val="669585408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9527,14 +9640,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539391488"/>
+        <c:crossAx val="669587328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="539391488"/>
+        <c:axId val="669587328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9585,12 +9698,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539356160"/>
+        <c:crossAx val="669585408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="539393024"/>
+        <c:axId val="669598464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9627,12 +9740,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539403392"/>
+        <c:crossAx val="669600768"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="539403392"/>
+        <c:axId val="669600768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9641,7 +9754,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="539393024"/>
+        <c:crossAx val="669598464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9820,7 +9933,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9961,6 +10074,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9970,7 +10086,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10111,6 +10227,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>83555214.924306199</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>83580022.317563355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10153,7 +10272,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10294,6 +10413,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10303,7 +10425,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10444,6 +10566,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>100868619.04672278</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>102598616.58804098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10486,7 +10611,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10627,6 +10752,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10636,7 +10764,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10777,6 +10905,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>17313404.122416586</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19018594.270477623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10798,11 +10929,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="539658496"/>
-        <c:axId val="539865088"/>
+        <c:axId val="669725824"/>
+        <c:axId val="669727360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="539658496"/>
+        <c:axId val="669725824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10845,14 +10976,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539865088"/>
+        <c:crossAx val="669727360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="539865088"/>
+        <c:axId val="669727360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10903,7 +11034,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539658496"/>
+        <c:crossAx val="669725824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11617,7 +11748,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG49"/>
+  <dimension ref="A1:AG50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13772,6 +13903,44 @@
         <v>1065.5926960182564</v>
       </c>
     </row>
+    <row r="50" spans="1:12" ht="12.75">
+      <c r="A50" s="12">
+        <v>45807</v>
+      </c>
+      <c r="B50" s="13">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="C50" s="13">
+        <v>23.299999239999998</v>
+      </c>
+      <c r="D50" s="14">
+        <v>25.506266578519043</v>
+      </c>
+      <c r="E50" s="14">
+        <v>19227.081497612831</v>
+      </c>
+      <c r="F50" s="15">
+        <v>24587.060573719395</v>
+      </c>
+      <c r="G50" s="15">
+        <v>13363726.114593977</v>
+      </c>
+      <c r="H50" s="15">
+        <v>10450433.891708024</v>
+      </c>
+      <c r="I50" s="15">
+        <v>9355758.3811088428</v>
+      </c>
+      <c r="J50" s="15">
+        <v>10451499.484404042</v>
+      </c>
+      <c r="K50" s="15">
+        <v>1095741.1032951996</v>
+      </c>
+      <c r="L50" s="14">
+        <v>1065.5926960182564</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13788,7 +13957,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM49"/>
+  <dimension ref="A1:AM50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13829,7 +13998,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -13865,10 +14034,10 @@
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>4</v>
@@ -13889,7 +14058,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.1" customHeight="1">
@@ -17043,6 +17212,71 @@
         <v>24.768208004571939</v>
       </c>
       <c r="U49" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="12.75">
+      <c r="A50" s="12">
+        <v>45807</v>
+      </c>
+      <c r="B50" s="13">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="C50" s="13">
+        <v>23.299999239999998</v>
+      </c>
+      <c r="D50" s="14">
+        <v>25.506266578519043</v>
+      </c>
+      <c r="E50" s="14">
+        <v>19227.081497612831</v>
+      </c>
+      <c r="F50" s="15">
+        <v>24587.060573719395</v>
+      </c>
+      <c r="G50" s="15">
+        <v>14366131.029416079</v>
+      </c>
+      <c r="H50" s="15">
+        <v>11234314.540356729</v>
+      </c>
+      <c r="I50" s="15">
+        <v>10002197.10290429</v>
+      </c>
+      <c r="J50" s="15">
+        <v>11235591.041401375</v>
+      </c>
+      <c r="K50" s="15">
+        <v>1233393.9384970851</v>
+      </c>
+      <c r="L50" s="14">
+        <v>1276.5010446459914</v>
+      </c>
+      <c r="M50" s="23">
+        <v>0.81499999761581421</v>
+      </c>
+      <c r="N50" s="23">
+        <v>0.77300000190734863</v>
+      </c>
+      <c r="O50" s="23">
+        <v>0.79000000158945716</v>
+      </c>
+      <c r="P50" s="23">
+        <v>0.73328571660178044</v>
+      </c>
+      <c r="Q50" s="23">
+        <v>5.6714284987676722E-2</v>
+      </c>
+      <c r="R50" s="23">
+        <v>7.0006806023266852E-2</v>
+      </c>
+      <c r="S50" s="9">
+        <v>1.0501020903490028E-3</v>
+      </c>
+      <c r="T50" s="9">
+        <v>54.008353577153301</v>
+      </c>
+      <c r="U50" s="11">
         <v>1</v>
       </c>
     </row>
@@ -17062,7 +17296,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG49"/>
+  <dimension ref="A1:AG50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17142,7 +17376,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -19486,6 +19720,50 @@
       </c>
       <c r="N49" s="9">
         <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="12.75">
+      <c r="A50" s="12">
+        <v>45807</v>
+      </c>
+      <c r="B50" s="13">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="C50" s="13">
+        <v>23.299999239999998</v>
+      </c>
+      <c r="D50" s="14">
+        <v>25.506266578519043</v>
+      </c>
+      <c r="E50" s="14">
+        <v>23072.497797135398</v>
+      </c>
+      <c r="F50" s="15">
+        <v>29504.472688463273</v>
+      </c>
+      <c r="G50" s="15">
+        <v>14252721.618741207</v>
+      </c>
+      <c r="H50" s="15">
+        <v>11145628.380614124</v>
+      </c>
+      <c r="I50" s="15">
+        <v>9957208.9426313285</v>
+      </c>
+      <c r="J50" s="15">
+        <v>11146693.973310143</v>
+      </c>
+      <c r="K50" s="15">
+        <v>1189485.0306788143</v>
+      </c>
+      <c r="L50" s="14">
+        <v>1065.5926960182564</v>
+      </c>
+      <c r="M50" s="9">
+        <v>-112.23623009437114</v>
+      </c>
+      <c r="N50" s="9">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -19504,7 +19782,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG49"/>
+  <dimension ref="A1:AG50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19545,7 +19823,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -19584,7 +19862,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -21928,6 +22206,50 @@
       </c>
       <c r="N49" s="9">
         <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="12.75">
+      <c r="A50" s="12">
+        <v>45807</v>
+      </c>
+      <c r="B50" s="13">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="C50" s="13">
+        <v>23.299999239999998</v>
+      </c>
+      <c r="D50" s="14">
+        <v>25.506266578519043</v>
+      </c>
+      <c r="E50" s="14">
+        <v>50904.098307872424</v>
+      </c>
+      <c r="F50" s="15">
+        <v>65094.754432783695</v>
+      </c>
+      <c r="G50" s="15">
+        <v>127205381.75833361</v>
+      </c>
+      <c r="H50" s="15">
+        <v>99474609.202235669</v>
+      </c>
+      <c r="I50" s="15">
+        <v>87433597.158293262</v>
+      </c>
+      <c r="J50" s="15">
+        <v>99475154.662050933</v>
+      </c>
+      <c r="K50" s="15">
+        <v>12041557.503757671</v>
+      </c>
+      <c r="L50" s="14">
+        <v>545.45981526282844</v>
+      </c>
+      <c r="M50" s="9">
+        <v>-112.23623009437114</v>
+      </c>
+      <c r="N50" s="9">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -21946,7 +22268,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI49"/>
+  <dimension ref="A1:AI50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21999,10 +22321,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -22032,7 +22354,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.1" customHeight="1">
@@ -24660,6 +24982,56 @@
       </c>
       <c r="P49" s="9">
         <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="12.75">
+      <c r="A50" s="12">
+        <v>45807</v>
+      </c>
+      <c r="B50" s="13">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="C50" s="13">
+        <v>23.299999239999998</v>
+      </c>
+      <c r="D50" s="14">
+        <v>25.506266578519043</v>
+      </c>
+      <c r="E50" s="14">
+        <v>2171902</v>
+      </c>
+      <c r="F50" s="14">
+        <v>4456684.012585436</v>
+      </c>
+      <c r="G50" s="14">
+        <v>24807.393257151027</v>
+      </c>
+      <c r="H50" s="15">
+        <v>31723.009067464478</v>
+      </c>
+      <c r="I50" s="15">
+        <v>131200080.46739936</v>
+      </c>
+      <c r="J50" s="15">
+        <v>102598463.61367811</v>
+      </c>
+      <c r="K50" s="15">
+        <v>83580022.317563355</v>
+      </c>
+      <c r="L50" s="15">
+        <v>102598616.58804098</v>
+      </c>
+      <c r="M50" s="15">
+        <v>19018594.270477623</v>
+      </c>
+      <c r="N50" s="14">
+        <v>152.97436286685797</v>
+      </c>
+      <c r="O50" s="9">
+        <v>-112.23623009437114</v>
+      </c>
+      <c r="P50" s="9">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="15600" windowHeight="7620" tabRatio="569" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="15600" windowHeight="7620" tabRatio="569" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="模型四 (1)PE副本" sheetId="9" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="33">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -157,6 +157,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>最高价</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -166,6 +170,14 @@
   </si>
   <si>
     <t>标志</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>深创100ETF</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -597,7 +609,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -741,6 +753,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -750,7 +765,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -894,6 +909,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>9355758.3811088428</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9361161.4375400841</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -936,7 +954,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1080,6 +1098,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1089,7 +1110,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1233,6 +1254,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>10451499.484404042</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10857813.941933831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1275,7 +1299,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1419,6 +1443,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1428,7 +1455,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1572,6 +1599,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1095741.1032951996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1496652.5043937471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1593,11 +1623,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="633442304"/>
-        <c:axId val="633445376"/>
+        <c:axId val="461183616"/>
+        <c:axId val="461185408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="633442304"/>
+        <c:axId val="461183616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1640,14 +1670,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="633445376"/>
+        <c:crossAx val="461185408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="633445376"/>
+        <c:axId val="461185408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1698,7 +1728,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="633442304"/>
+        <c:crossAx val="461183616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1889,7 +1919,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2033,6 +2063,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>24807.393257151027</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>955.32737062622675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2047,8 +2080,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="669805184"/>
-        <c:axId val="669802880"/>
+        <c:axId val="588121600"/>
+        <c:axId val="588120064"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2073,7 +2106,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2217,6 +2250,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2226,7 +2262,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2370,6 +2406,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.78200000524520874</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.81199997663497925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2386,11 +2425,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="669790592"/>
-        <c:axId val="669792128"/>
+        <c:axId val="588087680"/>
+        <c:axId val="588089216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="669790592"/>
+        <c:axId val="588087680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2433,14 +2472,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="669792128"/>
+        <c:crossAx val="588089216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="669792128"/>
+        <c:axId val="588089216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2491,12 +2530,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="669790592"/>
+        <c:crossAx val="588087680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="669802880"/>
+        <c:axId val="588120064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2533,12 +2572,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="669805184"/>
+        <c:crossAx val="588121600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="669805184"/>
+        <c:axId val="588121600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2547,7 +2586,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="669802880"/>
+        <c:crossAx val="588120064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2709,7 +2748,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2853,6 +2892,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>19227.081497612831</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5403.0564312410688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2867,8 +2909,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="665078784"/>
-        <c:axId val="665076864"/>
+        <c:axId val="461211136"/>
+        <c:axId val="461209600"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2893,7 +2935,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3037,6 +3079,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3046,7 +3091,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3190,6 +3235,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.78200000524520874</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.81199997663497925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3206,11 +3254,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="665068672"/>
-        <c:axId val="665070592"/>
+        <c:axId val="461203712"/>
+        <c:axId val="461207424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="665068672"/>
+        <c:axId val="461203712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3253,14 +3301,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="665070592"/>
+        <c:crossAx val="461207424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="665070592"/>
+        <c:axId val="461207424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3311,12 +3359,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="665068672"/>
+        <c:crossAx val="461203712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="665076864"/>
+        <c:axId val="461209600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3353,12 +3401,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="665078784"/>
+        <c:crossAx val="461211136"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="665078784"/>
+        <c:axId val="461211136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3367,7 +3415,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="665076864"/>
+        <c:crossAx val="461209600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3546,7 +3594,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3690,6 +3738,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3699,7 +3750,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3843,6 +3894,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>10002197.10290429</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10007600.159335531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3885,7 +3939,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4029,6 +4083,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4038,7 +4095,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4182,6 +4239,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>11235591.041401375</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11671977.617696794</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4224,7 +4284,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4368,6 +4428,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4377,7 +4440,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4521,6 +4584,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1233393.9384970851</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1664377.4583612625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4542,11 +4608,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="669144192"/>
-        <c:axId val="669229056"/>
+        <c:axId val="465480320"/>
+        <c:axId val="465490688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="669144192"/>
+        <c:axId val="465480320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4589,14 +4655,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="669229056"/>
+        <c:crossAx val="465490688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="669229056"/>
+        <c:axId val="465490688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4647,7 +4713,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="669144192"/>
+        <c:crossAx val="465480320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4838,7 +4904,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4982,6 +5048,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>19227.081497612831</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5403.0564312410688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4996,8 +5065,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="669374336"/>
-        <c:axId val="669372416"/>
+        <c:axId val="518356352"/>
+        <c:axId val="498428928"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5022,7 +5091,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5166,6 +5235,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5175,7 +5247,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5319,6 +5391,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.78200000524520874</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.81199997663497925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5335,11 +5410,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="669364992"/>
-        <c:axId val="669366528"/>
+        <c:axId val="481416704"/>
+        <c:axId val="498408832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="669364992"/>
+        <c:axId val="481416704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5382,14 +5457,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="669366528"/>
+        <c:crossAx val="498408832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="669366528"/>
+        <c:axId val="498408832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5440,12 +5515,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="669364992"/>
+        <c:crossAx val="481416704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="669372416"/>
+        <c:axId val="498428928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5482,12 +5557,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="669374336"/>
+        <c:crossAx val="518356352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="669374336"/>
+        <c:axId val="518356352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5496,7 +5571,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="669372416"/>
+        <c:crossAx val="498428928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5675,7 +5750,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5819,6 +5894,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5828,7 +5906,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5972,6 +6050,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>9957208.9426313285</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9962611.9990625698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6014,7 +6095,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6158,6 +6239,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6167,7 +6251,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6311,6 +6395,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>11146693.973310143</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11579678.270529984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6353,7 +6440,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6497,6 +6584,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6506,7 +6596,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6650,6 +6740,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1189485.0306788143</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1617066.2714674138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6671,11 +6764,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="669415296"/>
-        <c:axId val="669421568"/>
+        <c:axId val="586703232"/>
+        <c:axId val="586704768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="669415296"/>
+        <c:axId val="586703232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6718,14 +6811,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="669421568"/>
+        <c:crossAx val="586704768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="669421568"/>
+        <c:axId val="586704768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6776,7 +6869,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="669415296"/>
+        <c:crossAx val="586703232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6967,7 +7060,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7111,6 +7204,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>23072.497797135398</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5403.0564312410688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7125,8 +7221,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="669491584"/>
-        <c:axId val="669465600"/>
+        <c:axId val="587205248"/>
+        <c:axId val="587203328"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7151,7 +7247,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7295,6 +7391,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7304,7 +7403,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7448,6 +7547,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.78200000524520874</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.81199997663497925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7464,11 +7566,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="669452544"/>
-        <c:axId val="669463296"/>
+        <c:axId val="586740864"/>
+        <c:axId val="586742784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="669452544"/>
+        <c:axId val="586740864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7511,14 +7613,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="669463296"/>
+        <c:crossAx val="586742784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="669463296"/>
+        <c:axId val="586742784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7569,12 +7671,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="669452544"/>
+        <c:crossAx val="586740864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="669465600"/>
+        <c:axId val="587203328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7611,12 +7713,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="669491584"/>
+        <c:crossAx val="587205248"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="669491584"/>
+        <c:axId val="587205248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7625,7 +7727,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="669465600"/>
+        <c:crossAx val="587203328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7804,7 +7906,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7948,6 +8050,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7957,7 +8062,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8101,6 +8206,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>87433597.158293262</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>87439916.338018313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8143,7 +8251,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8287,6 +8395,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8296,7 +8407,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8440,6 +8551,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>99475154.662050933</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>103297631.65515083</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8482,7 +8596,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8626,6 +8740,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8635,7 +8752,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8779,6 +8896,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>12041557.503757671</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>15857715.317132518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8800,11 +8920,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="669522944"/>
-        <c:axId val="669529216"/>
+        <c:axId val="587283840"/>
+        <c:axId val="587285632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="669522944"/>
+        <c:axId val="587283840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8847,14 +8967,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="669529216"/>
+        <c:crossAx val="587285632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="669529216"/>
+        <c:axId val="587285632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8905,7 +9025,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="669522944"/>
+        <c:crossAx val="587283840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9096,7 +9216,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9240,6 +9360,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>127205381.75833361</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>127213163.99959825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9254,8 +9377,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="669600768"/>
-        <c:axId val="669598464"/>
+        <c:axId val="587348224"/>
+        <c:axId val="587346304"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9280,7 +9403,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9424,6 +9547,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9433,7 +9559,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9577,6 +9703,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.78200000524520874</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.81199997663497925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9593,11 +9722,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="669585408"/>
-        <c:axId val="669587328"/>
+        <c:axId val="587342976"/>
+        <c:axId val="587344512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="669585408"/>
+        <c:axId val="587342976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9640,14 +9769,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="669587328"/>
+        <c:crossAx val="587344512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="669587328"/>
+        <c:axId val="587344512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9698,12 +9827,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="669585408"/>
+        <c:crossAx val="587342976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="669598464"/>
+        <c:axId val="587346304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9740,12 +9869,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="669600768"/>
+        <c:crossAx val="587348224"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="669600768"/>
+        <c:axId val="587348224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9754,7 +9883,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="669598464"/>
+        <c:crossAx val="587346304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9933,7 +10062,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10077,6 +10206,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10086,7 +10218,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10230,6 +10362,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>83580022.317563355</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>83580977.644933984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10272,7 +10407,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10416,6 +10551,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10425,7 +10563,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10569,6 +10707,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>102598616.58804098</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>106535570.57576917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10611,7 +10752,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10755,6 +10896,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10764,7 +10908,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10908,6 +11052,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>19018594.270477623</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>22954592.930835187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10929,11 +11076,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="669725824"/>
-        <c:axId val="669727360"/>
+        <c:axId val="587480448"/>
+        <c:axId val="587719808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="669725824"/>
+        <c:axId val="587480448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10976,14 +11123,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="669727360"/>
+        <c:crossAx val="587719808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="669727360"/>
+        <c:axId val="587719808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11034,7 +11181,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="669725824"/>
+        <c:crossAx val="587480448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11748,7 +11895,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG50"/>
+  <dimension ref="A1:AG51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13941,6 +14088,44 @@
         <v>1065.5926960182564</v>
       </c>
     </row>
+    <row r="51" spans="1:12" ht="12.75">
+      <c r="A51" s="12">
+        <v>45838</v>
+      </c>
+      <c r="B51" s="13">
+        <v>0.81199997663497925</v>
+      </c>
+      <c r="C51" s="13">
+        <v>24.299999239999998</v>
+      </c>
+      <c r="D51" s="14">
+        <v>25.46955573186175</v>
+      </c>
+      <c r="E51" s="14">
+        <v>5403.0564312410688</v>
+      </c>
+      <c r="F51" s="15">
+        <v>6654.0105747686748</v>
+      </c>
+      <c r="G51" s="15">
+        <v>13370380.125168746</v>
+      </c>
+      <c r="H51" s="15">
+        <v>10856748.349237813</v>
+      </c>
+      <c r="I51" s="15">
+        <v>9361161.4375400841</v>
+      </c>
+      <c r="J51" s="15">
+        <v>10857813.941933831</v>
+      </c>
+      <c r="K51" s="15">
+        <v>1496652.5043937471</v>
+      </c>
+      <c r="L51" s="14">
+        <v>1065.5926960182564</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13957,7 +14142,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM50"/>
+  <dimension ref="A1:AM51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13998,7 +14183,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -14034,10 +14219,10 @@
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>4</v>
@@ -14058,7 +14243,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.1" customHeight="1">
@@ -17277,6 +17462,71 @@
         <v>54.008353577153301</v>
       </c>
       <c r="U50" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" ht="12.75">
+      <c r="A51" s="12">
+        <v>45838</v>
+      </c>
+      <c r="B51" s="13">
+        <v>0.81199997663497925</v>
+      </c>
+      <c r="C51" s="13">
+        <v>24.299999239999998</v>
+      </c>
+      <c r="D51" s="14">
+        <v>25.46955573186175</v>
+      </c>
+      <c r="E51" s="14">
+        <v>5403.0564312410688</v>
+      </c>
+      <c r="F51" s="15">
+        <v>6654.0105747686748</v>
+      </c>
+      <c r="G51" s="15">
+        <v>14372785.039990848</v>
+      </c>
+      <c r="H51" s="15">
+        <v>11670701.116652148</v>
+      </c>
+      <c r="I51" s="15">
+        <v>10007600.159335531</v>
+      </c>
+      <c r="J51" s="15">
+        <v>11671977.617696794</v>
+      </c>
+      <c r="K51" s="15">
+        <v>1664377.4583612625</v>
+      </c>
+      <c r="L51" s="14">
+        <v>1276.5010446459914</v>
+      </c>
+      <c r="M51" s="23">
+        <v>0.81499999761581421</v>
+      </c>
+      <c r="N51" s="23">
+        <v>0.7720000147819519</v>
+      </c>
+      <c r="O51" s="23">
+        <v>0.79966666301091516</v>
+      </c>
+      <c r="P51" s="23">
+        <v>0.74359524108114694</v>
+      </c>
+      <c r="Q51" s="23">
+        <v>5.6071421929768217E-2</v>
+      </c>
+      <c r="R51" s="23">
+        <v>6.6234695465386323E-2</v>
+      </c>
+      <c r="S51" s="9">
+        <v>9.9352043198079479E-4</v>
+      </c>
+      <c r="T51" s="9">
+        <v>56.437110022969414</v>
+      </c>
+      <c r="U51" s="11">
         <v>1</v>
       </c>
     </row>
@@ -17296,7 +17546,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG50"/>
+  <dimension ref="A1:AG51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17337,10 +17587,10 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>9</v>
@@ -17376,7 +17626,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -19764,6 +20014,50 @@
       </c>
       <c r="N50" s="9">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="12.75">
+      <c r="A51" s="12">
+        <v>45838</v>
+      </c>
+      <c r="B51" s="13">
+        <v>0.81199997663497925</v>
+      </c>
+      <c r="C51" s="13">
+        <v>24.299999239999998</v>
+      </c>
+      <c r="D51" s="14">
+        <v>25.46955573186175</v>
+      </c>
+      <c r="E51" s="14">
+        <v>5403.0564312410688</v>
+      </c>
+      <c r="F51" s="15">
+        <v>6654.0105747686748</v>
+      </c>
+      <c r="G51" s="15">
+        <v>14259375.629315976</v>
+      </c>
+      <c r="H51" s="15">
+        <v>11578612.677833965</v>
+      </c>
+      <c r="I51" s="15">
+        <v>9962611.9990625698</v>
+      </c>
+      <c r="J51" s="15">
+        <v>11579678.270529984</v>
+      </c>
+      <c r="K51" s="15">
+        <v>1617066.2714674138</v>
+      </c>
+      <c r="L51" s="14">
+        <v>1065.5926960182564</v>
+      </c>
+      <c r="M51" s="9">
+        <v>116.62513925726178</v>
+      </c>
+      <c r="N51" s="9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -19782,7 +20076,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG50"/>
+  <dimension ref="A1:AG51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19823,10 +20117,10 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>9</v>
@@ -19862,7 +20156,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -22250,6 +22544,50 @@
       </c>
       <c r="N50" s="9">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="12.75">
+      <c r="A51" s="12">
+        <v>45838</v>
+      </c>
+      <c r="B51" s="13">
+        <v>0.81199997663497925</v>
+      </c>
+      <c r="C51" s="13">
+        <v>24.299999239999998</v>
+      </c>
+      <c r="D51" s="14">
+        <v>25.46955573186175</v>
+      </c>
+      <c r="E51" s="14">
+        <v>6319.1797250533782</v>
+      </c>
+      <c r="F51" s="15">
+        <v>7782.2412646374469</v>
+      </c>
+      <c r="G51" s="15">
+        <v>127213163.99959825</v>
+      </c>
+      <c r="H51" s="15">
+        <v>103297086.19533557</v>
+      </c>
+      <c r="I51" s="15">
+        <v>87439916.338018313</v>
+      </c>
+      <c r="J51" s="15">
+        <v>103297631.65515083</v>
+      </c>
+      <c r="K51" s="15">
+        <v>15857715.317132518</v>
+      </c>
+      <c r="L51" s="14">
+        <v>545.45981526282844</v>
+      </c>
+      <c r="M51" s="9">
+        <v>116.62513925726178</v>
+      </c>
+      <c r="N51" s="9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -22268,7 +22606,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI50"/>
+  <dimension ref="A1:AI51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22309,22 +22647,22 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -22354,7 +22692,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.1" customHeight="1">
@@ -25032,6 +25370,56 @@
       </c>
       <c r="P50" s="9">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="12.75">
+      <c r="A51" s="12">
+        <v>45838</v>
+      </c>
+      <c r="B51" s="13">
+        <v>0.81199997663497925</v>
+      </c>
+      <c r="C51" s="13">
+        <v>24.299999239999998</v>
+      </c>
+      <c r="D51" s="14">
+        <v>25.46955573186175</v>
+      </c>
+      <c r="E51" s="14">
+        <v>667200</v>
+      </c>
+      <c r="F51" s="14">
+        <v>4413310.9153900621</v>
+      </c>
+      <c r="G51" s="14">
+        <v>955.32737062622675</v>
+      </c>
+      <c r="H51" s="15">
+        <v>1176.5115740337981</v>
+      </c>
+      <c r="I51" s="15">
+        <v>131201256.97897339</v>
+      </c>
+      <c r="J51" s="15">
+        <v>106535417.60140631</v>
+      </c>
+      <c r="K51" s="15">
+        <v>83580977.644933984</v>
+      </c>
+      <c r="L51" s="15">
+        <v>106535570.57576917</v>
+      </c>
+      <c r="M51" s="15">
+        <v>22954592.930835187</v>
+      </c>
+      <c r="N51" s="14">
+        <v>152.97436286685797</v>
+      </c>
+      <c r="O51" s="9">
+        <v>116.62513925726178</v>
+      </c>
+      <c r="P51" s="9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="32">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -133,6 +133,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>每年投入本金</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -157,10 +161,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>最高价</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -175,10 +175,6 @@
   <si>
     <t>深创100ETF</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>成交量</t>
@@ -609,7 +605,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -756,6 +752,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -765,7 +764,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -912,6 +911,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>9361161.4375400841</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9361334.8177274242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -954,7 +956,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1101,6 +1103,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1110,7 +1115,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1257,6 +1262,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>10857813.941933831</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11299210.561180593</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1299,7 +1307,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1446,6 +1454,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1455,7 +1466,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1602,6 +1613,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1496652.5043937471</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1937875.7434531692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1623,11 +1637,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="461183616"/>
-        <c:axId val="461185408"/>
+        <c:axId val="454845952"/>
+        <c:axId val="454848512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="461183616"/>
+        <c:axId val="454845952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1670,14 +1684,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461185408"/>
+        <c:crossAx val="454848512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="461185408"/>
+        <c:axId val="454848512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1728,7 +1742,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461183616"/>
+        <c:crossAx val="454845952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1919,7 +1933,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2066,6 +2080,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>955.32737062622675</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>18.690686026233902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2080,8 +2097,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="588121600"/>
-        <c:axId val="588120064"/>
+        <c:axId val="583668480"/>
+        <c:axId val="583666304"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2106,7 +2123,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2253,6 +2270,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2262,7 +2282,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2409,6 +2429,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0.81199997663497925</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.84500002861022949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2425,11 +2448,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="588087680"/>
-        <c:axId val="588089216"/>
+        <c:axId val="583581056"/>
+        <c:axId val="583664768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="588087680"/>
+        <c:axId val="583581056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2472,14 +2495,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588089216"/>
+        <c:crossAx val="583664768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="588089216"/>
+        <c:axId val="583664768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2530,12 +2553,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588087680"/>
+        <c:crossAx val="583581056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="588120064"/>
+        <c:axId val="583666304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2572,12 +2595,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588121600"/>
+        <c:crossAx val="583668480"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="588121600"/>
+        <c:axId val="583668480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2586,7 +2609,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="588120064"/>
+        <c:crossAx val="583666304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2748,7 +2771,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2895,6 +2918,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>5403.0564312410688</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>173.38018734075604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2909,8 +2935,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="461211136"/>
-        <c:axId val="461209600"/>
+        <c:axId val="458671616"/>
+        <c:axId val="458670080"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2935,7 +2961,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3082,6 +3108,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3091,7 +3120,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3238,6 +3267,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0.81199997663497925</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.84500002861022949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3254,11 +3286,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="461203712"/>
-        <c:axId val="461207424"/>
+        <c:axId val="458645504"/>
+        <c:axId val="458647808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="461203712"/>
+        <c:axId val="458645504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3301,14 +3333,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461207424"/>
+        <c:crossAx val="458647808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="461207424"/>
+        <c:axId val="458647808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3359,12 +3391,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461203712"/>
+        <c:crossAx val="458645504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="461209600"/>
+        <c:axId val="458670080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3401,12 +3433,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461211136"/>
+        <c:crossAx val="458671616"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="461211136"/>
+        <c:axId val="458671616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3415,7 +3447,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="461209600"/>
+        <c:crossAx val="458670080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3594,7 +3626,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3741,6 +3773,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3750,7 +3785,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3897,6 +3932,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>10007600.159335531</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10007773.539522871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3939,7 +3977,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4086,6 +4124,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4095,7 +4136,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4242,6 +4283,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>11671977.617696794</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12146453.651232932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4284,7 +4328,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4431,6 +4475,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4440,7 +4487,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4587,6 +4634,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1664377.4583612625</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2138680.1117100604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4608,11 +4658,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="465480320"/>
-        <c:axId val="465490688"/>
+        <c:axId val="459979392"/>
+        <c:axId val="459989376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="465480320"/>
+        <c:axId val="459979392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4655,14 +4705,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465490688"/>
+        <c:crossAx val="459989376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="465490688"/>
+        <c:axId val="459989376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4713,7 +4763,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465480320"/>
+        <c:crossAx val="459979392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4904,7 +4954,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5051,6 +5101,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>5403.0564312410688</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>173.38018734075604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5065,8 +5118,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="518356352"/>
-        <c:axId val="498428928"/>
+        <c:axId val="553047168"/>
+        <c:axId val="553032704"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5091,7 +5144,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5238,6 +5291,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5247,7 +5303,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5394,6 +5450,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0.81199997663497925</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.84500002861022949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5410,11 +5469,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="481416704"/>
-        <c:axId val="498408832"/>
+        <c:axId val="549689600"/>
+        <c:axId val="553030784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="481416704"/>
+        <c:axId val="549689600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5457,14 +5516,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498408832"/>
+        <c:crossAx val="553030784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="498408832"/>
+        <c:axId val="553030784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5515,12 +5574,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481416704"/>
+        <c:crossAx val="549689600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="498428928"/>
+        <c:axId val="553032704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5557,12 +5616,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518356352"/>
+        <c:crossAx val="553047168"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="518356352"/>
+        <c:axId val="553047168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5571,7 +5630,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="498428928"/>
+        <c:crossAx val="553032704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5750,7 +5809,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5897,6 +5956,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5906,7 +5968,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6053,6 +6115,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>9962611.9990625698</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9962785.3792499099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6095,7 +6160,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6242,6 +6307,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6251,7 +6319,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6398,6 +6466,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>11579678.270529984</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12050411.787619369</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6440,7 +6511,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6587,6 +6658,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6596,7 +6670,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6743,6 +6817,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1617066.2714674138</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2087626.4083694592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6764,11 +6841,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="586703232"/>
-        <c:axId val="586704768"/>
+        <c:axId val="574839808"/>
+        <c:axId val="574854272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="586703232"/>
+        <c:axId val="574839808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6811,14 +6888,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586704768"/>
+        <c:crossAx val="574854272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="586704768"/>
+        <c:axId val="574854272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6869,7 +6946,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586703232"/>
+        <c:crossAx val="574839808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7060,7 +7137,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7207,6 +7284,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>5403.0564312410688</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>173.38018734075604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7221,8 +7301,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="587205248"/>
-        <c:axId val="587203328"/>
+        <c:axId val="581956352"/>
+        <c:axId val="581889024"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7247,7 +7327,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7394,6 +7474,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7403,7 +7486,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7550,6 +7633,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0.81199997663497925</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.84500002861022949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7566,11 +7652,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="586740864"/>
-        <c:axId val="586742784"/>
+        <c:axId val="581885312"/>
+        <c:axId val="581887104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="586740864"/>
+        <c:axId val="581885312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7613,14 +7699,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586742784"/>
+        <c:crossAx val="581887104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="586742784"/>
+        <c:axId val="581887104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7671,12 +7757,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586740864"/>
+        <c:crossAx val="581885312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="587203328"/>
+        <c:axId val="581889024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7713,12 +7799,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="587205248"/>
+        <c:crossAx val="581956352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="587205248"/>
+        <c:axId val="581956352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7727,7 +7813,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="587203328"/>
+        <c:crossAx val="581889024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7906,7 +7992,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8053,6 +8139,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8062,7 +8151,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8209,6 +8298,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>87439916.338018313</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>87439952.662602708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8251,7 +8343,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8398,6 +8490,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8407,7 +8502,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8554,6 +8649,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>103297631.65515083</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>107495709.00365798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8596,7 +8694,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8743,6 +8841,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8752,7 +8853,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8899,6 +9000,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>15857715.317132518</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20055756.341055274</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8920,11 +9024,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="587283840"/>
-        <c:axId val="587285632"/>
+        <c:axId val="581996544"/>
+        <c:axId val="581998080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="587283840"/>
+        <c:axId val="581996544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8967,14 +9071,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="587285632"/>
+        <c:crossAx val="581998080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="587285632"/>
+        <c:axId val="581998080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9025,7 +9129,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="587283840"/>
+        <c:crossAx val="581996544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9216,7 +9320,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9363,6 +9467,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>127213163.99959825</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>127213206.98727062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9377,8 +9484,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="587348224"/>
-        <c:axId val="587346304"/>
+        <c:axId val="582476928"/>
+        <c:axId val="582442368"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9403,7 +9510,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9550,6 +9657,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9559,7 +9669,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9706,6 +9816,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0.81199997663497925</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.84500002861022949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9722,11 +9835,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="587342976"/>
-        <c:axId val="587344512"/>
+        <c:axId val="582438912"/>
+        <c:axId val="582440832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="587342976"/>
+        <c:axId val="582438912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9769,14 +9882,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="587344512"/>
+        <c:crossAx val="582440832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="587344512"/>
+        <c:axId val="582440832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9827,12 +9940,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="587342976"/>
+        <c:crossAx val="582438912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="587346304"/>
+        <c:axId val="582442368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9869,12 +9982,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="587348224"/>
+        <c:crossAx val="582476928"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="587348224"/>
+        <c:axId val="582476928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9883,7 +9996,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="587346304"/>
+        <c:crossAx val="582442368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10062,7 +10175,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10209,6 +10322,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10218,7 +10334,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10365,6 +10481,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>83580977.644933984</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>83580996.335620016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10407,7 +10526,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10554,6 +10673,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10563,7 +10685,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10710,6 +10832,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>106535570.57576917</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>110865237.56597947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10752,7 +10877,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10899,6 +11024,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10908,7 +11036,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11055,6 +11183,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>22954592.930835187</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>27284241.23035945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11076,11 +11207,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="587480448"/>
-        <c:axId val="587719808"/>
+        <c:axId val="582771456"/>
+        <c:axId val="582773376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="587480448"/>
+        <c:axId val="582771456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11123,14 +11254,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="587719808"/>
+        <c:crossAx val="582773376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="587719808"/>
+        <c:axId val="582773376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11181,7 +11312,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="587480448"/>
+        <c:crossAx val="582771456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11895,7 +12026,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG51"/>
+  <dimension ref="A1:AG52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12032,28 +12163,28 @@
       </c>
       <c r="M3" s="9"/>
       <c r="P3" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -14123,6 +14254,44 @@
         <v>1496652.5043937471</v>
       </c>
       <c r="L51" s="14">
+        <v>1065.5926960182564</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="12.75">
+      <c r="A52" s="12">
+        <v>45869</v>
+      </c>
+      <c r="B52" s="13">
+        <v>0.84500002861022949</v>
+      </c>
+      <c r="C52" s="13">
+        <v>25.25</v>
+      </c>
+      <c r="D52" s="14">
+        <v>25.459508277435798</v>
+      </c>
+      <c r="E52" s="14">
+        <v>173.38018734075604</v>
+      </c>
+      <c r="F52" s="15">
+        <v>205.18364671053826</v>
+      </c>
+      <c r="G52" s="15">
+        <v>13370585.308815457</v>
+      </c>
+      <c r="H52" s="15">
+        <v>11298144.968484575</v>
+      </c>
+      <c r="I52" s="15">
+        <v>9361334.8177274242</v>
+      </c>
+      <c r="J52" s="15">
+        <v>11299210.561180593</v>
+      </c>
+      <c r="K52" s="15">
+        <v>1937875.7434531692</v>
+      </c>
+      <c r="L52" s="14">
         <v>1065.5926960182564</v>
       </c>
     </row>
@@ -14142,7 +14311,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM51"/>
+  <dimension ref="A1:AM52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14183,7 +14352,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -14323,28 +14492,28 @@
       <c r="R3" s="23"/>
       <c r="S3" s="9"/>
       <c r="V3" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X3" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z3" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="AB3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC3" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE3" s="24">
         <v>44561</v>
@@ -17527,6 +17696,71 @@
         <v>56.437110022969414</v>
       </c>
       <c r="U51" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="12.75">
+      <c r="A52" s="12">
+        <v>45869</v>
+      </c>
+      <c r="B52" s="13">
+        <v>0.84500002861022949</v>
+      </c>
+      <c r="C52" s="13">
+        <v>25.25</v>
+      </c>
+      <c r="D52" s="14">
+        <v>25.459508277435798</v>
+      </c>
+      <c r="E52" s="14">
+        <v>173.38018734075604</v>
+      </c>
+      <c r="F52" s="15">
+        <v>205.18364671053826</v>
+      </c>
+      <c r="G52" s="15">
+        <v>14372990.223637559</v>
+      </c>
+      <c r="H52" s="15">
+        <v>12145177.150188286</v>
+      </c>
+      <c r="I52" s="15">
+        <v>10007773.539522871</v>
+      </c>
+      <c r="J52" s="15">
+        <v>12146453.651232932</v>
+      </c>
+      <c r="K52" s="15">
+        <v>2138680.1117100604</v>
+      </c>
+      <c r="L52" s="14">
+        <v>1276.5010446459914</v>
+      </c>
+      <c r="M52" s="23">
+        <v>0.87300002574920654</v>
+      </c>
+      <c r="N52" s="23">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="O52" s="23">
+        <v>0.83933335542678833</v>
+      </c>
+      <c r="P52" s="23">
+        <v>0.75640476601464413</v>
+      </c>
+      <c r="Q52" s="23">
+        <v>8.2928589412144205E-2</v>
+      </c>
+      <c r="R52" s="23">
+        <v>6.2527214183288354E-2</v>
+      </c>
+      <c r="S52" s="9">
+        <v>9.3790821274932531E-4</v>
+      </c>
+      <c r="T52" s="9">
+        <v>88.418662172764797</v>
+      </c>
+      <c r="U52" s="11">
         <v>1</v>
       </c>
     </row>
@@ -17546,7 +17780,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG51"/>
+  <dimension ref="A1:AG52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17587,7 +17821,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>29</v>
@@ -17693,28 +17927,28 @@
         <v>1</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -20057,6 +20291,50 @@
         <v>116.62513925726178</v>
       </c>
       <c r="N51" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="12.75">
+      <c r="A52" s="12">
+        <v>45869</v>
+      </c>
+      <c r="B52" s="13">
+        <v>0.84500002861022949</v>
+      </c>
+      <c r="C52" s="13">
+        <v>25.25</v>
+      </c>
+      <c r="D52" s="14">
+        <v>25.459508277435798</v>
+      </c>
+      <c r="E52" s="14">
+        <v>173.38018734075604</v>
+      </c>
+      <c r="F52" s="15">
+        <v>205.18364671053826</v>
+      </c>
+      <c r="G52" s="15">
+        <v>14259580.812962687</v>
+      </c>
+      <c r="H52" s="15">
+        <v>12049346.194923351</v>
+      </c>
+      <c r="I52" s="15">
+        <v>9962785.3792499099</v>
+      </c>
+      <c r="J52" s="15">
+        <v>12050411.787619369</v>
+      </c>
+      <c r="K52" s="15">
+        <v>2087626.4083694592</v>
+      </c>
+      <c r="L52" s="14">
+        <v>1065.5926960182564</v>
+      </c>
+      <c r="M52" s="9">
+        <v>21.060721400501365</v>
+      </c>
+      <c r="N52" s="9">
         <v>1</v>
       </c>
     </row>
@@ -20076,7 +20354,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG51"/>
+  <dimension ref="A1:AG52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20117,7 +20395,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>29</v>
@@ -20223,28 +20501,28 @@
         <v>1</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -22587,6 +22865,50 @@
         <v>116.62513925726178</v>
       </c>
       <c r="N51" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="12.75">
+      <c r="A52" s="12">
+        <v>45869</v>
+      </c>
+      <c r="B52" s="13">
+        <v>0.84500002861022949</v>
+      </c>
+      <c r="C52" s="13">
+        <v>25.25</v>
+      </c>
+      <c r="D52" s="14">
+        <v>25.459508277435798</v>
+      </c>
+      <c r="E52" s="14">
+        <v>36.324584391257815</v>
+      </c>
+      <c r="F52" s="15">
+        <v>42.987672380320291</v>
+      </c>
+      <c r="G52" s="15">
+        <v>127213206.98727062</v>
+      </c>
+      <c r="H52" s="15">
+        <v>107495163.54384272</v>
+      </c>
+      <c r="I52" s="15">
+        <v>87439952.662602708</v>
+      </c>
+      <c r="J52" s="15">
+        <v>107495709.00365798</v>
+      </c>
+      <c r="K52" s="15">
+        <v>20055756.341055274</v>
+      </c>
+      <c r="L52" s="14">
+        <v>545.45981526282844</v>
+      </c>
+      <c r="M52" s="9">
+        <v>21.060721400501365</v>
+      </c>
+      <c r="N52" s="9">
         <v>1</v>
       </c>
     </row>
@@ -22606,7 +22928,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI51"/>
+  <dimension ref="A1:AI52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22647,22 +22969,22 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -22767,28 +23089,28 @@
         <v>1</v>
       </c>
       <c r="R3" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="X3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y3" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA3" s="24">
         <v>44561</v>
@@ -25419,6 +25741,56 @@
         <v>116.62513925726178</v>
       </c>
       <c r="P51" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="12.75">
+      <c r="A52" s="12">
+        <v>45869</v>
+      </c>
+      <c r="B52" s="13">
+        <v>0.84500002861022949</v>
+      </c>
+      <c r="C52" s="13">
+        <v>25.25</v>
+      </c>
+      <c r="D52" s="14">
+        <v>25.459508277435798</v>
+      </c>
+      <c r="E52" s="14">
+        <v>2249304</v>
+      </c>
+      <c r="F52" s="14">
+        <v>4371430.3934544772</v>
+      </c>
+      <c r="G52" s="14">
+        <v>18.690686026233902</v>
+      </c>
+      <c r="H52" s="15">
+        <v>22.119154311715764</v>
+      </c>
+      <c r="I52" s="15">
+        <v>131201279.09812769</v>
+      </c>
+      <c r="J52" s="15">
+        <v>110865084.5916166</v>
+      </c>
+      <c r="K52" s="15">
+        <v>83580996.335620016</v>
+      </c>
+      <c r="L52" s="15">
+        <v>110865237.56597947</v>
+      </c>
+      <c r="M52" s="15">
+        <v>27284241.23035945</v>
+      </c>
+      <c r="N52" s="14">
+        <v>152.97436286685797</v>
+      </c>
+      <c r="O52" s="9">
+        <v>21.060721400501365</v>
+      </c>
+      <c r="P52" s="9">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="33">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -133,10 +133,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>每年投入本金</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -161,6 +157,18 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>深创100ETF</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>最高价</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -171,10 +179,6 @@
   <si>
     <t>标志</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>深创100ETF</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>成交量</t>
@@ -605,7 +609,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -755,6 +759,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -764,7 +771,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -913,6 +920,9 @@
                   <c:v>9361161.4375400841</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>9361334.8177274242</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>9361334.8177274242</c:v>
                 </c:pt>
               </c:numCache>
@@ -956,7 +966,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1106,6 +1116,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1115,7 +1128,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1265,6 +1278,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>11299210.561180593</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>13491985.41697097</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1307,7 +1323,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1457,6 +1473,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1466,7 +1485,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1616,6 +1635,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>1937875.7434531692</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4130650.5992435459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1637,11 +1659,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="454845952"/>
-        <c:axId val="454848512"/>
+        <c:axId val="399396864"/>
+        <c:axId val="399399168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="454845952"/>
+        <c:axId val="399396864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1684,14 +1706,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454848512"/>
+        <c:crossAx val="399399168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="454848512"/>
+        <c:axId val="399399168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1742,7 +1764,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454845952"/>
+        <c:crossAx val="399396864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1933,7 +1955,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2083,6 +2105,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>18.690686026233902</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-413625.61990547209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2097,8 +2122,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="583668480"/>
-        <c:axId val="583666304"/>
+        <c:axId val="93144960"/>
+        <c:axId val="93143424"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2123,7 +2148,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2273,6 +2298,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2282,7 +2310,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2432,6 +2460,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.84500002861022949</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0089999437332153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2448,11 +2479,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="583581056"/>
-        <c:axId val="583664768"/>
+        <c:axId val="93136000"/>
+        <c:axId val="93137536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="583581056"/>
+        <c:axId val="93136000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2495,14 +2526,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583664768"/>
+        <c:crossAx val="93137536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="583664768"/>
+        <c:axId val="93137536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2553,12 +2584,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583581056"/>
+        <c:crossAx val="93136000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="583666304"/>
+        <c:axId val="93143424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2595,12 +2626,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583668480"/>
+        <c:crossAx val="93144960"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="583668480"/>
+        <c:axId val="93144960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2609,7 +2640,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="583666304"/>
+        <c:crossAx val="93143424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2771,7 +2802,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2921,6 +2952,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>173.38018734075604</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-80971.164290520144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2935,8 +2969,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="458671616"/>
-        <c:axId val="458670080"/>
+        <c:axId val="399742080"/>
+        <c:axId val="399735808"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2961,7 +2995,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3111,6 +3145,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3120,7 +3157,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3270,6 +3307,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.84500002861022949</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0089999437332153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3286,11 +3326,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="458645504"/>
-        <c:axId val="458647808"/>
+        <c:axId val="399724544"/>
+        <c:axId val="399728000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="458645504"/>
+        <c:axId val="399724544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3333,14 +3373,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458647808"/>
+        <c:crossAx val="399728000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="458647808"/>
+        <c:axId val="399728000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3391,12 +3431,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458645504"/>
+        <c:crossAx val="399724544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="458670080"/>
+        <c:axId val="399735808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3433,12 +3473,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458671616"/>
+        <c:crossAx val="399742080"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="458671616"/>
+        <c:axId val="399742080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3447,7 +3487,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="458670080"/>
+        <c:crossAx val="399735808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3626,7 +3666,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3776,6 +3816,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3785,7 +3828,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3934,6 +3977,9 @@
                   <c:v>10007600.159335531</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>10007773.539522871</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>10007773.539522871</c:v>
                 </c:pt>
               </c:numCache>
@@ -3977,7 +4023,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4127,6 +4173,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4136,7 +4185,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4286,6 +4335,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>12146453.651232932</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14503622.827972995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4328,7 +4380,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4478,6 +4530,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4487,7 +4542,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4637,6 +4692,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>2138680.1117100604</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4495849.2884501237</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4658,11 +4716,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="459979392"/>
-        <c:axId val="459989376"/>
+        <c:axId val="503276288"/>
+        <c:axId val="503277824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="459979392"/>
+        <c:axId val="503276288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4705,14 +4763,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459989376"/>
+        <c:crossAx val="503277824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="459989376"/>
+        <c:axId val="503277824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4763,7 +4821,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459979392"/>
+        <c:crossAx val="503276288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4954,7 +5012,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5104,6 +5162,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>173.38018734075604</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-97165.397148624164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5118,8 +5179,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="553047168"/>
-        <c:axId val="553032704"/>
+        <c:axId val="543239168"/>
+        <c:axId val="543237248"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5144,7 +5205,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5294,6 +5355,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5303,7 +5367,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5453,6 +5517,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.84500002861022949</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0089999437332153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5469,11 +5536,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="549689600"/>
-        <c:axId val="553030784"/>
+        <c:axId val="517650304"/>
+        <c:axId val="525998336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="549689600"/>
+        <c:axId val="517650304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5516,14 +5583,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553030784"/>
+        <c:crossAx val="525998336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="553030784"/>
+        <c:axId val="525998336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5574,12 +5641,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549689600"/>
+        <c:crossAx val="517650304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="553032704"/>
+        <c:axId val="543237248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5616,12 +5683,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553047168"/>
+        <c:crossAx val="543239168"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="553047168"/>
+        <c:axId val="543239168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5630,7 +5697,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="553032704"/>
+        <c:crossAx val="543237248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5809,7 +5876,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5959,6 +6026,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5968,7 +6038,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6117,6 +6187,9 @@
                   <c:v>9962611.9990625698</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>9962785.3792499099</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>9962785.3792499099</c:v>
                 </c:pt>
               </c:numCache>
@@ -6160,7 +6233,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6310,6 +6383,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6319,7 +6395,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6469,6 +6545,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>12050411.787619369</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14388981.830634605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6511,7 +6590,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6661,6 +6740,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6670,7 +6752,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6820,6 +6902,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>2087626.4083694592</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4426196.4513846952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6841,11 +6926,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="574839808"/>
-        <c:axId val="574854272"/>
+        <c:axId val="543270016"/>
+        <c:axId val="543271936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="574839808"/>
+        <c:axId val="543270016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6888,14 +6973,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574854272"/>
+        <c:crossAx val="543271936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="574854272"/>
+        <c:axId val="543271936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6946,7 +7031,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574839808"/>
+        <c:crossAx val="543270016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7137,7 +7222,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7287,6 +7372,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>173.38018734075604</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-97165.397148624164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7301,8 +7389,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="581956352"/>
-        <c:axId val="581889024"/>
+        <c:axId val="545843840"/>
+        <c:axId val="545842304"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7327,7 +7415,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7477,6 +7565,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7486,7 +7577,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7636,6 +7727,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.84500002861022949</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0089999437332153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7652,11 +7746,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="581885312"/>
-        <c:axId val="581887104"/>
+        <c:axId val="545780480"/>
+        <c:axId val="545782016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="581885312"/>
+        <c:axId val="545780480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7699,14 +7793,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="581887104"/>
+        <c:crossAx val="545782016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="581887104"/>
+        <c:axId val="545782016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7757,12 +7851,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="581885312"/>
+        <c:crossAx val="545780480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="581889024"/>
+        <c:axId val="545842304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7799,12 +7893,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="581956352"/>
+        <c:crossAx val="545843840"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="581956352"/>
+        <c:axId val="545843840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7813,7 +7907,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="581889024"/>
+        <c:crossAx val="545842304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7992,7 +8086,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8142,6 +8236,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8151,7 +8248,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8300,6 +8397,9 @@
                   <c:v>87439916.338018313</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>87439952.662602708</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>87439952.662602708</c:v>
                 </c:pt>
               </c:numCache>
@@ -8343,7 +8443,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8493,6 +8593,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8502,7 +8605,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8652,6 +8755,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>107495709.00365798</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>128358664.1520932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8694,7 +8800,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8844,6 +8950,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8853,7 +8962,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9003,6 +9112,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>20055756.341055274</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>40918711.489490494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9024,11 +9136,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="581996544"/>
-        <c:axId val="581998080"/>
+        <c:axId val="546091008"/>
+        <c:axId val="546092544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="581996544"/>
+        <c:axId val="546091008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9071,14 +9183,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="581998080"/>
+        <c:crossAx val="546092544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="581998080"/>
+        <c:axId val="546092544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9129,7 +9241,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="581996544"/>
+        <c:crossAx val="546091008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9320,7 +9432,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9470,6 +9582,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>127213206.98727062</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>126777206.34168589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9484,8 +9599,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="582476928"/>
-        <c:axId val="582442368"/>
+        <c:axId val="546759040"/>
+        <c:axId val="546568064"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9510,7 +9625,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9660,6 +9775,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9669,7 +9787,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9819,6 +9937,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.84500002861022949</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0089999437332153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9835,11 +9956,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="582438912"/>
-        <c:axId val="582440832"/>
+        <c:axId val="546302592"/>
+        <c:axId val="546566528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="582438912"/>
+        <c:axId val="546302592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9882,14 +10003,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582440832"/>
+        <c:crossAx val="546566528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="582440832"/>
+        <c:axId val="546566528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9940,12 +10061,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582438912"/>
+        <c:crossAx val="546302592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="582442368"/>
+        <c:axId val="546568064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9982,12 +10103,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582476928"/>
+        <c:crossAx val="546759040"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="582476928"/>
+        <c:axId val="546759040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9996,7 +10117,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="582442368"/>
+        <c:crossAx val="546568064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10175,7 +10296,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10325,6 +10446,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10334,7 +10458,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10483,6 +10607,9 @@
                   <c:v>83580977.644933984</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>83580996.335620016</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>83580996.335620016</c:v>
                 </c:pt>
               </c:numCache>
@@ -10526,7 +10653,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10676,6 +10803,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10685,7 +10815,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10835,6 +10965,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>110865237.56597947</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>132382236.20209959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10877,7 +11010,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11027,6 +11160,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11036,7 +11172,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11186,6 +11322,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>27284241.23035945</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>48801239.866479576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11207,11 +11346,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="582771456"/>
-        <c:axId val="582773376"/>
+        <c:axId val="547212288"/>
+        <c:axId val="547967744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="582771456"/>
+        <c:axId val="547212288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11254,14 +11393,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582773376"/>
+        <c:crossAx val="547967744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="582773376"/>
+        <c:axId val="547967744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11312,7 +11451,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582771456"/>
+        <c:crossAx val="547212288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12026,7 +12165,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG52"/>
+  <dimension ref="A1:AG53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12163,28 +12302,28 @@
       </c>
       <c r="M3" s="9"/>
       <c r="P3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="R3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="S3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -14293,6 +14432,44 @@
       </c>
       <c r="L52" s="14">
         <v>1065.5926960182564</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="12.75">
+      <c r="A53" s="12">
+        <v>45898</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1.0089999437332153</v>
+      </c>
+      <c r="C53" s="13">
+        <v>30.020000459999999</v>
+      </c>
+      <c r="D53" s="14">
+        <v>25.492415128467428</v>
+      </c>
+      <c r="E53" s="14">
+        <v>-80971.164290520144</v>
+      </c>
+      <c r="F53" s="15">
+        <v>-80248.928449820931</v>
+      </c>
+      <c r="G53" s="15">
+        <v>13290336.380365636</v>
+      </c>
+      <c r="H53" s="15">
+        <v>13409948.659984432</v>
+      </c>
+      <c r="I53" s="15">
+        <v>9361334.8177274242</v>
+      </c>
+      <c r="J53" s="15">
+        <v>13491985.41697097</v>
+      </c>
+      <c r="K53" s="15">
+        <v>4130650.5992435459</v>
+      </c>
+      <c r="L53" s="14">
+        <v>82036.756986538399</v>
       </c>
     </row>
   </sheetData>
@@ -14311,7 +14488,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM52"/>
+  <dimension ref="A1:AM53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14352,13 +14529,13 @@
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>10</v>
@@ -14388,10 +14565,10 @@
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>4</v>
@@ -14412,7 +14589,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.1" customHeight="1">
@@ -14492,28 +14669,28 @@
       <c r="R3" s="23"/>
       <c r="S3" s="9"/>
       <c r="V3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="16" t="s">
+      <c r="X3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="16" t="s">
+      <c r="Y3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="16" t="s">
+      <c r="Z3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="Z3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="AA3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="AB3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="AC3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="AE3" s="24">
         <v>44561</v>
@@ -17762,6 +17939,71 @@
       </c>
       <c r="U52" s="11">
         <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" ht="12.75">
+      <c r="A53" s="12">
+        <v>45898</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1.0089999437332153</v>
+      </c>
+      <c r="C53" s="13">
+        <v>30.020000459999999</v>
+      </c>
+      <c r="D53" s="14">
+        <v>25.492415128467428</v>
+      </c>
+      <c r="E53" s="14">
+        <v>-97165.397148624164</v>
+      </c>
+      <c r="F53" s="15">
+        <v>-96298.714139785108</v>
+      </c>
+      <c r="G53" s="15">
+        <v>14276691.509497773</v>
+      </c>
+      <c r="H53" s="15">
+        <v>14405180.929779725</v>
+      </c>
+      <c r="I53" s="15">
+        <v>10007773.539522871</v>
+      </c>
+      <c r="J53" s="15">
+        <v>14503622.827972995</v>
+      </c>
+      <c r="K53" s="15">
+        <v>4495849.2884501237</v>
+      </c>
+      <c r="L53" s="14">
+        <v>98441.898193270157</v>
+      </c>
+      <c r="M53" s="23">
+        <v>1.0199999809265137</v>
+      </c>
+      <c r="N53" s="23">
+        <v>0.8399999737739563</v>
+      </c>
+      <c r="O53" s="23">
+        <v>0.95633329947789514</v>
+      </c>
+      <c r="P53" s="23">
+        <v>0.77864285877772754</v>
+      </c>
+      <c r="Q53" s="23">
+        <v>0.1776904407001676</v>
+      </c>
+      <c r="R53" s="23">
+        <v>6.0221088581344666E-2</v>
+      </c>
+      <c r="S53" s="9">
+        <v>9.0331632872016994E-4</v>
+      </c>
+      <c r="T53" s="9">
+        <v>196.70898781595332</v>
+      </c>
+      <c r="U53" s="11">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -17780,7 +18022,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG52"/>
+  <dimension ref="A1:AG53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17821,13 +18063,13 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>10</v>
@@ -17860,7 +18102,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -17927,28 +18169,28 @@
         <v>1</v>
       </c>
       <c r="P3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="R3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="S3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -20336,6 +20578,50 @@
       </c>
       <c r="N52" s="9">
         <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="12.75">
+      <c r="A53" s="12">
+        <v>45898</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1.0089999437332153</v>
+      </c>
+      <c r="C53" s="13">
+        <v>30.020000459999999</v>
+      </c>
+      <c r="D53" s="14">
+        <v>25.492415128467428</v>
+      </c>
+      <c r="E53" s="14">
+        <v>-97165.397148624164</v>
+      </c>
+      <c r="F53" s="15">
+        <v>-96298.714139785108</v>
+      </c>
+      <c r="G53" s="15">
+        <v>14163282.098822901</v>
+      </c>
+      <c r="H53" s="15">
+        <v>14290750.840789963</v>
+      </c>
+      <c r="I53" s="15">
+        <v>9962785.3792499099</v>
+      </c>
+      <c r="J53" s="15">
+        <v>14388981.830634605</v>
+      </c>
+      <c r="K53" s="15">
+        <v>4426196.4513846952</v>
+      </c>
+      <c r="L53" s="14">
+        <v>98230.989844642419</v>
+      </c>
+      <c r="M53" s="9">
+        <v>143.9725445834176</v>
+      </c>
+      <c r="N53" s="9">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -20354,7 +20640,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG52"/>
+  <dimension ref="A1:AG53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20395,13 +20681,13 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>10</v>
@@ -20434,7 +20720,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -20501,28 +20787,28 @@
         <v>1</v>
       </c>
       <c r="P3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="R3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="S3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -22910,6 +23196,50 @@
       </c>
       <c r="N52" s="9">
         <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="12.75">
+      <c r="A53" s="12">
+        <v>45898</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1.0089999437332153</v>
+      </c>
+      <c r="C53" s="13">
+        <v>30.020000459999999</v>
+      </c>
+      <c r="D53" s="14">
+        <v>25.492415128467428</v>
+      </c>
+      <c r="E53" s="14">
+        <v>-439924.62686264742</v>
+      </c>
+      <c r="F53" s="15">
+        <v>-436000.64558473922</v>
+      </c>
+      <c r="G53" s="15">
+        <v>126777206.34168589</v>
+      </c>
+      <c r="H53" s="15">
+        <v>127918194.06541529</v>
+      </c>
+      <c r="I53" s="15">
+        <v>87439952.662602708</v>
+      </c>
+      <c r="J53" s="15">
+        <v>128358664.1520932</v>
+      </c>
+      <c r="K53" s="15">
+        <v>40918711.489490494</v>
+      </c>
+      <c r="L53" s="14">
+        <v>440470.08667791024</v>
+      </c>
+      <c r="M53" s="9">
+        <v>143.9725445834176</v>
+      </c>
+      <c r="N53" s="9">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -22928,7 +23258,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI52"/>
+  <dimension ref="A1:AI53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22969,22 +23299,22 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -23014,7 +23344,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.1" customHeight="1">
@@ -23089,28 +23419,28 @@
         <v>1</v>
       </c>
       <c r="R3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="U3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="V3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="V3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="W3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="X3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="Y3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="AA3" s="24">
         <v>44561</v>
@@ -25792,6 +26122,56 @@
       </c>
       <c r="P52" s="9">
         <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="12.75">
+      <c r="A53" s="12">
+        <v>45898</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1.0089999437332153</v>
+      </c>
+      <c r="C53" s="13">
+        <v>30.020000459999999</v>
+      </c>
+      <c r="D53" s="14">
+        <v>25.492415128467428</v>
+      </c>
+      <c r="E53" s="14">
+        <v>4079918</v>
+      </c>
+      <c r="F53" s="14">
+        <v>4339325.9928879309</v>
+      </c>
+      <c r="G53" s="14">
+        <v>-413625.61990547209</v>
+      </c>
+      <c r="H53" s="15">
+        <v>-409936.217018102</v>
+      </c>
+      <c r="I53" s="15">
+        <v>130791342.8811096</v>
+      </c>
+      <c r="J53" s="15">
+        <v>131968457.60783125</v>
+      </c>
+      <c r="K53" s="15">
+        <v>83580996.335620016</v>
+      </c>
+      <c r="L53" s="15">
+        <v>132382236.20209959</v>
+      </c>
+      <c r="M53" s="15">
+        <v>48801239.866479576</v>
+      </c>
+      <c r="N53" s="14">
+        <v>413778.59426833893</v>
+      </c>
+      <c r="O53" s="9">
+        <v>143.9725445834176</v>
+      </c>
+      <c r="P53" s="9">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
@@ -133,6 +133,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>每年投入本金</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -154,10 +158,6 @@
   </si>
   <si>
     <t>年化收益率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -609,7 +609,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -762,6 +762,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -771,7 +774,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -923,6 +926,9 @@
                   <c:v>9361334.8177274242</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>9361334.8177274242</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>9361334.8177274242</c:v>
                 </c:pt>
               </c:numCache>
@@ -966,7 +972,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1119,6 +1125,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1128,7 +1137,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1281,6 +1290,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>13491985.41697097</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>14541923.524652803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1323,7 +1335,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1476,6 +1488,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1485,7 +1500,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1638,6 +1653,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>4130650.5992435459</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5180588.7069253791</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1659,11 +1677,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="399396864"/>
-        <c:axId val="399399168"/>
+        <c:axId val="106361216"/>
+        <c:axId val="106363136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="399396864"/>
+        <c:axId val="106361216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1706,14 +1724,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399399168"/>
+        <c:crossAx val="106363136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="399399168"/>
+        <c:axId val="106363136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1764,7 +1782,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399396864"/>
+        <c:crossAx val="106361216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1955,7 +1973,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2108,6 +2126,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>-413625.61990547209</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-1303864.9910474925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2122,8 +2143,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="93144960"/>
-        <c:axId val="93143424"/>
+        <c:axId val="711114112"/>
+        <c:axId val="711112192"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2148,7 +2169,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2301,6 +2322,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2310,7 +2334,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2463,6 +2487,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1.0089999437332153</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0880000591278076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2479,11 +2506,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93136000"/>
-        <c:axId val="93137536"/>
+        <c:axId val="711102848"/>
+        <c:axId val="711105152"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="93136000"/>
+        <c:axId val="711102848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2526,14 +2553,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93137536"/>
+        <c:crossAx val="711105152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="93137536"/>
+        <c:axId val="711105152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2584,12 +2611,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93136000"/>
+        <c:crossAx val="711102848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93143424"/>
+        <c:axId val="711112192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2626,12 +2653,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93144960"/>
+        <c:crossAx val="711114112"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="93144960"/>
+        <c:axId val="711114112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2640,7 +2667,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93143424"/>
+        <c:crossAx val="711112192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2802,7 +2829,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2955,6 +2982,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>-80971.164290520144</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-207876.55105672523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2969,8 +2999,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="399742080"/>
-        <c:axId val="399735808"/>
+        <c:axId val="106612992"/>
+        <c:axId val="106605952"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2995,7 +3025,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3148,6 +3178,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3157,7 +3190,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3310,6 +3343,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1.0089999437332153</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0880000591278076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3326,11 +3362,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="399724544"/>
-        <c:axId val="399728000"/>
+        <c:axId val="106601472"/>
+        <c:axId val="106603648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="399724544"/>
+        <c:axId val="106601472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3373,14 +3409,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399728000"/>
+        <c:crossAx val="106603648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="399728000"/>
+        <c:axId val="106603648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3431,12 +3467,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399724544"/>
+        <c:crossAx val="106601472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="399735808"/>
+        <c:axId val="106605952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3473,12 +3509,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399742080"/>
+        <c:crossAx val="106612992"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="399742080"/>
+        <c:axId val="106612992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3487,7 +3523,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="399735808"/>
+        <c:crossAx val="106605952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3666,7 +3702,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3819,6 +3855,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3828,7 +3867,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3980,6 +4019,9 @@
                   <c:v>10007773.539522871</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>10007773.539522871</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>10007773.539522871</c:v>
                 </c:pt>
               </c:numCache>
@@ -4023,7 +4065,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4176,6 +4218,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4185,7 +4230,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4338,6 +4383,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>14503622.827972995</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>15631483.104676316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4380,7 +4428,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4533,6 +4581,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4542,7 +4593,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4695,6 +4746,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>4495849.2884501237</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5623709.5651534442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4716,11 +4770,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="503276288"/>
-        <c:axId val="503277824"/>
+        <c:axId val="307184384"/>
+        <c:axId val="307196672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="503276288"/>
+        <c:axId val="307184384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4763,14 +4817,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503277824"/>
+        <c:crossAx val="307196672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="503277824"/>
+        <c:axId val="307196672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4821,7 +4875,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503276288"/>
+        <c:crossAx val="307184384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5012,7 +5066,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5165,6 +5219,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>-97165.397148624164</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-249451.86126807026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5179,8 +5236,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="543239168"/>
-        <c:axId val="543237248"/>
+        <c:axId val="410211072"/>
+        <c:axId val="410208512"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5205,7 +5262,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5358,6 +5415,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5367,7 +5427,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5520,6 +5580,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1.0089999437332153</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0880000591278076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5536,11 +5599,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="517650304"/>
-        <c:axId val="525998336"/>
+        <c:axId val="406154240"/>
+        <c:axId val="410206976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="517650304"/>
+        <c:axId val="406154240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5583,14 +5646,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525998336"/>
+        <c:crossAx val="410206976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="525998336"/>
+        <c:axId val="410206976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5641,12 +5704,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517650304"/>
+        <c:crossAx val="406154240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="543237248"/>
+        <c:axId val="410208512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5683,12 +5746,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543239168"/>
+        <c:crossAx val="410211072"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="543239168"/>
+        <c:axId val="410211072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5697,7 +5760,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="543237248"/>
+        <c:crossAx val="410208512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5876,7 +5939,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6029,6 +6092,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6038,7 +6104,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6190,6 +6256,9 @@
                   <c:v>9962785.3792499099</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>9962785.3792499099</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>9962785.3792499099</c:v>
                 </c:pt>
               </c:numCache>
@@ -6233,7 +6302,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6386,6 +6455,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6395,7 +6467,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6548,6 +6620,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>14388981.830634605</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>15507882.750807777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6590,7 +6665,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6743,6 +6818,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6752,7 +6830,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6905,6 +6983,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>4426196.4513846952</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5545097.3715578672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6926,11 +7007,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="543270016"/>
-        <c:axId val="543271936"/>
+        <c:axId val="410228992"/>
+        <c:axId val="410238976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="543270016"/>
+        <c:axId val="410228992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6973,14 +7054,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543271936"/>
+        <c:crossAx val="410238976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="543271936"/>
+        <c:axId val="410238976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7031,7 +7112,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543270016"/>
+        <c:crossAx val="410228992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7222,7 +7303,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7375,6 +7456,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>-97165.397148624164</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-249451.86126807026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7389,8 +7473,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="545843840"/>
-        <c:axId val="545842304"/>
+        <c:axId val="647118208"/>
+        <c:axId val="641467520"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7415,7 +7499,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7568,6 +7652,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7577,7 +7664,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7730,6 +7817,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1.0089999437332153</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0880000591278076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7746,11 +7836,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="545780480"/>
-        <c:axId val="545782016"/>
+        <c:axId val="638199296"/>
+        <c:axId val="638200832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="545780480"/>
+        <c:axId val="638199296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7793,14 +7883,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545782016"/>
+        <c:crossAx val="638200832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="545782016"/>
+        <c:axId val="638200832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7851,12 +7941,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545780480"/>
+        <c:crossAx val="638199296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="545842304"/>
+        <c:axId val="641467520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7893,12 +7983,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545843840"/>
+        <c:crossAx val="647118208"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="545843840"/>
+        <c:axId val="647118208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7907,7 +7997,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="545842304"/>
+        <c:crossAx val="641467520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8086,7 +8176,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8239,6 +8329,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8248,7 +8341,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8400,6 +8493,9 @@
                   <c:v>87439952.662602708</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>87439952.662602708</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>87439952.662602708</c:v>
                 </c:pt>
               </c:numCache>
@@ -8443,7 +8539,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8596,6 +8692,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8605,7 +8704,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8758,6 +8857,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>128358664.1520932</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>138374078.08249041</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8800,7 +8902,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8953,6 +9055,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8962,7 +9067,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9115,6 +9220,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>40918711.489490494</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>50934125.419887707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9136,11 +9244,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="546091008"/>
-        <c:axId val="546092544"/>
+        <c:axId val="705813120"/>
+        <c:axId val="705814912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="546091008"/>
+        <c:axId val="705813120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9183,14 +9291,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="546092544"/>
+        <c:crossAx val="705814912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="546092544"/>
+        <c:axId val="705814912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9241,7 +9349,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="546091008"/>
+        <c:crossAx val="705813120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9432,7 +9540,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9585,6 +9693,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>126777206.34168589</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>125113939.10301575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9599,8 +9710,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="546759040"/>
-        <c:axId val="546568064"/>
+        <c:axId val="710120192"/>
+        <c:axId val="709953792"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9625,7 +9736,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9778,6 +9889,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9787,7 +9901,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9940,6 +10054,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1.0089999437332153</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0880000591278076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9956,11 +10073,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="546302592"/>
-        <c:axId val="546566528"/>
+        <c:axId val="708307584"/>
+        <c:axId val="709952256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="546302592"/>
+        <c:axId val="708307584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10003,14 +10120,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="546566528"/>
+        <c:crossAx val="709952256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="546566528"/>
+        <c:axId val="709952256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10061,12 +10178,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="546302592"/>
+        <c:crossAx val="708307584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="546568064"/>
+        <c:axId val="709953792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10103,12 +10220,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="546759040"/>
+        <c:crossAx val="710120192"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="546759040"/>
+        <c:axId val="710120192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10117,7 +10234,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="546568064"/>
+        <c:crossAx val="709953792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10296,7 +10413,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10449,6 +10566,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10458,7 +10578,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10610,6 +10730,9 @@
                   <c:v>83580996.335620016</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>83580996.335620016</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>83580996.335620016</c:v>
                 </c:pt>
               </c:numCache>
@@ -10653,7 +10776,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10806,6 +10929,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10815,7 +10941,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10968,6 +11094,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>132382236.20209959</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>142714767.38232094</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11010,7 +11139,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11163,6 +11292,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11172,7 +11304,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11325,6 +11457,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>48801239.866479576</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>59133771.046700925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11346,11 +11481,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="547212288"/>
-        <c:axId val="547967744"/>
+        <c:axId val="710394624"/>
+        <c:axId val="710396160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="547212288"/>
+        <c:axId val="710394624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11393,14 +11528,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547967744"/>
+        <c:crossAx val="710396160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="547967744"/>
+        <c:axId val="710396160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11451,7 +11586,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547212288"/>
+        <c:crossAx val="710394624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12165,7 +12300,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG53"/>
+  <dimension ref="A1:AG54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12302,28 +12437,28 @@
       </c>
       <c r="M3" s="9"/>
       <c r="P3" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -14470,6 +14605,44 @@
       </c>
       <c r="L53" s="14">
         <v>82036.756986538399</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="12.75">
+      <c r="A54" s="12">
+        <v>45930</v>
+      </c>
+      <c r="B54" s="13">
+        <v>1.0880000591278076</v>
+      </c>
+      <c r="C54" s="13">
+        <v>32.849998470000003</v>
+      </c>
+      <c r="D54" s="14">
+        <v>25.595553284386586</v>
+      </c>
+      <c r="E54" s="14">
+        <v>-207876.55105672523</v>
+      </c>
+      <c r="F54" s="15">
+        <v>-191062.99610256357</v>
+      </c>
+      <c r="G54" s="15">
+        <v>13099273.384263072</v>
+      </c>
+      <c r="H54" s="15">
+        <v>14252010.216609539</v>
+      </c>
+      <c r="I54" s="15">
+        <v>9361334.8177274242</v>
+      </c>
+      <c r="J54" s="15">
+        <v>14541923.524652803</v>
+      </c>
+      <c r="K54" s="15">
+        <v>5180588.7069253791</v>
+      </c>
+      <c r="L54" s="14">
+        <v>289913.30804326362</v>
       </c>
     </row>
   </sheetData>
@@ -14488,7 +14661,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM53"/>
+  <dimension ref="A1:AM54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14529,7 +14702,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>26</v>
@@ -14669,28 +14842,28 @@
       <c r="R3" s="23"/>
       <c r="S3" s="9"/>
       <c r="V3" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X3" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z3" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="AB3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC3" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE3" s="24">
         <v>44561</v>
@@ -18003,6 +18176,71 @@
         <v>196.70898781595332</v>
       </c>
       <c r="U53" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" ht="12.75">
+      <c r="A54" s="12">
+        <v>45930</v>
+      </c>
+      <c r="B54" s="13">
+        <v>1.0880000591278076</v>
+      </c>
+      <c r="C54" s="13">
+        <v>32.849998470000003</v>
+      </c>
+      <c r="D54" s="14">
+        <v>25.595553284386586</v>
+      </c>
+      <c r="E54" s="14">
+        <v>-249451.86126807026</v>
+      </c>
+      <c r="F54" s="15">
+        <v>-229275.59532307627</v>
+      </c>
+      <c r="G54" s="15">
+        <v>14047415.914174696</v>
+      </c>
+      <c r="H54" s="15">
+        <v>15283589.345214976</v>
+      </c>
+      <c r="I54" s="15">
+        <v>10007773.539522871</v>
+      </c>
+      <c r="J54" s="15">
+        <v>15631483.104676316</v>
+      </c>
+      <c r="K54" s="15">
+        <v>5623709.5651534442</v>
+      </c>
+      <c r="L54" s="14">
+        <v>347893.75946134044</v>
+      </c>
+      <c r="M54" s="23">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="N54" s="23">
+        <v>0.88899999856948853</v>
+      </c>
+      <c r="O54" s="23">
+        <v>1.0426666935284932</v>
+      </c>
+      <c r="P54" s="23">
+        <v>0.808000004007703</v>
+      </c>
+      <c r="Q54" s="23">
+        <v>0.23466668952079017</v>
+      </c>
+      <c r="R54" s="23">
+        <v>6.4142857481833279E-2</v>
+      </c>
+      <c r="S54" s="9">
+        <v>9.6214286222749917E-4</v>
+      </c>
+      <c r="T54" s="9">
+        <v>243.90004721076767</v>
+      </c>
+      <c r="U54" s="11">
         <v>1.2</v>
       </c>
     </row>
@@ -18022,7 +18260,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG53"/>
+  <dimension ref="A1:AG54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18063,10 +18301,10 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>27</v>
@@ -18169,28 +18407,28 @@
         <v>1</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -20621,6 +20859,50 @@
         <v>143.9725445834176</v>
       </c>
       <c r="N53" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="12.75">
+      <c r="A54" s="12">
+        <v>45930</v>
+      </c>
+      <c r="B54" s="13">
+        <v>1.0880000591278076</v>
+      </c>
+      <c r="C54" s="13">
+        <v>32.849998470000003</v>
+      </c>
+      <c r="D54" s="14">
+        <v>25.595553284386586</v>
+      </c>
+      <c r="E54" s="14">
+        <v>-249451.86126807026</v>
+      </c>
+      <c r="F54" s="15">
+        <v>-229275.59532307627</v>
+      </c>
+      <c r="G54" s="15">
+        <v>13934006.503499825</v>
+      </c>
+      <c r="H54" s="15">
+        <v>15160199.899695065</v>
+      </c>
+      <c r="I54" s="15">
+        <v>9962785.3792499099</v>
+      </c>
+      <c r="J54" s="15">
+        <v>15507882.750807777</v>
+      </c>
+      <c r="K54" s="15">
+        <v>5545097.3715578672</v>
+      </c>
+      <c r="L54" s="14">
+        <v>347682.8511127127</v>
+      </c>
+      <c r="M54" s="9">
+        <v>121.58175372392238</v>
+      </c>
+      <c r="N54" s="9">
         <v>1.2</v>
       </c>
     </row>
@@ -20640,7 +20922,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG53"/>
+  <dimension ref="A1:AG54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20681,10 +20963,10 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>27</v>
@@ -20787,28 +21069,28 @@
         <v>1</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -23239,6 +23521,50 @@
         <v>143.9725445834176</v>
       </c>
       <c r="N53" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="12.75">
+      <c r="A54" s="12">
+        <v>45930</v>
+      </c>
+      <c r="B54" s="13">
+        <v>1.0880000591278076</v>
+      </c>
+      <c r="C54" s="13">
+        <v>32.849998470000003</v>
+      </c>
+      <c r="D54" s="14">
+        <v>25.595553284386586</v>
+      </c>
+      <c r="E54" s="14">
+        <v>-1809634.8540184582</v>
+      </c>
+      <c r="F54" s="15">
+        <v>-1663267.2386701405</v>
+      </c>
+      <c r="G54" s="15">
+        <v>125113939.10301575</v>
+      </c>
+      <c r="H54" s="15">
+        <v>136123973.14179406</v>
+      </c>
+      <c r="I54" s="15">
+        <v>87439952.662602708</v>
+      </c>
+      <c r="J54" s="15">
+        <v>138374078.08249041</v>
+      </c>
+      <c r="K54" s="15">
+        <v>50934125.419887707</v>
+      </c>
+      <c r="L54" s="14">
+        <v>2250104.9406963685</v>
+      </c>
+      <c r="M54" s="9">
+        <v>121.58175372392238</v>
+      </c>
+      <c r="N54" s="9">
         <v>1.2</v>
       </c>
     </row>
@@ -23258,7 +23584,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI53"/>
+  <dimension ref="A1:AI54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23299,7 +23625,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>26</v>
@@ -23419,28 +23745,28 @@
         <v>1</v>
       </c>
       <c r="R3" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="X3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y3" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA3" s="24">
         <v>44561</v>
@@ -26171,6 +26497,56 @@
         <v>143.9725445834176</v>
       </c>
       <c r="P53" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="12.75">
+      <c r="A54" s="12">
+        <v>45930</v>
+      </c>
+      <c r="B54" s="13">
+        <v>1.0880000591278076</v>
+      </c>
+      <c r="C54" s="13">
+        <v>32.849998470000003</v>
+      </c>
+      <c r="D54" s="14">
+        <v>25.595553284386586</v>
+      </c>
+      <c r="E54" s="14">
+        <v>3128893</v>
+      </c>
+      <c r="F54" s="14">
+        <v>4342592.1135788327</v>
+      </c>
+      <c r="G54" s="14">
+        <v>-1303864.9910474925</v>
+      </c>
+      <c r="H54" s="15">
+        <v>-1198405.2575261185</v>
+      </c>
+      <c r="I54" s="15">
+        <v>129592937.62358348</v>
+      </c>
+      <c r="J54" s="15">
+        <v>140997123.79700512</v>
+      </c>
+      <c r="K54" s="15">
+        <v>83580996.335620016</v>
+      </c>
+      <c r="L54" s="15">
+        <v>142714767.38232094</v>
+      </c>
+      <c r="M54" s="15">
+        <v>59133771.046700925</v>
+      </c>
+      <c r="N54" s="14">
+        <v>1717643.5853158315</v>
+      </c>
+      <c r="O54" s="9">
+        <v>121.58175372392238</v>
+      </c>
+      <c r="P54" s="9">
         <v>1.2</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="34">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -165,10 +165,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>PE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>最高价</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -178,6 +174,14 @@
   </si>
   <si>
     <t>标志</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>深创100ETF</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -609,7 +613,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -765,6 +769,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -774,7 +781,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -929,6 +936,9 @@
                   <c:v>9361334.8177274242</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>9361334.8177274242</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>9361334.8177274242</c:v>
                 </c:pt>
               </c:numCache>
@@ -972,7 +982,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1128,6 +1138,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1137,7 +1150,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1293,6 +1306,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>14541923.524652803</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14345433.04972039</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1335,7 +1351,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1491,6 +1507,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1500,7 +1519,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1656,6 +1675,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>5180588.7069253791</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4984098.2319929656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1677,11 +1699,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106361216"/>
-        <c:axId val="106363136"/>
+        <c:axId val="408964480"/>
+        <c:axId val="409216896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="106361216"/>
+        <c:axId val="408964480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1724,14 +1746,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106363136"/>
+        <c:crossAx val="409216896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="106363136"/>
+        <c:axId val="409216896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1782,7 +1804,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106361216"/>
+        <c:crossAx val="408964480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1973,7 +1995,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2129,6 +2151,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>-1303864.9910474925</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-518704.5472883358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2143,8 +2168,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="711114112"/>
-        <c:axId val="711112192"/>
+        <c:axId val="561089536"/>
+        <c:axId val="561088000"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2169,7 +2194,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2325,6 +2350,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2334,7 +2362,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2490,6 +2518,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>1.0880000591278076</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0729999542236328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2506,11 +2537,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="711102848"/>
-        <c:axId val="711105152"/>
+        <c:axId val="561083904"/>
+        <c:axId val="561085824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="711102848"/>
+        <c:axId val="561083904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2553,14 +2584,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="711105152"/>
+        <c:crossAx val="561085824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="711105152"/>
+        <c:axId val="561085824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2611,12 +2642,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="711102848"/>
+        <c:crossAx val="561083904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="711112192"/>
+        <c:axId val="561088000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2653,12 +2684,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="711114112"/>
+        <c:crossAx val="561089536"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="711114112"/>
+        <c:axId val="561089536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2667,7 +2698,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="711112192"/>
+        <c:crossAx val="561088000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2829,7 +2860,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2985,6 +3016,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>-207876.55105672523</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-165332.38013883011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2999,8 +3033,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="106612992"/>
-        <c:axId val="106605952"/>
+        <c:axId val="409263488"/>
+        <c:axId val="409261184"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3025,7 +3059,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3181,6 +3215,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3190,7 +3227,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3346,6 +3383,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>1.0880000591278076</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0729999542236328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3362,11 +3402,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106601472"/>
-        <c:axId val="106603648"/>
+        <c:axId val="409246720"/>
+        <c:axId val="409259008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="106601472"/>
+        <c:axId val="409246720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3409,14 +3449,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106603648"/>
+        <c:crossAx val="409259008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="106603648"/>
+        <c:axId val="409259008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3467,12 +3507,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106601472"/>
+        <c:crossAx val="409246720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106605952"/>
+        <c:axId val="409261184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3509,12 +3549,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106612992"/>
+        <c:crossAx val="409263488"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="106612992"/>
+        <c:axId val="409263488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3523,7 +3563,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106605952"/>
+        <c:crossAx val="409261184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3702,7 +3742,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3858,6 +3898,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3867,7 +3910,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4022,6 +4065,9 @@
                   <c:v>10007773.539522871</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>10007773.539522871</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>10007773.539522871</c:v>
                 </c:pt>
               </c:numCache>
@@ -4065,7 +4111,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4221,6 +4267,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4230,7 +4279,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4386,6 +4435,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>15631483.104676316</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>15420770.392331121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4428,7 +4480,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4584,6 +4636,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4593,7 +4648,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4749,6 +4804,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>5623709.5651534442</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5412996.8528082501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4770,11 +4828,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="307184384"/>
-        <c:axId val="307196672"/>
+        <c:axId val="409520768"/>
+        <c:axId val="409530752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="307184384"/>
+        <c:axId val="409520768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4817,14 +4875,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307196672"/>
+        <c:crossAx val="409530752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="307196672"/>
+        <c:axId val="409530752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4875,7 +4933,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307184384"/>
+        <c:crossAx val="409520768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5066,7 +5124,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5222,6 +5280,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>-249451.86126807026</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-198398.85616659612</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5236,8 +5297,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="410211072"/>
-        <c:axId val="410208512"/>
+        <c:axId val="551470592"/>
+        <c:axId val="551459840"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5262,7 +5323,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5418,6 +5479,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5427,7 +5491,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5583,6 +5647,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>1.0880000591278076</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0729999542236328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5599,11 +5666,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="406154240"/>
-        <c:axId val="410206976"/>
+        <c:axId val="529461248"/>
+        <c:axId val="551457152"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="406154240"/>
+        <c:axId val="529461248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5646,14 +5713,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="410206976"/>
+        <c:crossAx val="551457152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="410206976"/>
+        <c:axId val="551457152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5704,12 +5771,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406154240"/>
+        <c:crossAx val="529461248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="410208512"/>
+        <c:axId val="551459840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5746,12 +5813,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="410211072"/>
+        <c:crossAx val="551470592"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="410211072"/>
+        <c:axId val="551470592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5760,7 +5827,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="410208512"/>
+        <c:crossAx val="551459840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5939,7 +6006,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6095,6 +6162,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6104,7 +6174,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6259,6 +6329,9 @@
                   <c:v>9962785.3792499099</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>9962785.3792499099</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>9962785.3792499099</c:v>
                 </c:pt>
               </c:numCache>
@@ -6302,7 +6375,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6458,6 +6531,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6467,7 +6543,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6623,6 +6699,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>15507882.750807777</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>15298871.191519827</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6665,7 +6744,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6821,6 +6900,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6830,7 +6912,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6986,6 +7068,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>5545097.3715578672</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5336085.8122699168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7007,11 +7092,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="410228992"/>
-        <c:axId val="410238976"/>
+        <c:axId val="558127360"/>
+        <c:axId val="558158208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="410228992"/>
+        <c:axId val="558127360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7054,14 +7139,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="410238976"/>
+        <c:crossAx val="558158208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="410238976"/>
+        <c:axId val="558158208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7112,7 +7197,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="410228992"/>
+        <c:crossAx val="558127360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7303,7 +7388,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7459,6 +7544,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>-249451.86126807026</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-165332.38013883011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7473,8 +7561,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="647118208"/>
-        <c:axId val="641467520"/>
+        <c:axId val="558274816"/>
+        <c:axId val="558273280"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7499,7 +7587,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7655,6 +7743,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7664,7 +7755,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7820,6 +7911,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>1.0880000591278076</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0729999542236328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7836,11 +7930,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="638199296"/>
-        <c:axId val="638200832"/>
+        <c:axId val="558215936"/>
+        <c:axId val="558217472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="638199296"/>
+        <c:axId val="558215936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7883,14 +7977,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638200832"/>
+        <c:crossAx val="558217472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="638200832"/>
+        <c:axId val="558217472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7941,12 +8035,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638199296"/>
+        <c:crossAx val="558215936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="641467520"/>
+        <c:axId val="558273280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7983,12 +8077,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="647118208"/>
+        <c:crossAx val="558274816"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="647118208"/>
+        <c:axId val="558274816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7997,7 +8091,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="641467520"/>
+        <c:crossAx val="558273280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8176,7 +8270,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8332,6 +8426,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8341,7 +8438,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8496,6 +8593,9 @@
                   <c:v>87439952.662602708</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>87439952.662602708</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>87439952.662602708</c:v>
                 </c:pt>
               </c:numCache>
@@ -8539,7 +8639,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8695,6 +8795,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8704,7 +8807,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8860,6 +8963,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>138374078.08249041</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>136497355.87097064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8902,7 +9008,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9058,6 +9164,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9067,7 +9176,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9223,6 +9332,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>50934125.419887707</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>49057403.208367929</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9244,11 +9356,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="705813120"/>
-        <c:axId val="705814912"/>
+        <c:axId val="558946560"/>
+        <c:axId val="558960640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="705813120"/>
+        <c:axId val="558946560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9291,14 +9403,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="705814912"/>
+        <c:crossAx val="558960640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="705814912"/>
+        <c:axId val="558960640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9349,7 +9461,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="705813120"/>
+        <c:crossAx val="558946560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9540,7 +9652,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9696,6 +9808,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>125113939.10301575</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>124117068.87533399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9710,8 +9825,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="710120192"/>
-        <c:axId val="709953792"/>
+        <c:axId val="560252416"/>
+        <c:axId val="560250880"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9736,7 +9851,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9892,6 +10007,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9901,7 +10019,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10057,6 +10175,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>1.0880000591278076</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0729999542236328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10073,11 +10194,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="708307584"/>
-        <c:axId val="709952256"/>
+        <c:axId val="560238592"/>
+        <c:axId val="560240896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="708307584"/>
+        <c:axId val="560238592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10120,14 +10241,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="709952256"/>
+        <c:crossAx val="560240896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="709952256"/>
+        <c:axId val="560240896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10178,12 +10299,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="708307584"/>
+        <c:crossAx val="560238592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="709953792"/>
+        <c:axId val="560250880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10220,12 +10341,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="710120192"/>
+        <c:crossAx val="560252416"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="710120192"/>
+        <c:axId val="560252416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10234,7 +10355,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="709953792"/>
+        <c:crossAx val="560250880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10413,7 +10534,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10569,6 +10690,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10578,7 +10702,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10733,6 +10857,9 @@
                   <c:v>83580996.335620016</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>83580996.335620016</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>83580996.335620016</c:v>
                 </c:pt>
               </c:numCache>
@@ -10776,7 +10903,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10932,6 +11059,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10941,7 +11071,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11097,6 +11227,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>142714767.38232094</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>140770859.72312701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11139,7 +11272,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11295,6 +11428,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11304,7 +11440,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11460,6 +11596,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>59133771.046700925</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>57189863.387506992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11481,11 +11620,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="710394624"/>
-        <c:axId val="710396160"/>
+        <c:axId val="560931200"/>
+        <c:axId val="560933120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="710394624"/>
+        <c:axId val="560931200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11528,14 +11667,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="710396160"/>
+        <c:crossAx val="560933120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="710396160"/>
+        <c:axId val="560933120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11586,7 +11725,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="710394624"/>
+        <c:crossAx val="560931200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12300,7 +12439,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG54"/>
+  <dimension ref="A1:AG55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14645,6 +14784,44 @@
         <v>289913.30804326362</v>
       </c>
     </row>
+    <row r="55" spans="1:12" ht="12.75">
+      <c r="A55" s="12">
+        <v>45961</v>
+      </c>
+      <c r="B55" s="13">
+        <v>1.0729999542236328</v>
+      </c>
+      <c r="C55" s="13">
+        <v>32.159999849999998</v>
+      </c>
+      <c r="D55" s="14">
+        <v>25.690355441740447</v>
+      </c>
+      <c r="E55" s="14">
+        <v>-165332.38013883011</v>
+      </c>
+      <c r="F55" s="15">
+        <v>-154084.23783061208</v>
+      </c>
+      <c r="G55" s="15">
+        <v>12945189.146432459</v>
+      </c>
+      <c r="H55" s="15">
+        <v>13890187.361538297</v>
+      </c>
+      <c r="I55" s="15">
+        <v>9361334.8177274242</v>
+      </c>
+      <c r="J55" s="15">
+        <v>14345433.04972039</v>
+      </c>
+      <c r="K55" s="15">
+        <v>4984098.2319929656</v>
+      </c>
+      <c r="L55" s="14">
+        <v>455245.68818209373</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14661,7 +14838,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM54"/>
+  <dimension ref="A1:AM55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14708,7 +14885,7 @@
         <v>26</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>10</v>
@@ -14738,10 +14915,10 @@
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>4</v>
@@ -14762,7 +14939,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.1" customHeight="1">
@@ -18241,6 +18418,71 @@
         <v>243.90004721076767</v>
       </c>
       <c r="U54" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" ht="12.75">
+      <c r="A55" s="12">
+        <v>45961</v>
+      </c>
+      <c r="B55" s="13">
+        <v>1.0729999542236328</v>
+      </c>
+      <c r="C55" s="13">
+        <v>32.159999849999998</v>
+      </c>
+      <c r="D55" s="14">
+        <v>25.690355441740447</v>
+      </c>
+      <c r="E55" s="14">
+        <v>-198398.85616659612</v>
+      </c>
+      <c r="F55" s="15">
+        <v>-184901.08539673447</v>
+      </c>
+      <c r="G55" s="15">
+        <v>13862514.828777961</v>
+      </c>
+      <c r="H55" s="15">
+        <v>14874477.776703184</v>
+      </c>
+      <c r="I55" s="15">
+        <v>10007773.539522871</v>
+      </c>
+      <c r="J55" s="15">
+        <v>15420770.392331121</v>
+      </c>
+      <c r="K55" s="15">
+        <v>5412996.8528082501</v>
+      </c>
+      <c r="L55" s="14">
+        <v>546292.61562793655</v>
+      </c>
+      <c r="M55" s="23">
+        <v>1.128000020980835</v>
+      </c>
+      <c r="N55" s="23">
+        <v>1.0019999742507935</v>
+      </c>
+      <c r="O55" s="23">
+        <v>1.0676666498184204</v>
+      </c>
+      <c r="P55" s="23">
+        <v>0.84069047939209718</v>
+      </c>
+      <c r="Q55" s="23">
+        <v>0.22697617042632323</v>
+      </c>
+      <c r="R55" s="23">
+        <v>7.7799314949788242E-2</v>
+      </c>
+      <c r="S55" s="9">
+        <v>1.1669897242468235E-3</v>
+      </c>
+      <c r="T55" s="9">
+        <v>194.49714569921676</v>
+      </c>
+      <c r="U55" s="11">
         <v>1.2</v>
       </c>
     </row>
@@ -18260,7 +18502,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG54"/>
+  <dimension ref="A1:AG55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18307,7 +18549,7 @@
         <v>26</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>10</v>
@@ -18340,7 +18582,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -20904,6 +21146,50 @@
       </c>
       <c r="N54" s="9">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="12.75">
+      <c r="A55" s="12">
+        <v>45961</v>
+      </c>
+      <c r="B55" s="13">
+        <v>1.0729999542236328</v>
+      </c>
+      <c r="C55" s="13">
+        <v>32.159999849999998</v>
+      </c>
+      <c r="D55" s="14">
+        <v>25.690355441740447</v>
+      </c>
+      <c r="E55" s="14">
+        <v>-165332.38013883011</v>
+      </c>
+      <c r="F55" s="15">
+        <v>-154084.23783061208</v>
+      </c>
+      <c r="G55" s="15">
+        <v>13779922.265669212</v>
+      </c>
+      <c r="H55" s="15">
+        <v>14785855.960268283</v>
+      </c>
+      <c r="I55" s="15">
+        <v>9962785.3792499099</v>
+      </c>
+      <c r="J55" s="15">
+        <v>15298871.191519827</v>
+      </c>
+      <c r="K55" s="15">
+        <v>5336085.8122699168</v>
+      </c>
+      <c r="L55" s="14">
+        <v>513015.23125154281</v>
+      </c>
+      <c r="M55" s="9">
+        <v>57.419730839413582</v>
+      </c>
+      <c r="N55" s="9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -20922,7 +21208,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG54"/>
+  <dimension ref="A1:AG55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20963,13 +21249,13 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>10</v>
@@ -21002,7 +21288,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -23566,6 +23852,50 @@
       </c>
       <c r="N54" s="9">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="12.75">
+      <c r="A55" s="12">
+        <v>45961</v>
+      </c>
+      <c r="B55" s="13">
+        <v>1.0729999542236328</v>
+      </c>
+      <c r="C55" s="13">
+        <v>32.159999849999998</v>
+      </c>
+      <c r="D55" s="14">
+        <v>25.690355441740447</v>
+      </c>
+      <c r="E55" s="14">
+        <v>-1069641.7086694248</v>
+      </c>
+      <c r="F55" s="15">
+        <v>-996870.22768175427</v>
+      </c>
+      <c r="G55" s="15">
+        <v>124117068.87533399</v>
+      </c>
+      <c r="H55" s="15">
+        <v>133177609.22160485</v>
+      </c>
+      <c r="I55" s="15">
+        <v>87439952.662602708</v>
+      </c>
+      <c r="J55" s="15">
+        <v>136497355.87097064</v>
+      </c>
+      <c r="K55" s="15">
+        <v>49057403.208367929</v>
+      </c>
+      <c r="L55" s="14">
+        <v>3319746.649365793</v>
+      </c>
+      <c r="M55" s="9">
+        <v>57.419730839413582</v>
+      </c>
+      <c r="N55" s="9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -23584,7 +23914,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI54"/>
+  <dimension ref="A1:AI55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23625,22 +23955,22 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -23670,7 +24000,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.1" customHeight="1">
@@ -26548,6 +26878,56 @@
       </c>
       <c r="P54" s="9">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="12.75">
+      <c r="A55" s="12">
+        <v>45961</v>
+      </c>
+      <c r="B55" s="13">
+        <v>1.0729999542236328</v>
+      </c>
+      <c r="C55" s="13">
+        <v>32.159999849999998</v>
+      </c>
+      <c r="D55" s="14">
+        <v>25.690355441740447</v>
+      </c>
+      <c r="E55" s="14">
+        <v>2090603.875</v>
+      </c>
+      <c r="F55" s="14">
+        <v>4311119.1384309772</v>
+      </c>
+      <c r="G55" s="14">
+        <v>-518704.5472883358</v>
+      </c>
+      <c r="H55" s="15">
+        <v>-483415.2557477447</v>
+      </c>
+      <c r="I55" s="15">
+        <v>129109522.36783573</v>
+      </c>
+      <c r="J55" s="15">
+        <v>138534511.59052283</v>
+      </c>
+      <c r="K55" s="15">
+        <v>83580996.335620016</v>
+      </c>
+      <c r="L55" s="15">
+        <v>140770859.72312701</v>
+      </c>
+      <c r="M55" s="15">
+        <v>57189863.387506992</v>
+      </c>
+      <c r="N55" s="14">
+        <v>2236348.1326041673</v>
+      </c>
+      <c r="O55" s="9">
+        <v>57.419730839413582</v>
+      </c>
+      <c r="P55" s="9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(CCI)cn.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="31">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -133,10 +133,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>每年投入本金</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -161,7 +157,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>深创100ETF</t>
+    <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -174,14 +170,6 @@
   </si>
   <si>
     <t>标志</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>深创100ETF</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -613,7 +601,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -772,6 +760,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -781,7 +772,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -939,6 +930,9 @@
                   <c:v>9361334.8177274242</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>9361334.8177274242</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>9361334.8177274242</c:v>
                 </c:pt>
               </c:numCache>
@@ -982,7 +976,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1141,6 +1135,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1150,7 +1147,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1309,6 +1306,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>14345433.04972039</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13918241.906652076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1351,7 +1351,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1510,6 +1510,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1519,7 +1522,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1678,6 +1681,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>4984098.2319929656</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4556907.088924652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1699,11 +1705,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="408964480"/>
-        <c:axId val="409216896"/>
+        <c:axId val="313126272"/>
+        <c:axId val="313128832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="408964480"/>
+        <c:axId val="313126272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1746,14 +1752,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409216896"/>
+        <c:crossAx val="313128832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="409216896"/>
+        <c:axId val="313128832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1804,7 +1810,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408964480"/>
+        <c:crossAx val="313126272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1995,7 +2001,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2154,6 +2160,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>-518704.5472883358</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-73556.079313855051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2168,8 +2177,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="561089536"/>
-        <c:axId val="561088000"/>
+        <c:axId val="475052288"/>
+        <c:axId val="475050752"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2194,7 +2203,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2353,6 +2362,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2362,7 +2374,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2521,6 +2533,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>1.0729999542236328</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0399999618530273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2537,11 +2552,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="561083904"/>
-        <c:axId val="561085824"/>
+        <c:axId val="475010560"/>
+        <c:axId val="475012096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="561083904"/>
+        <c:axId val="475010560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2584,14 +2599,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561085824"/>
+        <c:crossAx val="475012096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="561085824"/>
+        <c:axId val="475012096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2642,12 +2657,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561083904"/>
+        <c:crossAx val="475010560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="561088000"/>
+        <c:axId val="475050752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2684,12 +2699,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561089536"/>
+        <c:crossAx val="475052288"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="561089536"/>
+        <c:axId val="475052288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2698,7 +2713,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="561088000"/>
+        <c:crossAx val="475050752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2860,7 +2875,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3019,6 +3034,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>-165332.38013883011</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-63583.378859762786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3033,8 +3051,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="409263488"/>
-        <c:axId val="409261184"/>
+        <c:axId val="426957824"/>
+        <c:axId val="426955904"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3059,7 +3077,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3218,6 +3236,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3227,7 +3248,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3386,6 +3407,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>1.0729999542236328</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0399999618530273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3402,11 +3426,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="409246720"/>
-        <c:axId val="409259008"/>
+        <c:axId val="426935808"/>
+        <c:axId val="426937344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="409246720"/>
+        <c:axId val="426935808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3449,14 +3473,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409259008"/>
+        <c:crossAx val="426937344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="409259008"/>
+        <c:axId val="426937344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3507,12 +3531,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409246720"/>
+        <c:crossAx val="426935808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="409261184"/>
+        <c:axId val="426955904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3549,12 +3573,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409263488"/>
+        <c:crossAx val="426957824"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="409263488"/>
+        <c:axId val="426957824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3563,7 +3587,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="409261184"/>
+        <c:crossAx val="426955904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3742,7 +3766,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3901,6 +3925,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3910,7 +3937,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4068,6 +4095,9 @@
                   <c:v>10007773.539522871</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>10007773.539522871</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>10007773.539522871</c:v>
                 </c:pt>
               </c:numCache>
@@ -4111,7 +4141,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4270,6 +4300,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4279,7 +4312,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4438,6 +4471,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>15420770.392331121</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14963307.508744044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4480,7 +4516,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4639,6 +4675,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4648,7 +4687,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4807,6 +4846,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>5412996.8528082501</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4955533.9692211729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4828,11 +4870,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="409520768"/>
-        <c:axId val="409530752"/>
+        <c:axId val="560845184"/>
+        <c:axId val="560846720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="409520768"/>
+        <c:axId val="560845184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4875,14 +4917,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409530752"/>
+        <c:crossAx val="560846720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="409530752"/>
+        <c:axId val="560846720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4933,7 +4975,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409520768"/>
+        <c:crossAx val="560845184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5124,7 +5166,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5283,6 +5325,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>-198398.85616659612</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-76300.054631715335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5297,8 +5342,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="551470592"/>
-        <c:axId val="551459840"/>
+        <c:axId val="590915456"/>
+        <c:axId val="590913536"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5323,7 +5368,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5482,6 +5527,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5491,7 +5539,7 @@
               <c:f>'模型四 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5650,6 +5698,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>1.0729999542236328</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0399999618530273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5666,11 +5717,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="529461248"/>
-        <c:axId val="551457152"/>
+        <c:axId val="590893440"/>
+        <c:axId val="590894976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="529461248"/>
+        <c:axId val="590893440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5713,14 +5764,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="551457152"/>
+        <c:crossAx val="590894976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="551457152"/>
+        <c:axId val="590894976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5771,12 +5822,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529461248"/>
+        <c:crossAx val="590893440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="551459840"/>
+        <c:axId val="590913536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5813,12 +5864,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="551470592"/>
+        <c:crossAx val="590915456"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="551470592"/>
+        <c:axId val="590915456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5827,7 +5878,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="551459840"/>
+        <c:crossAx val="590913536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6006,7 +6057,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6165,6 +6216,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6174,7 +6228,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6332,6 +6386,9 @@
                   <c:v>9962785.3792499099</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>9962785.3792499099</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>9962785.3792499099</c:v>
                 </c:pt>
               </c:numCache>
@@ -6375,7 +6432,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6534,6 +6591,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6543,7 +6603,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6702,6 +6762,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>15298871.191519827</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14844133.861885205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6744,7 +6807,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6903,6 +6966,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6912,7 +6978,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7071,6 +7137,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>5336085.8122699168</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4881348.482635295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7092,11 +7161,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="558127360"/>
-        <c:axId val="558158208"/>
+        <c:axId val="591191424"/>
+        <c:axId val="591221888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="558127360"/>
+        <c:axId val="591191424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7139,14 +7208,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558158208"/>
+        <c:crossAx val="591221888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="558158208"/>
+        <c:axId val="591221888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7197,7 +7266,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558127360"/>
+        <c:crossAx val="591191424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7388,7 +7457,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7547,6 +7616,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>-165332.38013883011</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-63583.378859762786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7561,8 +7633,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="558274816"/>
-        <c:axId val="558273280"/>
+        <c:axId val="591415936"/>
+        <c:axId val="591413632"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7587,7 +7659,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7746,6 +7818,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7755,7 +7830,7 @@
               <c:f>'模型四 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7914,6 +7989,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>1.0729999542236328</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0399999618530273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7930,11 +8008,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="558215936"/>
-        <c:axId val="558217472"/>
+        <c:axId val="591385344"/>
+        <c:axId val="591387264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="558215936"/>
+        <c:axId val="591385344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7977,14 +8055,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558217472"/>
+        <c:crossAx val="591387264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="558217472"/>
+        <c:axId val="591387264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8035,12 +8113,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558215936"/>
+        <c:crossAx val="591385344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="558273280"/>
+        <c:axId val="591413632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8077,12 +8155,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558274816"/>
+        <c:crossAx val="591415936"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="558274816"/>
+        <c:axId val="591415936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8091,7 +8169,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="558273280"/>
+        <c:crossAx val="591413632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8270,7 +8348,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8429,6 +8507,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8438,7 +8519,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8596,6 +8677,9 @@
                   <c:v>87439952.662602708</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>87439952.662602708</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>87439952.662602708</c:v>
                 </c:pt>
               </c:numCache>
@@ -8639,7 +8723,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8798,6 +8882,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8807,7 +8894,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8966,6 +9053,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>136497355.87097064</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>132401493.54502271</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9008,7 +9098,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9167,6 +9257,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9176,7 +9269,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9335,6 +9428,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>49057403.208367929</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44961540.882420003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9356,11 +9452,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="558946560"/>
-        <c:axId val="558960640"/>
+        <c:axId val="592430592"/>
+        <c:axId val="592432512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="558946560"/>
+        <c:axId val="592430592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9403,14 +9499,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558960640"/>
+        <c:crossAx val="592432512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="558960640"/>
+        <c:axId val="592432512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9461,7 +9557,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558946560"/>
+        <c:crossAx val="592430592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9652,7 +9748,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9811,6 +9907,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>124117068.87533399</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>123871776.79126592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9825,8 +9924,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="560252416"/>
-        <c:axId val="560250880"/>
+        <c:axId val="593945728"/>
+        <c:axId val="593763328"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9851,7 +9950,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10010,6 +10109,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10019,7 +10121,7 @@
               <c:f>'模型四 (3)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10178,6 +10280,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>1.0729999542236328</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0399999618530273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10194,11 +10299,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="560238592"/>
-        <c:axId val="560240896"/>
+        <c:axId val="593754368"/>
+        <c:axId val="593761024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="560238592"/>
+        <c:axId val="593754368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10241,14 +10346,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560240896"/>
+        <c:crossAx val="593761024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="560240896"/>
+        <c:axId val="593761024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10299,12 +10404,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560238592"/>
+        <c:crossAx val="593754368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="560250880"/>
+        <c:axId val="593763328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10341,12 +10446,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560252416"/>
+        <c:crossAx val="593945728"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="560252416"/>
+        <c:axId val="593945728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10355,7 +10460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="560250880"/>
+        <c:crossAx val="593763328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10534,7 +10639,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10693,6 +10798,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10702,7 +10810,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10860,6 +10968,9 @@
                   <c:v>83580996.335620016</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>83580996.335620016</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>83580996.335620016</c:v>
                 </c:pt>
               </c:numCache>
@@ -10903,7 +11014,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11062,6 +11173,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11071,7 +11185,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11230,6 +11344,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>140770859.72312701</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>136510246.47001591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11272,7 +11389,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11431,6 +11548,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11440,7 +11560,7 @@
               <c:f>'模型四 (3)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11599,6 +11719,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>57189863.387506992</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>52929250.134395897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11620,11 +11743,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="560931200"/>
-        <c:axId val="560933120"/>
+        <c:axId val="473421696"/>
+        <c:axId val="473423232"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="560931200"/>
+        <c:axId val="473421696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11667,14 +11790,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560933120"/>
+        <c:crossAx val="473423232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="560933120"/>
+        <c:axId val="473423232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11725,7 +11848,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560931200"/>
+        <c:crossAx val="473421696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12439,7 +12562,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG55"/>
+  <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12576,28 +12699,28 @@
       </c>
       <c r="M3" s="9"/>
       <c r="P3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="R3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="S3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -14820,6 +14943,44 @@
       </c>
       <c r="L55" s="14">
         <v>455245.68818209373</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="12.75">
+      <c r="A56" s="12">
+        <v>45989</v>
+      </c>
+      <c r="B56" s="13">
+        <v>1.0399999618530273</v>
+      </c>
+      <c r="C56" s="13">
+        <v>29.780000690000001</v>
+      </c>
+      <c r="D56" s="14">
+        <v>25.767886790921306</v>
+      </c>
+      <c r="E56" s="14">
+        <v>-63583.378859762786</v>
+      </c>
+      <c r="F56" s="15">
+        <v>-61137.866530757026</v>
+      </c>
+      <c r="G56" s="15">
+        <v>12884051.279901702</v>
+      </c>
+      <c r="H56" s="15">
+        <v>13399412.839610219</v>
+      </c>
+      <c r="I56" s="15">
+        <v>9361334.8177274242</v>
+      </c>
+      <c r="J56" s="15">
+        <v>13918241.906652076</v>
+      </c>
+      <c r="K56" s="15">
+        <v>4556907.088924652</v>
+      </c>
+      <c r="L56" s="14">
+        <v>518829.06704185653</v>
       </c>
     </row>
   </sheetData>
@@ -14838,7 +14999,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM55"/>
+  <dimension ref="A1:AM56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14879,10 +15040,10 @@
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>9</v>
@@ -14915,10 +15076,10 @@
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>4</v>
@@ -14939,7 +15100,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.1" customHeight="1">
@@ -15019,28 +15180,28 @@
       <c r="R3" s="23"/>
       <c r="S3" s="9"/>
       <c r="V3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="16" t="s">
+      <c r="X3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="16" t="s">
+      <c r="Y3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="16" t="s">
+      <c r="Z3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="Z3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="AA3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="AB3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="AC3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="AE3" s="24">
         <v>44561</v>
@@ -18483,6 +18644,71 @@
         <v>194.49714569921676</v>
       </c>
       <c r="U55" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" ht="12.75">
+      <c r="A56" s="12">
+        <v>45989</v>
+      </c>
+      <c r="B56" s="13">
+        <v>1.0399999618530273</v>
+      </c>
+      <c r="C56" s="13">
+        <v>29.780000690000001</v>
+      </c>
+      <c r="D56" s="14">
+        <v>25.767886790921306</v>
+      </c>
+      <c r="E56" s="14">
+        <v>-76300.054631715335</v>
+      </c>
+      <c r="F56" s="15">
+        <v>-73365.439836908423</v>
+      </c>
+      <c r="G56" s="15">
+        <v>13789149.388941053</v>
+      </c>
+      <c r="H56" s="15">
+        <v>14340714.838484392</v>
+      </c>
+      <c r="I56" s="15">
+        <v>10007773.539522871</v>
+      </c>
+      <c r="J56" s="15">
+        <v>14963307.508744044</v>
+      </c>
+      <c r="K56" s="15">
+        <v>4955533.9692211729</v>
+      </c>
+      <c r="L56" s="14">
+        <v>622592.67025965184</v>
+      </c>
+      <c r="M56" s="23">
+        <v>1.093000054359436</v>
+      </c>
+      <c r="N56" s="23">
+        <v>1</v>
+      </c>
+      <c r="O56" s="23">
+        <v>1.0443333387374878</v>
+      </c>
+      <c r="P56" s="23">
+        <v>0.8647380982126508</v>
+      </c>
+      <c r="Q56" s="23">
+        <v>0.179595240524837</v>
+      </c>
+      <c r="R56" s="23">
+        <v>9.3149655530241862E-2</v>
+      </c>
+      <c r="S56" s="9">
+        <v>1.3972448329536279E-3</v>
+      </c>
+      <c r="T56" s="9">
+        <v>128.53526904457513</v>
+      </c>
+      <c r="U56" s="11">
         <v>1.2</v>
       </c>
     </row>
@@ -18502,7 +18728,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG55"/>
+  <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18543,10 +18769,10 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>9</v>
@@ -18582,7 +18808,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -18649,28 +18875,28 @@
         <v>1</v>
       </c>
       <c r="P3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="R3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="S3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -21189,6 +21415,50 @@
         <v>57.419730839413582</v>
       </c>
       <c r="N55" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="12.75">
+      <c r="A56" s="12">
+        <v>45989</v>
+      </c>
+      <c r="B56" s="13">
+        <v>1.0399999618530273</v>
+      </c>
+      <c r="C56" s="13">
+        <v>29.780000690000001</v>
+      </c>
+      <c r="D56" s="14">
+        <v>25.767886790921306</v>
+      </c>
+      <c r="E56" s="14">
+        <v>-63583.378859762786</v>
+      </c>
+      <c r="F56" s="15">
+        <v>-61137.866530757026</v>
+      </c>
+      <c r="G56" s="15">
+        <v>13718784.399138454</v>
+      </c>
+      <c r="H56" s="15">
+        <v>14267535.251773899</v>
+      </c>
+      <c r="I56" s="15">
+        <v>9962785.3792499099</v>
+      </c>
+      <c r="J56" s="15">
+        <v>14844133.861885205</v>
+      </c>
+      <c r="K56" s="15">
+        <v>4881348.482635295</v>
+      </c>
+      <c r="L56" s="14">
+        <v>576598.61011130561</v>
+      </c>
+      <c r="M56" s="9">
+        <v>-25.623704638394841</v>
+      </c>
+      <c r="N56" s="9">
         <v>1</v>
       </c>
     </row>
@@ -21208,7 +21478,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG55"/>
+  <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21252,10 +21522,10 @@
         <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>10</v>
@@ -21288,7 +21558,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -21355,28 +21625,28 @@
         <v>1</v>
       </c>
       <c r="P3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="R3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="S3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -23895,6 +24165,50 @@
         <v>57.419730839413582</v>
       </c>
       <c r="N55" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="12.75">
+      <c r="A56" s="12">
+        <v>45989</v>
+      </c>
+      <c r="B56" s="13">
+        <v>1.0399999618530273</v>
+      </c>
+      <c r="C56" s="13">
+        <v>29.780000690000001</v>
+      </c>
+      <c r="D56" s="14">
+        <v>25.767886790921306</v>
+      </c>
+      <c r="E56" s="14">
+        <v>-255103.75807364078</v>
+      </c>
+      <c r="F56" s="15">
+        <v>-245292.08406806848</v>
+      </c>
+      <c r="G56" s="15">
+        <v>123871776.79126592</v>
+      </c>
+      <c r="H56" s="15">
+        <v>128826643.13758327</v>
+      </c>
+      <c r="I56" s="15">
+        <v>87439952.662602708</v>
+      </c>
+      <c r="J56" s="15">
+        <v>132401493.54502271</v>
+      </c>
+      <c r="K56" s="15">
+        <v>44961540.882420003</v>
+      </c>
+      <c r="L56" s="14">
+        <v>3574850.407439434</v>
+      </c>
+      <c r="M56" s="9">
+        <v>-25.623704638394841</v>
+      </c>
+      <c r="N56" s="9">
         <v>1</v>
       </c>
     </row>
@@ -23914,7 +24228,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI55"/>
+  <dimension ref="A1:AI56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23955,10 +24269,10 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>9</v>
@@ -23967,10 +24281,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -24000,7 +24314,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.1" customHeight="1">
@@ -24075,28 +24389,28 @@
         <v>1</v>
       </c>
       <c r="R3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="U3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="V3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="V3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="W3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="X3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="Y3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="AA3" s="24">
         <v>44561</v>
@@ -26927,6 +27241,56 @@
         <v>57.419730839413582</v>
       </c>
       <c r="P55" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="12.75">
+      <c r="A56" s="12">
+        <v>45989</v>
+      </c>
+      <c r="B56" s="13">
+        <v>1.0399999618530273</v>
+      </c>
+      <c r="C56" s="13">
+        <v>29.780000690000001</v>
+      </c>
+      <c r="D56" s="14">
+        <v>25.767886790921306</v>
+      </c>
+      <c r="E56" s="14">
+        <v>1227301</v>
+      </c>
+      <c r="F56" s="14">
+        <v>4256467.9943261174</v>
+      </c>
+      <c r="G56" s="14">
+        <v>-73556.079313855051</v>
+      </c>
+      <c r="H56" s="15">
+        <v>-70727.001934496206</v>
+      </c>
+      <c r="I56" s="15">
+        <v>129038795.36590123</v>
+      </c>
+      <c r="J56" s="15">
+        <v>134200342.25809789</v>
+      </c>
+      <c r="K56" s="15">
+        <v>83580996.335620016</v>
+      </c>
+      <c r="L56" s="15">
+        <v>136510246.47001591</v>
+      </c>
+      <c r="M56" s="15">
+        <v>52929250.134395897</v>
+      </c>
+      <c r="N56" s="14">
+        <v>2309904.2119180225</v>
+      </c>
+      <c r="O56" s="9">
+        <v>-25.623704638394841</v>
+      </c>
+      <c r="P56" s="9">
         <v>1</v>
       </c>
     </row>
